--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{595B243C-B8B1-C14E-A91D-63C5A9E14284}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E9385DF5-400D-9341-AA69-EC7C7E4068A7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="797">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2450,6 +2450,13 @@
   </si>
   <si>
     <t>edited OOSTT uer-centered definition</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/e7dda61f7028e9aedb2f4c2301ce6dd49b84826b</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/c4680a6758697b81899c9e027a11dc71289ff182
+https://github.com/OOSTT/OOSTT/commit/c2e1072cb6ed6b1cfe2ef1ea44b58f2c5a41e657</t>
   </si>
 </sst>
 </file>
@@ -8830,8 +8837,8 @@
   <dimension ref="A1:IW1418"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H56" sqref="H56:H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10061,7 +10068,7 @@
       <c r="I55" s="36"/>
       <c r="J55" s="36"/>
     </row>
-    <row r="56" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" ht="39" x14ac:dyDescent="0.15">
       <c r="A56" s="19">
         <v>9</v>
       </c>
@@ -10079,12 +10086,14 @@
       <c r="F56" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="G56" s="47" t="s">
+      <c r="G56" s="62" t="s">
         <v>794</v>
       </c>
-      <c r="H56" s="47"/>
+      <c r="H56" s="60"/>
       <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
+      <c r="J56" s="62" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="57" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="19">
@@ -10103,7 +10112,7 @@
       <c r="E57" s="45"/>
       <c r="F57" s="46"/>
       <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
+      <c r="H57" s="60"/>
       <c r="I57" s="47"/>
       <c r="J57" s="47"/>
     </row>
@@ -10124,11 +10133,11 @@
       <c r="E58" s="45"/>
       <c r="F58" s="46"/>
       <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
+      <c r="H58" s="60"/>
       <c r="I58" s="47"/>
       <c r="J58" s="47"/>
     </row>
-    <row r="59" spans="1:10" ht="65" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="78" x14ac:dyDescent="0.15">
       <c r="A59" s="19">
         <v>9</v>
       </c>
@@ -10149,11 +10158,13 @@
       <c r="G59" s="62" t="s">
         <v>794</v>
       </c>
-      <c r="H59" s="47"/>
+      <c r="H59" s="60"/>
       <c r="I59" s="62" t="s">
         <v>793</v>
       </c>
-      <c r="J59" s="47"/>
+      <c r="J59" s="62" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="60" spans="1:10" ht="65" x14ac:dyDescent="0.15">
       <c r="A60" s="19">
@@ -10176,9 +10187,11 @@
       <c r="G60" s="62" t="s">
         <v>792</v>
       </c>
-      <c r="H60" s="47"/>
+      <c r="H60" s="60"/>
       <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
+      <c r="J60" s="62" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="61" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="19">
@@ -10197,7 +10210,7 @@
       <c r="E61" s="45"/>
       <c r="F61" s="46"/>
       <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
+      <c r="H61" s="60"/>
       <c r="I61" s="47"/>
       <c r="J61" s="47"/>
     </row>
@@ -10218,7 +10231,7 @@
       <c r="E62" s="45"/>
       <c r="F62" s="46"/>
       <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
+      <c r="H62" s="60"/>
       <c r="I62" s="47"/>
       <c r="J62" s="47"/>
     </row>
@@ -10237,7 +10250,7 @@
       <c r="E63" s="45"/>
       <c r="F63" s="46"/>
       <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
+      <c r="H63" s="60"/>
       <c r="I63" s="47"/>
       <c r="J63" s="47"/>
     </row>
@@ -10258,7 +10271,7 @@
       <c r="E64" s="45"/>
       <c r="F64" s="46"/>
       <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
+      <c r="H64" s="60"/>
       <c r="I64" s="47"/>
       <c r="J64" s="47"/>
     </row>

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E9385DF5-400D-9341-AA69-EC7C7E4068A7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{275D5893-BEC1-7B42-A08B-346A41936019}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="801">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2457,6 +2457,18 @@
   <si>
     <t>https://github.com/OOSTT/OOSTT/commit/c4680a6758697b81899c9e027a11dc71289ff182
 https://github.com/OOSTT/OOSTT/commit/c2e1072cb6ed6b1cfe2ef1ea44b58f2c5a41e657</t>
+  </si>
+  <si>
+    <t>Our conversation with our domain experts made it clear that in some regions clinics are designated as Level V trauma center.</t>
+  </si>
+  <si>
+    <t>We used this definition.</t>
+  </si>
+  <si>
+    <t>Our conversation with our domain experts made it clear that in some regions clinics are designated as Level V trauma center. The issue with the guielines was taken care off by the new definition.</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/a1cbd2c288fff1b87e2a1f9390f72edae7874de9</t>
   </si>
 </sst>
 </file>
@@ -8836,9 +8848,9 @@
   </sheetPr>
   <dimension ref="A1:IW1418"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H56" sqref="H56:H64"/>
+      <selection pane="bottomLeft" activeCell="J67" sqref="J67:J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10292,7 +10304,7 @@
       <c r="E65" s="56"/>
       <c r="F65" s="37"/>
       <c r="G65" s="36"/>
-      <c r="H65" s="36"/>
+      <c r="H65" s="60"/>
       <c r="I65" s="36"/>
       <c r="J65" s="36"/>
     </row>
@@ -10313,7 +10325,7 @@
       <c r="E66" s="56"/>
       <c r="F66" s="37"/>
       <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
+      <c r="H66" s="60"/>
       <c r="I66" s="36"/>
       <c r="J66" s="36"/>
     </row>
@@ -10335,12 +10347,18 @@
         <v>178</v>
       </c>
       <c r="F67" s="37"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-    </row>
-    <row r="68" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="G67" s="36" t="s">
+        <v>798</v>
+      </c>
+      <c r="H67" s="60"/>
+      <c r="I67" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="J67" s="38" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="65" x14ac:dyDescent="0.15">
       <c r="A68" s="19">
         <v>10</v>
       </c>
@@ -10358,10 +10376,14 @@
       <c r="F68" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
+      <c r="G68" s="38" t="s">
+        <v>797</v>
+      </c>
+      <c r="H68" s="60"/>
       <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
+      <c r="J68" s="38" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="69" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="19">
@@ -10380,9 +10402,9 @@
       <c r="E69" s="56"/>
       <c r="F69" s="37"/>
       <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
+      <c r="H69" s="60"/>
       <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
+      <c r="J69" s="38"/>
     </row>
     <row r="70" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="19">
@@ -10401,9 +10423,9 @@
       <c r="E70" s="56"/>
       <c r="F70" s="37"/>
       <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
+      <c r="H70" s="60"/>
       <c r="I70" s="36"/>
-      <c r="J70" s="36"/>
+      <c r="J70" s="38"/>
     </row>
     <row r="71" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="19">
@@ -10422,11 +10444,11 @@
       <c r="E71" s="56"/>
       <c r="F71" s="37"/>
       <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
+      <c r="H71" s="60"/>
       <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-    </row>
-    <row r="72" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+      <c r="J71" s="38"/>
+    </row>
+    <row r="72" spans="1:10" ht="91" x14ac:dyDescent="0.15">
       <c r="A72" s="19">
         <v>10</v>
       </c>
@@ -10444,10 +10466,14 @@
       <c r="F72" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
+      <c r="G72" s="38" t="s">
+        <v>799</v>
+      </c>
+      <c r="H72" s="60"/>
       <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
+      <c r="J72" s="38" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="73" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="19">
@@ -10466,7 +10492,7 @@
       <c r="E73" s="56"/>
       <c r="F73" s="37"/>
       <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
+      <c r="H73" s="60"/>
       <c r="I73" s="36"/>
       <c r="J73" s="36"/>
     </row>
@@ -10487,7 +10513,7 @@
       <c r="E74" s="56"/>
       <c r="F74" s="37"/>
       <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
+      <c r="H74" s="60"/>
       <c r="I74" s="36"/>
       <c r="J74" s="36"/>
     </row>

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{275D5893-BEC1-7B42-A08B-346A41936019}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{53810F97-DE96-F344-BE7D-4AD663B4B1FA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="803">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2469,6 +2469,12 @@
   </si>
   <si>
     <t>https://github.com/OOSTT/OOSTT/commit/a1cbd2c288fff1b87e2a1f9390f72edae7874de9</t>
+  </si>
+  <si>
+    <t>This seems to be a rather specific problem limited to one state. However, we added an alternative term "emergency medical services"</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/e9c3f191a3817acbe2ac9c16b82789b5553170c0</t>
   </si>
 </sst>
 </file>
@@ -8848,9 +8854,9 @@
   </sheetPr>
   <dimension ref="A1:IW1418"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J67" sqref="J67:J72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10642,10 +10648,14 @@
       <c r="F80" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="G80" s="47"/>
+      <c r="G80" s="62" t="s">
+        <v>801</v>
+      </c>
       <c r="H80" s="47"/>
       <c r="I80" s="47"/>
-      <c r="J80" s="47"/>
+      <c r="J80" s="62" t="s">
+        <v>802</v>
+      </c>
     </row>
     <row r="81" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="19">

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{53810F97-DE96-F344-BE7D-4AD663B4B1FA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EE7F35D8-5089-594C-8878-9FBE462E1372}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="806">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2475,6 +2475,15 @@
   </si>
   <si>
     <t>https://github.com/OOSTT/OOSTT/commit/e9c3f191a3817acbe2ac9c16b82789b5553170c0</t>
+  </si>
+  <si>
+    <t>OOSTT aims to be agnostic under which jursidiction and by whose criteria trauma center reverification is done. Hence we will not change that. We are open to consider adding a subclass "ACS trauma center reverification".</t>
+  </si>
+  <si>
+    <t>Change made as proposed</t>
+  </si>
+  <si>
+    <t>We took out the parenthesis to clarify that the definition is open to non-ACS reverifcation</t>
   </si>
 </sst>
 </file>
@@ -8854,9 +8863,9 @@
   </sheetPr>
   <dimension ref="A1:IW1418"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J80" sqref="J80"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10540,7 +10549,7 @@
       <c r="E75" s="45"/>
       <c r="F75" s="46"/>
       <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
+      <c r="H75" s="60"/>
       <c r="I75" s="47"/>
       <c r="J75" s="47"/>
     </row>
@@ -10561,7 +10570,7 @@
       <c r="E76" s="45"/>
       <c r="F76" s="46"/>
       <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
+      <c r="H76" s="60"/>
       <c r="I76" s="47"/>
       <c r="J76" s="47"/>
     </row>
@@ -10582,7 +10591,7 @@
       <c r="E77" s="45"/>
       <c r="F77" s="46"/>
       <c r="G77" s="47"/>
-      <c r="H77" s="47"/>
+      <c r="H77" s="60"/>
       <c r="I77" s="47"/>
       <c r="J77" s="47"/>
     </row>
@@ -10603,7 +10612,7 @@
       <c r="E78" s="45"/>
       <c r="F78" s="46"/>
       <c r="G78" s="47"/>
-      <c r="H78" s="47"/>
+      <c r="H78" s="60"/>
       <c r="I78" s="47"/>
       <c r="J78" s="47"/>
     </row>
@@ -10624,7 +10633,7 @@
       <c r="E79" s="45"/>
       <c r="F79" s="46"/>
       <c r="G79" s="47"/>
-      <c r="H79" s="47"/>
+      <c r="H79" s="60"/>
       <c r="I79" s="47"/>
       <c r="J79" s="47"/>
     </row>
@@ -10651,7 +10660,7 @@
       <c r="G80" s="62" t="s">
         <v>801</v>
       </c>
-      <c r="H80" s="47"/>
+      <c r="H80" s="60"/>
       <c r="I80" s="47"/>
       <c r="J80" s="62" t="s">
         <v>802</v>
@@ -10674,7 +10683,7 @@
       <c r="E81" s="45"/>
       <c r="F81" s="46"/>
       <c r="G81" s="47"/>
-      <c r="H81" s="47"/>
+      <c r="H81" s="60"/>
       <c r="I81" s="47"/>
       <c r="J81" s="47"/>
     </row>
@@ -10695,7 +10704,7 @@
       <c r="E82" s="45"/>
       <c r="F82" s="46"/>
       <c r="G82" s="47"/>
-      <c r="H82" s="47"/>
+      <c r="H82" s="60"/>
       <c r="I82" s="47"/>
       <c r="J82" s="47"/>
     </row>
@@ -10716,7 +10725,7 @@
       <c r="E83" s="45"/>
       <c r="F83" s="46"/>
       <c r="G83" s="47"/>
-      <c r="H83" s="47"/>
+      <c r="H83" s="60"/>
       <c r="I83" s="47"/>
       <c r="J83" s="47"/>
     </row>
@@ -10737,7 +10746,7 @@
       <c r="E84" s="56"/>
       <c r="F84" s="37"/>
       <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
+      <c r="H84" s="60"/>
       <c r="I84" s="36"/>
       <c r="J84" s="36"/>
     </row>
@@ -10758,7 +10767,7 @@
       <c r="E85" s="56"/>
       <c r="F85" s="37"/>
       <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
+      <c r="H85" s="60"/>
       <c r="I85" s="36"/>
       <c r="J85" s="36"/>
     </row>
@@ -10777,7 +10786,7 @@
       <c r="E86" s="56"/>
       <c r="F86" s="37"/>
       <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
+      <c r="H86" s="60"/>
       <c r="I86" s="36"/>
       <c r="J86" s="36"/>
     </row>
@@ -10798,7 +10807,7 @@
       <c r="E87" s="56"/>
       <c r="F87" s="37"/>
       <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
+      <c r="H87" s="60"/>
       <c r="I87" s="36"/>
       <c r="J87" s="36"/>
     </row>
@@ -10819,7 +10828,7 @@
       <c r="E88" s="56"/>
       <c r="F88" s="37"/>
       <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
+      <c r="H88" s="60"/>
       <c r="I88" s="36"/>
       <c r="J88" s="36"/>
     </row>
@@ -10840,7 +10849,7 @@
       <c r="E89" s="56"/>
       <c r="F89" s="37"/>
       <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
+      <c r="H89" s="60"/>
       <c r="I89" s="36"/>
       <c r="J89" s="36"/>
     </row>
@@ -10861,7 +10870,7 @@
       <c r="E90" s="56"/>
       <c r="F90" s="37"/>
       <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
+      <c r="H90" s="60"/>
       <c r="I90" s="36"/>
       <c r="J90" s="36"/>
     </row>
@@ -10882,7 +10891,7 @@
       <c r="E91" s="56"/>
       <c r="F91" s="37"/>
       <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
+      <c r="H91" s="60"/>
       <c r="I91" s="36"/>
       <c r="J91" s="36"/>
     </row>
@@ -10903,7 +10912,7 @@
       <c r="E92" s="56"/>
       <c r="F92" s="37"/>
       <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
+      <c r="H92" s="60"/>
       <c r="I92" s="36"/>
       <c r="J92" s="36"/>
     </row>
@@ -10949,7 +10958,7 @@
       <c r="I94" s="47"/>
       <c r="J94" s="47"/>
     </row>
-    <row r="95" spans="1:10" ht="65" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" ht="104" x14ac:dyDescent="0.15">
       <c r="A95" s="19">
         <v>13</v>
       </c>
@@ -10967,7 +10976,9 @@
         <v>183</v>
       </c>
       <c r="F95" s="46"/>
-      <c r="G95" s="47"/>
+      <c r="G95" s="62" t="s">
+        <v>803</v>
+      </c>
       <c r="H95" s="47"/>
       <c r="I95" s="47"/>
       <c r="J95" s="47"/>
@@ -11053,7 +11064,9 @@
       <c r="F99" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="G99" s="47"/>
+      <c r="G99" s="47" t="s">
+        <v>804</v>
+      </c>
       <c r="H99" s="47"/>
       <c r="I99" s="47"/>
       <c r="J99" s="47"/>
@@ -11076,12 +11089,14 @@
         <v>185</v>
       </c>
       <c r="F100" s="46"/>
-      <c r="G100" s="47"/>
+      <c r="G100" s="47" t="s">
+        <v>804</v>
+      </c>
       <c r="H100" s="47"/>
       <c r="I100" s="47"/>
       <c r="J100" s="47"/>
     </row>
-    <row r="101" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10" ht="39" x14ac:dyDescent="0.15">
       <c r="A101" s="19">
         <v>13</v>
       </c>
@@ -11099,7 +11114,9 @@
       <c r="F101" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="G101" s="47"/>
+      <c r="G101" s="62" t="s">
+        <v>805</v>
+      </c>
       <c r="H101" s="47"/>
       <c r="I101" s="47"/>
       <c r="J101" s="47"/>

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EE7F35D8-5089-594C-8878-9FBE462E1372}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{78CF7CBC-6CC7-FB44-87F0-7B2BCF08F951}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="808">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2484,6 +2484,12 @@
   </si>
   <si>
     <t>We took out the parenthesis to clarify that the definition is open to non-ACS reverifcation</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/c2220a9641cf0049edcd87f2fb0db338352c1159</t>
+  </si>
+  <si>
+    <t>A process  to determine whether a verified trauma center continues to meet the verification standards of the American College of Surgeons or a similar process in a particular trauma system or jurisdiction within a specified time period.</t>
   </si>
 </sst>
 </file>
@@ -8863,9 +8869,9 @@
   </sheetPr>
   <dimension ref="A1:IW1418"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10933,7 +10939,7 @@
       <c r="E93" s="45"/>
       <c r="F93" s="46"/>
       <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
+      <c r="H93" s="60"/>
       <c r="I93" s="47"/>
       <c r="J93" s="47"/>
     </row>
@@ -10954,7 +10960,7 @@
       <c r="E94" s="45"/>
       <c r="F94" s="46"/>
       <c r="G94" s="47"/>
-      <c r="H94" s="47"/>
+      <c r="H94" s="60"/>
       <c r="I94" s="47"/>
       <c r="J94" s="47"/>
     </row>
@@ -10979,7 +10985,7 @@
       <c r="G95" s="62" t="s">
         <v>803</v>
       </c>
-      <c r="H95" s="47"/>
+      <c r="H95" s="60"/>
       <c r="I95" s="47"/>
       <c r="J95" s="47"/>
     </row>
@@ -11000,7 +11006,7 @@
       <c r="E96" s="45"/>
       <c r="F96" s="46"/>
       <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
+      <c r="H96" s="60"/>
       <c r="I96" s="47"/>
       <c r="J96" s="47"/>
     </row>
@@ -11021,7 +11027,7 @@
       <c r="E97" s="45"/>
       <c r="F97" s="46"/>
       <c r="G97" s="47"/>
-      <c r="H97" s="47"/>
+      <c r="H97" s="60"/>
       <c r="I97" s="47"/>
       <c r="J97" s="47"/>
     </row>
@@ -11042,7 +11048,7 @@
       <c r="E98" s="45"/>
       <c r="F98" s="46"/>
       <c r="G98" s="47"/>
-      <c r="H98" s="47"/>
+      <c r="H98" s="60"/>
       <c r="I98" s="47"/>
       <c r="J98" s="47"/>
     </row>
@@ -11067,11 +11073,13 @@
       <c r="G99" s="47" t="s">
         <v>804</v>
       </c>
-      <c r="H99" s="47"/>
-      <c r="I99" s="47"/>
-      <c r="J99" s="47"/>
-    </row>
-    <row r="100" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="H99" s="60"/>
+      <c r="I99" s="62"/>
+      <c r="J99" s="62" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="39" x14ac:dyDescent="0.15">
       <c r="A100" s="19">
         <v>13</v>
       </c>
@@ -11092,11 +11100,13 @@
       <c r="G100" s="47" t="s">
         <v>804</v>
       </c>
-      <c r="H100" s="47"/>
-      <c r="I100" s="47"/>
-      <c r="J100" s="47"/>
-    </row>
-    <row r="101" spans="1:10" ht="39" x14ac:dyDescent="0.15">
+      <c r="H100" s="60"/>
+      <c r="I100" s="62"/>
+      <c r="J100" s="62" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="65" x14ac:dyDescent="0.15">
       <c r="A101" s="19">
         <v>13</v>
       </c>
@@ -11117,9 +11127,13 @@
       <c r="G101" s="62" t="s">
         <v>805</v>
       </c>
-      <c r="H101" s="47"/>
-      <c r="I101" s="47"/>
-      <c r="J101" s="47"/>
+      <c r="H101" s="60"/>
+      <c r="I101" s="62" t="s">
+        <v>807</v>
+      </c>
+      <c r="J101" s="62" t="s">
+        <v>806</v>
+      </c>
     </row>
     <row r="102" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="19">
@@ -11138,7 +11152,7 @@
       <c r="E102" s="45"/>
       <c r="F102" s="46"/>
       <c r="G102" s="47"/>
-      <c r="H102" s="47"/>
+      <c r="H102" s="60"/>
       <c r="I102" s="47"/>
       <c r="J102" s="47"/>
     </row>

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{78CF7CBC-6CC7-FB44-87F0-7B2BCF08F951}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AF14936A-FEBD-FC44-861F-F5B0B862FE8D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="812">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2490,6 +2490,19 @@
   </si>
   <si>
     <t>A process  to determine whether a verified trauma center continues to meet the verification standards of the American College of Surgeons or a similar process in a particular trauma system or jurisdiction within a specified time period.</t>
+  </si>
+  <si>
+    <t>added aternative term and CAFÉ application label</t>
+  </si>
+  <si>
+    <t>We do not fully understand this comment. Hence no action was taken.</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/0f5d75884ddadd62193736faedacedfc2111c463</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/2ce41519b9b284758de2b5903821c61d28451687
+https://github.com/OOSTT/OOSTT/commit/9ae880f66b9db0e452a0f7e2ec4bf759bac54c28</t>
   </si>
 </sst>
 </file>
@@ -8870,8 +8883,8 @@
   <dimension ref="A1:IW1418"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I101" sqref="I101"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11173,7 +11186,7 @@
       <c r="E103" s="56"/>
       <c r="F103" s="37"/>
       <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
+      <c r="H103" s="60"/>
       <c r="I103" s="36"/>
       <c r="J103" s="36"/>
     </row>
@@ -11194,7 +11207,7 @@
       <c r="E104" s="56"/>
       <c r="F104" s="37"/>
       <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
+      <c r="H104" s="60"/>
       <c r="I104" s="36"/>
       <c r="J104" s="36"/>
     </row>
@@ -11215,7 +11228,7 @@
       <c r="E105" s="56"/>
       <c r="F105" s="37"/>
       <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
+      <c r="H105" s="60"/>
       <c r="I105" s="36"/>
       <c r="J105" s="36"/>
     </row>
@@ -11236,7 +11249,7 @@
       <c r="E106" s="56"/>
       <c r="F106" s="37"/>
       <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
+      <c r="H106" s="60"/>
       <c r="I106" s="36"/>
       <c r="J106" s="36"/>
     </row>
@@ -11258,12 +11271,16 @@
       <c r="F107" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
+      <c r="G107" s="36" t="s">
+        <v>804</v>
+      </c>
+      <c r="H107" s="60"/>
       <c r="I107" s="36"/>
-      <c r="J107" s="36"/>
-    </row>
-    <row r="108" spans="1:10" ht="26" x14ac:dyDescent="0.15">
+      <c r="J107" s="36" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="78" x14ac:dyDescent="0.15">
       <c r="A108" s="19">
         <v>14</v>
       </c>
@@ -11281,12 +11298,16 @@
         <v>188</v>
       </c>
       <c r="F108" s="37"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="36"/>
+      <c r="G108" s="38" t="s">
+        <v>808</v>
+      </c>
+      <c r="H108" s="60"/>
       <c r="I108" s="36"/>
-      <c r="J108" s="36"/>
-    </row>
-    <row r="109" spans="1:10" ht="39" x14ac:dyDescent="0.15">
+      <c r="J108" s="38" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="78" x14ac:dyDescent="0.15">
       <c r="A109" s="19">
         <v>14</v>
       </c>
@@ -11304,10 +11325,14 @@
         <v>189</v>
       </c>
       <c r="F109" s="37"/>
-      <c r="G109" s="36"/>
-      <c r="H109" s="36"/>
+      <c r="G109" s="38" t="s">
+        <v>808</v>
+      </c>
+      <c r="H109" s="60"/>
       <c r="I109" s="36"/>
-      <c r="J109" s="36"/>
+      <c r="J109" s="38" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="110" spans="1:10" ht="78" x14ac:dyDescent="0.15">
       <c r="A110" s="19">
@@ -11327,8 +11352,10 @@
       <c r="F110" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
+      <c r="G110" s="38" t="s">
+        <v>809</v>
+      </c>
+      <c r="H110" s="60"/>
       <c r="I110" s="36"/>
       <c r="J110" s="36"/>
     </row>
@@ -11349,7 +11376,7 @@
       <c r="E111" s="56"/>
       <c r="F111" s="37"/>
       <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
+      <c r="H111" s="60"/>
       <c r="I111" s="36"/>
       <c r="J111" s="36"/>
     </row>
@@ -11370,7 +11397,7 @@
       <c r="E112" s="45"/>
       <c r="F112" s="46"/>
       <c r="G112" s="47"/>
-      <c r="H112" s="47"/>
+      <c r="H112" s="60"/>
       <c r="I112" s="47"/>
       <c r="J112" s="47"/>
     </row>
@@ -11391,7 +11418,7 @@
       <c r="E113" s="45"/>
       <c r="F113" s="46"/>
       <c r="G113" s="47"/>
-      <c r="H113" s="47"/>
+      <c r="H113" s="60"/>
       <c r="I113" s="47"/>
       <c r="J113" s="47"/>
     </row>
@@ -11412,7 +11439,7 @@
       <c r="E114" s="45"/>
       <c r="F114" s="46"/>
       <c r="G114" s="47"/>
-      <c r="H114" s="47"/>
+      <c r="H114" s="60"/>
       <c r="I114" s="47"/>
       <c r="J114" s="47"/>
     </row>
@@ -11433,7 +11460,7 @@
       <c r="E115" s="45"/>
       <c r="F115" s="46"/>
       <c r="G115" s="47"/>
-      <c r="H115" s="47"/>
+      <c r="H115" s="60"/>
       <c r="I115" s="47"/>
       <c r="J115" s="47"/>
     </row>
@@ -11454,7 +11481,7 @@
       <c r="E116" s="45"/>
       <c r="F116" s="46"/>
       <c r="G116" s="47"/>
-      <c r="H116" s="47"/>
+      <c r="H116" s="60"/>
       <c r="I116" s="47"/>
       <c r="J116" s="47"/>
     </row>
@@ -11475,7 +11502,7 @@
       <c r="E117" s="45"/>
       <c r="F117" s="46"/>
       <c r="G117" s="47"/>
-      <c r="H117" s="47"/>
+      <c r="H117" s="60"/>
       <c r="I117" s="47"/>
       <c r="J117" s="47"/>
     </row>
@@ -11496,7 +11523,7 @@
       <c r="E118" s="45"/>
       <c r="F118" s="46"/>
       <c r="G118" s="47"/>
-      <c r="H118" s="47"/>
+      <c r="H118" s="60"/>
       <c r="I118" s="47"/>
       <c r="J118" s="47"/>
     </row>
@@ -11517,7 +11544,7 @@
       <c r="E119" s="45"/>
       <c r="F119" s="46"/>
       <c r="G119" s="47"/>
-      <c r="H119" s="47"/>
+      <c r="H119" s="60"/>
       <c r="I119" s="47"/>
       <c r="J119" s="47"/>
     </row>
@@ -11538,7 +11565,7 @@
       <c r="E120" s="45"/>
       <c r="F120" s="46"/>
       <c r="G120" s="47"/>
-      <c r="H120" s="47"/>
+      <c r="H120" s="60"/>
       <c r="I120" s="47"/>
       <c r="J120" s="47"/>
     </row>

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AF14936A-FEBD-FC44-861F-F5B0B862FE8D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{73C316DE-2688-7644-9AFD-A02BCA3AE3C3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="813">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2503,6 +2503,9 @@
   <si>
     <t>https://github.com/OOSTT/OOSTT/commit/2ce41519b9b284758de2b5903821c61d28451687
 https://github.com/OOSTT/OOSTT/commit/9ae880f66b9db0e452a0f7e2ec4bf759bac54c28</t>
+  </si>
+  <si>
+    <t>Since this is the only comment that indicates that this is a problem and we are following the phrazing of the ACS' "Resources for optimal trauma care"</t>
   </si>
 </sst>
 </file>
@@ -8882,9 +8885,9 @@
   </sheetPr>
   <dimension ref="A1:IW1418"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H121" sqref="H121:H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11586,7 +11589,7 @@
       <c r="E121" s="56"/>
       <c r="F121" s="37"/>
       <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
+      <c r="H121" s="60"/>
       <c r="I121" s="36"/>
       <c r="J121" s="36"/>
     </row>
@@ -11607,7 +11610,7 @@
       <c r="E122" s="56"/>
       <c r="F122" s="37"/>
       <c r="G122" s="36"/>
-      <c r="H122" s="36"/>
+      <c r="H122" s="60"/>
       <c r="I122" s="36"/>
       <c r="J122" s="36"/>
     </row>
@@ -11626,7 +11629,7 @@
       <c r="E123" s="56"/>
       <c r="F123" s="37"/>
       <c r="G123" s="36"/>
-      <c r="H123" s="36"/>
+      <c r="H123" s="60"/>
       <c r="I123" s="36"/>
       <c r="J123" s="36"/>
     </row>
@@ -11647,7 +11650,7 @@
       <c r="E124" s="56"/>
       <c r="F124" s="37"/>
       <c r="G124" s="36"/>
-      <c r="H124" s="36"/>
+      <c r="H124" s="60"/>
       <c r="I124" s="36"/>
       <c r="J124" s="36"/>
     </row>
@@ -11668,7 +11671,7 @@
       <c r="E125" s="56"/>
       <c r="F125" s="37"/>
       <c r="G125" s="36"/>
-      <c r="H125" s="36"/>
+      <c r="H125" s="60"/>
       <c r="I125" s="36"/>
       <c r="J125" s="36"/>
     </row>
@@ -11689,7 +11692,7 @@
       <c r="E126" s="56"/>
       <c r="F126" s="37"/>
       <c r="G126" s="36"/>
-      <c r="H126" s="36"/>
+      <c r="H126" s="60"/>
       <c r="I126" s="36"/>
       <c r="J126" s="36"/>
     </row>
@@ -11710,7 +11713,7 @@
       <c r="E127" s="56"/>
       <c r="F127" s="37"/>
       <c r="G127" s="36"/>
-      <c r="H127" s="36"/>
+      <c r="H127" s="60"/>
       <c r="I127" s="36"/>
       <c r="J127" s="36"/>
     </row>
@@ -11731,9 +11734,11 @@
       <c r="E128" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="F128" s="37"/>
+      <c r="F128" s="37" t="s">
+        <v>812</v>
+      </c>
       <c r="G128" s="36"/>
-      <c r="H128" s="36"/>
+      <c r="H128" s="60"/>
       <c r="I128" s="36"/>
       <c r="J128" s="36"/>
     </row>
@@ -11754,7 +11759,7 @@
       <c r="E129" s="56"/>
       <c r="F129" s="37"/>
       <c r="G129" s="36"/>
-      <c r="H129" s="36"/>
+      <c r="H129" s="60"/>
       <c r="I129" s="36"/>
       <c r="J129" s="36"/>
     </row>

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED20E875-25AE-3643-A273-045BA58F1FB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004F45B6-0AEE-A54E-AC85-098215266892}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="816">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2512,6 +2512,9 @@
   </si>
   <si>
     <t>https://github.com/OOSTT/OOSTT/commit/977cd2ab7d9cbf50b74e74f7c46e7044bf9f6064 https://github.com/OOSTT/OOSTT/commit/a0dfe1a7e655bbdc1e1108766577e983b361fe5f https://github.com/OOSTT/OOSTT/commit/6b7bdceda63a4b599efcd2e97f4014377cdc0f17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To stay consistent with the genus differentia form, we will implement this suggestion. </t>
   </si>
 </sst>
 </file>
@@ -8892,8 +8895,8 @@
   <dimension ref="A1:IW1418"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J145" sqref="J145"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H158" sqref="H158:H167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11976,8 +11979,8 @@
       </c>
       <c r="E139" s="56"/>
       <c r="F139" s="37"/>
-      <c r="G139" s="60"/>
-      <c r="H139" s="36"/>
+      <c r="G139" s="36"/>
+      <c r="H139" s="60"/>
       <c r="I139" s="36"/>
       <c r="J139" s="36"/>
     </row>
@@ -11997,8 +12000,8 @@
       </c>
       <c r="E140" s="56"/>
       <c r="F140" s="37"/>
-      <c r="G140" s="60"/>
-      <c r="H140" s="36"/>
+      <c r="G140" s="36"/>
+      <c r="H140" s="60"/>
       <c r="I140" s="36"/>
       <c r="J140" s="36"/>
     </row>
@@ -12020,8 +12023,8 @@
       <c r="F141" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="G141" s="60"/>
-      <c r="H141" s="36"/>
+      <c r="G141" s="36"/>
+      <c r="H141" s="60"/>
       <c r="I141" s="36"/>
       <c r="J141" s="36"/>
     </row>
@@ -12041,8 +12044,8 @@
       </c>
       <c r="E142" s="56"/>
       <c r="F142" s="37"/>
-      <c r="G142" s="60"/>
-      <c r="H142" s="36"/>
+      <c r="G142" s="36"/>
+      <c r="H142" s="60"/>
       <c r="I142" s="36"/>
       <c r="J142" s="36"/>
     </row>
@@ -12062,8 +12065,8 @@
       </c>
       <c r="E143" s="56"/>
       <c r="F143" s="37"/>
-      <c r="G143" s="60"/>
-      <c r="H143" s="36"/>
+      <c r="G143" s="36"/>
+      <c r="H143" s="60"/>
       <c r="I143" s="36"/>
       <c r="J143" s="36"/>
     </row>
@@ -12083,8 +12086,8 @@
       </c>
       <c r="E144" s="56"/>
       <c r="F144" s="37"/>
-      <c r="G144" s="60"/>
-      <c r="H144" s="36"/>
+      <c r="G144" s="36"/>
+      <c r="H144" s="60"/>
       <c r="I144" s="36"/>
       <c r="J144" s="36"/>
     </row>
@@ -12108,8 +12111,8 @@
       <c r="F145" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="G145" s="60"/>
-      <c r="H145" s="36"/>
+      <c r="G145" s="36"/>
+      <c r="H145" s="60"/>
       <c r="I145" s="38" t="s">
         <v>813</v>
       </c>
@@ -12133,8 +12136,8 @@
       </c>
       <c r="E146" s="56"/>
       <c r="F146" s="37"/>
-      <c r="G146" s="60"/>
-      <c r="H146" s="36"/>
+      <c r="G146" s="36"/>
+      <c r="H146" s="60"/>
       <c r="I146" s="36"/>
       <c r="J146" s="36"/>
     </row>
@@ -12152,8 +12155,8 @@
       <c r="D147" s="58"/>
       <c r="E147" s="56"/>
       <c r="F147" s="37"/>
-      <c r="G147" s="60"/>
-      <c r="H147" s="36"/>
+      <c r="G147" s="36"/>
+      <c r="H147" s="60"/>
       <c r="I147" s="36"/>
       <c r="J147" s="36"/>
     </row>
@@ -12173,8 +12176,8 @@
       </c>
       <c r="E148" s="45"/>
       <c r="F148" s="46"/>
-      <c r="G148" s="47"/>
-      <c r="H148" s="47"/>
+      <c r="G148" s="36"/>
+      <c r="H148" s="60"/>
       <c r="I148" s="47"/>
       <c r="J148" s="47"/>
     </row>
@@ -12194,8 +12197,8 @@
       </c>
       <c r="E149" s="45"/>
       <c r="F149" s="46"/>
-      <c r="G149" s="47"/>
-      <c r="H149" s="47"/>
+      <c r="G149" s="36"/>
+      <c r="H149" s="60"/>
       <c r="I149" s="47"/>
       <c r="J149" s="47"/>
     </row>
@@ -12215,8 +12218,8 @@
       </c>
       <c r="E150" s="45"/>
       <c r="F150" s="46"/>
-      <c r="G150" s="47"/>
-      <c r="H150" s="47"/>
+      <c r="G150" s="36"/>
+      <c r="H150" s="60"/>
       <c r="I150" s="47"/>
       <c r="J150" s="47"/>
     </row>
@@ -12236,8 +12239,8 @@
       </c>
       <c r="E151" s="45"/>
       <c r="F151" s="46"/>
-      <c r="G151" s="47"/>
-      <c r="H151" s="47"/>
+      <c r="G151" s="36"/>
+      <c r="H151" s="60"/>
       <c r="I151" s="47"/>
       <c r="J151" s="47"/>
     </row>
@@ -12257,8 +12260,8 @@
       </c>
       <c r="E152" s="45"/>
       <c r="F152" s="46"/>
-      <c r="G152" s="47"/>
-      <c r="H152" s="47"/>
+      <c r="G152" s="36"/>
+      <c r="H152" s="60"/>
       <c r="I152" s="47"/>
       <c r="J152" s="47"/>
     </row>
@@ -12278,8 +12281,8 @@
       </c>
       <c r="E153" s="45"/>
       <c r="F153" s="46"/>
-      <c r="G153" s="47"/>
-      <c r="H153" s="47"/>
+      <c r="G153" s="36"/>
+      <c r="H153" s="60"/>
       <c r="I153" s="47"/>
       <c r="J153" s="47"/>
     </row>
@@ -12299,8 +12302,8 @@
       </c>
       <c r="E154" s="45"/>
       <c r="F154" s="46"/>
-      <c r="G154" s="47"/>
-      <c r="H154" s="47"/>
+      <c r="G154" s="36"/>
+      <c r="H154" s="60"/>
       <c r="I154" s="47"/>
       <c r="J154" s="47"/>
     </row>
@@ -12320,8 +12323,8 @@
       </c>
       <c r="E155" s="45"/>
       <c r="F155" s="46"/>
-      <c r="G155" s="47"/>
-      <c r="H155" s="47"/>
+      <c r="G155" s="36"/>
+      <c r="H155" s="60"/>
       <c r="I155" s="47"/>
       <c r="J155" s="47"/>
     </row>
@@ -12341,8 +12344,8 @@
       </c>
       <c r="E156" s="45"/>
       <c r="F156" s="46"/>
-      <c r="G156" s="47"/>
-      <c r="H156" s="47"/>
+      <c r="G156" s="36"/>
+      <c r="H156" s="60"/>
       <c r="I156" s="47"/>
       <c r="J156" s="47"/>
     </row>
@@ -12362,8 +12365,8 @@
       </c>
       <c r="E157" s="45"/>
       <c r="F157" s="46"/>
-      <c r="G157" s="47"/>
-      <c r="H157" s="47"/>
+      <c r="G157" s="36"/>
+      <c r="H157" s="60"/>
       <c r="I157" s="47"/>
       <c r="J157" s="47"/>
     </row>
@@ -12384,7 +12387,7 @@
       <c r="E158" s="56"/>
       <c r="F158" s="37"/>
       <c r="G158" s="36"/>
-      <c r="H158" s="36"/>
+      <c r="H158" s="60"/>
       <c r="I158" s="36"/>
       <c r="J158" s="36"/>
     </row>
@@ -12405,7 +12408,7 @@
       <c r="E159" s="56"/>
       <c r="F159" s="37"/>
       <c r="G159" s="36"/>
-      <c r="H159" s="36"/>
+      <c r="H159" s="60"/>
       <c r="I159" s="36"/>
       <c r="J159" s="36"/>
     </row>
@@ -12426,11 +12429,11 @@
       <c r="E160" s="56"/>
       <c r="F160" s="37"/>
       <c r="G160" s="36"/>
-      <c r="H160" s="36"/>
+      <c r="H160" s="60"/>
       <c r="I160" s="36"/>
       <c r="J160" s="36"/>
     </row>
-    <row r="161" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A161" s="19">
         <v>23</v>
       </c>
@@ -12448,8 +12451,10 @@
         <v>197</v>
       </c>
       <c r="F161" s="37"/>
-      <c r="G161" s="36"/>
-      <c r="H161" s="36"/>
+      <c r="G161" s="38" t="s">
+        <v>815</v>
+      </c>
+      <c r="H161" s="60"/>
       <c r="I161" s="36"/>
       <c r="J161" s="36"/>
     </row>
@@ -12470,7 +12475,7 @@
       <c r="E162" s="56"/>
       <c r="F162" s="37"/>
       <c r="G162" s="36"/>
-      <c r="H162" s="36"/>
+      <c r="H162" s="60"/>
       <c r="I162" s="36"/>
       <c r="J162" s="36"/>
     </row>
@@ -12491,7 +12496,7 @@
       <c r="E163" s="56"/>
       <c r="F163" s="37"/>
       <c r="G163" s="36"/>
-      <c r="H163" s="36"/>
+      <c r="H163" s="60"/>
       <c r="I163" s="36"/>
       <c r="J163" s="36"/>
     </row>
@@ -12512,7 +12517,7 @@
       <c r="E164" s="56"/>
       <c r="F164" s="37"/>
       <c r="G164" s="36"/>
-      <c r="H164" s="36"/>
+      <c r="H164" s="60"/>
       <c r="I164" s="36"/>
       <c r="J164" s="36"/>
     </row>
@@ -12533,7 +12538,7 @@
       <c r="E165" s="56"/>
       <c r="F165" s="37"/>
       <c r="G165" s="36"/>
-      <c r="H165" s="36"/>
+      <c r="H165" s="60"/>
       <c r="I165" s="36"/>
       <c r="J165" s="36"/>
     </row>
@@ -12554,7 +12559,7 @@
       <c r="E166" s="56"/>
       <c r="F166" s="37"/>
       <c r="G166" s="36"/>
-      <c r="H166" s="36"/>
+      <c r="H166" s="60"/>
       <c r="I166" s="36"/>
       <c r="J166" s="36"/>
     </row>
@@ -12575,7 +12580,7 @@
       <c r="E167" s="56"/>
       <c r="F167" s="37"/>
       <c r="G167" s="36"/>
-      <c r="H167" s="36"/>
+      <c r="H167" s="60"/>
       <c r="I167" s="36"/>
       <c r="J167" s="36"/>
     </row>

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004F45B6-0AEE-A54E-AC85-098215266892}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C9DC10-AE84-4A46-91DD-BB7DE7711D43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="818">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2515,6 +2515,12 @@
   </si>
   <si>
     <t xml:space="preserve">To stay consistent with the genus differentia form, we will implement this suggestion. </t>
+  </si>
+  <si>
+    <t>The representation is deliberately general.</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/1bc5f76f7af1b00befb84696496a6673c33a0b76</t>
   </si>
 </sst>
 </file>
@@ -8895,8 +8901,8 @@
   <dimension ref="A1:IW1418"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H158" sqref="H158:H167"/>
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H177" sqref="H177:H185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12790,7 +12796,7 @@
       <c r="E177" s="56"/>
       <c r="F177" s="37"/>
       <c r="G177" s="36"/>
-      <c r="H177" s="36"/>
+      <c r="H177" s="60"/>
       <c r="I177" s="36"/>
       <c r="J177" s="36"/>
     </row>
@@ -12811,7 +12817,7 @@
       <c r="E178" s="56"/>
       <c r="F178" s="37"/>
       <c r="G178" s="36"/>
-      <c r="H178" s="36"/>
+      <c r="H178" s="60"/>
       <c r="I178" s="36"/>
       <c r="J178" s="36"/>
     </row>
@@ -12832,7 +12838,7 @@
         <v>199</v>
       </c>
       <c r="G179" s="36"/>
-      <c r="H179" s="36"/>
+      <c r="H179" s="60"/>
       <c r="I179" s="36"/>
       <c r="J179" s="36"/>
     </row>
@@ -12853,7 +12859,7 @@
       <c r="E180" s="56"/>
       <c r="F180" s="37"/>
       <c r="G180" s="36"/>
-      <c r="H180" s="36"/>
+      <c r="H180" s="60"/>
       <c r="I180" s="36"/>
       <c r="J180" s="36"/>
     </row>
@@ -12874,11 +12880,11 @@
       <c r="E181" s="56"/>
       <c r="F181" s="37"/>
       <c r="G181" s="36"/>
-      <c r="H181" s="36"/>
+      <c r="H181" s="60"/>
       <c r="I181" s="36"/>
       <c r="J181" s="36"/>
     </row>
-    <row r="182" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A182" s="19">
         <v>28</v>
       </c>
@@ -12896,10 +12902,14 @@
         <v>200</v>
       </c>
       <c r="F182" s="37"/>
-      <c r="G182" s="36"/>
-      <c r="H182" s="36"/>
+      <c r="G182" s="38" t="s">
+        <v>816</v>
+      </c>
+      <c r="H182" s="60"/>
       <c r="I182" s="36"/>
-      <c r="J182" s="36"/>
+      <c r="J182" s="38" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="183" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A183" s="19">
@@ -12918,7 +12928,7 @@
       <c r="E183" s="56"/>
       <c r="F183" s="37"/>
       <c r="G183" s="36"/>
-      <c r="H183" s="36"/>
+      <c r="H183" s="60"/>
       <c r="I183" s="36"/>
       <c r="J183" s="36"/>
     </row>
@@ -12939,7 +12949,7 @@
       <c r="E184" s="56"/>
       <c r="F184" s="37"/>
       <c r="G184" s="36"/>
-      <c r="H184" s="36"/>
+      <c r="H184" s="60"/>
       <c r="I184" s="36"/>
       <c r="J184" s="36"/>
     </row>
@@ -12958,7 +12968,7 @@
       <c r="E185" s="56"/>
       <c r="F185" s="37"/>
       <c r="G185" s="36"/>
-      <c r="H185" s="36"/>
+      <c r="H185" s="60"/>
       <c r="I185" s="36"/>
       <c r="J185" s="36"/>
     </row>

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C9DC10-AE84-4A46-91DD-BB7DE7711D43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C1B802-043A-364C-B6F4-E8636CF81D4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="823">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2521,6 +2521,21 @@
   </si>
   <si>
     <t>https://github.com/OOSTT/OOSTT/commit/1bc5f76f7af1b00befb84696496a6673c33a0b76</t>
+  </si>
+  <si>
+    <t>since the term stems from another ontology no change was implemented</t>
+  </si>
+  <si>
+    <t>(OOSTT user-centered definition_: The scheduled time at which the members of the trauma peer review committee meet to evaluate and provide feedback to individual care providers regarding provided trauma care.</t>
+  </si>
+  <si>
+    <t>this has already been addressed in a previous review.</t>
+  </si>
+  <si>
+    <t>This Is not always the case for these committees and the definition doesn't exclude that option.</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/cea7e5fee2e3daa7af951aa3b52735c9214a34a3</t>
   </si>
 </sst>
 </file>
@@ -8900,9 +8915,9 @@
   </sheetPr>
   <dimension ref="A1:IW1418"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H177" sqref="H177:H185"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J198" sqref="J198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12987,11 +13002,11 @@
       <c r="E186" s="45"/>
       <c r="F186" s="46"/>
       <c r="G186" s="47"/>
-      <c r="H186" s="47"/>
+      <c r="H186" s="60"/>
       <c r="I186" s="47"/>
       <c r="J186" s="47"/>
     </row>
-    <row r="187" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A187" s="19">
         <v>31</v>
       </c>
@@ -13007,8 +13022,10 @@
       <c r="F187" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="G187" s="47"/>
-      <c r="H187" s="47"/>
+      <c r="G187" s="62" t="s">
+        <v>818</v>
+      </c>
+      <c r="H187" s="60"/>
       <c r="I187" s="47"/>
       <c r="J187" s="47"/>
     </row>
@@ -13029,7 +13046,7 @@
       <c r="E188" s="45"/>
       <c r="F188" s="46"/>
       <c r="G188" s="47"/>
-      <c r="H188" s="47"/>
+      <c r="H188" s="60"/>
       <c r="I188" s="47"/>
       <c r="J188" s="47"/>
     </row>
@@ -13050,7 +13067,7 @@
       <c r="E189" s="45"/>
       <c r="F189" s="46"/>
       <c r="G189" s="47"/>
-      <c r="H189" s="47"/>
+      <c r="H189" s="60"/>
       <c r="I189" s="47"/>
       <c r="J189" s="47"/>
     </row>
@@ -13071,7 +13088,7 @@
       <c r="E190" s="45"/>
       <c r="F190" s="46"/>
       <c r="G190" s="47"/>
-      <c r="H190" s="47"/>
+      <c r="H190" s="60"/>
       <c r="I190" s="47"/>
       <c r="J190" s="47"/>
     </row>
@@ -13092,7 +13109,7 @@
       <c r="E191" s="45"/>
       <c r="F191" s="46"/>
       <c r="G191" s="47"/>
-      <c r="H191" s="47"/>
+      <c r="H191" s="60"/>
       <c r="I191" s="47"/>
       <c r="J191" s="47"/>
     </row>
@@ -13113,7 +13130,7 @@
       <c r="E192" s="45"/>
       <c r="F192" s="46"/>
       <c r="G192" s="47"/>
-      <c r="H192" s="47"/>
+      <c r="H192" s="60"/>
       <c r="I192" s="47"/>
       <c r="J192" s="47"/>
     </row>
@@ -13137,8 +13154,10 @@
       <c r="F193" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="G193" s="47"/>
-      <c r="H193" s="47"/>
+      <c r="G193" s="62" t="s">
+        <v>818</v>
+      </c>
+      <c r="H193" s="60"/>
       <c r="I193" s="47"/>
       <c r="J193" s="47"/>
     </row>
@@ -13159,7 +13178,7 @@
       <c r="E194" s="45"/>
       <c r="F194" s="46"/>
       <c r="G194" s="47"/>
-      <c r="H194" s="47"/>
+      <c r="H194" s="60"/>
       <c r="I194" s="47"/>
       <c r="J194" s="47"/>
     </row>
@@ -13226,7 +13245,7 @@
       <c r="I197" s="36"/>
       <c r="J197" s="36"/>
     </row>
-    <row r="198" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:10" ht="70" x14ac:dyDescent="0.15">
       <c r="A198" s="19">
         <v>33</v>
       </c>
@@ -13246,10 +13265,14 @@
       <c r="F198" s="37"/>
       <c r="G198" s="36"/>
       <c r="H198" s="36"/>
-      <c r="I198" s="36"/>
-      <c r="J198" s="36"/>
-    </row>
-    <row r="199" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="I198" s="38" t="s">
+        <v>819</v>
+      </c>
+      <c r="J198" s="38" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A199" s="19">
         <v>33</v>
       </c>
@@ -13267,7 +13290,9 @@
       <c r="F199" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="G199" s="36"/>
+      <c r="G199" s="38" t="s">
+        <v>820</v>
+      </c>
       <c r="H199" s="36"/>
       <c r="I199" s="36"/>
       <c r="J199" s="36"/>
@@ -13332,7 +13357,9 @@
       <c r="F202" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="G202" s="36"/>
+      <c r="G202" s="38" t="s">
+        <v>821</v>
+      </c>
       <c r="H202" s="36"/>
       <c r="I202" s="36"/>
       <c r="J202" s="36"/>

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C1B802-043A-364C-B6F4-E8636CF81D4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412D4818-D0AA-4242-903C-7EF921CA1855}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="828">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2536,6 +2536,21 @@
   </si>
   <si>
     <t>https://github.com/OOSTT/OOSTT/commit/cea7e5fee2e3daa7af951aa3b52735c9214a34a3</t>
+  </si>
+  <si>
+    <t>This class doesn't aim to represent the role but the job description. Clarifying that based on other feedback.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://github.com/OOSTT/OOSTT/commit/0df73cced40558a79175f1888ce831413b78f00b https://github.com/OOSTT/OOSTT/commit/388dfc6e6be31769d3e716e18606e440d08b47f7</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/a16bc62bdea4cff5c558b6ab38a3b69b64007440</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/8aa1886e96cf13a3e30d87641900c0c701e15aab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position description that is custom tailored to a particular medical facility and the role expected for trauma surgeon at that location. </t>
   </si>
 </sst>
 </file>
@@ -2841,7 +2856,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3031,6 +3046,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8915,9 +8933,9 @@
   </sheetPr>
   <dimension ref="A1:IW1418"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J198" sqref="J198"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H204" sqref="H204:H209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13199,7 +13217,7 @@
       <c r="E195" s="56"/>
       <c r="F195" s="37"/>
       <c r="G195" s="36"/>
-      <c r="H195" s="36"/>
+      <c r="H195" s="60"/>
       <c r="I195" s="36"/>
       <c r="J195" s="36"/>
     </row>
@@ -13220,7 +13238,7 @@
       <c r="E196" s="56"/>
       <c r="F196" s="37"/>
       <c r="G196" s="36"/>
-      <c r="H196" s="36"/>
+      <c r="H196" s="60"/>
       <c r="I196" s="36"/>
       <c r="J196" s="36"/>
     </row>
@@ -13241,7 +13259,7 @@
       <c r="E197" s="56"/>
       <c r="F197" s="37"/>
       <c r="G197" s="36"/>
-      <c r="H197" s="36"/>
+      <c r="H197" s="60"/>
       <c r="I197" s="36"/>
       <c r="J197" s="36"/>
     </row>
@@ -13264,7 +13282,7 @@
       </c>
       <c r="F198" s="37"/>
       <c r="G198" s="36"/>
-      <c r="H198" s="36"/>
+      <c r="H198" s="60"/>
       <c r="I198" s="38" t="s">
         <v>819</v>
       </c>
@@ -13293,7 +13311,7 @@
       <c r="G199" s="38" t="s">
         <v>820</v>
       </c>
-      <c r="H199" s="36"/>
+      <c r="H199" s="60"/>
       <c r="I199" s="36"/>
       <c r="J199" s="36"/>
     </row>
@@ -13314,7 +13332,7 @@
       <c r="E200" s="56"/>
       <c r="F200" s="37"/>
       <c r="G200" s="36"/>
-      <c r="H200" s="36"/>
+      <c r="H200" s="60"/>
       <c r="I200" s="36"/>
       <c r="J200" s="36"/>
     </row>
@@ -13337,7 +13355,7 @@
       </c>
       <c r="F201" s="37"/>
       <c r="G201" s="36"/>
-      <c r="H201" s="36"/>
+      <c r="H201" s="60"/>
       <c r="I201" s="36"/>
       <c r="J201" s="36"/>
     </row>
@@ -13360,7 +13378,7 @@
       <c r="G202" s="38" t="s">
         <v>821</v>
       </c>
-      <c r="H202" s="36"/>
+      <c r="H202" s="60"/>
       <c r="I202" s="36"/>
       <c r="J202" s="36"/>
     </row>
@@ -13379,7 +13397,7 @@
       <c r="E203" s="56"/>
       <c r="F203" s="37"/>
       <c r="G203" s="36"/>
-      <c r="H203" s="36"/>
+      <c r="H203" s="60"/>
       <c r="I203" s="36"/>
       <c r="J203" s="36"/>
     </row>
@@ -13398,7 +13416,7 @@
       <c r="E204" s="45"/>
       <c r="F204" s="46"/>
       <c r="G204" s="47"/>
-      <c r="H204" s="47"/>
+      <c r="H204" s="60"/>
       <c r="I204" s="47"/>
       <c r="J204" s="47"/>
     </row>
@@ -13419,11 +13437,11 @@
       <c r="E205" s="45"/>
       <c r="F205" s="46"/>
       <c r="G205" s="47"/>
-      <c r="H205" s="47"/>
+      <c r="H205" s="60"/>
       <c r="I205" s="47"/>
       <c r="J205" s="47"/>
     </row>
-    <row r="206" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A206" s="19">
         <v>34</v>
       </c>
@@ -13441,12 +13459,14 @@
       <c r="F206" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="G206" s="47"/>
-      <c r="H206" s="47"/>
+      <c r="G206" s="62" t="s">
+        <v>823</v>
+      </c>
+      <c r="H206" s="60"/>
       <c r="I206" s="47"/>
       <c r="J206" s="47"/>
     </row>
-    <row r="207" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:10" ht="98" x14ac:dyDescent="0.15">
       <c r="A207" s="19">
         <v>34</v>
       </c>
@@ -13465,11 +13485,13 @@
         <v>209</v>
       </c>
       <c r="G207" s="47"/>
-      <c r="H207" s="47"/>
+      <c r="H207" s="60"/>
       <c r="I207" s="47"/>
-      <c r="J207" s="47"/>
-    </row>
-    <row r="208" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="J207" s="62" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A208" s="19">
         <v>34</v>
       </c>
@@ -13486,9 +13508,11 @@
         <v>210</v>
       </c>
       <c r="G208" s="47"/>
-      <c r="H208" s="47"/>
-      <c r="I208" s="47"/>
-      <c r="J208" s="47"/>
+      <c r="H208" s="60"/>
+      <c r="I208" s="66"/>
+      <c r="J208" s="62" t="s">
+        <v>825</v>
+      </c>
     </row>
     <row r="209" spans="1:10" ht="70" x14ac:dyDescent="0.15">
       <c r="A209" s="19">
@@ -13509,9 +13533,13 @@
       </c>
       <c r="F209" s="46"/>
       <c r="G209" s="47"/>
-      <c r="H209" s="47"/>
-      <c r="I209" s="47"/>
-      <c r="J209" s="47"/>
+      <c r="H209" s="60"/>
+      <c r="I209" s="62" t="s">
+        <v>827</v>
+      </c>
+      <c r="J209" s="62" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="210" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A210" s="19">

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412D4818-D0AA-4242-903C-7EF921CA1855}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28FF556-E5C9-FD4E-86B4-497BBEABF0F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28FF556-E5C9-FD4E-86B4-497BBEABF0F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA126DC-5824-9044-A098-7A9169EECC88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="832">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2551,6 +2551,18 @@
   </si>
   <si>
     <t xml:space="preserve">Position description that is custom tailored to a particular medical facility and the role expected for trauma surgeon at that location. </t>
+  </si>
+  <si>
+    <t>We added a comment to clarify the situation.</t>
+  </si>
+  <si>
+    <t>We look into this and consider providing subclasses in a future release.</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/09e8a08960d51665296346b278fd48485736b0b1</t>
+  </si>
+  <si>
+    <t>Based on the input of our expert team "protocls" aren't universally binding. Hence we will leave the definition and the term unalatered.</t>
   </si>
 </sst>
 </file>
@@ -3038,6 +3050,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3046,9 +3061,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5749,11 +5761,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
     </row>
     <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -5852,10 +5864,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="65"/>
+      <c r="B1" s="66"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
@@ -5907,13 +5919,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
@@ -8934,8 +8946,8 @@
   <dimension ref="A1:IW1418"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H204" sqref="H204:H209"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H168" sqref="H168:H176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11828,7 +11840,7 @@
       <c r="E130" s="45"/>
       <c r="F130" s="46"/>
       <c r="G130" s="47"/>
-      <c r="H130" s="47"/>
+      <c r="H130" s="60"/>
       <c r="I130" s="47"/>
       <c r="J130" s="47"/>
     </row>
@@ -11849,7 +11861,7 @@
       <c r="E131" s="45"/>
       <c r="F131" s="46"/>
       <c r="G131" s="47"/>
-      <c r="H131" s="47"/>
+      <c r="H131" s="60"/>
       <c r="I131" s="47"/>
       <c r="J131" s="47"/>
     </row>
@@ -11870,11 +11882,11 @@
       <c r="E132" s="45"/>
       <c r="F132" s="46"/>
       <c r="G132" s="47"/>
-      <c r="H132" s="47"/>
+      <c r="H132" s="60"/>
       <c r="I132" s="47"/>
       <c r="J132" s="47"/>
     </row>
-    <row r="133" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A133" s="19">
         <v>18</v>
       </c>
@@ -11892,8 +11904,10 @@
       <c r="F133" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="G133" s="47"/>
-      <c r="H133" s="47"/>
+      <c r="G133" s="62" t="s">
+        <v>829</v>
+      </c>
+      <c r="H133" s="60"/>
       <c r="I133" s="47"/>
       <c r="J133" s="47"/>
     </row>
@@ -11914,7 +11928,7 @@
       <c r="E134" s="45"/>
       <c r="F134" s="46"/>
       <c r="G134" s="47"/>
-      <c r="H134" s="47"/>
+      <c r="H134" s="60"/>
       <c r="I134" s="47"/>
       <c r="J134" s="47"/>
     </row>
@@ -11935,7 +11949,7 @@
       <c r="E135" s="45"/>
       <c r="F135" s="46"/>
       <c r="G135" s="47"/>
-      <c r="H135" s="47"/>
+      <c r="H135" s="60"/>
       <c r="I135" s="47"/>
       <c r="J135" s="47"/>
     </row>
@@ -11956,11 +11970,11 @@
       <c r="E136" s="45"/>
       <c r="F136" s="46"/>
       <c r="G136" s="47"/>
-      <c r="H136" s="47"/>
+      <c r="H136" s="60"/>
       <c r="I136" s="47"/>
       <c r="J136" s="47"/>
     </row>
-    <row r="137" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A137" s="19">
         <v>18</v>
       </c>
@@ -11976,10 +11990,14 @@
       <c r="F137" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="G137" s="47"/>
-      <c r="H137" s="47"/>
+      <c r="G137" s="62" t="s">
+        <v>828</v>
+      </c>
+      <c r="H137" s="60"/>
       <c r="I137" s="47"/>
-      <c r="J137" s="47"/>
+      <c r="J137" s="62" t="s">
+        <v>830</v>
+      </c>
     </row>
     <row r="138" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A138" s="19">
@@ -11998,7 +12016,7 @@
       <c r="E138" s="45"/>
       <c r="F138" s="46"/>
       <c r="G138" s="47"/>
-      <c r="H138" s="47"/>
+      <c r="H138" s="60"/>
       <c r="I138" s="47"/>
       <c r="J138" s="47"/>
     </row>
@@ -12640,7 +12658,7 @@
       <c r="E168" s="45"/>
       <c r="F168" s="46"/>
       <c r="G168" s="47"/>
-      <c r="H168" s="47"/>
+      <c r="H168" s="60"/>
       <c r="I168" s="47"/>
       <c r="J168" s="47"/>
     </row>
@@ -12661,7 +12679,7 @@
       <c r="E169" s="45"/>
       <c r="F169" s="46"/>
       <c r="G169" s="47"/>
-      <c r="H169" s="47"/>
+      <c r="H169" s="60"/>
       <c r="I169" s="47"/>
       <c r="J169" s="47"/>
     </row>
@@ -12682,7 +12700,7 @@
       <c r="E170" s="45"/>
       <c r="F170" s="46"/>
       <c r="G170" s="47"/>
-      <c r="H170" s="47"/>
+      <c r="H170" s="60"/>
       <c r="I170" s="47"/>
       <c r="J170" s="47"/>
     </row>
@@ -12703,7 +12721,7 @@
       <c r="E171" s="45"/>
       <c r="F171" s="46"/>
       <c r="G171" s="47"/>
-      <c r="H171" s="47"/>
+      <c r="H171" s="60"/>
       <c r="I171" s="47"/>
       <c r="J171" s="47"/>
     </row>
@@ -12724,7 +12742,7 @@
       <c r="E172" s="45"/>
       <c r="F172" s="46"/>
       <c r="G172" s="47"/>
-      <c r="H172" s="47"/>
+      <c r="H172" s="60"/>
       <c r="I172" s="47"/>
       <c r="J172" s="47"/>
     </row>
@@ -12745,7 +12763,7 @@
       <c r="E173" s="45"/>
       <c r="F173" s="46"/>
       <c r="G173" s="47"/>
-      <c r="H173" s="47"/>
+      <c r="H173" s="60"/>
       <c r="I173" s="47"/>
       <c r="J173" s="47"/>
     </row>
@@ -12766,7 +12784,7 @@
       <c r="E174" s="45"/>
       <c r="F174" s="46"/>
       <c r="G174" s="47"/>
-      <c r="H174" s="47"/>
+      <c r="H174" s="60"/>
       <c r="I174" s="47"/>
       <c r="J174" s="47"/>
     </row>
@@ -12788,8 +12806,10 @@
         <v>198</v>
       </c>
       <c r="F175" s="46"/>
-      <c r="G175" s="47"/>
-      <c r="H175" s="47"/>
+      <c r="G175" s="62" t="s">
+        <v>831</v>
+      </c>
+      <c r="H175" s="60"/>
       <c r="I175" s="47"/>
       <c r="J175" s="47"/>
     </row>
@@ -12810,7 +12830,7 @@
       <c r="E176" s="45"/>
       <c r="F176" s="46"/>
       <c r="G176" s="47"/>
-      <c r="H176" s="47"/>
+      <c r="H176" s="60"/>
       <c r="I176" s="47"/>
       <c r="J176" s="47"/>
     </row>
@@ -13509,7 +13529,7 @@
       </c>
       <c r="G208" s="47"/>
       <c r="H208" s="60"/>
-      <c r="I208" s="66"/>
+      <c r="I208" s="63"/>
       <c r="J208" s="62" t="s">
         <v>825</v>
       </c>
@@ -37602,12 +37622,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA126DC-5824-9044-A098-7A9169EECC88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B23264-3073-E940-974C-48577E725B0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="835">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2563,6 +2563,15 @@
   </si>
   <si>
     <t>Based on the input of our expert team "protocls" aren't universally binding. Hence we will leave the definition and the term unalatered.</t>
+  </si>
+  <si>
+    <t>OOSTT user-centered definition: A professional organization focusing its mission on the improvement of trauma care within the region.</t>
+  </si>
+  <si>
+    <t>addressed as suggested.</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/fba971795d296c2b2cb8bb6b3043e9d2334a9bfe</t>
   </si>
 </sst>
 </file>
@@ -8945,9 +8954,9 @@
   </sheetPr>
   <dimension ref="A1:IW1418"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H168" sqref="H168:H176"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J216" sqref="J216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13578,7 +13587,7 @@
       <c r="E210" s="45"/>
       <c r="F210" s="46"/>
       <c r="G210" s="47"/>
-      <c r="H210" s="47"/>
+      <c r="H210" s="60"/>
       <c r="I210" s="47"/>
       <c r="J210" s="47"/>
     </row>
@@ -13599,7 +13608,7 @@
       <c r="E211" s="45"/>
       <c r="F211" s="46"/>
       <c r="G211" s="47"/>
-      <c r="H211" s="47"/>
+      <c r="H211" s="60"/>
       <c r="I211" s="47"/>
       <c r="J211" s="47"/>
     </row>
@@ -13620,7 +13629,7 @@
       <c r="E212" s="45"/>
       <c r="F212" s="46"/>
       <c r="G212" s="47"/>
-      <c r="H212" s="47"/>
+      <c r="H212" s="60"/>
       <c r="I212" s="47"/>
       <c r="J212" s="47"/>
     </row>
@@ -13641,7 +13650,7 @@
       <c r="E213" s="56"/>
       <c r="F213" s="37"/>
       <c r="G213" s="36"/>
-      <c r="H213" s="36"/>
+      <c r="H213" s="60"/>
       <c r="I213" s="36"/>
       <c r="J213" s="36"/>
     </row>
@@ -13662,7 +13671,7 @@
       <c r="E214" s="56"/>
       <c r="F214" s="37"/>
       <c r="G214" s="36"/>
-      <c r="H214" s="36"/>
+      <c r="H214" s="60"/>
       <c r="I214" s="36"/>
       <c r="J214" s="36"/>
     </row>
@@ -13683,11 +13692,11 @@
       <c r="E215" s="56"/>
       <c r="F215" s="37"/>
       <c r="G215" s="36"/>
-      <c r="H215" s="36"/>
+      <c r="H215" s="60"/>
       <c r="I215" s="36"/>
       <c r="J215" s="36"/>
     </row>
-    <row r="216" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A216" s="19">
         <v>36</v>
       </c>
@@ -13705,10 +13714,16 @@
       <c r="F216" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="G216" s="36"/>
-      <c r="H216" s="36"/>
-      <c r="I216" s="36"/>
-      <c r="J216" s="36"/>
+      <c r="G216" s="36" t="s">
+        <v>833</v>
+      </c>
+      <c r="H216" s="60"/>
+      <c r="I216" s="38" t="s">
+        <v>832</v>
+      </c>
+      <c r="J216" s="38" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="217" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A217" s="19">
@@ -13727,7 +13742,7 @@
       <c r="E217" s="56"/>
       <c r="F217" s="37"/>
       <c r="G217" s="36"/>
-      <c r="H217" s="36"/>
+      <c r="H217" s="60"/>
       <c r="I217" s="36"/>
       <c r="J217" s="36"/>
     </row>
@@ -13748,7 +13763,7 @@
       <c r="E218" s="56"/>
       <c r="F218" s="37"/>
       <c r="G218" s="36"/>
-      <c r="H218" s="36"/>
+      <c r="H218" s="60"/>
       <c r="I218" s="36"/>
       <c r="J218" s="36"/>
     </row>
@@ -13769,7 +13784,7 @@
       <c r="E219" s="56"/>
       <c r="F219" s="37"/>
       <c r="G219" s="36"/>
-      <c r="H219" s="36"/>
+      <c r="H219" s="60"/>
       <c r="I219" s="36"/>
       <c r="J219" s="36"/>
     </row>
@@ -13790,7 +13805,7 @@
       <c r="E220" s="56"/>
       <c r="F220" s="37"/>
       <c r="G220" s="36"/>
-      <c r="H220" s="36"/>
+      <c r="H220" s="60"/>
       <c r="I220" s="36"/>
       <c r="J220" s="36"/>
     </row>
@@ -13811,7 +13826,7 @@
       <c r="E221" s="56"/>
       <c r="F221" s="37"/>
       <c r="G221" s="36"/>
-      <c r="H221" s="36"/>
+      <c r="H221" s="60"/>
       <c r="I221" s="36"/>
       <c r="J221" s="36"/>
     </row>

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B23264-3073-E940-974C-48577E725B0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189EEA6B-2A0D-794B-8F11-4C70A833640C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="838">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2572,6 +2572,15 @@
   </si>
   <si>
     <t>https://github.com/OOSTT/OOSTT/commit/fba971795d296c2b2cb8bb6b3043e9d2334a9bfe</t>
+  </si>
+  <si>
+    <t>changed the definition and deleted the OOSTTuser-centered definition. The term itself seems to be hard to simplify, so I left it as it is.</t>
+  </si>
+  <si>
+    <t>definition: The qualification criteria for a physician to become a member of the emergency department that have been approved by the trauma medical director of the institution the department is a part of.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://github.com/OOSTT/OOSTT/commit/2e3178cb88cd6c3911ae8be9f58b9550ec0c43f7 https://github.com/OOSTT/OOSTT/commit/515ad2b70cb11887ec995c3ec8f6d6fdfefe6c06</t>
   </si>
 </sst>
 </file>
@@ -8954,9 +8963,9 @@
   </sheetPr>
   <dimension ref="A1:IW1418"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J216" sqref="J216"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I223" sqref="I223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13847,11 +13856,11 @@
       <c r="E222" s="45"/>
       <c r="F222" s="46"/>
       <c r="G222" s="47"/>
-      <c r="H222" s="47"/>
+      <c r="H222" s="60"/>
       <c r="I222" s="47"/>
       <c r="J222" s="47"/>
     </row>
-    <row r="223" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:10" ht="98" x14ac:dyDescent="0.15">
       <c r="A223" s="19">
         <v>39</v>
       </c>
@@ -13867,10 +13876,16 @@
       <c r="F223" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="G223" s="47"/>
-      <c r="H223" s="47"/>
-      <c r="I223" s="47"/>
-      <c r="J223" s="47"/>
+      <c r="G223" s="62" t="s">
+        <v>835</v>
+      </c>
+      <c r="H223" s="60"/>
+      <c r="I223" s="62" t="s">
+        <v>836</v>
+      </c>
+      <c r="J223" s="62" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="224" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A224" s="19">
@@ -13891,7 +13906,7 @@
         <v>214</v>
       </c>
       <c r="G224" s="47"/>
-      <c r="H224" s="47"/>
+      <c r="H224" s="60"/>
       <c r="I224" s="47"/>
       <c r="J224" s="47"/>
     </row>
@@ -13912,7 +13927,7 @@
       <c r="E225" s="45"/>
       <c r="F225" s="46"/>
       <c r="G225" s="47"/>
-      <c r="H225" s="47"/>
+      <c r="H225" s="60"/>
       <c r="I225" s="47"/>
       <c r="J225" s="47"/>
     </row>
@@ -13933,7 +13948,7 @@
       <c r="E226" s="45"/>
       <c r="F226" s="46"/>
       <c r="G226" s="47"/>
-      <c r="H226" s="47"/>
+      <c r="H226" s="60"/>
       <c r="I226" s="47"/>
       <c r="J226" s="47"/>
     </row>
@@ -13954,7 +13969,7 @@
       <c r="E227" s="45"/>
       <c r="F227" s="46"/>
       <c r="G227" s="47"/>
-      <c r="H227" s="47"/>
+      <c r="H227" s="60"/>
       <c r="I227" s="47"/>
       <c r="J227" s="47"/>
     </row>
@@ -13975,7 +13990,7 @@
       <c r="E228" s="45"/>
       <c r="F228" s="46"/>
       <c r="G228" s="47"/>
-      <c r="H228" s="47"/>
+      <c r="H228" s="60"/>
       <c r="I228" s="47"/>
       <c r="J228" s="47"/>
     </row>
@@ -13996,7 +14011,7 @@
       <c r="E229" s="45"/>
       <c r="F229" s="46"/>
       <c r="G229" s="47"/>
-      <c r="H229" s="47"/>
+      <c r="H229" s="60"/>
       <c r="I229" s="47"/>
       <c r="J229" s="47"/>
     </row>
@@ -14017,7 +14032,7 @@
       <c r="E230" s="45"/>
       <c r="F230" s="46"/>
       <c r="G230" s="47"/>
-      <c r="H230" s="47"/>
+      <c r="H230" s="60"/>
       <c r="I230" s="47"/>
       <c r="J230" s="47"/>
     </row>

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189EEA6B-2A0D-794B-8F11-4C70A833640C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2871449-32B5-8D40-9E8F-93C726BCF727}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="850">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2581,6 +2581,42 @@
   </si>
   <si>
     <t xml:space="preserve"> https://github.com/OOSTT/OOSTT/commit/2e3178cb88cd6c3911ae8be9f58b9550ec0c43f7 https://github.com/OOSTT/OOSTT/commit/515ad2b70cb11887ec995c3ec8f6d6fdfefe6c06</t>
+  </si>
+  <si>
+    <t>We choose a definition that was suggested by participants in this survey to clarify this point.</t>
+  </si>
+  <si>
+    <t>We used the proposed definition.</t>
+  </si>
+  <si>
+    <t>While we didn't use this proposed definition we decided to use another definition that was proposed by a participant of this survey.</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/cef331faf1714487aee821d79c874e0dc538d90b https://github.com/OOSTT/OOSTT/commit/038221e16e179363d70d042c425a17f062716b16</t>
+  </si>
+  <si>
+    <t>Sadly, no specific suggestions for improving the definition was provided.</t>
+  </si>
+  <si>
+    <t>Since this class is meant to be general, we hold that defining the board name is not required. More specifcity may be added to subclasses, if needed</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/b7dfe2d72b484a46134cf0f0d5a95148edf69e40</t>
+  </si>
+  <si>
+    <t>OOSTT user-centered definition: An orthopeadic surgeon who has completed all requisite training requirements and is eligible to take the board certification examination in the country of intended practice.</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Defiinition: An organization of healthcare professionals from multiple disciplines who collectively work together on the assessment and treatment of those who are potentially severely injured. OOSTT user-centered desciption: A multidisciplinary team of healthcare professionals who collectively work together on the initial assessment and treatment of individuals who are potentially severely injured.</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/ce72e2fdc1b25dceda7f3380a2828c8b9da99ddd https://github.com/OOSTT/OOSTT/commit/94a6a0eb3edb818b55543c454e8f606e29a0afbf https://github.com/OOSTT/OOSTT/commit/f3fd73681814fed4e91dd0abe03428765a3994fa</t>
   </si>
 </sst>
 </file>
@@ -2886,7 +2922,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3079,6 +3115,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8964,8 +9018,8 @@
   <dimension ref="A1:IW1418"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I223" sqref="I223"/>
+      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H249" sqref="H249:H257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13880,7 +13934,7 @@
         <v>835</v>
       </c>
       <c r="H223" s="60"/>
-      <c r="I223" s="62" t="s">
+      <c r="I223" s="67" t="s">
         <v>836</v>
       </c>
       <c r="J223" s="62" t="s">
@@ -14053,7 +14107,7 @@
       <c r="E231" s="56"/>
       <c r="F231" s="37"/>
       <c r="G231" s="36"/>
-      <c r="H231" s="36"/>
+      <c r="H231" s="60"/>
       <c r="I231" s="36"/>
       <c r="J231" s="36"/>
     </row>
@@ -14074,11 +14128,11 @@
       <c r="E232" s="56"/>
       <c r="F232" s="37"/>
       <c r="G232" s="36"/>
-      <c r="H232" s="36"/>
+      <c r="H232" s="60"/>
       <c r="I232" s="36"/>
       <c r="J232" s="36"/>
     </row>
-    <row r="233" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:10" ht="84" x14ac:dyDescent="0.15">
       <c r="A233" s="19">
         <v>40</v>
       </c>
@@ -14094,10 +14148,16 @@
         <v>215</v>
       </c>
       <c r="F233" s="37"/>
-      <c r="G233" s="36"/>
-      <c r="H233" s="36"/>
-      <c r="I233" s="36"/>
-      <c r="J233" s="36"/>
+      <c r="G233" s="70" t="s">
+        <v>838</v>
+      </c>
+      <c r="H233" s="60"/>
+      <c r="I233" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="J233" s="70" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="234" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A234" s="19">
@@ -14116,7 +14176,7 @@
       <c r="E234" s="56"/>
       <c r="F234" s="37"/>
       <c r="G234" s="36"/>
-      <c r="H234" s="36"/>
+      <c r="H234" s="60"/>
       <c r="I234" s="36"/>
       <c r="J234" s="36"/>
     </row>
@@ -14137,7 +14197,7 @@
       <c r="E235" s="56"/>
       <c r="F235" s="37"/>
       <c r="G235" s="36"/>
-      <c r="H235" s="36"/>
+      <c r="H235" s="60"/>
       <c r="I235" s="36"/>
       <c r="J235" s="36"/>
     </row>
@@ -14155,14 +14215,20 @@
       <c r="D236" s="33">
         <v>0</v>
       </c>
-      <c r="E236" s="32" t="s">
+      <c r="E236" s="68" t="s">
         <v>216</v>
       </c>
       <c r="F236" s="37"/>
-      <c r="G236" s="36"/>
-      <c r="H236" s="36"/>
-      <c r="I236" s="36"/>
-      <c r="J236" s="36"/>
+      <c r="G236" s="70" t="s">
+        <v>839</v>
+      </c>
+      <c r="H236" s="60"/>
+      <c r="I236" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="J236" s="38" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="237" spans="1:10" ht="84" x14ac:dyDescent="0.15">
       <c r="A237" s="19">
@@ -14182,10 +14248,16 @@
         <v>217</v>
       </c>
       <c r="F237" s="37"/>
-      <c r="G237" s="36"/>
-      <c r="H237" s="36"/>
-      <c r="I237" s="36"/>
-      <c r="J237" s="36"/>
+      <c r="G237" s="70" t="s">
+        <v>840</v>
+      </c>
+      <c r="H237" s="60"/>
+      <c r="I237" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="J237" s="38" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="238" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A238" s="19">
@@ -14204,7 +14276,7 @@
       <c r="E238" s="56"/>
       <c r="F238" s="37"/>
       <c r="G238" s="36"/>
-      <c r="H238" s="36"/>
+      <c r="H238" s="60"/>
       <c r="I238" s="36"/>
       <c r="J238" s="36"/>
     </row>
@@ -14223,11 +14295,11 @@
       <c r="E239" s="56"/>
       <c r="F239" s="37"/>
       <c r="G239" s="36"/>
-      <c r="H239" s="36"/>
+      <c r="H239" s="60"/>
       <c r="I239" s="36"/>
       <c r="J239" s="36"/>
     </row>
-    <row r="240" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:10" ht="42" x14ac:dyDescent="0.15">
       <c r="A240" s="19">
         <v>41</v>
       </c>
@@ -14243,12 +14315,14 @@
       </c>
       <c r="E240" s="45"/>
       <c r="F240" s="46"/>
-      <c r="G240" s="47"/>
-      <c r="H240" s="47"/>
+      <c r="G240" s="72" t="s">
+        <v>842</v>
+      </c>
+      <c r="H240" s="60"/>
       <c r="I240" s="47"/>
       <c r="J240" s="47"/>
     </row>
-    <row r="241" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:10" ht="70" x14ac:dyDescent="0.15">
       <c r="A241" s="19">
         <v>41</v>
       </c>
@@ -14266,10 +14340,16 @@
       <c r="F241" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="G241" s="47"/>
-      <c r="H241" s="47"/>
-      <c r="I241" s="47"/>
-      <c r="J241" s="47"/>
+      <c r="G241" s="71" t="s">
+        <v>846</v>
+      </c>
+      <c r="H241" s="60"/>
+      <c r="I241" s="72" t="s">
+        <v>845</v>
+      </c>
+      <c r="J241" s="62" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="242" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A242" s="19">
@@ -14288,7 +14368,7 @@
       <c r="E242" s="45"/>
       <c r="F242" s="46"/>
       <c r="G242" s="47"/>
-      <c r="H242" s="47"/>
+      <c r="H242" s="60"/>
       <c r="I242" s="47"/>
       <c r="J242" s="47"/>
     </row>
@@ -14309,7 +14389,7 @@
       <c r="E243" s="45"/>
       <c r="F243" s="46"/>
       <c r="G243" s="47"/>
-      <c r="H243" s="47"/>
+      <c r="H243" s="60"/>
       <c r="I243" s="47"/>
       <c r="J243" s="47"/>
     </row>
@@ -14330,7 +14410,7 @@
       <c r="E244" s="45"/>
       <c r="F244" s="46"/>
       <c r="G244" s="47"/>
-      <c r="H244" s="47"/>
+      <c r="H244" s="60"/>
       <c r="I244" s="47"/>
       <c r="J244" s="47"/>
     </row>
@@ -14351,7 +14431,7 @@
       <c r="E245" s="45"/>
       <c r="F245" s="46"/>
       <c r="G245" s="47"/>
-      <c r="H245" s="47"/>
+      <c r="H245" s="60"/>
       <c r="I245" s="47"/>
       <c r="J245" s="47"/>
     </row>
@@ -14372,11 +14452,11 @@
       <c r="E246" s="45"/>
       <c r="F246" s="46"/>
       <c r="G246" s="47"/>
-      <c r="H246" s="47"/>
+      <c r="H246" s="60"/>
       <c r="I246" s="47"/>
       <c r="J246" s="47"/>
     </row>
-    <row r="247" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:10" ht="84" x14ac:dyDescent="0.15">
       <c r="A247" s="19">
         <v>41</v>
       </c>
@@ -14394,8 +14474,10 @@
       <c r="F247" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="G247" s="47"/>
-      <c r="H247" s="47"/>
+      <c r="G247" s="72" t="s">
+        <v>843</v>
+      </c>
+      <c r="H247" s="60"/>
       <c r="I247" s="47"/>
       <c r="J247" s="47"/>
     </row>
@@ -14416,7 +14498,7 @@
       <c r="E248" s="45"/>
       <c r="F248" s="46"/>
       <c r="G248" s="47"/>
-      <c r="H248" s="47"/>
+      <c r="H248" s="60"/>
       <c r="I248" s="47"/>
       <c r="J248" s="47"/>
     </row>
@@ -14437,7 +14519,7 @@
       <c r="E249" s="56"/>
       <c r="F249" s="37"/>
       <c r="G249" s="36"/>
-      <c r="H249" s="36"/>
+      <c r="H249" s="60"/>
       <c r="I249" s="36"/>
       <c r="J249" s="36"/>
     </row>
@@ -14458,7 +14540,7 @@
       <c r="E250" s="56"/>
       <c r="F250" s="37"/>
       <c r="G250" s="36"/>
-      <c r="H250" s="36"/>
+      <c r="H250" s="60"/>
       <c r="I250" s="36"/>
       <c r="J250" s="36"/>
     </row>
@@ -14479,7 +14561,7 @@
       <c r="E251" s="56"/>
       <c r="F251" s="37"/>
       <c r="G251" s="36"/>
-      <c r="H251" s="36"/>
+      <c r="H251" s="60"/>
       <c r="I251" s="36"/>
       <c r="J251" s="36"/>
     </row>
@@ -14500,7 +14582,7 @@
       <c r="E252" s="56"/>
       <c r="F252" s="37"/>
       <c r="G252" s="36"/>
-      <c r="H252" s="36"/>
+      <c r="H252" s="60"/>
       <c r="I252" s="36"/>
       <c r="J252" s="36"/>
     </row>
@@ -14521,7 +14603,7 @@
       <c r="E253" s="56"/>
       <c r="F253" s="37"/>
       <c r="G253" s="36"/>
-      <c r="H253" s="36"/>
+      <c r="H253" s="60"/>
       <c r="I253" s="36"/>
       <c r="J253" s="36"/>
     </row>
@@ -14542,11 +14624,11 @@
       <c r="E254" s="56"/>
       <c r="F254" s="37"/>
       <c r="G254" s="36"/>
-      <c r="H254" s="36"/>
+      <c r="H254" s="60"/>
       <c r="I254" s="36"/>
       <c r="J254" s="36"/>
     </row>
-    <row r="255" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:10" ht="126" x14ac:dyDescent="0.15">
       <c r="A255" s="19">
         <v>42</v>
       </c>
@@ -14564,10 +14646,16 @@
       <c r="F255" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="G255" s="36"/>
-      <c r="H255" s="36"/>
-      <c r="I255" s="36"/>
-      <c r="J255" s="36"/>
+      <c r="G255" s="69" t="s">
+        <v>847</v>
+      </c>
+      <c r="H255" s="60"/>
+      <c r="I255" s="70" t="s">
+        <v>848</v>
+      </c>
+      <c r="J255" s="70" t="s">
+        <v>849</v>
+      </c>
     </row>
     <row r="256" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A256" s="19">
@@ -14586,7 +14674,7 @@
       <c r="E256" s="56"/>
       <c r="F256" s="37"/>
       <c r="G256" s="36"/>
-      <c r="H256" s="36"/>
+      <c r="H256" s="60"/>
       <c r="I256" s="36"/>
       <c r="J256" s="36"/>
     </row>
@@ -14607,7 +14695,7 @@
       <c r="E257" s="56"/>
       <c r="F257" s="37"/>
       <c r="G257" s="36"/>
-      <c r="H257" s="36"/>
+      <c r="H257" s="60"/>
       <c r="I257" s="36"/>
       <c r="J257" s="36"/>
     </row>

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2871449-32B5-8D40-9E8F-93C726BCF727}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AC83E1-8496-704E-8CD9-7211E91BC92F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10540" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="856">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2617,6 +2617,24 @@
   </si>
   <si>
     <t>https://github.com/OOSTT/OOSTT/commit/ce72e2fdc1b25dceda7f3380a2828c8b9da99ddd https://github.com/OOSTT/OOSTT/commit/94a6a0eb3edb818b55543c454e8f606e29a0afbf https://github.com/OOSTT/OOSTT/commit/f3fd73681814fed4e91dd0abe03428765a3994fa</t>
+  </si>
+  <si>
+    <t>We have deleted the term "continuous" from the definition. We are not replacing it in the label, since both the definition and the OOSTT user-centered description specify what is meant by "continuous' in this context.</t>
+  </si>
+  <si>
+    <t>Sadly, it isn't specified which term would be deemed more appropriate. We do not want to go with "hospital" since there might be cases where non-hospital providers have such a plan.</t>
+  </si>
+  <si>
+    <t>replaced "board certified" in both the definition and the OOSTT user-centered description with this phrase.</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/968c3ea3871258f8361f70df72c727a30ae45ca7</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/808ee0c214abb74d713a80fa495c93de7b0c27bd</t>
+  </si>
+  <si>
+    <t>Definition: A coverage policy that specifies that a emergency physician who is certified by an official agency or correspondent authority is present in the emergency department 24 hours, 7 days a week. OOSTT user-centered description: A healthcare facility policy that specifies the requirement for an emergency physician who is certified by an official agency or correspondent authority availability 24 hours a day, 7 days a week.</t>
   </si>
 </sst>
 </file>
@@ -3107,15 +3125,6 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3133,6 +3142,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5833,11 +5851,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
     </row>
     <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -5936,10 +5954,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="72"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
@@ -5991,13 +6009,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
@@ -9018,8 +9036,8 @@
   <dimension ref="A1:IW1418"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H249" sqref="H249:H257"/>
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I273" sqref="I273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13934,7 +13952,7 @@
         <v>835</v>
       </c>
       <c r="H223" s="60"/>
-      <c r="I223" s="67" t="s">
+      <c r="I223" s="64" t="s">
         <v>836</v>
       </c>
       <c r="J223" s="62" t="s">
@@ -14148,14 +14166,14 @@
         <v>215</v>
       </c>
       <c r="F233" s="37"/>
-      <c r="G233" s="70" t="s">
+      <c r="G233" s="67" t="s">
         <v>838</v>
       </c>
       <c r="H233" s="60"/>
       <c r="I233" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="J233" s="70" t="s">
+      <c r="J233" s="67" t="s">
         <v>841</v>
       </c>
     </row>
@@ -14215,11 +14233,11 @@
       <c r="D236" s="33">
         <v>0</v>
       </c>
-      <c r="E236" s="68" t="s">
+      <c r="E236" s="65" t="s">
         <v>216</v>
       </c>
       <c r="F236" s="37"/>
-      <c r="G236" s="70" t="s">
+      <c r="G236" s="67" t="s">
         <v>839</v>
       </c>
       <c r="H236" s="60"/>
@@ -14248,7 +14266,7 @@
         <v>217</v>
       </c>
       <c r="F237" s="37"/>
-      <c r="G237" s="70" t="s">
+      <c r="G237" s="67" t="s">
         <v>840</v>
       </c>
       <c r="H237" s="60"/>
@@ -14315,7 +14333,7 @@
       </c>
       <c r="E240" s="45"/>
       <c r="F240" s="46"/>
-      <c r="G240" s="72" t="s">
+      <c r="G240" s="69" t="s">
         <v>842</v>
       </c>
       <c r="H240" s="60"/>
@@ -14340,11 +14358,11 @@
       <c r="F241" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="G241" s="71" t="s">
+      <c r="G241" s="68" t="s">
         <v>846</v>
       </c>
       <c r="H241" s="60"/>
-      <c r="I241" s="72" t="s">
+      <c r="I241" s="69" t="s">
         <v>845</v>
       </c>
       <c r="J241" s="62" t="s">
@@ -14474,7 +14492,7 @@
       <c r="F247" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="G247" s="72" t="s">
+      <c r="G247" s="69" t="s">
         <v>843</v>
       </c>
       <c r="H247" s="60"/>
@@ -14646,14 +14664,14 @@
       <c r="F255" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="G255" s="69" t="s">
+      <c r="G255" s="66" t="s">
         <v>847</v>
       </c>
       <c r="H255" s="60"/>
-      <c r="I255" s="70" t="s">
+      <c r="I255" s="67" t="s">
         <v>848</v>
       </c>
-      <c r="J255" s="70" t="s">
+      <c r="J255" s="67" t="s">
         <v>849</v>
       </c>
     </row>
@@ -14978,7 +14996,7 @@
       <c r="I270" s="36"/>
       <c r="J270" s="36"/>
     </row>
-    <row r="271" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:10" ht="98" x14ac:dyDescent="0.15">
       <c r="A271" s="19">
         <v>44</v>
       </c>
@@ -14996,12 +15014,14 @@
       <c r="F271" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="G271" s="36"/>
+      <c r="G271" s="38" t="s">
+        <v>851</v>
+      </c>
       <c r="H271" s="36"/>
       <c r="I271" s="36"/>
       <c r="J271" s="36"/>
     </row>
-    <row r="272" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:10" ht="112" x14ac:dyDescent="0.15">
       <c r="A272" s="19">
         <v>44</v>
       </c>
@@ -15019,12 +15039,16 @@
       <c r="F272" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="G272" s="36"/>
+      <c r="G272" s="38" t="s">
+        <v>850</v>
+      </c>
       <c r="H272" s="36"/>
       <c r="I272" s="36"/>
-      <c r="J272" s="36"/>
-    </row>
-    <row r="273" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="J272" s="38" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" ht="126" x14ac:dyDescent="0.15">
       <c r="A273" s="19">
         <v>44</v>
       </c>
@@ -15042,10 +15066,16 @@
       <c r="F273" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="G273" s="36"/>
+      <c r="G273" s="38" t="s">
+        <v>852</v>
+      </c>
       <c r="H273" s="36"/>
-      <c r="I273" s="36"/>
-      <c r="J273" s="36"/>
+      <c r="I273" s="38" t="s">
+        <v>855</v>
+      </c>
+      <c r="J273" s="38" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="274" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A274" s="19">
@@ -37740,12 +37770,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="72" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AC83E1-8496-704E-8CD9-7211E91BC92F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE13B6DF-429E-394F-B442-9FBDB582C2EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10540" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9036,8 +9036,8 @@
   <dimension ref="A1:IW1418"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I273" sqref="I273"/>
+      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H268" sqref="H268:H277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14950,7 +14950,7 @@
       <c r="E268" s="56"/>
       <c r="F268" s="37"/>
       <c r="G268" s="36"/>
-      <c r="H268" s="36"/>
+      <c r="H268" s="60"/>
       <c r="I268" s="36"/>
       <c r="J268" s="36"/>
     </row>
@@ -14971,7 +14971,7 @@
       <c r="E269" s="56"/>
       <c r="F269" s="37"/>
       <c r="G269" s="36"/>
-      <c r="H269" s="36"/>
+      <c r="H269" s="60"/>
       <c r="I269" s="36"/>
       <c r="J269" s="36"/>
     </row>
@@ -14992,7 +14992,7 @@
       <c r="E270" s="56"/>
       <c r="F270" s="37"/>
       <c r="G270" s="36"/>
-      <c r="H270" s="36"/>
+      <c r="H270" s="60"/>
       <c r="I270" s="36"/>
       <c r="J270" s="36"/>
     </row>
@@ -15017,7 +15017,7 @@
       <c r="G271" s="38" t="s">
         <v>851</v>
       </c>
-      <c r="H271" s="36"/>
+      <c r="H271" s="60"/>
       <c r="I271" s="36"/>
       <c r="J271" s="36"/>
     </row>
@@ -15042,7 +15042,7 @@
       <c r="G272" s="38" t="s">
         <v>850</v>
       </c>
-      <c r="H272" s="36"/>
+      <c r="H272" s="60"/>
       <c r="I272" s="36"/>
       <c r="J272" s="38" t="s">
         <v>853</v>
@@ -15069,7 +15069,7 @@
       <c r="G273" s="38" t="s">
         <v>852</v>
       </c>
-      <c r="H273" s="36"/>
+      <c r="H273" s="60"/>
       <c r="I273" s="38" t="s">
         <v>855</v>
       </c>
@@ -15094,7 +15094,7 @@
       <c r="E274" s="56"/>
       <c r="F274" s="37"/>
       <c r="G274" s="36"/>
-      <c r="H274" s="36"/>
+      <c r="H274" s="60"/>
       <c r="I274" s="36"/>
       <c r="J274" s="36"/>
     </row>
@@ -15115,7 +15115,7 @@
       <c r="E275" s="56"/>
       <c r="F275" s="37"/>
       <c r="G275" s="36"/>
-      <c r="H275" s="36"/>
+      <c r="H275" s="60"/>
       <c r="I275" s="36"/>
       <c r="J275" s="36"/>
     </row>
@@ -15136,7 +15136,7 @@
       <c r="E276" s="56"/>
       <c r="F276" s="37"/>
       <c r="G276" s="36"/>
-      <c r="H276" s="36"/>
+      <c r="H276" s="60"/>
       <c r="I276" s="36"/>
       <c r="J276" s="36"/>
     </row>
@@ -15157,7 +15157,7 @@
       <c r="E277" s="56"/>
       <c r="F277" s="37"/>
       <c r="G277" s="36"/>
-      <c r="H277" s="36"/>
+      <c r="H277" s="60"/>
       <c r="I277" s="36"/>
       <c r="J277" s="36"/>
     </row>

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE13B6DF-429E-394F-B442-9FBDB582C2EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C98F58-7AA5-3147-80C9-A1F11807F6A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10540" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="862">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2635,6 +2635,24 @@
   </si>
   <si>
     <t>Definition: A coverage policy that specifies that a emergency physician who is certified by an official agency or correspondent authority is present in the emergency department 24 hours, 7 days a week. OOSTT user-centered description: A healthcare facility policy that specifies the requirement for an emergency physician who is certified by an official agency or correspondent authority availability 24 hours a day, 7 days a week.</t>
+  </si>
+  <si>
+    <t>added a comment that clarified the relationship between this and the PIPS attendance record.</t>
+  </si>
+  <si>
+    <t>used the proposed definition as OOSTT user-centered definition.</t>
+  </si>
+  <si>
+    <t>It isn't clear that there would be another type of record besides paper or electronic, hence adding that would be overly wordy and unnecessarily specific.</t>
+  </si>
+  <si>
+    <t>Definition: An information content entity that is about a person and that affirms that they have attended at the number of meeting of the trauma peer review committee meetings as required by the designating agency. OOSTT user-centered description: The record verifying that each specified member participates in the trauma quality improvement committee and attends the majority of meetings as required by the designating agency.</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/ee63b1901779af4a767f45a4a5ebca3fa503ffb1</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/f79d8f5a59779fdff7a7cc101debd5a9112a644b https://github.com/OOSTT/OOSTT/commit/e2b50effb650fb39befce370c398c1f5bb7a7474</t>
   </si>
 </sst>
 </file>
@@ -9036,8 +9054,8 @@
   <dimension ref="A1:IW1418"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H268" sqref="H268:H277"/>
+      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H278" sqref="H278:H286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15176,7 +15194,7 @@
       <c r="E278" s="45"/>
       <c r="F278" s="46"/>
       <c r="G278" s="47"/>
-      <c r="H278" s="47"/>
+      <c r="H278" s="60"/>
       <c r="I278" s="47"/>
       <c r="J278" s="47"/>
     </row>
@@ -15197,7 +15215,7 @@
       <c r="E279" s="45"/>
       <c r="F279" s="46"/>
       <c r="G279" s="47"/>
-      <c r="H279" s="47"/>
+      <c r="H279" s="60"/>
       <c r="I279" s="47"/>
       <c r="J279" s="47"/>
     </row>
@@ -15218,11 +15236,11 @@
       <c r="E280" s="45"/>
       <c r="F280" s="46"/>
       <c r="G280" s="47"/>
-      <c r="H280" s="47"/>
+      <c r="H280" s="60"/>
       <c r="I280" s="47"/>
       <c r="J280" s="47"/>
     </row>
-    <row r="281" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:10" ht="56" x14ac:dyDescent="0.15">
       <c r="A281" s="19">
         <v>45</v>
       </c>
@@ -15242,10 +15260,14 @@
       <c r="F281" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="G281" s="47"/>
-      <c r="H281" s="47"/>
+      <c r="G281" s="62" t="s">
+        <v>856</v>
+      </c>
+      <c r="H281" s="60"/>
       <c r="I281" s="47"/>
-      <c r="J281" s="47"/>
+      <c r="J281" s="62" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="282" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A282" s="19">
@@ -15264,7 +15286,7 @@
       <c r="E282" s="45"/>
       <c r="F282" s="46"/>
       <c r="G282" s="47"/>
-      <c r="H282" s="47"/>
+      <c r="H282" s="60"/>
       <c r="I282" s="47"/>
       <c r="J282" s="47"/>
     </row>
@@ -15285,7 +15307,7 @@
       <c r="E283" s="45"/>
       <c r="F283" s="46"/>
       <c r="G283" s="47"/>
-      <c r="H283" s="47"/>
+      <c r="H283" s="60"/>
       <c r="I283" s="47"/>
       <c r="J283" s="47"/>
     </row>
@@ -15306,11 +15328,11 @@
       <c r="E284" s="45"/>
       <c r="F284" s="46"/>
       <c r="G284" s="47"/>
-      <c r="H284" s="47"/>
+      <c r="H284" s="60"/>
       <c r="I284" s="47"/>
       <c r="J284" s="47"/>
     </row>
-    <row r="285" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:10" ht="84" x14ac:dyDescent="0.15">
       <c r="A285" s="19">
         <v>45</v>
       </c>
@@ -15328,12 +15350,14 @@
         <v>230</v>
       </c>
       <c r="F285" s="46"/>
-      <c r="G285" s="47"/>
-      <c r="H285" s="47"/>
+      <c r="G285" s="62" t="s">
+        <v>858</v>
+      </c>
+      <c r="H285" s="60"/>
       <c r="I285" s="47"/>
       <c r="J285" s="47"/>
     </row>
-    <row r="286" spans="1:10" ht="70" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:10" ht="126" x14ac:dyDescent="0.15">
       <c r="A286" s="19">
         <v>45</v>
       </c>
@@ -15353,10 +15377,16 @@
       <c r="F286" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="G286" s="47"/>
-      <c r="H286" s="47"/>
-      <c r="I286" s="47"/>
-      <c r="J286" s="47"/>
+      <c r="G286" s="62" t="s">
+        <v>857</v>
+      </c>
+      <c r="H286" s="60"/>
+      <c r="I286" s="62" t="s">
+        <v>859</v>
+      </c>
+      <c r="J286" s="62" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="287" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A287" s="19">

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C98F58-7AA5-3147-80C9-A1F11807F6A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7006FA3E-8088-4E42-878D-535A4A1BE60F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="460" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42560" yWindow="3600" windowWidth="27740" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="864">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2653,6 +2653,12 @@
   </si>
   <si>
     <t>https://github.com/OOSTT/OOSTT/commit/f79d8f5a59779fdff7a7cc101debd5a9112a644b https://github.com/OOSTT/OOSTT/commit/e2b50effb650fb39befce370c398c1f5bb7a7474</t>
+  </si>
+  <si>
+    <t>We have decided to delete the OOSTT user-centered definition, since it I incorrect (is not inclusive of Level V trauma centers) and causes the issues named here.</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/6c083faee460ac2f3ff193392e849ca37899f85f</t>
   </si>
 </sst>
 </file>
@@ -9054,8 +9060,8 @@
   <dimension ref="A1:IW1418"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H278" sqref="H278:H286"/>
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J259" sqref="J259:J266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14752,11 +14758,11 @@
       <c r="E258" s="45"/>
       <c r="F258" s="46"/>
       <c r="G258" s="47"/>
-      <c r="H258" s="47"/>
+      <c r="H258" s="60"/>
       <c r="I258" s="47"/>
       <c r="J258" s="47"/>
     </row>
-    <row r="259" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:10" ht="84" x14ac:dyDescent="0.15">
       <c r="A259" s="19">
         <v>43</v>
       </c>
@@ -14774,12 +14780,16 @@
       <c r="F259" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="G259" s="47"/>
-      <c r="H259" s="47"/>
+      <c r="G259" s="62" t="s">
+        <v>862</v>
+      </c>
+      <c r="H259" s="60"/>
       <c r="I259" s="47"/>
-      <c r="J259" s="47"/>
-    </row>
-    <row r="260" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="J259" s="63" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" ht="84" x14ac:dyDescent="0.15">
       <c r="A260" s="19">
         <v>43</v>
       </c>
@@ -14795,10 +14805,14 @@
         <v>222</v>
       </c>
       <c r="F260" s="46"/>
-      <c r="G260" s="47"/>
-      <c r="H260" s="47"/>
+      <c r="G260" s="62" t="s">
+        <v>862</v>
+      </c>
+      <c r="H260" s="60"/>
       <c r="I260" s="47"/>
-      <c r="J260" s="47"/>
+      <c r="J260" s="69" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="261" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A261" s="19">
@@ -14816,12 +14830,12 @@
       </c>
       <c r="E261" s="45"/>
       <c r="F261" s="46"/>
-      <c r="G261" s="47"/>
-      <c r="H261" s="47"/>
+      <c r="G261" s="62"/>
+      <c r="H261" s="60"/>
       <c r="I261" s="47"/>
-      <c r="J261" s="47"/>
-    </row>
-    <row r="262" spans="1:10" ht="56" x14ac:dyDescent="0.15">
+      <c r="J261" s="62"/>
+    </row>
+    <row r="262" spans="1:10" ht="84" x14ac:dyDescent="0.15">
       <c r="A262" s="19">
         <v>43</v>
       </c>
@@ -14839,10 +14853,14 @@
         <v>223</v>
       </c>
       <c r="F262" s="46"/>
-      <c r="G262" s="47"/>
-      <c r="H262" s="47"/>
+      <c r="G262" s="62" t="s">
+        <v>862</v>
+      </c>
+      <c r="H262" s="60"/>
       <c r="I262" s="47"/>
-      <c r="J262" s="47"/>
+      <c r="J262" s="62" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="263" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A263" s="19">
@@ -14860,10 +14878,10 @@
       </c>
       <c r="E263" s="45"/>
       <c r="F263" s="46"/>
-      <c r="G263" s="47"/>
-      <c r="H263" s="47"/>
+      <c r="G263" s="62"/>
+      <c r="H263" s="60"/>
       <c r="I263" s="47"/>
-      <c r="J263" s="47"/>
+      <c r="J263" s="62"/>
     </row>
     <row r="264" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A264" s="19">
@@ -14881,10 +14899,10 @@
       </c>
       <c r="E264" s="45"/>
       <c r="F264" s="46"/>
-      <c r="G264" s="47"/>
-      <c r="H264" s="47"/>
+      <c r="G264" s="62"/>
+      <c r="H264" s="60"/>
       <c r="I264" s="47"/>
-      <c r="J264" s="47"/>
+      <c r="J264" s="62"/>
     </row>
     <row r="265" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A265" s="19">
@@ -14902,10 +14920,10 @@
       </c>
       <c r="E265" s="45"/>
       <c r="F265" s="46"/>
-      <c r="G265" s="47"/>
-      <c r="H265" s="47"/>
+      <c r="G265" s="62"/>
+      <c r="H265" s="60"/>
       <c r="I265" s="47"/>
-      <c r="J265" s="47"/>
+      <c r="J265" s="62"/>
     </row>
     <row r="266" spans="1:10" ht="210" x14ac:dyDescent="0.15">
       <c r="A266" s="19">
@@ -14925,10 +14943,14 @@
         <v>224</v>
       </c>
       <c r="F266" s="46"/>
-      <c r="G266" s="47"/>
-      <c r="H266" s="47"/>
+      <c r="G266" s="62" t="s">
+        <v>862</v>
+      </c>
+      <c r="H266" s="60"/>
       <c r="I266" s="47"/>
-      <c r="J266" s="47"/>
+      <c r="J266" s="62" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="267" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A267" s="19">
@@ -14947,7 +14969,7 @@
       <c r="E267" s="45"/>
       <c r="F267" s="46"/>
       <c r="G267" s="47"/>
-      <c r="H267" s="47"/>
+      <c r="H267" s="60"/>
       <c r="I267" s="47"/>
       <c r="J267" s="47"/>
     </row>
@@ -37772,6 +37794,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1" display="https://github.com/OOSTT/OOSTT/commit/81c72778687c32752300ba290eb7e36ae7f2c0fbhttps://github.com/OOSTT/OOSTT/commit/1c20b7085859c170545f3e1efa9bb5c406fbeb44" xr:uid="{7DFD34EA-A3A7-484C-A434-01EEE836E681}"/>
+    <hyperlink ref="J259" r:id="rId2" xr:uid="{D545B8B3-1B81-4042-9D1C-32B376898359}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="1047">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2888,9 +2888,6 @@
     <t xml:space="preserve">Accept "anesthesiology credentialed members" change. Resolves issues raised by respondent 300. </t>
   </si>
   <si>
-    <t>Accept but strike "multi-specialty."</t>
-  </si>
-  <si>
     <t>Reject. Why delete it?</t>
   </si>
   <si>
@@ -2957,9 +2954,6 @@
     <t>Below should correct problem</t>
   </si>
   <si>
-    <t>Not sure what respondent means by "authoritative organizations."</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reject; I don't think the term is meant to define the process. </t>
   </si>
   <si>
@@ -3099,9 +3093,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ignore; no suggestion for how to improve definition </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ask Mathias: should we providemore description of the expectation? </t>
   </si>
   <si>
     <t>Sarah's new definition</t>
@@ -3207,6 +3198,33 @@
   </si>
   <si>
     <t>Reject; don't think this is true</t>
+  </si>
+  <si>
+    <t>A healthcare facility policy that specifies the requirement for anesthesiology-credentialed members availability 24 hours a day, 7 days a week.</t>
+  </si>
+  <si>
+    <t>An organized and regulated local, state, provincial, regional, or national approach to facilitating and coordinating a multidisciplinary medical system response to severely injured patients.</t>
+  </si>
+  <si>
+    <t>A Level I trauma center role is borne by a hospital that provides the highest level of surgical care to trauma patients. Its bearer has a full range of specialists and equipment available 24 hours a day and admits a minimum required annual volume of severely injured patients established by the verifying agency. The facility has transfer agreements with referring facilities, and provides performance improvement and education outreach to those facilities. The facility also has an ongoing program of research and a physician residency program. The role is created by a Level I Trauma Center designation.</t>
+  </si>
+  <si>
+    <t>A state, regional, provincial, or national recognition process in which a facility is awarded a trauma center role after a formal review of the hospital's organization, capacity, personnel, and resources by a verifying agency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask Mathias: should we provide more description of the expectation? </t>
+  </si>
+  <si>
+    <t>A trauma center role that is borne by a hospital that is organized to provide trauma care to injured infants, children, and adolescents.  Its bearer has a full range of pediatric specialists and equipment available 24 hours a day and admits a minimum required annual volume of severely injured patients established by the designating agency. The facility has transfer agreements with referring facilities, and provides performance improvement and education outreach to those facilities. The role is created by a pediatric Trauma Center designation.</t>
+  </si>
+  <si>
+    <t>The description of content and expected learning for health professionals that is necessary to maintain continued competency and to learn new and developing concepts in medical care.</t>
+  </si>
+  <si>
+    <t>The entity with the power to develop, oversee, improve medical care, and implement corrective actions following a performance improvement process for injured patients in the healthcare facility.</t>
+  </si>
+  <si>
+    <t>A medical residency in anesthesiology required for board certification as an anesthesiologist.</t>
   </si>
 </sst>
 </file>
@@ -9682,8 +9700,8 @@
   <dimension ref="A1:IW1418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A813" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K826" sqref="K826"/>
+      <pane ySplit="1" topLeftCell="A991" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1000" sqref="K1000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -9739,10 +9757,10 @@
         <v>864</v>
       </c>
       <c r="L1" s="69" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="M1" s="69" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="N1" s="29" t="s">
         <v>775</v>
@@ -16113,7 +16131,7 @@
         <v>867</v>
       </c>
       <c r="L289" s="82" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="M289" s="82" t="s">
         <v>548</v>
@@ -16279,10 +16297,10 @@
         <v>894</v>
       </c>
       <c r="L296" s="82" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="M296" s="82" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="297" spans="1:13" ht="66">
@@ -16661,7 +16679,7 @@
         <v>869</v>
       </c>
       <c r="L313" s="82" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="M313" s="82" t="s">
         <v>552</v>
@@ -17065,7 +17083,7 @@
       <c r="I332" s="46"/>
       <c r="J332" s="73"/>
       <c r="K332" s="83" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="333" spans="1:11" ht="13.2">
@@ -17276,7 +17294,7 @@
         <v>871</v>
       </c>
       <c r="L341" s="82" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="M341" s="82" t="s">
         <v>560</v>
@@ -18139,7 +18157,7 @@
       <c r="I381" s="36"/>
       <c r="J381" s="71"/>
       <c r="K381" s="83" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="382" spans="1:11" ht="26.4">
@@ -18399,7 +18417,7 @@
       <c r="I393" s="46"/>
       <c r="J393" s="73"/>
       <c r="K393" s="83" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="394" spans="1:11" ht="26.4">
@@ -19129,10 +19147,10 @@
         <v>880</v>
       </c>
       <c r="L427" s="82" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="M427" s="82" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="428" spans="1:13" ht="13.2">
@@ -19582,7 +19600,7 @@
         <v>882</v>
       </c>
       <c r="L448" s="82" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="M448" s="82" t="s">
         <v>581</v>
@@ -20057,7 +20075,7 @@
         <v>886</v>
       </c>
       <c r="L469" s="82" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="M469" s="82" t="s">
         <v>585</v>
@@ -20405,7 +20423,7 @@
       <c r="I485" s="36"/>
       <c r="J485" s="71"/>
       <c r="K485" s="82" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="486" spans="1:13" ht="26.4">
@@ -20567,7 +20585,7 @@
         <v>890</v>
       </c>
       <c r="L492" s="82" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="M492" s="82" t="s">
         <v>591</v>
@@ -21560,7 +21578,7 @@
         <v>896</v>
       </c>
       <c r="L538" s="82" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="M538" s="82" t="s">
         <v>601</v>
@@ -22386,7 +22404,7 @@
         <v>904</v>
       </c>
       <c r="L575" s="82" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="M575" s="82" t="s">
         <v>609</v>
@@ -22962,7 +22980,7 @@
       <c r="I602" s="46"/>
       <c r="J602" s="73"/>
       <c r="K602" s="83" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="603" spans="1:11" ht="13.2">
@@ -23161,7 +23179,7 @@
       <c r="I611" s="36"/>
       <c r="J611" s="71"/>
       <c r="K611" s="83" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="612" spans="1:11" ht="26.4">
@@ -24338,7 +24356,7 @@
         <v>922</v>
       </c>
       <c r="L664" s="82" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="M664" s="82" t="s">
         <v>629</v>
@@ -24576,7 +24594,7 @@
       <c r="I674" s="46"/>
       <c r="J674" s="73"/>
       <c r="K674" s="82" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="675" spans="1:13" ht="13.2">
@@ -24689,7 +24707,7 @@
         <v>924</v>
       </c>
       <c r="L679" s="82" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="M679" s="82" t="s">
         <v>631</v>
@@ -25299,7 +25317,7 @@
         <v>926</v>
       </c>
       <c r="L707" s="82" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="M707" s="82" t="s">
         <v>637</v>
@@ -26289,7 +26307,7 @@
         <v>928</v>
       </c>
       <c r="L752" s="82" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="M752" s="82" t="s">
         <v>647</v>
@@ -26410,7 +26428,7 @@
         <v>932</v>
       </c>
       <c r="L757" s="82" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="M757" s="82" t="s">
         <v>649</v>
@@ -27700,7 +27718,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="817" spans="1:11" ht="26.4">
+    <row r="817" spans="1:13" ht="26.4">
       <c r="A817" s="19">
         <v>136</v>
       </c>
@@ -27721,7 +27739,7 @@
       <c r="I817" s="36"/>
       <c r="J817" s="71"/>
     </row>
-    <row r="818" spans="1:11" ht="13.2">
+    <row r="818" spans="1:13" ht="13.2">
       <c r="A818" s="19">
         <v>137</v>
       </c>
@@ -27742,7 +27760,7 @@
       <c r="I818" s="46"/>
       <c r="J818" s="73"/>
     </row>
-    <row r="819" spans="1:11" ht="13.2">
+    <row r="819" spans="1:13" ht="13.2">
       <c r="A819" s="19">
         <v>137</v>
       </c>
@@ -27763,7 +27781,7 @@
       <c r="I819" s="46"/>
       <c r="J819" s="73"/>
     </row>
-    <row r="820" spans="1:11" ht="13.2">
+    <row r="820" spans="1:13" ht="13.2">
       <c r="A820" s="19">
         <v>137</v>
       </c>
@@ -27784,7 +27802,7 @@
       <c r="I820" s="46"/>
       <c r="J820" s="73"/>
     </row>
-    <row r="821" spans="1:11" ht="52.8">
+    <row r="821" spans="1:13" ht="79.2">
       <c r="A821" s="19">
         <v>137</v>
       </c>
@@ -27811,8 +27829,14 @@
       <c r="K821" s="82" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="822" spans="1:11" ht="13.2">
+      <c r="L821" s="82" t="s">
+        <v>1038</v>
+      </c>
+      <c r="M821" s="82" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="822" spans="1:13" ht="13.2">
       <c r="A822" s="19">
         <v>137</v>
       </c>
@@ -27833,7 +27857,7 @@
       <c r="I822" s="46"/>
       <c r="J822" s="73"/>
     </row>
-    <row r="823" spans="1:11" ht="39.6">
+    <row r="823" spans="1:13" ht="39.6">
       <c r="A823" s="19">
         <v>137</v>
       </c>
@@ -27858,10 +27882,10 @@
       <c r="I823" s="46"/>
       <c r="J823" s="73"/>
       <c r="K823" s="83" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="824" spans="1:11" ht="13.2">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="824" spans="1:13" ht="13.2">
       <c r="A824" s="19">
         <v>137</v>
       </c>
@@ -27882,7 +27906,7 @@
       <c r="I824" s="46"/>
       <c r="J824" s="73"/>
     </row>
-    <row r="825" spans="1:11" ht="13.2">
+    <row r="825" spans="1:13" ht="13.2">
       <c r="A825" s="19">
         <v>137</v>
       </c>
@@ -27903,7 +27927,7 @@
       <c r="I825" s="46"/>
       <c r="J825" s="73"/>
     </row>
-    <row r="826" spans="1:11" ht="27.6">
+    <row r="826" spans="1:13" ht="27.6">
       <c r="A826" s="19">
         <v>137</v>
       </c>
@@ -27929,7 +27953,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="827" spans="1:11" ht="13.2">
+    <row r="827" spans="1:13" ht="13.2">
       <c r="A827" s="19">
         <v>138</v>
       </c>
@@ -27948,7 +27972,7 @@
       <c r="I827" s="36"/>
       <c r="J827" s="71"/>
     </row>
-    <row r="828" spans="1:11" ht="13.2">
+    <row r="828" spans="1:13" ht="13.2">
       <c r="A828" s="19">
         <v>138</v>
       </c>
@@ -27969,7 +27993,7 @@
       <c r="I828" s="36"/>
       <c r="J828" s="71"/>
     </row>
-    <row r="829" spans="1:11" ht="13.2">
+    <row r="829" spans="1:13" ht="13.2">
       <c r="A829" s="19">
         <v>138</v>
       </c>
@@ -27990,7 +28014,7 @@
       <c r="I829" s="36"/>
       <c r="J829" s="71"/>
     </row>
-    <row r="830" spans="1:11" ht="13.2">
+    <row r="830" spans="1:13" ht="13.2">
       <c r="A830" s="19">
         <v>138</v>
       </c>
@@ -28009,7 +28033,7 @@
       <c r="I830" s="36"/>
       <c r="J830" s="71"/>
     </row>
-    <row r="831" spans="1:11" ht="13.2">
+    <row r="831" spans="1:13" ht="13.2">
       <c r="A831" s="19">
         <v>138</v>
       </c>
@@ -28030,7 +28054,7 @@
       <c r="I831" s="36"/>
       <c r="J831" s="71"/>
     </row>
-    <row r="832" spans="1:11" ht="13.2">
+    <row r="832" spans="1:13" ht="13.2">
       <c r="A832" s="19">
         <v>138</v>
       </c>
@@ -28051,7 +28075,7 @@
       <c r="I832" s="36"/>
       <c r="J832" s="71"/>
     </row>
-    <row r="833" spans="1:11" ht="13.2">
+    <row r="833" spans="1:13" ht="13.2">
       <c r="A833" s="19">
         <v>138</v>
       </c>
@@ -28072,7 +28096,7 @@
       <c r="I833" s="36"/>
       <c r="J833" s="71"/>
     </row>
-    <row r="834" spans="1:11" ht="13.2">
+    <row r="834" spans="1:13" ht="13.2">
       <c r="A834" s="19">
         <v>138</v>
       </c>
@@ -28093,7 +28117,7 @@
       <c r="I834" s="36"/>
       <c r="J834" s="71"/>
     </row>
-    <row r="835" spans="1:11" ht="13.2">
+    <row r="835" spans="1:13" ht="13.2">
       <c r="A835" s="19">
         <v>138</v>
       </c>
@@ -28114,7 +28138,7 @@
       <c r="I835" s="36"/>
       <c r="J835" s="71"/>
     </row>
-    <row r="836" spans="1:11" ht="13.2">
+    <row r="836" spans="1:13" ht="13.2">
       <c r="A836" s="19">
         <v>140</v>
       </c>
@@ -28135,7 +28159,7 @@
       <c r="I836" s="46"/>
       <c r="J836" s="73"/>
     </row>
-    <row r="837" spans="1:11" ht="13.2">
+    <row r="837" spans="1:13" ht="13.2">
       <c r="A837" s="19">
         <v>140</v>
       </c>
@@ -28156,7 +28180,7 @@
       <c r="I837" s="46"/>
       <c r="J837" s="73"/>
     </row>
-    <row r="838" spans="1:11" ht="79.2">
+    <row r="838" spans="1:13" ht="79.2">
       <c r="A838" s="19">
         <v>140</v>
       </c>
@@ -28179,10 +28203,10 @@
       <c r="I838" s="46"/>
       <c r="J838" s="73"/>
       <c r="K838" s="82" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="839" spans="1:11" ht="13.2">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="839" spans="1:13" ht="13.2">
       <c r="A839" s="19">
         <v>140</v>
       </c>
@@ -28203,7 +28227,7 @@
       <c r="I839" s="46"/>
       <c r="J839" s="73"/>
     </row>
-    <row r="840" spans="1:11" ht="13.2">
+    <row r="840" spans="1:13" ht="13.2">
       <c r="A840" s="19">
         <v>140</v>
       </c>
@@ -28224,7 +28248,7 @@
       <c r="I840" s="46"/>
       <c r="J840" s="73"/>
     </row>
-    <row r="841" spans="1:11" ht="13.2">
+    <row r="841" spans="1:13" ht="13.2">
       <c r="A841" s="19">
         <v>140</v>
       </c>
@@ -28245,7 +28269,7 @@
       <c r="I841" s="46"/>
       <c r="J841" s="73"/>
     </row>
-    <row r="842" spans="1:11" ht="13.2">
+    <row r="842" spans="1:13" ht="13.2">
       <c r="A842" s="19">
         <v>140</v>
       </c>
@@ -28266,7 +28290,7 @@
       <c r="I842" s="46"/>
       <c r="J842" s="73"/>
     </row>
-    <row r="843" spans="1:11" ht="13.2">
+    <row r="843" spans="1:13" ht="13.2">
       <c r="A843" s="19">
         <v>140</v>
       </c>
@@ -28287,7 +28311,7 @@
       <c r="I843" s="46"/>
       <c r="J843" s="73"/>
     </row>
-    <row r="844" spans="1:11" ht="13.2">
+    <row r="844" spans="1:13" ht="13.2">
       <c r="A844" s="19">
         <v>140</v>
       </c>
@@ -28308,7 +28332,7 @@
       <c r="I844" s="46"/>
       <c r="J844" s="73"/>
     </row>
-    <row r="845" spans="1:11" ht="13.2">
+    <row r="845" spans="1:13" ht="13.2">
       <c r="A845" s="19">
         <v>141</v>
       </c>
@@ -28331,10 +28355,10 @@
       <c r="I845" s="36"/>
       <c r="J845" s="71"/>
       <c r="K845" s="82" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="846" spans="1:11" ht="13.2">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="846" spans="1:13" ht="13.2">
       <c r="A846" s="19">
         <v>141</v>
       </c>
@@ -28355,7 +28379,7 @@
       <c r="I846" s="36"/>
       <c r="J846" s="71"/>
     </row>
-    <row r="847" spans="1:11" ht="13.2">
+    <row r="847" spans="1:13" ht="13.2">
       <c r="A847" s="19">
         <v>141</v>
       </c>
@@ -28374,7 +28398,7 @@
       <c r="I847" s="36"/>
       <c r="J847" s="71"/>
     </row>
-    <row r="848" spans="1:11" ht="13.2">
+    <row r="848" spans="1:13" ht="105.6">
       <c r="A848" s="19">
         <v>141</v>
       </c>
@@ -28399,8 +28423,14 @@
       <c r="K848" s="82" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="849" spans="1:11" ht="13.2">
+      <c r="L848" s="82" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M848" s="82" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="849" spans="1:13" ht="13.2">
       <c r="A849" s="19">
         <v>141</v>
       </c>
@@ -28421,7 +28451,7 @@
       <c r="I849" s="36"/>
       <c r="J849" s="71"/>
     </row>
-    <row r="850" spans="1:11" ht="13.2">
+    <row r="850" spans="1:13" ht="13.2">
       <c r="A850" s="19">
         <v>141</v>
       </c>
@@ -28442,7 +28472,7 @@
       <c r="I850" s="36"/>
       <c r="J850" s="71"/>
     </row>
-    <row r="851" spans="1:11" ht="13.2">
+    <row r="851" spans="1:13" ht="13.2">
       <c r="A851" s="19">
         <v>141</v>
       </c>
@@ -28463,7 +28493,7 @@
       <c r="I851" s="36"/>
       <c r="J851" s="71"/>
     </row>
-    <row r="852" spans="1:11" ht="13.2">
+    <row r="852" spans="1:13" ht="13.2">
       <c r="A852" s="19">
         <v>141</v>
       </c>
@@ -28489,7 +28519,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="853" spans="1:11" ht="105.6">
+    <row r="853" spans="1:13" ht="124.2">
       <c r="A853" s="19">
         <v>141</v>
       </c>
@@ -28511,11 +28541,11 @@
       <c r="H853" s="36"/>
       <c r="I853" s="36"/>
       <c r="J853" s="71"/>
-      <c r="K853" s="82" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="854" spans="1:11" ht="13.2">
+      <c r="K853" s="83" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="854" spans="1:13" ht="13.2">
       <c r="A854" s="19">
         <v>142</v>
       </c>
@@ -28534,7 +28564,7 @@
       <c r="I854" s="46"/>
       <c r="J854" s="73"/>
     </row>
-    <row r="855" spans="1:11" ht="13.2">
+    <row r="855" spans="1:13" ht="13.2">
       <c r="A855" s="19">
         <v>142</v>
       </c>
@@ -28555,7 +28585,7 @@
       <c r="I855" s="46"/>
       <c r="J855" s="73"/>
     </row>
-    <row r="856" spans="1:11" ht="52.8">
+    <row r="856" spans="1:13" ht="52.8">
       <c r="A856" s="19">
         <v>142</v>
       </c>
@@ -28578,10 +28608,10 @@
       <c r="I856" s="46"/>
       <c r="J856" s="73"/>
       <c r="K856" s="82" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="857" spans="1:11" ht="250.8">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="857" spans="1:13" ht="330">
       <c r="A857" s="19">
         <v>142</v>
       </c>
@@ -28604,10 +28634,16 @@
       <c r="I857" s="46"/>
       <c r="J857" s="73"/>
       <c r="K857" s="82" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="858" spans="1:11" ht="79.2">
+        <v>943</v>
+      </c>
+      <c r="L857" s="82" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M857" s="82" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="858" spans="1:13" ht="79.2">
       <c r="A858" s="19">
         <v>142</v>
       </c>
@@ -28627,11 +28663,11 @@
       <c r="H858" s="46"/>
       <c r="I858" s="46"/>
       <c r="J858" s="73"/>
-      <c r="K858" s="82" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="859" spans="1:11" ht="13.2">
+      <c r="K858" s="83" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="859" spans="1:13" ht="13.2">
       <c r="A859" s="19">
         <v>142</v>
       </c>
@@ -28652,7 +28688,7 @@
       <c r="I859" s="46"/>
       <c r="J859" s="73"/>
     </row>
-    <row r="860" spans="1:11" ht="13.2">
+    <row r="860" spans="1:13" ht="13.2">
       <c r="A860" s="19">
         <v>142</v>
       </c>
@@ -28673,7 +28709,7 @@
       <c r="I860" s="46"/>
       <c r="J860" s="73"/>
     </row>
-    <row r="861" spans="1:11" ht="237.6">
+    <row r="861" spans="1:13" ht="237.6">
       <c r="A861" s="19">
         <v>142</v>
       </c>
@@ -28696,10 +28732,10 @@
       <c r="I861" s="46"/>
       <c r="J861" s="73"/>
       <c r="K861" s="82" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="862" spans="1:11" ht="79.2">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="862" spans="1:13" ht="79.2">
       <c r="A862" s="19">
         <v>142</v>
       </c>
@@ -28722,10 +28758,10 @@
       <c r="I862" s="46"/>
       <c r="J862" s="73"/>
       <c r="K862" s="82" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="863" spans="1:11" ht="13.2">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="863" spans="1:13" ht="13.2">
       <c r="A863" s="19">
         <v>145</v>
       </c>
@@ -28746,7 +28782,7 @@
       <c r="I863" s="36"/>
       <c r="J863" s="71"/>
     </row>
-    <row r="864" spans="1:11" ht="13.2">
+    <row r="864" spans="1:13" ht="13.2">
       <c r="A864" s="19">
         <v>145</v>
       </c>
@@ -28935,7 +28971,7 @@
       <c r="I872" s="46"/>
       <c r="J872" s="73"/>
       <c r="K872" s="82" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="873" spans="1:11" ht="13.2">
@@ -29096,7 +29132,7 @@
       <c r="I879" s="46"/>
       <c r="J879" s="73"/>
       <c r="K879" s="82" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="880" spans="1:11" ht="13.2">
@@ -29120,7 +29156,7 @@
       <c r="I880" s="46"/>
       <c r="J880" s="73"/>
     </row>
-    <row r="881" spans="1:11" ht="13.2">
+    <row r="881" spans="1:13" ht="13.2">
       <c r="A881" s="19">
         <v>147</v>
       </c>
@@ -29141,7 +29177,7 @@
       <c r="I881" s="46"/>
       <c r="J881" s="73"/>
     </row>
-    <row r="882" spans="1:11" ht="13.2">
+    <row r="882" spans="1:13" ht="13.2">
       <c r="A882" s="19">
         <v>147</v>
       </c>
@@ -29162,7 +29198,7 @@
       <c r="I882" s="46"/>
       <c r="J882" s="73"/>
     </row>
-    <row r="883" spans="1:11" ht="13.2">
+    <row r="883" spans="1:13" ht="13.2">
       <c r="A883" s="19">
         <v>147</v>
       </c>
@@ -29183,7 +29219,7 @@
       <c r="I883" s="46"/>
       <c r="J883" s="73"/>
     </row>
-    <row r="884" spans="1:11" ht="13.2">
+    <row r="884" spans="1:13" ht="13.2">
       <c r="A884" s="19">
         <v>147</v>
       </c>
@@ -29209,7 +29245,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="885" spans="1:11" ht="26.4">
+    <row r="885" spans="1:13" ht="26.4">
       <c r="A885" s="19">
         <v>147</v>
       </c>
@@ -29230,7 +29266,7 @@
       <c r="I885" s="46"/>
       <c r="J885" s="73"/>
     </row>
-    <row r="886" spans="1:11" ht="13.2">
+    <row r="886" spans="1:13" ht="13.2">
       <c r="A886" s="19">
         <v>147</v>
       </c>
@@ -29251,7 +29287,7 @@
       <c r="I886" s="46"/>
       <c r="J886" s="73"/>
     </row>
-    <row r="887" spans="1:11" ht="13.2">
+    <row r="887" spans="1:13" ht="13.2">
       <c r="A887" s="19">
         <v>147</v>
       </c>
@@ -29272,7 +29308,7 @@
       <c r="I887" s="46"/>
       <c r="J887" s="73"/>
     </row>
-    <row r="888" spans="1:11" ht="13.2">
+    <row r="888" spans="1:13" ht="13.2">
       <c r="A888" s="19">
         <v>147</v>
       </c>
@@ -29293,7 +29329,7 @@
       <c r="I888" s="46"/>
       <c r="J888" s="73"/>
     </row>
-    <row r="889" spans="1:11" ht="13.2">
+    <row r="889" spans="1:13" ht="13.2">
       <c r="A889" s="19">
         <v>147</v>
       </c>
@@ -29314,7 +29350,7 @@
       <c r="I889" s="46"/>
       <c r="J889" s="73"/>
     </row>
-    <row r="890" spans="1:11" ht="145.19999999999999">
+    <row r="890" spans="1:13" ht="145.19999999999999">
       <c r="A890" s="19">
         <v>147</v>
       </c>
@@ -29335,10 +29371,16 @@
       <c r="I890" s="46"/>
       <c r="J890" s="73"/>
       <c r="K890" s="82" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="891" spans="1:11" ht="13.2">
+        <v>948</v>
+      </c>
+      <c r="L890" s="82" t="s">
+        <v>1041</v>
+      </c>
+      <c r="M890" s="82" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="891" spans="1:13" ht="13.2">
       <c r="A891" s="19">
         <v>148</v>
       </c>
@@ -29364,7 +29406,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="892" spans="1:11" ht="13.2">
+    <row r="892" spans="1:13" ht="13.2">
       <c r="A892" s="19">
         <v>148</v>
       </c>
@@ -29385,7 +29427,7 @@
       <c r="I892" s="36"/>
       <c r="J892" s="71"/>
     </row>
-    <row r="893" spans="1:11" ht="13.2">
+    <row r="893" spans="1:13" ht="13.2">
       <c r="A893" s="19">
         <v>148</v>
       </c>
@@ -29404,7 +29446,7 @@
       <c r="I893" s="36"/>
       <c r="J893" s="71"/>
     </row>
-    <row r="894" spans="1:11" ht="39.6">
+    <row r="894" spans="1:13" ht="330">
       <c r="A894" s="19">
         <v>148</v>
       </c>
@@ -29427,10 +29469,16 @@
       <c r="I894" s="36"/>
       <c r="J894" s="71"/>
       <c r="K894" s="82" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="895" spans="1:11" ht="13.2">
+        <v>950</v>
+      </c>
+      <c r="L894" s="82" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M894" s="82" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="895" spans="1:13" ht="13.2">
       <c r="A895" s="19">
         <v>148</v>
       </c>
@@ -29451,7 +29499,7 @@
       <c r="I895" s="36"/>
       <c r="J895" s="71"/>
     </row>
-    <row r="896" spans="1:11" ht="13.2">
+    <row r="896" spans="1:13" ht="13.2">
       <c r="A896" s="19">
         <v>148</v>
       </c>
@@ -29641,8 +29689,8 @@
       <c r="H904" s="46"/>
       <c r="I904" s="46"/>
       <c r="J904" s="73"/>
-      <c r="K904" s="82" t="s">
-        <v>952</v>
+      <c r="K904" s="83" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="905" spans="1:11" ht="13.2">
@@ -29710,7 +29758,7 @@
       <c r="I907" s="46"/>
       <c r="J907" s="73"/>
       <c r="K907" s="82" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="908" spans="1:11" ht="13.2">
@@ -30041,8 +30089,8 @@
       <c r="H922" s="46"/>
       <c r="I922" s="46"/>
       <c r="J922" s="73"/>
-      <c r="K922" s="82" t="s">
-        <v>954</v>
+      <c r="K922" s="83" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="923" spans="1:11" ht="13.2">
@@ -30276,7 +30324,7 @@
       <c r="I933" s="36"/>
       <c r="J933" s="71"/>
       <c r="K933" s="83" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="934" spans="1:13" ht="13.2">
@@ -30347,10 +30395,10 @@
       <c r="I936" s="36"/>
       <c r="J936" s="71"/>
       <c r="K936" s="82" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L936" s="82" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="M936" s="82" t="s">
         <v>686</v>
@@ -30444,7 +30492,7 @@
       <c r="I940" s="46"/>
       <c r="J940" s="73"/>
       <c r="K940" s="82" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="941" spans="1:13" ht="26.4">
@@ -30512,7 +30560,7 @@
       <c r="I943" s="46"/>
       <c r="J943" s="73"/>
       <c r="K943" s="82" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="944" spans="1:13" ht="26.4">
@@ -30536,7 +30584,7 @@
       <c r="I944" s="46"/>
       <c r="J944" s="73"/>
     </row>
-    <row r="945" spans="1:11" ht="26.4">
+    <row r="945" spans="1:13" ht="92.4">
       <c r="A945" s="19">
         <v>153</v>
       </c>
@@ -30557,10 +30605,16 @@
       <c r="I945" s="46"/>
       <c r="J945" s="73"/>
       <c r="K945" s="82" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="946" spans="1:11" ht="26.4">
+        <v>958</v>
+      </c>
+      <c r="L945" s="82" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M945" s="82" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="946" spans="1:13" ht="26.4">
       <c r="A946" s="19">
         <v>154</v>
       </c>
@@ -30579,7 +30633,7 @@
       <c r="I946" s="36"/>
       <c r="J946" s="71"/>
     </row>
-    <row r="947" spans="1:11" ht="26.4">
+    <row r="947" spans="1:13" ht="26.4">
       <c r="A947" s="19">
         <v>154</v>
       </c>
@@ -30600,7 +30654,7 @@
       <c r="I947" s="36"/>
       <c r="J947" s="71"/>
     </row>
-    <row r="948" spans="1:11" ht="26.4">
+    <row r="948" spans="1:13" ht="26.4">
       <c r="A948" s="19">
         <v>154</v>
       </c>
@@ -30621,7 +30675,7 @@
       <c r="I948" s="36"/>
       <c r="J948" s="71"/>
     </row>
-    <row r="949" spans="1:11" ht="26.4">
+    <row r="949" spans="1:13" ht="26.4">
       <c r="A949" s="19">
         <v>154</v>
       </c>
@@ -30642,7 +30696,7 @@
       <c r="I949" s="36"/>
       <c r="J949" s="71"/>
     </row>
-    <row r="950" spans="1:11" ht="26.4">
+    <row r="950" spans="1:13" ht="26.4">
       <c r="A950" s="19">
         <v>154</v>
       </c>
@@ -30663,7 +30717,7 @@
       <c r="I950" s="36"/>
       <c r="J950" s="71"/>
     </row>
-    <row r="951" spans="1:11" ht="26.4">
+    <row r="951" spans="1:13" ht="26.4">
       <c r="A951" s="19">
         <v>154</v>
       </c>
@@ -30684,7 +30738,7 @@
       <c r="I951" s="36"/>
       <c r="J951" s="71"/>
     </row>
-    <row r="952" spans="1:11" ht="26.4">
+    <row r="952" spans="1:13" ht="26.4">
       <c r="A952" s="19">
         <v>154</v>
       </c>
@@ -30705,7 +30759,7 @@
       <c r="I952" s="36"/>
       <c r="J952" s="71"/>
     </row>
-    <row r="953" spans="1:11" ht="26.4">
+    <row r="953" spans="1:13" ht="26.4">
       <c r="A953" s="19">
         <v>154</v>
       </c>
@@ -30726,7 +30780,7 @@
       <c r="I953" s="36"/>
       <c r="J953" s="71"/>
     </row>
-    <row r="954" spans="1:11" ht="26.4">
+    <row r="954" spans="1:13" ht="26.4">
       <c r="A954" s="19">
         <v>154</v>
       </c>
@@ -30747,7 +30801,7 @@
       <c r="I954" s="36"/>
       <c r="J954" s="71"/>
     </row>
-    <row r="955" spans="1:11" ht="13.2">
+    <row r="955" spans="1:13" ht="13.2">
       <c r="A955" s="19">
         <v>155</v>
       </c>
@@ -30768,7 +30822,7 @@
       <c r="I955" s="46"/>
       <c r="J955" s="73"/>
     </row>
-    <row r="956" spans="1:11" ht="13.2">
+    <row r="956" spans="1:13" ht="13.2">
       <c r="A956" s="19">
         <v>155</v>
       </c>
@@ -30789,7 +30843,7 @@
       <c r="I956" s="46"/>
       <c r="J956" s="73"/>
     </row>
-    <row r="957" spans="1:11" ht="52.8">
+    <row r="957" spans="1:13" ht="52.8">
       <c r="A957" s="19">
         <v>155</v>
       </c>
@@ -30810,10 +30864,10 @@
       <c r="I957" s="46"/>
       <c r="J957" s="73"/>
       <c r="K957" s="82" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="958" spans="1:11" ht="26.4">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="958" spans="1:13" ht="92.4">
       <c r="A958" s="19">
         <v>155</v>
       </c>
@@ -30835,11 +30889,17 @@
       <c r="H958" s="46"/>
       <c r="I958" s="46"/>
       <c r="J958" s="73"/>
-      <c r="K958" s="82" t="s">
+      <c r="K958" s="83" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="959" spans="1:11" ht="13.2">
+      <c r="L958" s="82" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M958" s="82" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="959" spans="1:13" ht="13.2">
       <c r="A959" s="19">
         <v>155</v>
       </c>
@@ -30860,7 +30920,7 @@
       <c r="I959" s="46"/>
       <c r="J959" s="73"/>
     </row>
-    <row r="960" spans="1:11" ht="13.2">
+    <row r="960" spans="1:13" ht="13.2">
       <c r="A960" s="19">
         <v>155</v>
       </c>
@@ -30881,7 +30941,7 @@
       <c r="I960" s="46"/>
       <c r="J960" s="73"/>
     </row>
-    <row r="961" spans="1:11" ht="13.2">
+    <row r="961" spans="1:13" ht="13.2">
       <c r="A961" s="19">
         <v>155</v>
       </c>
@@ -30902,7 +30962,7 @@
       <c r="I961" s="46"/>
       <c r="J961" s="73"/>
     </row>
-    <row r="962" spans="1:11" ht="13.2">
+    <row r="962" spans="1:13" ht="13.2">
       <c r="A962" s="19">
         <v>155</v>
       </c>
@@ -30923,7 +30983,7 @@
       <c r="I962" s="46"/>
       <c r="J962" s="73"/>
     </row>
-    <row r="963" spans="1:11" ht="26.4">
+    <row r="963" spans="1:13" ht="26.4">
       <c r="A963" s="19">
         <v>155</v>
       </c>
@@ -30946,10 +31006,10 @@
       <c r="I963" s="46"/>
       <c r="J963" s="73"/>
       <c r="K963" s="82" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="964" spans="1:11" ht="13.2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="964" spans="1:13" ht="13.2">
       <c r="A964" s="19">
         <v>157</v>
       </c>
@@ -30970,7 +31030,7 @@
       <c r="I964" s="36"/>
       <c r="J964" s="71"/>
     </row>
-    <row r="965" spans="1:11" ht="13.2">
+    <row r="965" spans="1:13" ht="13.2">
       <c r="A965" s="19">
         <v>157</v>
       </c>
@@ -30991,7 +31051,7 @@
       <c r="I965" s="36"/>
       <c r="J965" s="71"/>
     </row>
-    <row r="966" spans="1:11" ht="13.2">
+    <row r="966" spans="1:13" ht="13.2">
       <c r="A966" s="19">
         <v>157</v>
       </c>
@@ -31012,7 +31072,7 @@
       <c r="I966" s="36"/>
       <c r="J966" s="71"/>
     </row>
-    <row r="967" spans="1:11" ht="13.2">
+    <row r="967" spans="1:13" ht="13.2">
       <c r="A967" s="19">
         <v>157</v>
       </c>
@@ -31033,7 +31093,7 @@
       <c r="I967" s="36"/>
       <c r="J967" s="71"/>
     </row>
-    <row r="968" spans="1:11" ht="13.2">
+    <row r="968" spans="1:13" ht="13.2">
       <c r="A968" s="19">
         <v>157</v>
       </c>
@@ -31054,7 +31114,7 @@
       <c r="I968" s="36"/>
       <c r="J968" s="71"/>
     </row>
-    <row r="969" spans="1:11" ht="13.2">
+    <row r="969" spans="1:13" ht="13.2">
       <c r="A969" s="19">
         <v>157</v>
       </c>
@@ -31075,7 +31135,7 @@
       <c r="I969" s="36"/>
       <c r="J969" s="71"/>
     </row>
-    <row r="970" spans="1:11" ht="13.2">
+    <row r="970" spans="1:13" ht="13.2">
       <c r="A970" s="19">
         <v>157</v>
       </c>
@@ -31096,7 +31156,7 @@
       <c r="I970" s="36"/>
       <c r="J970" s="71"/>
     </row>
-    <row r="971" spans="1:11" ht="13.2">
+    <row r="971" spans="1:13" ht="13.2">
       <c r="A971" s="19">
         <v>157</v>
       </c>
@@ -31117,7 +31177,7 @@
       <c r="I971" s="36"/>
       <c r="J971" s="71"/>
     </row>
-    <row r="972" spans="1:11" ht="13.2">
+    <row r="972" spans="1:13" ht="13.2">
       <c r="A972" s="19">
         <v>157</v>
       </c>
@@ -31138,7 +31198,7 @@
       <c r="I972" s="36"/>
       <c r="J972" s="71"/>
     </row>
-    <row r="973" spans="1:11" ht="13.2">
+    <row r="973" spans="1:13" ht="13.2">
       <c r="A973" s="19">
         <v>157</v>
       </c>
@@ -31159,7 +31219,7 @@
       <c r="I973" s="36"/>
       <c r="J973" s="71"/>
     </row>
-    <row r="974" spans="1:11" ht="26.4">
+    <row r="974" spans="1:13" ht="26.4">
       <c r="A974" s="19">
         <v>160</v>
       </c>
@@ -31182,10 +31242,10 @@
       <c r="I974" s="46"/>
       <c r="J974" s="73"/>
       <c r="K974" s="82" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="975" spans="1:11" ht="39.6">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="975" spans="1:13" ht="52.8">
       <c r="A975" s="19">
         <v>160</v>
       </c>
@@ -31210,8 +31270,14 @@
       <c r="K975" s="82" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="976" spans="1:11" ht="13.2">
+      <c r="L975" s="82" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M975" s="82" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="976" spans="1:13" ht="13.2">
       <c r="A976" s="19">
         <v>160</v>
       </c>
@@ -31316,7 +31382,7 @@
       <c r="I980" s="46"/>
       <c r="J980" s="73"/>
     </row>
-    <row r="981" spans="1:11" ht="39.6">
+    <row r="981" spans="1:11" ht="26.4">
       <c r="A981" s="19">
         <v>160</v>
       </c>
@@ -31339,7 +31405,7 @@
       <c r="I981" s="46"/>
       <c r="J981" s="73"/>
       <c r="K981" s="82" t="s">
-        <v>963</v>
+        <v>915</v>
       </c>
     </row>
     <row r="982" spans="1:11" ht="13.2">
@@ -31619,7 +31685,7 @@
       <c r="I994" s="46"/>
       <c r="J994" s="73"/>
       <c r="K994" s="82" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="995" spans="1:11" ht="26.4">
@@ -31709,8 +31775,8 @@
       <c r="H998" s="46"/>
       <c r="I998" s="46"/>
       <c r="J998" s="73"/>
-      <c r="K998" s="82" t="s">
-        <v>965</v>
+      <c r="K998" s="83" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="999" spans="1:11" ht="26.4">
@@ -31736,7 +31802,7 @@
       <c r="I999" s="46"/>
       <c r="J999" s="73"/>
       <c r="K999" s="82" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="1000" spans="1:11" ht="26.4">
@@ -31832,7 +31898,7 @@
       <c r="I1003" s="36"/>
       <c r="J1003" s="71"/>
       <c r="K1003" s="82" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="1004" spans="1:11" ht="13.2">
@@ -31860,7 +31926,7 @@
       <c r="I1004" s="36"/>
       <c r="J1004" s="71"/>
       <c r="K1004" s="82" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1005" spans="1:11" ht="26.4">
@@ -31886,7 +31952,7 @@
       <c r="I1005" s="36"/>
       <c r="J1005" s="71"/>
       <c r="K1005" s="82" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1006" spans="1:11" ht="13.2">
@@ -32185,7 +32251,7 @@
       <c r="I1019" s="36"/>
       <c r="J1019" s="71"/>
       <c r="K1019" s="82" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="1020" spans="1:11" ht="26.4">
@@ -32213,7 +32279,7 @@
       <c r="I1020" s="36"/>
       <c r="J1020" s="71"/>
       <c r="K1020" s="82" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="1021" spans="1:11" ht="26.4">
@@ -32309,7 +32375,7 @@
       <c r="I1024" s="36"/>
       <c r="J1024" s="71"/>
       <c r="K1024" s="82" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="1025" spans="1:11" ht="26.4">
@@ -32419,7 +32485,7 @@
       <c r="I1029" s="46"/>
       <c r="J1029" s="73"/>
       <c r="K1029" s="82" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1030" spans="1:11" ht="13.2">
@@ -32468,7 +32534,7 @@
       <c r="I1031" s="46"/>
       <c r="J1031" s="73"/>
       <c r="K1031" s="82" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="1032" spans="1:11" ht="13.2">
@@ -32557,7 +32623,7 @@
       <c r="I1035" s="46"/>
       <c r="J1035" s="73"/>
       <c r="K1035" s="82" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="1036" spans="1:11" ht="13.2">
@@ -32686,7 +32752,7 @@
       <c r="I1041" s="36"/>
       <c r="J1041" s="71"/>
       <c r="K1041" s="82" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="1042" spans="1:11" ht="26.4">
@@ -32862,7 +32928,7 @@
       <c r="I1049" s="46"/>
       <c r="J1049" s="73"/>
       <c r="K1049" s="82" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="1050" spans="1:11" ht="13.2">
@@ -32928,7 +32994,7 @@
       <c r="I1052" s="46"/>
       <c r="J1052" s="73"/>
       <c r="K1052" s="82" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="1053" spans="1:11" ht="13.2">
@@ -33038,7 +33104,7 @@
       <c r="I1057" s="36"/>
       <c r="J1057" s="71"/>
       <c r="K1057" s="82" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="1058" spans="1:11" ht="13.2">
@@ -33083,7 +33149,7 @@
       <c r="I1059" s="36"/>
       <c r="J1059" s="71"/>
       <c r="K1059" s="82" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="1060" spans="1:11" ht="26.4">
@@ -33107,7 +33173,7 @@
       <c r="I1060" s="36"/>
       <c r="J1060" s="71"/>
       <c r="K1060" s="82" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1061" spans="1:11" ht="13.2">
@@ -33154,7 +33220,7 @@
       <c r="I1062" s="36"/>
       <c r="J1062" s="71"/>
       <c r="K1062" s="82" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1063" spans="1:11" ht="13.2">
@@ -33220,7 +33286,7 @@
       <c r="I1065" s="36"/>
       <c r="J1065" s="71"/>
       <c r="K1065" s="82" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="1066" spans="1:11" ht="26.4">
@@ -33391,7 +33457,7 @@
       <c r="I1073" s="46"/>
       <c r="J1073" s="73"/>
       <c r="K1073" s="82" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1074" spans="1:11" ht="26.4">
@@ -33438,7 +33504,7 @@
       <c r="I1075" s="36"/>
       <c r="J1075" s="71"/>
       <c r="K1075" s="82" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1076" spans="1:11" ht="13.2">
@@ -33527,7 +33593,7 @@
       <c r="I1079" s="36"/>
       <c r="J1079" s="71"/>
       <c r="K1079" s="82" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="1080" spans="1:11" ht="13.2">
@@ -33614,7 +33680,7 @@
       <c r="I1083" s="36"/>
       <c r="J1083" s="71"/>
       <c r="K1083" s="82" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1084" spans="1:11" ht="13.2">
@@ -33682,7 +33748,7 @@
       <c r="I1086" s="46"/>
       <c r="J1086" s="73"/>
       <c r="K1086" s="82" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1087" spans="1:11" ht="13.2">
@@ -33752,7 +33818,7 @@
       <c r="I1089" s="46"/>
       <c r="J1089" s="73"/>
       <c r="K1089" s="82" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1090" spans="1:11" ht="13.2">
@@ -33799,7 +33865,7 @@
       <c r="I1091" s="46"/>
       <c r="J1091" s="73"/>
       <c r="K1091" s="82" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1092" spans="1:11" ht="79.2">
@@ -33823,7 +33889,7 @@
       <c r="I1092" s="46"/>
       <c r="J1092" s="73"/>
       <c r="K1092" s="82" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1093" spans="1:11" ht="13.2">
@@ -33933,7 +33999,7 @@
       <c r="I1097" s="36"/>
       <c r="J1097" s="71"/>
       <c r="K1097" s="82" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1098" spans="1:11" ht="105.6">
@@ -33959,7 +34025,7 @@
       <c r="I1098" s="36"/>
       <c r="J1098" s="71"/>
       <c r="K1098" s="82" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1099" spans="1:11" ht="39.6">
@@ -33985,7 +34051,7 @@
       <c r="I1099" s="36"/>
       <c r="J1099" s="71"/>
       <c r="K1099" s="82" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1100" spans="1:11" ht="13.2">
@@ -34114,7 +34180,7 @@
       <c r="I1105" s="46"/>
       <c r="J1105" s="73"/>
       <c r="K1105" s="82" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1106" spans="1:11" ht="13.2">
@@ -34184,7 +34250,7 @@
       <c r="I1108" s="46"/>
       <c r="J1108" s="73"/>
       <c r="K1108" s="82" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="1109" spans="1:11" ht="13.2">
@@ -34451,7 +34517,7 @@
       <c r="I1120" s="36"/>
       <c r="J1120" s="71"/>
       <c r="K1120" s="82" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="1121" spans="1:11" ht="13.2">
@@ -34543,7 +34609,7 @@
       <c r="I1124" s="46"/>
       <c r="J1124" s="73"/>
       <c r="K1124" s="82" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1125" spans="1:11" ht="13.2">
@@ -34632,7 +34698,7 @@
       <c r="I1128" s="46"/>
       <c r="J1128" s="73"/>
       <c r="K1128" s="82" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="1129" spans="1:11" ht="13.2">
@@ -34843,7 +34909,7 @@
       <c r="I1138" s="36"/>
       <c r="J1138" s="71"/>
       <c r="K1138" s="82" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1139" spans="1:11" ht="13.2">
@@ -34955,7 +35021,7 @@
       <c r="I1143" s="46"/>
       <c r="J1143" s="73"/>
       <c r="K1143" s="82" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="1144" spans="1:11" ht="26.4">
@@ -35044,7 +35110,7 @@
       <c r="I1147" s="46"/>
       <c r="J1147" s="73"/>
       <c r="K1147" s="82" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1148" spans="1:11" ht="26.4">
@@ -35154,7 +35220,7 @@
       <c r="I1152" s="36"/>
       <c r="J1152" s="71"/>
       <c r="K1152" s="82" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1153" spans="1:11" ht="26.4">
@@ -35648,10 +35714,10 @@
       <c r="I1175" s="36"/>
       <c r="J1175" s="71"/>
       <c r="K1175" s="82" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="L1175" s="82" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="M1175" s="82" t="s">
         <v>738</v>
@@ -35701,7 +35767,7 @@
       <c r="I1177" s="46"/>
       <c r="J1177" s="73"/>
       <c r="K1177" s="82" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1178" spans="1:13" ht="39.6">
@@ -35727,7 +35793,7 @@
       <c r="I1178" s="46"/>
       <c r="J1178" s="73"/>
       <c r="K1178" s="82" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1179" spans="1:13" ht="39.6">
@@ -35753,7 +35819,7 @@
       <c r="I1179" s="46"/>
       <c r="J1179" s="73"/>
       <c r="K1179" s="82" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1180" spans="1:13" ht="26.4">
@@ -35800,7 +35866,7 @@
       <c r="I1181" s="46"/>
       <c r="J1181" s="73"/>
       <c r="K1181" s="82" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1182" spans="1:13" ht="26.4">
@@ -35953,7 +36019,7 @@
       <c r="I1188" s="36"/>
       <c r="J1188" s="71"/>
       <c r="K1188" s="82" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1189" spans="1:11" ht="13.2">
@@ -36126,7 +36192,7 @@
       <c r="I1196" s="46"/>
       <c r="J1196" s="73"/>
       <c r="K1196" s="82" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1197" spans="1:11" ht="13.2">
@@ -36381,7 +36447,7 @@
       <c r="I1208" s="36"/>
       <c r="J1208" s="71"/>
       <c r="K1208" s="82" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1209" spans="1:11" ht="26.4">
@@ -36512,7 +36578,7 @@
       <c r="I1214" s="46"/>
       <c r="J1214" s="73"/>
       <c r="K1214" s="82" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1215" spans="1:11" ht="13.2">
@@ -36580,7 +36646,7 @@
       <c r="I1217" s="46"/>
       <c r="J1217" s="73"/>
       <c r="K1217" s="82" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="1218" spans="1:11" ht="13.2">
@@ -36812,7 +36878,7 @@
       <c r="I1228" s="36"/>
       <c r="J1228" s="71"/>
       <c r="K1228" s="82" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1229" spans="1:11" ht="13.2">
@@ -36943,7 +37009,7 @@
       <c r="I1234" s="46"/>
       <c r="J1234" s="73"/>
       <c r="K1234" s="82" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1235" spans="1:11" ht="13.2">
@@ -37200,7 +37266,7 @@
       <c r="I1246" s="36"/>
       <c r="J1246" s="71"/>
       <c r="K1246" s="82" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1247" spans="1:11" ht="13.2">
@@ -37518,7 +37584,7 @@
       <c r="I1261" s="36"/>
       <c r="J1261" s="71"/>
       <c r="K1261" s="82" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="1262" spans="1:11" ht="13.2">
@@ -37565,7 +37631,7 @@
       <c r="I1263" s="36"/>
       <c r="J1263" s="71"/>
       <c r="K1263" s="82" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1264" spans="1:11" ht="13.2">
@@ -37637,7 +37703,7 @@
       <c r="I1266" s="36"/>
       <c r="J1266" s="71"/>
       <c r="K1266" s="82" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1267" spans="1:11" ht="13.2">
@@ -37705,7 +37771,7 @@
       <c r="I1269" s="46"/>
       <c r="J1269" s="73"/>
       <c r="K1269" s="82" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1270" spans="1:11" ht="13.2">
@@ -37773,7 +37839,7 @@
       <c r="I1272" s="46"/>
       <c r="J1272" s="73"/>
       <c r="K1272" s="82" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1273" spans="1:11" ht="13.2">
@@ -37867,7 +37933,7 @@
       <c r="I1276" s="36"/>
       <c r="J1276" s="71"/>
       <c r="K1276" s="82" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1277" spans="1:11" ht="26.4">
@@ -37933,7 +37999,7 @@
       <c r="I1279" s="36"/>
       <c r="J1279" s="71"/>
       <c r="K1279" s="82" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1280" spans="1:11" ht="26.4">
@@ -38386,7 +38452,7 @@
       <c r="I1300" s="36"/>
       <c r="J1300" s="71"/>
       <c r="K1300" s="82" t="s">
-        <v>1011</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1301" spans="1:11" ht="52.8">

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="1096">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -2984,9 +2984,6 @@
     <t>Could delete this but I think it's clear that the description means that different personnel are on call at different times.</t>
   </si>
   <si>
-    <t>Reject; neither are correct</t>
-  </si>
-  <si>
     <t>Accept; delete "and management."</t>
   </si>
   <si>
@@ -3011,12 +3008,6 @@
     <t>Reject; this would be a separate term. Ask Mathias if he wants to change</t>
   </si>
   <si>
-    <t>Accept; change "post-graduate education" to " at minimum, a Master's degree"</t>
-  </si>
-  <si>
-    <t>Accept. Should we created "board certified pediatric emegency physician role?"</t>
-  </si>
-  <si>
     <t>Reject; don't think this is necessary</t>
   </si>
   <si>
@@ -3029,12 +3020,6 @@
     <t>Accept; could also change to "a surgeon with special training in genitourinary surgery operative techniques who investigates and treats patients with diseases and injuries to the kidneys and genitourinary tract."</t>
   </si>
   <si>
-    <t>Accept but change to "A surgeon with oversight responsibility for the emergent, urgent, and restorative care of the injured patient, who specializes non-operative and manual and instrumental operative techniques to investigate or treat an injury to help iimprove bodily function or appearance, or to repair ruptured areas.</t>
-  </si>
-  <si>
-    <t>Partially accept: delete "a trauma center role that is" and change "would be" to "is."</t>
-  </si>
-  <si>
     <t>Ignore; I think it's clear</t>
   </si>
   <si>
@@ -3050,18 +3035,12 @@
     <t>Change "practice" to "practical"</t>
   </si>
   <si>
-    <t>Reject but ask Mathias</t>
-  </si>
-  <si>
     <t>Accept as written</t>
   </si>
   <si>
     <t>Should we replace credentialed with licensed? I don't think it really matters very much.</t>
   </si>
   <si>
-    <t>Accept; no problem adding. Change spelling to "orthopedic."</t>
-  </si>
-  <si>
     <t>Same as above</t>
   </si>
   <si>
@@ -3071,22 +3050,7 @@
     <t xml:space="preserve">Reject; current wording is consistent with other trauma center role definitions </t>
   </si>
   <si>
-    <t>Accept; will also need to change main definition</t>
-  </si>
-  <si>
-    <t>How is this term different from "trauma multidisciplinary peer review committee?"</t>
-  </si>
-  <si>
     <t>Reject; the current definition doesn't mention a fellowship.</t>
-  </si>
-  <si>
-    <t>Reject?. It is possible to receive a board certification in the Surgical Critical Care subspecialty: https://www.abms.org/member-boards/contact-an-abms-member-board/american-board-of-surgery/</t>
-  </si>
-  <si>
-    <t>I think there is: https://www.abms.org/member-boards/contact-an-abms-member-board/american-board-of-surgery/</t>
-  </si>
-  <si>
-    <t>Accept; remove "credentialed by the trauma program within the hospital." This definition is not consistent with the other board certified roles</t>
   </si>
   <si>
     <t>I don't think there is anything wrong with the grammar</t>
@@ -3225,6 +3189,189 @@
   </si>
   <si>
     <t>A medical residency in anesthesiology required for board certification as an anesthesiologist.</t>
+  </si>
+  <si>
+    <t>A healthcare facility policy that specifies the requirement for orthopedic surgeon availability 24 hours a day, 7 days a week.</t>
+  </si>
+  <si>
+    <t>The plan describing the process for creation of a trauma system.</t>
+  </si>
+  <si>
+    <t>An assembly of individuals and organization representatives with different perspectives and responsibilities who collaborate to improve the trauma care process and its outcomes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accept; change "post-graduate education" to " at minimum, a Master's degree." </t>
+  </si>
+  <si>
+    <t>A nurse with, at minimum, a Master's degree in nursing who uses expanded knowledge and skills in assessment, diagnosis, planning, implementation, and evaluation of patient care.</t>
+  </si>
+  <si>
+    <t>Do we need to change the definition?</t>
+  </si>
+  <si>
+    <t>Reject. But should we create "board certified pediatric emegency physician role?" If we do, accept this change</t>
+  </si>
+  <si>
+    <t>A surgeon with special training in genitourinary surgery operative techniques who investigates and treats patients with diseases and injuries to the kidneys and genitorurinary tract.</t>
+  </si>
+  <si>
+    <t>Reject; wouldn't non-operative techniques be performed by an emergency physician?</t>
+  </si>
+  <si>
+    <t>A surgeon with oversight responsibility for the emergent, urgent, and restorative care of the injured patient, who specializes in performing operative manual and instrumental techniques on a patient to investigate or treat an injury to help improve bodily function or appearance, or to repair ruptured areas.</t>
+  </si>
+  <si>
+    <t>Ignore; level 4 is open 24 hours but level 5 may not be</t>
+  </si>
+  <si>
+    <t>Partially accept: change "would be" to "is."</t>
+  </si>
+  <si>
+    <t>A level V trauma center role is a trauma center role that is borne by a hospital or clinic that provides initial evaluation, stabilization, diagnostic capabilities, and transfer to a higher level of care. If the bearer of the role is not open 24 hours daily, a specific protocol of destination and method of transport is specified. The role is created by a Level V Trauma Center designation.</t>
+  </si>
+  <si>
+    <t>A hospital's neurologic injury triage plan identifying the destination of patients with specified injuries, or based on injury severity, approved by the trauma medical director.</t>
+  </si>
+  <si>
+    <t>A orthopedic surgeon who formally represents orthopedic surgery in the multidisciplinary peer review committee.</t>
+  </si>
+  <si>
+    <t>Reject; don't think it's necessary and doesn't match other liaison role descriptions. Change spelling to "orthopedic."</t>
+  </si>
+  <si>
+    <t>A neurosurgeon who has completed all training requirements and is eligible to take the board certification examination in the country of intended practice.</t>
+  </si>
+  <si>
+    <t>Accept; will also need to change main definition and definitions for other liaison roles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This definition is nearly identical to the definition for the trauma multidisciplinary peer review committee. </t>
+  </si>
+  <si>
+    <t>A surgeon who has completed all training requirements and is eligible to take the surgical critical care board certification examination in the country of intended practice.</t>
+  </si>
+  <si>
+    <t>Reject. It is possible to receive a board certification in the surgical critical care subspecialty: http://www.absurgery.org/default.jsp?public_definitions https://www.abms.org/member-boards/contact-an-abms-member-board/american-board-of-surgery/ **I also edited the definition</t>
+  </si>
+  <si>
+    <t>Correct but there is a board certification in surgical critical care; ask Kevin?</t>
+  </si>
+  <si>
+    <t>Accept; remove "credentialed by the trauma program within the hospital." This definition is not consistent with the other board certified roles. (Not sure how to rewrite this.)</t>
+  </si>
+  <si>
+    <t>Accept (not sure how to reword this)</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/b8d273331b36d4720b67128c8945ace88d1703d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/OOSTT/OOSTT/commit/2b5c649b713a410c5960dc298f950c9c90428295 </t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/42fc3de457f360f043957a03b4c25b91cc6f441b</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/1f6e39259209b48b57f2d79f66ba901a0ce66366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/OOSTT/OOSTT/commit/da50223fa7ca195ab33c504d12212b9716f8ecbb </t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/cda3594f9cc514cc522467a6a745018bd360db54</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/7dccfce69920c19df7159c7e177bb30faec5593e</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/0d66d851055f77ad35a4762d697986dcb9678d13</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/a88d022e47ad38b6bd335d00717c68c397714a03</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/e3f92547384ea614d5de7bcbcbb6a286b4f0d186</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/ae849ecec25ec3529d7c66fa2cf47f7efc97855a</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/e9edfdda718e64aac890d31af53b293ff9ef5767</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/ff64e88019660f440386d109f47c140262533a88</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/de490f3b10ccf233e11bf0ed2bf996206a2cf5fd</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/da17fd8decda20db99259ad2876ee515186c9588</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/cb1ab72f718eb262f01d1f279c3ff37d17b4539d</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/e3dd7433385d2c540e721b1c48117e07f6be8b73</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/02d24ae90913e6d60ed2035fa1ba5b351456b66d</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/10935960a938b4b4850ba80823647bcf491f913e</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/0c6b7c358049824fb443d62c15a37c55d7e3fa9a</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/50d44640d718e18ebc92902b002f4408e5588257</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/fed5988d7b454623dc715f4e294a2abbb1f35fd8</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/25bc0a21c894d6effd0c9a80f0f060b9cb10e3a6</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/38c6666824d57da695d38710241495673085b942</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/786dfef7f7e76369483a356f756868408fd4dbad</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/da02717967d1994414f503f1240677e94a1b329b</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/5fbf09ab6437f4fdfa7d4411ec135be64e629e95</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/cf692ad0fda5bf959bb879bc1ad683dfe6a596d9</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/93e6e4d811fda7344efbef97a28983b99b692287</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/0b5a236eb439545949c976db2717feea72f9d2c0</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/4c5788a8bc6c1eb0a07035df88f6a8d95a5405f7</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/7feed9576ad8c4754153325557daad26e896b705</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/c96f320023e326f891a0ffb39ae3a5df2f5c2964</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/f0b3241334c90813956bcc7246f17f2931f8c8d3</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/bc99eeb84dd9a624df1887c7b78fed76ddc4e33c</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/22a4f6fbe9a597db45941d4e1b3dee55a7db3547</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/ee2829985e2ff8d092aea198225d12664b554e4a</t>
   </si>
 </sst>
 </file>
@@ -3561,7 +3708,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3814,6 +3961,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9699,9 +9852,9 @@
   </sheetPr>
   <dimension ref="A1:IW1418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A991" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1000" sqref="K1000"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O286" sqref="O286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -9718,7 +9871,7 @@
     <col min="10" max="10" width="29.33203125" style="16" customWidth="1"/>
     <col min="11" max="11" width="25.77734375" style="82" customWidth="1"/>
     <col min="12" max="13" width="24.77734375" style="82" customWidth="1"/>
-    <col min="14" max="14" width="30.33203125" style="28" customWidth="1"/>
+    <col min="14" max="14" width="30.33203125" style="82" customWidth="1"/>
     <col min="15" max="257" width="8.33203125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9757,12 +9910,12 @@
         <v>864</v>
       </c>
       <c r="L1" s="69" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="M1" s="69" t="s">
-        <v>1010</v>
-      </c>
-      <c r="N1" s="29" t="s">
+        <v>998</v>
+      </c>
+      <c r="N1" s="69" t="s">
         <v>775</v>
       </c>
     </row>
@@ -16105,7 +16258,7 @@
       <c r="I288" s="36"/>
       <c r="J288" s="71"/>
     </row>
-    <row r="289" spans="1:13" ht="145.19999999999999">
+    <row r="289" spans="1:14" ht="145.19999999999999">
       <c r="A289" s="19">
         <v>46</v>
       </c>
@@ -16131,13 +16284,16 @@
         <v>867</v>
       </c>
       <c r="L289" s="82" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="M289" s="82" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" ht="13.2">
+      <c r="N289" s="88" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" ht="13.2">
       <c r="A290" s="19">
         <v>46</v>
       </c>
@@ -16158,7 +16314,7 @@
       <c r="I290" s="36"/>
       <c r="J290" s="71"/>
     </row>
-    <row r="291" spans="1:13" ht="13.2">
+    <row r="291" spans="1:14" ht="13.2">
       <c r="A291" s="19">
         <v>46</v>
       </c>
@@ -16179,7 +16335,7 @@
       <c r="I291" s="36"/>
       <c r="J291" s="71"/>
     </row>
-    <row r="292" spans="1:13" ht="79.2">
+    <row r="292" spans="1:14" ht="79.2">
       <c r="A292" s="19">
         <v>46</v>
       </c>
@@ -16205,7 +16361,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="13.2">
+    <row r="293" spans="1:14" ht="13.2">
       <c r="A293" s="19">
         <v>46</v>
       </c>
@@ -16226,7 +16382,7 @@
       <c r="I293" s="36"/>
       <c r="J293" s="71"/>
     </row>
-    <row r="294" spans="1:13" ht="39.6">
+    <row r="294" spans="1:14" ht="39.6">
       <c r="A294" s="19">
         <v>46</v>
       </c>
@@ -16252,7 +16408,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="13.2">
+    <row r="295" spans="1:14" ht="13.2">
       <c r="A295" s="19">
         <v>46</v>
       </c>
@@ -16273,7 +16429,7 @@
       <c r="I295" s="36"/>
       <c r="J295" s="71"/>
     </row>
-    <row r="296" spans="1:13" ht="79.2">
+    <row r="296" spans="1:14" ht="79.2">
       <c r="A296" s="19">
         <v>47</v>
       </c>
@@ -16297,13 +16453,16 @@
         <v>894</v>
       </c>
       <c r="L296" s="82" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="M296" s="82" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" ht="66">
+        <v>1001</v>
+      </c>
+      <c r="N296" s="88" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" ht="66">
       <c r="A297" s="19">
         <v>47</v>
       </c>
@@ -16329,7 +16488,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="13.2">
+    <row r="298" spans="1:14" ht="13.2">
       <c r="A298" s="19">
         <v>47</v>
       </c>
@@ -16350,7 +16509,7 @@
       <c r="I298" s="46"/>
       <c r="J298" s="73"/>
     </row>
-    <row r="299" spans="1:13" ht="13.2">
+    <row r="299" spans="1:14" ht="13.2">
       <c r="A299" s="19">
         <v>47</v>
       </c>
@@ -16371,7 +16530,7 @@
       <c r="I299" s="46"/>
       <c r="J299" s="73"/>
     </row>
-    <row r="300" spans="1:13" ht="13.2">
+    <row r="300" spans="1:14" ht="13.2">
       <c r="A300" s="19">
         <v>47</v>
       </c>
@@ -16392,7 +16551,7 @@
       <c r="I300" s="46"/>
       <c r="J300" s="73"/>
     </row>
-    <row r="301" spans="1:13" ht="13.2">
+    <row r="301" spans="1:14" ht="13.2">
       <c r="A301" s="19">
         <v>47</v>
       </c>
@@ -16413,7 +16572,7 @@
       <c r="I301" s="46"/>
       <c r="J301" s="73"/>
     </row>
-    <row r="302" spans="1:13" ht="13.2">
+    <row r="302" spans="1:14" ht="13.2">
       <c r="A302" s="19">
         <v>47</v>
       </c>
@@ -16434,7 +16593,7 @@
       <c r="I302" s="46"/>
       <c r="J302" s="73"/>
     </row>
-    <row r="303" spans="1:13" ht="13.2">
+    <row r="303" spans="1:14" ht="13.2">
       <c r="A303" s="19">
         <v>47</v>
       </c>
@@ -16455,7 +16614,7 @@
       <c r="I303" s="46"/>
       <c r="J303" s="73"/>
     </row>
-    <row r="304" spans="1:13" ht="13.2">
+    <row r="304" spans="1:14" ht="13.2">
       <c r="A304" s="19">
         <v>47</v>
       </c>
@@ -16476,7 +16635,7 @@
       <c r="I304" s="46"/>
       <c r="J304" s="73"/>
     </row>
-    <row r="305" spans="1:13" ht="13.2">
+    <row r="305" spans="1:14" ht="13.2">
       <c r="A305" s="19">
         <v>48</v>
       </c>
@@ -16497,7 +16656,7 @@
       <c r="I305" s="36"/>
       <c r="J305" s="71"/>
     </row>
-    <row r="306" spans="1:13" ht="13.2">
+    <row r="306" spans="1:14" ht="13.2">
       <c r="A306" s="19">
         <v>48</v>
       </c>
@@ -16518,7 +16677,7 @@
       <c r="I306" s="36"/>
       <c r="J306" s="71"/>
     </row>
-    <row r="307" spans="1:13" ht="13.2">
+    <row r="307" spans="1:14" ht="13.2">
       <c r="A307" s="19">
         <v>48</v>
       </c>
@@ -16539,7 +16698,7 @@
       <c r="I307" s="36"/>
       <c r="J307" s="71"/>
     </row>
-    <row r="308" spans="1:13" ht="39.6">
+    <row r="308" spans="1:14" ht="39.6">
       <c r="A308" s="19">
         <v>48</v>
       </c>
@@ -16562,7 +16721,7 @@
       <c r="I308" s="36"/>
       <c r="J308" s="71"/>
     </row>
-    <row r="309" spans="1:13" ht="39.6">
+    <row r="309" spans="1:14" ht="39.6">
       <c r="A309" s="19">
         <v>48</v>
       </c>
@@ -16585,7 +16744,7 @@
       <c r="I309" s="36"/>
       <c r="J309" s="71"/>
     </row>
-    <row r="310" spans="1:13" ht="66">
+    <row r="310" spans="1:14" ht="66">
       <c r="A310" s="19">
         <v>48</v>
       </c>
@@ -16608,7 +16767,7 @@
       <c r="I310" s="36"/>
       <c r="J310" s="71"/>
     </row>
-    <row r="311" spans="1:13" ht="79.2">
+    <row r="311" spans="1:14" ht="79.2">
       <c r="A311" s="19">
         <v>48</v>
       </c>
@@ -16634,7 +16793,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="13.2">
+    <row r="312" spans="1:14" ht="13.2">
       <c r="A312" s="19">
         <v>48</v>
       </c>
@@ -16655,7 +16814,7 @@
       <c r="I312" s="36"/>
       <c r="J312" s="71"/>
     </row>
-    <row r="313" spans="1:13" ht="132">
+    <row r="313" spans="1:14" ht="132">
       <c r="A313" s="19">
         <v>48</v>
       </c>
@@ -16679,13 +16838,16 @@
         <v>869</v>
       </c>
       <c r="L313" s="82" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="M313" s="82" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" ht="13.2">
+      <c r="N313" s="88" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" ht="13.2">
       <c r="A314" s="19">
         <v>49</v>
       </c>
@@ -16706,7 +16868,7 @@
       <c r="I314" s="46"/>
       <c r="J314" s="73"/>
     </row>
-    <row r="315" spans="1:13" ht="13.2">
+    <row r="315" spans="1:14" ht="13.2">
       <c r="A315" s="19">
         <v>49</v>
       </c>
@@ -16727,7 +16889,7 @@
       <c r="I315" s="46"/>
       <c r="J315" s="73"/>
     </row>
-    <row r="316" spans="1:13" ht="13.2">
+    <row r="316" spans="1:14" ht="13.2">
       <c r="A316" s="19">
         <v>49</v>
       </c>
@@ -16746,7 +16908,7 @@
       <c r="I316" s="46"/>
       <c r="J316" s="73"/>
     </row>
-    <row r="317" spans="1:13" ht="66">
+    <row r="317" spans="1:14" ht="66">
       <c r="A317" s="19">
         <v>49</v>
       </c>
@@ -16774,7 +16936,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="13.2">
+    <row r="318" spans="1:14" ht="13.2">
       <c r="A318" s="19">
         <v>49</v>
       </c>
@@ -16795,7 +16957,7 @@
       <c r="I318" s="46"/>
       <c r="J318" s="73"/>
     </row>
-    <row r="319" spans="1:13" ht="13.2">
+    <row r="319" spans="1:14" ht="13.2">
       <c r="A319" s="19">
         <v>49</v>
       </c>
@@ -16816,7 +16978,7 @@
       <c r="I319" s="46"/>
       <c r="J319" s="73"/>
     </row>
-    <row r="320" spans="1:13" ht="13.2">
+    <row r="320" spans="1:14" ht="13.2">
       <c r="A320" s="19">
         <v>49</v>
       </c>
@@ -17083,7 +17245,7 @@
       <c r="I332" s="46"/>
       <c r="J332" s="73"/>
       <c r="K332" s="83" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="333" spans="1:11" ht="13.2">
@@ -17179,7 +17341,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="337" spans="1:13" ht="26.4">
+    <row r="337" spans="1:14" ht="26.4">
       <c r="A337" s="19">
         <v>51</v>
       </c>
@@ -17202,7 +17364,7 @@
       <c r="I337" s="46"/>
       <c r="J337" s="73"/>
     </row>
-    <row r="338" spans="1:13" ht="13.2">
+    <row r="338" spans="1:14" ht="13.2">
       <c r="A338" s="19">
         <v>51</v>
       </c>
@@ -17223,7 +17385,7 @@
       <c r="I338" s="46"/>
       <c r="J338" s="73"/>
     </row>
-    <row r="339" spans="1:13" ht="13.2">
+    <row r="339" spans="1:14" ht="13.2">
       <c r="A339" s="19">
         <v>51</v>
       </c>
@@ -17244,7 +17406,7 @@
       <c r="I339" s="46"/>
       <c r="J339" s="73"/>
     </row>
-    <row r="340" spans="1:13" ht="132">
+    <row r="340" spans="1:14" ht="132">
       <c r="A340" s="19">
         <v>51</v>
       </c>
@@ -17268,7 +17430,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="132">
+    <row r="341" spans="1:14" ht="132">
       <c r="A341" s="19">
         <v>52</v>
       </c>
@@ -17294,13 +17456,16 @@
         <v>871</v>
       </c>
       <c r="L341" s="82" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="M341" s="82" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" ht="26.4">
+      <c r="N341" s="88" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" ht="26.4">
       <c r="A342" s="19">
         <v>52</v>
       </c>
@@ -17321,7 +17486,7 @@
       <c r="I342" s="36"/>
       <c r="J342" s="71"/>
     </row>
-    <row r="343" spans="1:13" ht="26.4">
+    <row r="343" spans="1:14" ht="26.4">
       <c r="A343" s="19">
         <v>52</v>
       </c>
@@ -17342,7 +17507,7 @@
       <c r="I343" s="36"/>
       <c r="J343" s="71"/>
     </row>
-    <row r="344" spans="1:13" ht="26.4">
+    <row r="344" spans="1:14" ht="26.4">
       <c r="A344" s="19">
         <v>52</v>
       </c>
@@ -17368,7 +17533,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="345" spans="1:13" ht="105.6">
+    <row r="345" spans="1:14" ht="105.6">
       <c r="A345" s="19">
         <v>52</v>
       </c>
@@ -17394,7 +17559,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="346" spans="1:13" ht="26.4">
+    <row r="346" spans="1:14" ht="26.4">
       <c r="A346" s="19">
         <v>52</v>
       </c>
@@ -17415,7 +17580,7 @@
       <c r="I346" s="36"/>
       <c r="J346" s="71"/>
     </row>
-    <row r="347" spans="1:13" ht="26.4">
+    <row r="347" spans="1:14" ht="26.4">
       <c r="A347" s="19">
         <v>52</v>
       </c>
@@ -17436,7 +17601,7 @@
       <c r="I347" s="36"/>
       <c r="J347" s="71"/>
     </row>
-    <row r="348" spans="1:13" ht="26.4">
+    <row r="348" spans="1:14" ht="26.4">
       <c r="A348" s="19">
         <v>52</v>
       </c>
@@ -17457,7 +17622,7 @@
       <c r="I348" s="36"/>
       <c r="J348" s="71"/>
     </row>
-    <row r="349" spans="1:13" ht="26.4">
+    <row r="349" spans="1:14" ht="26.4">
       <c r="A349" s="19">
         <v>52</v>
       </c>
@@ -17478,7 +17643,7 @@
       <c r="I349" s="36"/>
       <c r="J349" s="71"/>
     </row>
-    <row r="350" spans="1:13" ht="13.2">
+    <row r="350" spans="1:14" ht="13.2">
       <c r="A350" s="19">
         <v>59</v>
       </c>
@@ -17499,7 +17664,7 @@
       <c r="I350" s="46"/>
       <c r="J350" s="73"/>
     </row>
-    <row r="351" spans="1:13" ht="13.2">
+    <row r="351" spans="1:14" ht="13.2">
       <c r="A351" s="19">
         <v>59</v>
       </c>
@@ -17520,7 +17685,7 @@
       <c r="I351" s="46"/>
       <c r="J351" s="73"/>
     </row>
-    <row r="352" spans="1:13" ht="13.2">
+    <row r="352" spans="1:14" ht="13.2">
       <c r="A352" s="19">
         <v>59</v>
       </c>
@@ -18157,7 +18322,7 @@
       <c r="I381" s="36"/>
       <c r="J381" s="71"/>
       <c r="K381" s="83" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="382" spans="1:11" ht="26.4">
@@ -18417,7 +18582,7 @@
       <c r="I393" s="46"/>
       <c r="J393" s="73"/>
       <c r="K393" s="83" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="394" spans="1:11" ht="26.4">
@@ -18909,7 +19074,7 @@
       <c r="I416" s="36"/>
       <c r="J416" s="71"/>
     </row>
-    <row r="417" spans="1:13" ht="13.2">
+    <row r="417" spans="1:14" ht="13.2">
       <c r="A417" s="19">
         <v>69</v>
       </c>
@@ -18930,7 +19095,7 @@
       <c r="I417" s="36"/>
       <c r="J417" s="71"/>
     </row>
-    <row r="418" spans="1:13" ht="13.2">
+    <row r="418" spans="1:14" ht="13.2">
       <c r="A418" s="19">
         <v>69</v>
       </c>
@@ -18951,7 +19116,7 @@
       <c r="I418" s="36"/>
       <c r="J418" s="71"/>
     </row>
-    <row r="419" spans="1:13" ht="13.2">
+    <row r="419" spans="1:14" ht="13.2">
       <c r="A419" s="19">
         <v>69</v>
       </c>
@@ -18972,7 +19137,7 @@
       <c r="I419" s="36"/>
       <c r="J419" s="71"/>
     </row>
-    <row r="420" spans="1:13" ht="13.2">
+    <row r="420" spans="1:14" ht="13.2">
       <c r="A420" s="19">
         <v>69</v>
       </c>
@@ -18993,7 +19158,7 @@
       <c r="I420" s="36"/>
       <c r="J420" s="71"/>
     </row>
-    <row r="421" spans="1:13" ht="13.2">
+    <row r="421" spans="1:14" ht="13.2">
       <c r="A421" s="19">
         <v>69</v>
       </c>
@@ -19014,7 +19179,7 @@
       <c r="I421" s="36"/>
       <c r="J421" s="71"/>
     </row>
-    <row r="422" spans="1:13" ht="13.2">
+    <row r="422" spans="1:14" ht="13.2">
       <c r="A422" s="19">
         <v>69</v>
       </c>
@@ -19035,7 +19200,7 @@
       <c r="I422" s="36"/>
       <c r="J422" s="71"/>
     </row>
-    <row r="423" spans="1:13" ht="13.2">
+    <row r="423" spans="1:14" ht="13.2">
       <c r="A423" s="19">
         <v>69</v>
       </c>
@@ -19056,7 +19221,7 @@
       <c r="I423" s="36"/>
       <c r="J423" s="71"/>
     </row>
-    <row r="424" spans="1:13" ht="13.2">
+    <row r="424" spans="1:14" ht="13.2">
       <c r="A424" s="19">
         <v>70</v>
       </c>
@@ -19077,7 +19242,7 @@
       <c r="I424" s="46"/>
       <c r="J424" s="73"/>
     </row>
-    <row r="425" spans="1:13" ht="52.8">
+    <row r="425" spans="1:14" ht="52.8">
       <c r="A425" s="19">
         <v>70</v>
       </c>
@@ -19100,7 +19265,7 @@
       <c r="I425" s="46"/>
       <c r="J425" s="73"/>
     </row>
-    <row r="426" spans="1:13" ht="13.2">
+    <row r="426" spans="1:14" ht="13.2">
       <c r="A426" s="19">
         <v>70</v>
       </c>
@@ -19121,7 +19286,7 @@
       <c r="I426" s="46"/>
       <c r="J426" s="73"/>
     </row>
-    <row r="427" spans="1:13" ht="52.8">
+    <row r="427" spans="1:14" ht="52.8">
       <c r="A427" s="19">
         <v>70</v>
       </c>
@@ -19147,13 +19312,16 @@
         <v>880</v>
       </c>
       <c r="L427" s="82" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
       <c r="M427" s="82" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="428" spans="1:13" ht="13.2">
+        <v>1007</v>
+      </c>
+      <c r="N427" s="88" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14" ht="13.2">
       <c r="A428" s="19">
         <v>70</v>
       </c>
@@ -19174,7 +19342,7 @@
       <c r="I428" s="46"/>
       <c r="J428" s="73"/>
     </row>
-    <row r="429" spans="1:13" ht="13.2">
+    <row r="429" spans="1:14" ht="13.2">
       <c r="A429" s="19">
         <v>70</v>
       </c>
@@ -19195,7 +19363,7 @@
       <c r="I429" s="46"/>
       <c r="J429" s="73"/>
     </row>
-    <row r="430" spans="1:13" ht="13.2">
+    <row r="430" spans="1:14" ht="13.2">
       <c r="A430" s="19">
         <v>70</v>
       </c>
@@ -19216,7 +19384,7 @@
       <c r="I430" s="46"/>
       <c r="J430" s="73"/>
     </row>
-    <row r="431" spans="1:13" ht="13.2">
+    <row r="431" spans="1:14" ht="13.2">
       <c r="A431" s="19">
         <v>70</v>
       </c>
@@ -19237,7 +19405,7 @@
       <c r="I431" s="46"/>
       <c r="J431" s="73"/>
     </row>
-    <row r="432" spans="1:13" ht="13.2">
+    <row r="432" spans="1:14" ht="13.2">
       <c r="A432" s="19">
         <v>70</v>
       </c>
@@ -19256,7 +19424,7 @@
       <c r="I432" s="46"/>
       <c r="J432" s="73"/>
     </row>
-    <row r="433" spans="1:13" ht="13.2">
+    <row r="433" spans="1:14" ht="13.2">
       <c r="A433" s="19">
         <v>71</v>
       </c>
@@ -19277,7 +19445,7 @@
       <c r="I433" s="46"/>
       <c r="J433" s="73"/>
     </row>
-    <row r="434" spans="1:13" ht="13.2">
+    <row r="434" spans="1:14" ht="13.2">
       <c r="A434" s="19">
         <v>71</v>
       </c>
@@ -19298,7 +19466,7 @@
       <c r="I434" s="46"/>
       <c r="J434" s="73"/>
     </row>
-    <row r="435" spans="1:13" ht="13.2">
+    <row r="435" spans="1:14" ht="13.2">
       <c r="A435" s="19">
         <v>71</v>
       </c>
@@ -19319,7 +19487,7 @@
       <c r="I435" s="46"/>
       <c r="J435" s="73"/>
     </row>
-    <row r="436" spans="1:13" ht="13.2">
+    <row r="436" spans="1:14" ht="13.2">
       <c r="A436" s="19">
         <v>71</v>
       </c>
@@ -19340,7 +19508,7 @@
       <c r="I436" s="46"/>
       <c r="J436" s="73"/>
     </row>
-    <row r="437" spans="1:13" ht="13.2">
+    <row r="437" spans="1:14" ht="13.2">
       <c r="A437" s="19">
         <v>71</v>
       </c>
@@ -19361,7 +19529,7 @@
       <c r="I437" s="46"/>
       <c r="J437" s="73"/>
     </row>
-    <row r="438" spans="1:13" ht="13.2">
+    <row r="438" spans="1:14" ht="13.2">
       <c r="A438" s="19">
         <v>71</v>
       </c>
@@ -19382,7 +19550,7 @@
       <c r="I438" s="46"/>
       <c r="J438" s="73"/>
     </row>
-    <row r="439" spans="1:13" ht="13.2">
+    <row r="439" spans="1:14" ht="13.2">
       <c r="A439" s="19">
         <v>71</v>
       </c>
@@ -19403,7 +19571,7 @@
       <c r="I439" s="46"/>
       <c r="J439" s="73"/>
     </row>
-    <row r="440" spans="1:13" ht="52.8">
+    <row r="440" spans="1:14" ht="52.8">
       <c r="A440" s="19">
         <v>71</v>
       </c>
@@ -19429,7 +19597,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="441" spans="1:13" ht="13.2">
+    <row r="441" spans="1:14" ht="13.2">
       <c r="A441" s="19">
         <v>71</v>
       </c>
@@ -19450,7 +19618,7 @@
       <c r="I441" s="46"/>
       <c r="J441" s="73"/>
     </row>
-    <row r="442" spans="1:13" ht="13.2">
+    <row r="442" spans="1:14" ht="13.2">
       <c r="A442" s="19">
         <v>72</v>
       </c>
@@ -19469,7 +19637,7 @@
       <c r="I442" s="36"/>
       <c r="J442" s="71"/>
     </row>
-    <row r="443" spans="1:13" ht="13.2">
+    <row r="443" spans="1:14" ht="13.2">
       <c r="A443" s="19">
         <v>72</v>
       </c>
@@ -19490,7 +19658,7 @@
       <c r="I443" s="36"/>
       <c r="J443" s="71"/>
     </row>
-    <row r="444" spans="1:13" ht="13.2">
+    <row r="444" spans="1:14" ht="13.2">
       <c r="A444" s="19">
         <v>72</v>
       </c>
@@ -19511,7 +19679,7 @@
       <c r="I444" s="36"/>
       <c r="J444" s="71"/>
     </row>
-    <row r="445" spans="1:13" ht="13.2">
+    <row r="445" spans="1:14" ht="13.2">
       <c r="A445" s="19">
         <v>72</v>
       </c>
@@ -19532,7 +19700,7 @@
       <c r="I445" s="36"/>
       <c r="J445" s="71"/>
     </row>
-    <row r="446" spans="1:13" ht="13.2">
+    <row r="446" spans="1:14" ht="13.2">
       <c r="A446" s="19">
         <v>72</v>
       </c>
@@ -19553,7 +19721,7 @@
       <c r="I446" s="36"/>
       <c r="J446" s="71"/>
     </row>
-    <row r="447" spans="1:13" ht="13.2">
+    <row r="447" spans="1:14" ht="13.2">
       <c r="A447" s="19">
         <v>72</v>
       </c>
@@ -19574,7 +19742,7 @@
       <c r="I447" s="36"/>
       <c r="J447" s="71"/>
     </row>
-    <row r="448" spans="1:13" ht="92.4">
+    <row r="448" spans="1:14" ht="92.4">
       <c r="A448" s="19">
         <v>72</v>
       </c>
@@ -19600,10 +19768,13 @@
         <v>882</v>
       </c>
       <c r="L448" s="82" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="M448" s="82" t="s">
         <v>581</v>
+      </c>
+      <c r="N448" s="88" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="449" spans="1:11" ht="66">
@@ -19961,7 +20132,7 @@
       <c r="I464" s="36"/>
       <c r="J464" s="71"/>
     </row>
-    <row r="465" spans="1:13" ht="13.2">
+    <row r="465" spans="1:14" ht="13.2">
       <c r="A465" s="19">
         <v>74</v>
       </c>
@@ -19982,7 +20153,7 @@
       <c r="I465" s="36"/>
       <c r="J465" s="71"/>
     </row>
-    <row r="466" spans="1:13" ht="13.2">
+    <row r="466" spans="1:14" ht="13.2">
       <c r="A466" s="19">
         <v>74</v>
       </c>
@@ -20003,7 +20174,7 @@
       <c r="I466" s="36"/>
       <c r="J466" s="71"/>
     </row>
-    <row r="467" spans="1:13" ht="13.2">
+    <row r="467" spans="1:14" ht="13.2">
       <c r="A467" s="19">
         <v>74</v>
       </c>
@@ -20024,7 +20195,7 @@
       <c r="I467" s="36"/>
       <c r="J467" s="71"/>
     </row>
-    <row r="468" spans="1:13" ht="66">
+    <row r="468" spans="1:14" ht="66">
       <c r="A468" s="19">
         <v>74</v>
       </c>
@@ -20049,7 +20220,7 @@
       <c r="I468" s="36"/>
       <c r="J468" s="71"/>
     </row>
-    <row r="469" spans="1:13" ht="105.6">
+    <row r="469" spans="1:14" ht="105.6">
       <c r="A469" s="19">
         <v>74</v>
       </c>
@@ -20075,13 +20246,16 @@
         <v>886</v>
       </c>
       <c r="L469" s="82" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
       <c r="M469" s="82" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="470" spans="1:13" ht="26.4">
+      <c r="N469" s="88" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="470" spans="1:14" ht="26.4">
       <c r="A470" s="19">
         <v>74</v>
       </c>
@@ -20104,7 +20278,7 @@
       <c r="I470" s="36"/>
       <c r="J470" s="71"/>
     </row>
-    <row r="471" spans="1:13" ht="13.2">
+    <row r="471" spans="1:14" ht="13.2">
       <c r="A471" s="19">
         <v>74</v>
       </c>
@@ -20125,7 +20299,7 @@
       <c r="I471" s="36"/>
       <c r="J471" s="71"/>
     </row>
-    <row r="472" spans="1:13" ht="13.2">
+    <row r="472" spans="1:14" ht="13.2">
       <c r="A472" s="19">
         <v>76</v>
       </c>
@@ -20146,7 +20320,7 @@
       <c r="I472" s="46"/>
       <c r="J472" s="73"/>
     </row>
-    <row r="473" spans="1:13" ht="13.2">
+    <row r="473" spans="1:14" ht="13.2">
       <c r="A473" s="19">
         <v>76</v>
       </c>
@@ -20167,7 +20341,7 @@
       <c r="I473" s="46"/>
       <c r="J473" s="73"/>
     </row>
-    <row r="474" spans="1:13" ht="13.2">
+    <row r="474" spans="1:14" ht="13.2">
       <c r="A474" s="19">
         <v>76</v>
       </c>
@@ -20186,7 +20360,7 @@
       <c r="I474" s="46"/>
       <c r="J474" s="73"/>
     </row>
-    <row r="475" spans="1:13" ht="13.2">
+    <row r="475" spans="1:14" ht="13.2">
       <c r="A475" s="19">
         <v>76</v>
       </c>
@@ -20207,7 +20381,7 @@
       <c r="I475" s="46"/>
       <c r="J475" s="73"/>
     </row>
-    <row r="476" spans="1:13" ht="13.2">
+    <row r="476" spans="1:14" ht="13.2">
       <c r="A476" s="19">
         <v>76</v>
       </c>
@@ -20228,7 +20402,7 @@
       <c r="I476" s="46"/>
       <c r="J476" s="73"/>
     </row>
-    <row r="477" spans="1:13" ht="13.2">
+    <row r="477" spans="1:14" ht="13.2">
       <c r="A477" s="19">
         <v>76</v>
       </c>
@@ -20249,7 +20423,7 @@
       <c r="I477" s="46"/>
       <c r="J477" s="73"/>
     </row>
-    <row r="478" spans="1:13" ht="118.8">
+    <row r="478" spans="1:14" ht="118.8">
       <c r="A478" s="19">
         <v>76</v>
       </c>
@@ -20275,7 +20449,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="479" spans="1:13" ht="13.2">
+    <row r="479" spans="1:14" ht="13.2">
       <c r="A479" s="19">
         <v>76</v>
       </c>
@@ -20296,7 +20470,7 @@
       <c r="I479" s="46"/>
       <c r="J479" s="73"/>
     </row>
-    <row r="480" spans="1:13" ht="13.2">
+    <row r="480" spans="1:14" ht="13.2">
       <c r="A480" s="19">
         <v>76</v>
       </c>
@@ -20315,7 +20489,7 @@
       <c r="I480" s="46"/>
       <c r="J480" s="73"/>
     </row>
-    <row r="481" spans="1:13" ht="26.4">
+    <row r="481" spans="1:14" ht="26.4">
       <c r="A481" s="19">
         <v>77</v>
       </c>
@@ -20334,7 +20508,7 @@
       <c r="I481" s="36"/>
       <c r="J481" s="71"/>
     </row>
-    <row r="482" spans="1:13" ht="26.4">
+    <row r="482" spans="1:14" ht="26.4">
       <c r="A482" s="19">
         <v>77</v>
       </c>
@@ -20355,7 +20529,7 @@
       <c r="I482" s="36"/>
       <c r="J482" s="71"/>
     </row>
-    <row r="483" spans="1:13" ht="55.2">
+    <row r="483" spans="1:14" ht="55.2">
       <c r="A483" s="19">
         <v>77</v>
       </c>
@@ -20381,7 +20555,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="484" spans="1:13" ht="26.4">
+    <row r="484" spans="1:14" ht="26.4">
       <c r="A484" s="19">
         <v>77</v>
       </c>
@@ -20402,7 +20576,7 @@
       <c r="I484" s="36"/>
       <c r="J484" s="71"/>
     </row>
-    <row r="485" spans="1:13" ht="79.2">
+    <row r="485" spans="1:14" ht="79.2">
       <c r="A485" s="19">
         <v>77</v>
       </c>
@@ -20423,10 +20597,10 @@
       <c r="I485" s="36"/>
       <c r="J485" s="71"/>
       <c r="K485" s="82" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="486" spans="1:13" ht="26.4">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="486" spans="1:14" ht="26.4">
       <c r="A486" s="19">
         <v>77</v>
       </c>
@@ -20447,7 +20621,7 @@
       <c r="I486" s="36"/>
       <c r="J486" s="71"/>
     </row>
-    <row r="487" spans="1:13" ht="26.4">
+    <row r="487" spans="1:14" ht="26.4">
       <c r="A487" s="19">
         <v>77</v>
       </c>
@@ -20468,7 +20642,7 @@
       <c r="I487" s="36"/>
       <c r="J487" s="71"/>
     </row>
-    <row r="488" spans="1:13" ht="165.6">
+    <row r="488" spans="1:14" ht="165.6">
       <c r="A488" s="19">
         <v>77</v>
       </c>
@@ -20496,7 +20670,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="489" spans="1:13" ht="26.4">
+    <row r="489" spans="1:14" ht="26.4">
       <c r="A489" s="19">
         <v>77</v>
       </c>
@@ -20517,7 +20691,7 @@
       <c r="I489" s="36"/>
       <c r="J489" s="71"/>
     </row>
-    <row r="490" spans="1:13" ht="13.2">
+    <row r="490" spans="1:14" ht="13.2">
       <c r="A490" s="19">
         <v>78</v>
       </c>
@@ -20538,7 +20712,7 @@
       <c r="I490" s="46"/>
       <c r="J490" s="73"/>
     </row>
-    <row r="491" spans="1:13" ht="13.2">
+    <row r="491" spans="1:14" ht="13.2">
       <c r="A491" s="19">
         <v>78</v>
       </c>
@@ -20559,7 +20733,7 @@
       <c r="I491" s="46"/>
       <c r="J491" s="73"/>
     </row>
-    <row r="492" spans="1:13" ht="158.4">
+    <row r="492" spans="1:14" ht="158.4">
       <c r="A492" s="19">
         <v>78</v>
       </c>
@@ -20585,13 +20759,16 @@
         <v>890</v>
       </c>
       <c r="L492" s="82" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="M492" s="82" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="493" spans="1:13" ht="79.2">
+      <c r="N492" s="88" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="493" spans="1:14" ht="79.2">
       <c r="A493" s="19">
         <v>78</v>
       </c>
@@ -20616,7 +20793,7 @@
       <c r="I493" s="46"/>
       <c r="J493" s="73"/>
     </row>
-    <row r="494" spans="1:13" ht="26.4">
+    <row r="494" spans="1:14" ht="26.4">
       <c r="A494" s="19">
         <v>78</v>
       </c>
@@ -20637,7 +20814,7 @@
       <c r="I494" s="46"/>
       <c r="J494" s="73"/>
     </row>
-    <row r="495" spans="1:13" ht="13.2">
+    <row r="495" spans="1:14" ht="13.2">
       <c r="A495" s="19">
         <v>78</v>
       </c>
@@ -20660,7 +20837,7 @@
       <c r="I495" s="46"/>
       <c r="J495" s="73"/>
     </row>
-    <row r="496" spans="1:13" ht="13.2">
+    <row r="496" spans="1:14" ht="13.2">
       <c r="A496" s="19">
         <v>78</v>
       </c>
@@ -21362,7 +21539,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="529" spans="1:13" ht="13.2">
+    <row r="529" spans="1:14" ht="13.2">
       <c r="A529" s="19">
         <v>88</v>
       </c>
@@ -21381,7 +21558,7 @@
       <c r="I529" s="46"/>
       <c r="J529" s="73"/>
     </row>
-    <row r="530" spans="1:13" ht="13.2">
+    <row r="530" spans="1:14" ht="13.2">
       <c r="A530" s="19">
         <v>88</v>
       </c>
@@ -21402,7 +21579,7 @@
       <c r="I530" s="46"/>
       <c r="J530" s="73"/>
     </row>
-    <row r="531" spans="1:13" ht="13.2">
+    <row r="531" spans="1:14" ht="13.2">
       <c r="A531" s="19">
         <v>88</v>
       </c>
@@ -21423,7 +21600,7 @@
       <c r="I531" s="46"/>
       <c r="J531" s="73"/>
     </row>
-    <row r="532" spans="1:13" ht="13.2">
+    <row r="532" spans="1:14" ht="13.2">
       <c r="A532" s="19">
         <v>88</v>
       </c>
@@ -21444,7 +21621,7 @@
       <c r="I532" s="46"/>
       <c r="J532" s="73"/>
     </row>
-    <row r="533" spans="1:13" ht="13.2">
+    <row r="533" spans="1:14" ht="13.2">
       <c r="A533" s="19">
         <v>88</v>
       </c>
@@ -21465,7 +21642,7 @@
       <c r="I533" s="46"/>
       <c r="J533" s="73"/>
     </row>
-    <row r="534" spans="1:13" ht="13.2">
+    <row r="534" spans="1:14" ht="13.2">
       <c r="A534" s="19">
         <v>88</v>
       </c>
@@ -21486,7 +21663,7 @@
       <c r="I534" s="46"/>
       <c r="J534" s="73"/>
     </row>
-    <row r="535" spans="1:13" ht="13.2">
+    <row r="535" spans="1:14" ht="13.2">
       <c r="A535" s="19">
         <v>88</v>
       </c>
@@ -21507,7 +21684,7 @@
       <c r="I535" s="46"/>
       <c r="J535" s="73"/>
     </row>
-    <row r="536" spans="1:13" ht="13.2">
+    <row r="536" spans="1:14" ht="13.2">
       <c r="A536" s="19">
         <v>90</v>
       </c>
@@ -21528,7 +21705,7 @@
       <c r="I536" s="36"/>
       <c r="J536" s="71"/>
     </row>
-    <row r="537" spans="1:13" ht="39.6">
+    <row r="537" spans="1:14" ht="39.6">
       <c r="A537" s="19">
         <v>90</v>
       </c>
@@ -21552,7 +21729,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="538" spans="1:13" ht="92.4">
+    <row r="538" spans="1:14" ht="92.4">
       <c r="A538" s="19">
         <v>90</v>
       </c>
@@ -21578,13 +21755,16 @@
         <v>896</v>
       </c>
       <c r="L538" s="82" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="M538" s="82" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="539" spans="1:13" ht="13.2">
+      <c r="N538" s="88" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="539" spans="1:14" ht="13.2">
       <c r="A539" s="19">
         <v>90</v>
       </c>
@@ -21605,7 +21785,7 @@
       <c r="I539" s="36"/>
       <c r="J539" s="71"/>
     </row>
-    <row r="540" spans="1:13" ht="13.2">
+    <row r="540" spans="1:14" ht="13.2">
       <c r="A540" s="19">
         <v>90</v>
       </c>
@@ -21626,7 +21806,7 @@
       <c r="I540" s="36"/>
       <c r="J540" s="71"/>
     </row>
-    <row r="541" spans="1:13" ht="13.2">
+    <row r="541" spans="1:14" ht="13.2">
       <c r="A541" s="19">
         <v>90</v>
       </c>
@@ -21647,7 +21827,7 @@
       <c r="I541" s="36"/>
       <c r="J541" s="71"/>
     </row>
-    <row r="542" spans="1:13" ht="13.2">
+    <row r="542" spans="1:14" ht="13.2">
       <c r="A542" s="19">
         <v>90</v>
       </c>
@@ -21668,7 +21848,7 @@
       <c r="I542" s="36"/>
       <c r="J542" s="71"/>
     </row>
-    <row r="543" spans="1:13" ht="13.2">
+    <row r="543" spans="1:14" ht="13.2">
       <c r="A543" s="19">
         <v>90</v>
       </c>
@@ -21689,7 +21869,7 @@
       <c r="I543" s="36"/>
       <c r="J543" s="71"/>
     </row>
-    <row r="544" spans="1:13" ht="39.6">
+    <row r="544" spans="1:14" ht="39.6">
       <c r="A544" s="19">
         <v>90</v>
       </c>
@@ -21713,7 +21893,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="545" spans="1:13" ht="26.4">
+    <row r="545" spans="1:14" ht="26.4">
       <c r="A545" s="19">
         <v>91</v>
       </c>
@@ -21734,7 +21914,7 @@
       <c r="I545" s="46"/>
       <c r="J545" s="73"/>
     </row>
-    <row r="546" spans="1:13" ht="26.4">
+    <row r="546" spans="1:14" ht="26.4">
       <c r="A546" s="19">
         <v>91</v>
       </c>
@@ -21755,7 +21935,7 @@
       <c r="I546" s="46"/>
       <c r="J546" s="73"/>
     </row>
-    <row r="547" spans="1:13" ht="66">
+    <row r="547" spans="1:14" ht="66">
       <c r="A547" s="19">
         <v>91</v>
       </c>
@@ -21781,7 +21961,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="548" spans="1:13" ht="26.4">
+    <row r="548" spans="1:14" ht="26.4">
       <c r="A548" s="19">
         <v>91</v>
       </c>
@@ -21802,7 +21982,7 @@
       <c r="I548" s="46"/>
       <c r="J548" s="73"/>
     </row>
-    <row r="549" spans="1:13" ht="82.8">
+    <row r="549" spans="1:14" ht="82.8">
       <c r="A549" s="19">
         <v>91</v>
       </c>
@@ -21828,7 +22008,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="550" spans="1:13" ht="26.4">
+    <row r="550" spans="1:14" ht="26.4">
       <c r="A550" s="19">
         <v>91</v>
       </c>
@@ -21849,7 +22029,7 @@
       <c r="I550" s="46"/>
       <c r="J550" s="73"/>
     </row>
-    <row r="551" spans="1:13" ht="26.4">
+    <row r="551" spans="1:14" ht="26.4">
       <c r="A551" s="19">
         <v>91</v>
       </c>
@@ -21870,7 +22050,7 @@
       <c r="I551" s="46"/>
       <c r="J551" s="73"/>
     </row>
-    <row r="552" spans="1:13" ht="26.4">
+    <row r="552" spans="1:14" ht="26.4">
       <c r="A552" s="19">
         <v>91</v>
       </c>
@@ -21891,7 +22071,7 @@
       <c r="I552" s="46"/>
       <c r="J552" s="73"/>
     </row>
-    <row r="553" spans="1:13" ht="26.4">
+    <row r="553" spans="1:14" ht="26.4">
       <c r="A553" s="19">
         <v>91</v>
       </c>
@@ -21912,7 +22092,7 @@
       <c r="I553" s="46"/>
       <c r="J553" s="73"/>
     </row>
-    <row r="554" spans="1:13" ht="13.2">
+    <row r="554" spans="1:14" ht="13.2">
       <c r="A554" s="19">
         <v>94</v>
       </c>
@@ -21933,7 +22113,7 @@
       <c r="I554" s="36"/>
       <c r="J554" s="71"/>
     </row>
-    <row r="555" spans="1:13" ht="13.2">
+    <row r="555" spans="1:14" ht="13.2">
       <c r="A555" s="19">
         <v>94</v>
       </c>
@@ -21954,7 +22134,7 @@
       <c r="I555" s="36"/>
       <c r="J555" s="71"/>
     </row>
-    <row r="556" spans="1:13" ht="26.4">
+    <row r="556" spans="1:14" ht="26.4">
       <c r="A556" s="19">
         <v>94</v>
       </c>
@@ -21980,7 +22160,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="557" spans="1:13" ht="13.2">
+    <row r="557" spans="1:14" ht="13.2">
       <c r="A557" s="19">
         <v>94</v>
       </c>
@@ -22001,7 +22181,7 @@
       <c r="I557" s="36"/>
       <c r="J557" s="71"/>
     </row>
-    <row r="558" spans="1:13" ht="13.2">
+    <row r="558" spans="1:14" ht="13.2">
       <c r="A558" s="19">
         <v>94</v>
       </c>
@@ -22022,7 +22202,7 @@
       <c r="I558" s="36"/>
       <c r="J558" s="71"/>
     </row>
-    <row r="559" spans="1:13" ht="13.2">
+    <row r="559" spans="1:14" ht="13.2">
       <c r="A559" s="19">
         <v>94</v>
       </c>
@@ -22043,7 +22223,7 @@
       <c r="I559" s="36"/>
       <c r="J559" s="71"/>
     </row>
-    <row r="560" spans="1:13" ht="79.2">
+    <row r="560" spans="1:14" ht="79.2">
       <c r="A560" s="19">
         <v>94</v>
       </c>
@@ -22076,8 +22256,11 @@
       <c r="M560" s="82" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="561" spans="1:13" ht="13.2">
+      <c r="N560" s="88" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="561" spans="1:14" ht="13.2">
       <c r="A561" s="19">
         <v>94</v>
       </c>
@@ -22098,7 +22281,7 @@
       <c r="I561" s="36"/>
       <c r="J561" s="71"/>
     </row>
-    <row r="562" spans="1:13" ht="13.2">
+    <row r="562" spans="1:14" ht="13.2">
       <c r="A562" s="19">
         <v>94</v>
       </c>
@@ -22119,7 +22302,7 @@
       <c r="I562" s="36"/>
       <c r="J562" s="71"/>
     </row>
-    <row r="563" spans="1:13" ht="26.4">
+    <row r="563" spans="1:14" ht="26.4">
       <c r="A563" s="19">
         <v>95</v>
       </c>
@@ -22140,7 +22323,7 @@
       <c r="I563" s="46"/>
       <c r="J563" s="73"/>
     </row>
-    <row r="564" spans="1:13" ht="26.4">
+    <row r="564" spans="1:14" ht="26.4">
       <c r="A564" s="19">
         <v>95</v>
       </c>
@@ -22161,7 +22344,7 @@
       <c r="I564" s="46"/>
       <c r="J564" s="73"/>
     </row>
-    <row r="565" spans="1:13" ht="26.4">
+    <row r="565" spans="1:14" ht="26.4">
       <c r="A565" s="19">
         <v>95</v>
       </c>
@@ -22182,7 +22365,7 @@
       <c r="I565" s="46"/>
       <c r="J565" s="73"/>
     </row>
-    <row r="566" spans="1:13" ht="26.4">
+    <row r="566" spans="1:14" ht="26.4">
       <c r="A566" s="19">
         <v>95</v>
       </c>
@@ -22203,7 +22386,7 @@
       <c r="I566" s="46"/>
       <c r="J566" s="73"/>
     </row>
-    <row r="567" spans="1:13" ht="26.4">
+    <row r="567" spans="1:14" ht="26.4">
       <c r="A567" s="19">
         <v>95</v>
       </c>
@@ -22224,7 +22407,7 @@
       <c r="I567" s="46"/>
       <c r="J567" s="73"/>
     </row>
-    <row r="568" spans="1:13" ht="26.4">
+    <row r="568" spans="1:14" ht="26.4">
       <c r="A568" s="19">
         <v>95</v>
       </c>
@@ -22245,7 +22428,7 @@
       <c r="I568" s="46"/>
       <c r="J568" s="73"/>
     </row>
-    <row r="569" spans="1:13" ht="26.4">
+    <row r="569" spans="1:14" ht="26.4">
       <c r="A569" s="19">
         <v>95</v>
       </c>
@@ -22266,7 +22449,7 @@
       <c r="I569" s="46"/>
       <c r="J569" s="73"/>
     </row>
-    <row r="570" spans="1:13" ht="39.6">
+    <row r="570" spans="1:14" ht="39.6">
       <c r="A570" s="19">
         <v>95</v>
       </c>
@@ -22292,7 +22475,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="571" spans="1:13" ht="26.4">
+    <row r="571" spans="1:14" ht="26.4">
       <c r="A571" s="19">
         <v>95</v>
       </c>
@@ -22313,7 +22496,7 @@
       <c r="I571" s="46"/>
       <c r="J571" s="73"/>
     </row>
-    <row r="572" spans="1:13" ht="13.2">
+    <row r="572" spans="1:14" ht="13.2">
       <c r="A572" s="19">
         <v>96</v>
       </c>
@@ -22334,7 +22517,7 @@
       <c r="I572" s="36"/>
       <c r="J572" s="71"/>
     </row>
-    <row r="573" spans="1:13" ht="13.2">
+    <row r="573" spans="1:14" ht="13.2">
       <c r="A573" s="19">
         <v>96</v>
       </c>
@@ -22355,7 +22538,7 @@
       <c r="I573" s="36"/>
       <c r="J573" s="71"/>
     </row>
-    <row r="574" spans="1:13" ht="13.2">
+    <row r="574" spans="1:14" ht="13.2">
       <c r="A574" s="19">
         <v>96</v>
       </c>
@@ -22376,7 +22559,7 @@
       <c r="I574" s="36"/>
       <c r="J574" s="71"/>
     </row>
-    <row r="575" spans="1:13" ht="92.4">
+    <row r="575" spans="1:14" ht="92.4">
       <c r="A575" s="19">
         <v>96</v>
       </c>
@@ -22404,13 +22587,16 @@
         <v>904</v>
       </c>
       <c r="L575" s="82" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="M575" s="82" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="576" spans="1:13" ht="13.2">
+      <c r="N575" s="88" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="576" spans="1:14" ht="13.2">
       <c r="A576" s="19">
         <v>96</v>
       </c>
@@ -22980,7 +23166,7 @@
       <c r="I602" s="46"/>
       <c r="J602" s="73"/>
       <c r="K602" s="83" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="603" spans="1:11" ht="13.2">
@@ -23179,7 +23365,7 @@
       <c r="I611" s="36"/>
       <c r="J611" s="71"/>
       <c r="K611" s="83" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="612" spans="1:11" ht="26.4">
@@ -24182,7 +24368,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="657" spans="1:13" ht="66">
+    <row r="657" spans="1:14" ht="66">
       <c r="A657" s="19">
         <v>110</v>
       </c>
@@ -24206,7 +24392,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="658" spans="1:13" ht="13.2">
+    <row r="658" spans="1:14" ht="13.2">
       <c r="A658" s="19">
         <v>110</v>
       </c>
@@ -24227,7 +24413,7 @@
       <c r="I658" s="46"/>
       <c r="J658" s="73"/>
     </row>
-    <row r="659" spans="1:13" ht="13.2">
+    <row r="659" spans="1:14" ht="13.2">
       <c r="A659" s="19">
         <v>110</v>
       </c>
@@ -24248,7 +24434,7 @@
       <c r="I659" s="46"/>
       <c r="J659" s="73"/>
     </row>
-    <row r="660" spans="1:13" ht="13.2">
+    <row r="660" spans="1:14" ht="13.2">
       <c r="A660" s="19">
         <v>110</v>
       </c>
@@ -24269,7 +24455,7 @@
       <c r="I660" s="46"/>
       <c r="J660" s="73"/>
     </row>
-    <row r="661" spans="1:13" ht="13.2">
+    <row r="661" spans="1:14" ht="13.2">
       <c r="A661" s="19">
         <v>110</v>
       </c>
@@ -24290,7 +24476,7 @@
       <c r="I661" s="46"/>
       <c r="J661" s="73"/>
     </row>
-    <row r="662" spans="1:13" ht="13.2">
+    <row r="662" spans="1:14" ht="13.2">
       <c r="A662" s="19">
         <v>110</v>
       </c>
@@ -24311,7 +24497,7 @@
       <c r="I662" s="46"/>
       <c r="J662" s="73"/>
     </row>
-    <row r="663" spans="1:13" ht="13.2">
+    <row r="663" spans="1:14" ht="13.2">
       <c r="A663" s="19">
         <v>110</v>
       </c>
@@ -24332,7 +24518,7 @@
       <c r="I663" s="46"/>
       <c r="J663" s="73"/>
     </row>
-    <row r="664" spans="1:13" ht="92.4">
+    <row r="664" spans="1:14" ht="92.4">
       <c r="A664" s="19">
         <v>111</v>
       </c>
@@ -24356,13 +24542,16 @@
         <v>922</v>
       </c>
       <c r="L664" s="82" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="M664" s="82" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="665" spans="1:13" ht="26.4">
+      <c r="N664" s="88" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="665" spans="1:14" ht="26.4">
       <c r="A665" s="19">
         <v>111</v>
       </c>
@@ -24388,7 +24577,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="666" spans="1:13" ht="26.4">
+    <row r="666" spans="1:14" ht="26.4">
       <c r="A666" s="19">
         <v>111</v>
       </c>
@@ -24409,7 +24598,7 @@
       <c r="I666" s="36"/>
       <c r="J666" s="71"/>
     </row>
-    <row r="667" spans="1:13" ht="79.2">
+    <row r="667" spans="1:14" ht="79.2">
       <c r="A667" s="19">
         <v>111</v>
       </c>
@@ -24435,7 +24624,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="668" spans="1:13" ht="39.6">
+    <row r="668" spans="1:14" ht="39.6">
       <c r="A668" s="19">
         <v>111</v>
       </c>
@@ -24461,7 +24650,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="669" spans="1:13" ht="26.4">
+    <row r="669" spans="1:14" ht="26.4">
       <c r="A669" s="19">
         <v>111</v>
       </c>
@@ -24482,7 +24671,7 @@
       <c r="I669" s="36"/>
       <c r="J669" s="71"/>
     </row>
-    <row r="670" spans="1:13" ht="26.4">
+    <row r="670" spans="1:14" ht="26.4">
       <c r="A670" s="19">
         <v>111</v>
       </c>
@@ -24503,7 +24692,7 @@
       <c r="I670" s="36"/>
       <c r="J670" s="71"/>
     </row>
-    <row r="671" spans="1:13" ht="66">
+    <row r="671" spans="1:14" ht="66">
       <c r="A671" s="19">
         <v>111</v>
       </c>
@@ -24531,7 +24720,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="672" spans="1:13" ht="26.4">
+    <row r="672" spans="1:14" ht="26.4">
       <c r="A672" s="19">
         <v>111</v>
       </c>
@@ -24552,7 +24741,7 @@
       <c r="I672" s="36"/>
       <c r="J672" s="71"/>
     </row>
-    <row r="673" spans="1:13" ht="13.2">
+    <row r="673" spans="1:14" ht="13.2">
       <c r="A673" s="19">
         <v>117</v>
       </c>
@@ -24571,7 +24760,7 @@
       <c r="I673" s="46"/>
       <c r="J673" s="73"/>
     </row>
-    <row r="674" spans="1:13" ht="132">
+    <row r="674" spans="1:14" ht="132">
       <c r="A674" s="19">
         <v>117</v>
       </c>
@@ -24594,10 +24783,10 @@
       <c r="I674" s="46"/>
       <c r="J674" s="73"/>
       <c r="K674" s="82" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="675" spans="1:13" ht="13.2">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="675" spans="1:14" ht="13.2">
       <c r="A675" s="19">
         <v>117</v>
       </c>
@@ -24616,7 +24805,7 @@
       <c r="I675" s="46"/>
       <c r="J675" s="73"/>
     </row>
-    <row r="676" spans="1:13" ht="13.2">
+    <row r="676" spans="1:14" ht="13.2">
       <c r="A676" s="19">
         <v>117</v>
       </c>
@@ -24637,7 +24826,7 @@
       <c r="I676" s="46"/>
       <c r="J676" s="73"/>
     </row>
-    <row r="677" spans="1:13" ht="13.2">
+    <row r="677" spans="1:14" ht="13.2">
       <c r="A677" s="19">
         <v>117</v>
       </c>
@@ -24658,7 +24847,7 @@
       <c r="I677" s="46"/>
       <c r="J677" s="73"/>
     </row>
-    <row r="678" spans="1:13" ht="13.2">
+    <row r="678" spans="1:14" ht="13.2">
       <c r="A678" s="19">
         <v>117</v>
       </c>
@@ -24679,7 +24868,7 @@
       <c r="I678" s="46"/>
       <c r="J678" s="73"/>
     </row>
-    <row r="679" spans="1:13" ht="105.6">
+    <row r="679" spans="1:14" ht="105.6">
       <c r="A679" s="19">
         <v>117</v>
       </c>
@@ -24707,13 +24896,16 @@
         <v>924</v>
       </c>
       <c r="L679" s="82" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="M679" s="82" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="680" spans="1:13" ht="13.2">
+      <c r="N679" s="88" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="680" spans="1:14" ht="13.2">
       <c r="A680" s="19">
         <v>117</v>
       </c>
@@ -24734,7 +24926,7 @@
       <c r="I680" s="46"/>
       <c r="J680" s="73"/>
     </row>
-    <row r="681" spans="1:13" ht="13.2">
+    <row r="681" spans="1:14" ht="13.2">
       <c r="A681" s="19">
         <v>117</v>
       </c>
@@ -24755,7 +24947,7 @@
       <c r="I681" s="46"/>
       <c r="J681" s="73"/>
     </row>
-    <row r="682" spans="1:13" ht="13.2">
+    <row r="682" spans="1:14" ht="13.2">
       <c r="A682" s="19">
         <v>119</v>
       </c>
@@ -24776,7 +24968,7 @@
       <c r="I682" s="36"/>
       <c r="J682" s="71"/>
     </row>
-    <row r="683" spans="1:13" ht="13.2">
+    <row r="683" spans="1:14" ht="13.2">
       <c r="A683" s="19">
         <v>119</v>
       </c>
@@ -24797,7 +24989,7 @@
       <c r="I683" s="36"/>
       <c r="J683" s="71"/>
     </row>
-    <row r="684" spans="1:13" ht="13.2">
+    <row r="684" spans="1:14" ht="13.2">
       <c r="A684" s="19">
         <v>119</v>
       </c>
@@ -24818,7 +25010,7 @@
       <c r="I684" s="36"/>
       <c r="J684" s="71"/>
     </row>
-    <row r="685" spans="1:13" ht="13.2">
+    <row r="685" spans="1:14" ht="13.2">
       <c r="A685" s="19">
         <v>119</v>
       </c>
@@ -24839,7 +25031,7 @@
       <c r="I685" s="36"/>
       <c r="J685" s="71"/>
     </row>
-    <row r="686" spans="1:13" ht="13.2">
+    <row r="686" spans="1:14" ht="13.2">
       <c r="A686" s="19">
         <v>119</v>
       </c>
@@ -24860,7 +25052,7 @@
       <c r="I686" s="36"/>
       <c r="J686" s="71"/>
     </row>
-    <row r="687" spans="1:13" ht="13.2">
+    <row r="687" spans="1:14" ht="13.2">
       <c r="A687" s="19">
         <v>119</v>
       </c>
@@ -24881,7 +25073,7 @@
       <c r="I687" s="36"/>
       <c r="J687" s="71"/>
     </row>
-    <row r="688" spans="1:13" ht="13.2">
+    <row r="688" spans="1:14" ht="13.2">
       <c r="A688" s="19">
         <v>119</v>
       </c>
@@ -25246,7 +25438,7 @@
       <c r="I704" s="36"/>
       <c r="J704" s="71"/>
     </row>
-    <row r="705" spans="1:13" ht="13.2">
+    <row r="705" spans="1:14" ht="13.2">
       <c r="A705" s="19">
         <v>121</v>
       </c>
@@ -25267,7 +25459,7 @@
       <c r="I705" s="36"/>
       <c r="J705" s="71"/>
     </row>
-    <row r="706" spans="1:13" ht="13.2">
+    <row r="706" spans="1:14" ht="13.2">
       <c r="A706" s="19">
         <v>121</v>
       </c>
@@ -25291,7 +25483,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="707" spans="1:13" ht="92.4">
+    <row r="707" spans="1:14" ht="92.4">
       <c r="A707" s="19">
         <v>121</v>
       </c>
@@ -25317,13 +25509,16 @@
         <v>926</v>
       </c>
       <c r="L707" s="82" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="M707" s="82" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="708" spans="1:13" ht="41.4">
+      <c r="N707" s="88" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="708" spans="1:14" ht="41.4">
       <c r="A708" s="19">
         <v>121</v>
       </c>
@@ -25349,7 +25544,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="709" spans="1:13" ht="26.4">
+    <row r="709" spans="1:14" ht="26.4">
       <c r="A709" s="19">
         <v>122</v>
       </c>
@@ -25370,7 +25565,7 @@
       <c r="I709" s="46"/>
       <c r="J709" s="73"/>
     </row>
-    <row r="710" spans="1:13" ht="26.4">
+    <row r="710" spans="1:14" ht="26.4">
       <c r="A710" s="19">
         <v>122</v>
       </c>
@@ -25391,7 +25586,7 @@
       <c r="I710" s="46"/>
       <c r="J710" s="73"/>
     </row>
-    <row r="711" spans="1:13" ht="26.4">
+    <row r="711" spans="1:14" ht="26.4">
       <c r="A711" s="19">
         <v>122</v>
       </c>
@@ -25412,7 +25607,7 @@
       <c r="I711" s="46"/>
       <c r="J711" s="73"/>
     </row>
-    <row r="712" spans="1:13" ht="26.4">
+    <row r="712" spans="1:14" ht="26.4">
       <c r="A712" s="19">
         <v>122</v>
       </c>
@@ -25433,7 +25628,7 @@
       <c r="I712" s="46"/>
       <c r="J712" s="73"/>
     </row>
-    <row r="713" spans="1:13" ht="26.4">
+    <row r="713" spans="1:14" ht="26.4">
       <c r="A713" s="19">
         <v>122</v>
       </c>
@@ -25454,7 +25649,7 @@
       <c r="I713" s="46"/>
       <c r="J713" s="73"/>
     </row>
-    <row r="714" spans="1:13" ht="26.4">
+    <row r="714" spans="1:14" ht="26.4">
       <c r="A714" s="19">
         <v>122</v>
       </c>
@@ -25475,7 +25670,7 @@
       <c r="I714" s="46"/>
       <c r="J714" s="73"/>
     </row>
-    <row r="715" spans="1:13" ht="26.4">
+    <row r="715" spans="1:14" ht="26.4">
       <c r="A715" s="19">
         <v>122</v>
       </c>
@@ -25496,7 +25691,7 @@
       <c r="I715" s="46"/>
       <c r="J715" s="73"/>
     </row>
-    <row r="716" spans="1:13" ht="26.4">
+    <row r="716" spans="1:14" ht="26.4">
       <c r="A716" s="19">
         <v>122</v>
       </c>
@@ -25517,7 +25712,7 @@
       <c r="I716" s="46"/>
       <c r="J716" s="73"/>
     </row>
-    <row r="717" spans="1:13" ht="26.4">
+    <row r="717" spans="1:14" ht="26.4">
       <c r="A717" s="19">
         <v>122</v>
       </c>
@@ -25538,7 +25733,7 @@
       <c r="I717" s="46"/>
       <c r="J717" s="73"/>
     </row>
-    <row r="718" spans="1:13" ht="26.4">
+    <row r="718" spans="1:14" ht="26.4">
       <c r="A718" s="19">
         <v>122</v>
       </c>
@@ -25559,7 +25754,7 @@
       <c r="I718" s="46"/>
       <c r="J718" s="73"/>
     </row>
-    <row r="719" spans="1:13" ht="13.2">
+    <row r="719" spans="1:14" ht="13.2">
       <c r="A719" s="19">
         <v>123</v>
       </c>
@@ -25580,7 +25775,7 @@
       <c r="I719" s="36"/>
       <c r="J719" s="71"/>
     </row>
-    <row r="720" spans="1:13" ht="13.2">
+    <row r="720" spans="1:14" ht="13.2">
       <c r="A720" s="19">
         <v>123</v>
       </c>
@@ -25942,7 +26137,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="737" spans="1:13" ht="13.2">
+    <row r="737" spans="1:14" ht="13.2">
       <c r="A737" s="19">
         <v>125</v>
       </c>
@@ -25963,7 +26158,7 @@
       <c r="I737" s="36"/>
       <c r="J737" s="71"/>
     </row>
-    <row r="738" spans="1:13" ht="26.4">
+    <row r="738" spans="1:14" ht="26.4">
       <c r="A738" s="19">
         <v>125</v>
       </c>
@@ -25989,7 +26184,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="739" spans="1:13" ht="13.2">
+    <row r="739" spans="1:14" ht="13.2">
       <c r="A739" s="19">
         <v>125</v>
       </c>
@@ -26015,7 +26210,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="740" spans="1:13" ht="66">
+    <row r="740" spans="1:14" ht="66">
       <c r="A740" s="19">
         <v>125</v>
       </c>
@@ -26043,7 +26238,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="741" spans="1:13" ht="13.2">
+    <row r="741" spans="1:14" ht="13.2">
       <c r="A741" s="19">
         <v>125</v>
       </c>
@@ -26064,7 +26259,7 @@
       <c r="I741" s="36"/>
       <c r="J741" s="71"/>
     </row>
-    <row r="742" spans="1:13" ht="26.4">
+    <row r="742" spans="1:14" ht="26.4">
       <c r="A742" s="19">
         <v>125</v>
       </c>
@@ -26090,7 +26285,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="743" spans="1:13" ht="13.2">
+    <row r="743" spans="1:14" ht="13.2">
       <c r="A743" s="19">
         <v>125</v>
       </c>
@@ -26111,7 +26306,7 @@
       <c r="I743" s="36"/>
       <c r="J743" s="71"/>
     </row>
-    <row r="744" spans="1:13" ht="13.2">
+    <row r="744" spans="1:14" ht="13.2">
       <c r="A744" s="19">
         <v>125</v>
       </c>
@@ -26132,7 +26327,7 @@
       <c r="I744" s="36"/>
       <c r="J744" s="71"/>
     </row>
-    <row r="745" spans="1:13" ht="13.2">
+    <row r="745" spans="1:14" ht="13.2">
       <c r="A745" s="19">
         <v>125</v>
       </c>
@@ -26153,7 +26348,7 @@
       <c r="I745" s="36"/>
       <c r="J745" s="71"/>
     </row>
-    <row r="746" spans="1:13" ht="13.2">
+    <row r="746" spans="1:14" ht="13.2">
       <c r="A746" s="19">
         <v>126</v>
       </c>
@@ -26174,7 +26369,7 @@
       <c r="I746" s="46"/>
       <c r="J746" s="73"/>
     </row>
-    <row r="747" spans="1:13" ht="13.2">
+    <row r="747" spans="1:14" ht="13.2">
       <c r="A747" s="19">
         <v>126</v>
       </c>
@@ -26195,7 +26390,7 @@
       <c r="I747" s="46"/>
       <c r="J747" s="73"/>
     </row>
-    <row r="748" spans="1:13" ht="13.2">
+    <row r="748" spans="1:14" ht="13.2">
       <c r="A748" s="19">
         <v>126</v>
       </c>
@@ -26216,7 +26411,7 @@
       <c r="I748" s="46"/>
       <c r="J748" s="73"/>
     </row>
-    <row r="749" spans="1:13" ht="13.2">
+    <row r="749" spans="1:14" ht="13.2">
       <c r="A749" s="19">
         <v>126</v>
       </c>
@@ -26237,7 +26432,7 @@
       <c r="I749" s="46"/>
       <c r="J749" s="73"/>
     </row>
-    <row r="750" spans="1:13" ht="13.2">
+    <row r="750" spans="1:14" ht="13.2">
       <c r="A750" s="19">
         <v>126</v>
       </c>
@@ -26258,7 +26453,7 @@
       <c r="I750" s="46"/>
       <c r="J750" s="73"/>
     </row>
-    <row r="751" spans="1:13" ht="13.2">
+    <row r="751" spans="1:14" ht="13.2">
       <c r="A751" s="19">
         <v>126</v>
       </c>
@@ -26279,7 +26474,7 @@
       <c r="I751" s="46"/>
       <c r="J751" s="73"/>
     </row>
-    <row r="752" spans="1:13" ht="105.6">
+    <row r="752" spans="1:14" ht="105.6">
       <c r="A752" s="19">
         <v>126</v>
       </c>
@@ -26307,13 +26502,16 @@
         <v>928</v>
       </c>
       <c r="L752" s="82" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="M752" s="82" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="753" spans="1:13" ht="26.4">
+      <c r="N752" s="88" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="753" spans="1:14" ht="26.4">
       <c r="A753" s="19">
         <v>126</v>
       </c>
@@ -26339,7 +26537,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="754" spans="1:13" ht="13.2">
+    <row r="754" spans="1:14" ht="13.2">
       <c r="A754" s="19">
         <v>126</v>
       </c>
@@ -26360,7 +26558,7 @@
       <c r="I754" s="46"/>
       <c r="J754" s="73"/>
     </row>
-    <row r="755" spans="1:13" ht="13.2">
+    <row r="755" spans="1:14" ht="13.2">
       <c r="A755" s="19">
         <v>127</v>
       </c>
@@ -26381,7 +26579,7 @@
       <c r="I755" s="36"/>
       <c r="J755" s="71"/>
     </row>
-    <row r="756" spans="1:13" ht="13.2">
+    <row r="756" spans="1:14" ht="13.2">
       <c r="A756" s="19">
         <v>127</v>
       </c>
@@ -26402,7 +26600,7 @@
       <c r="I756" s="36"/>
       <c r="J756" s="71"/>
     </row>
-    <row r="757" spans="1:13" ht="132">
+    <row r="757" spans="1:14" ht="132">
       <c r="A757" s="19">
         <v>127</v>
       </c>
@@ -26428,13 +26626,16 @@
         <v>932</v>
       </c>
       <c r="L757" s="82" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="M757" s="82" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="758" spans="1:13" ht="13.2">
+      <c r="N757" s="88" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="758" spans="1:14" ht="13.2">
       <c r="A758" s="19">
         <v>127</v>
       </c>
@@ -26455,7 +26656,7 @@
       <c r="I758" s="36"/>
       <c r="J758" s="71"/>
     </row>
-    <row r="759" spans="1:13" ht="13.2">
+    <row r="759" spans="1:14" ht="13.2">
       <c r="A759" s="19">
         <v>127</v>
       </c>
@@ -26476,7 +26677,7 @@
       <c r="I759" s="36"/>
       <c r="J759" s="71"/>
     </row>
-    <row r="760" spans="1:13" ht="105.6">
+    <row r="760" spans="1:14" ht="105.6">
       <c r="A760" s="19">
         <v>127</v>
       </c>
@@ -26502,7 +26703,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="761" spans="1:13" ht="13.2">
+    <row r="761" spans="1:14" ht="13.2">
       <c r="A761" s="19">
         <v>127</v>
       </c>
@@ -26523,7 +26724,7 @@
       <c r="I761" s="36"/>
       <c r="J761" s="71"/>
     </row>
-    <row r="762" spans="1:13" ht="41.4">
+    <row r="762" spans="1:14" ht="41.4">
       <c r="A762" s="19">
         <v>127</v>
       </c>
@@ -26549,7 +26750,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="763" spans="1:13" ht="13.2">
+    <row r="763" spans="1:14" ht="13.2">
       <c r="A763" s="19">
         <v>127</v>
       </c>
@@ -26570,7 +26771,7 @@
       <c r="I763" s="36"/>
       <c r="J763" s="71"/>
     </row>
-    <row r="764" spans="1:13" ht="13.2">
+    <row r="764" spans="1:14" ht="13.2">
       <c r="A764" s="19">
         <v>128</v>
       </c>
@@ -26591,7 +26792,7 @@
       <c r="I764" s="46"/>
       <c r="J764" s="73"/>
     </row>
-    <row r="765" spans="1:13" ht="13.2">
+    <row r="765" spans="1:14" ht="13.2">
       <c r="A765" s="19">
         <v>128</v>
       </c>
@@ -26617,7 +26818,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="766" spans="1:13" ht="13.2">
+    <row r="766" spans="1:14" ht="13.2">
       <c r="A766" s="19">
         <v>128</v>
       </c>
@@ -26636,7 +26837,7 @@
       <c r="I766" s="46"/>
       <c r="J766" s="73"/>
     </row>
-    <row r="767" spans="1:13" ht="13.2">
+    <row r="767" spans="1:14" ht="13.2">
       <c r="A767" s="19">
         <v>128</v>
       </c>
@@ -26662,7 +26863,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="768" spans="1:13" ht="13.2">
+    <row r="768" spans="1:14" ht="13.2">
       <c r="A768" s="19">
         <v>128</v>
       </c>
@@ -27718,7 +27919,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="817" spans="1:13" ht="26.4">
+    <row r="817" spans="1:14" ht="26.4">
       <c r="A817" s="19">
         <v>136</v>
       </c>
@@ -27739,7 +27940,7 @@
       <c r="I817" s="36"/>
       <c r="J817" s="71"/>
     </row>
-    <row r="818" spans="1:13" ht="13.2">
+    <row r="818" spans="1:14" ht="13.2">
       <c r="A818" s="19">
         <v>137</v>
       </c>
@@ -27760,7 +27961,7 @@
       <c r="I818" s="46"/>
       <c r="J818" s="73"/>
     </row>
-    <row r="819" spans="1:13" ht="13.2">
+    <row r="819" spans="1:14" ht="13.2">
       <c r="A819" s="19">
         <v>137</v>
       </c>
@@ -27781,7 +27982,7 @@
       <c r="I819" s="46"/>
       <c r="J819" s="73"/>
     </row>
-    <row r="820" spans="1:13" ht="13.2">
+    <row r="820" spans="1:14" ht="13.2">
       <c r="A820" s="19">
         <v>137</v>
       </c>
@@ -27802,7 +28003,7 @@
       <c r="I820" s="46"/>
       <c r="J820" s="73"/>
     </row>
-    <row r="821" spans="1:13" ht="79.2">
+    <row r="821" spans="1:14" ht="79.2">
       <c r="A821" s="19">
         <v>137</v>
       </c>
@@ -27830,13 +28031,16 @@
         <v>939</v>
       </c>
       <c r="L821" s="82" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="M821" s="82" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="822" spans="1:13" ht="13.2">
+      <c r="N821" s="88" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="822" spans="1:14" ht="13.2">
       <c r="A822" s="19">
         <v>137</v>
       </c>
@@ -27857,7 +28061,7 @@
       <c r="I822" s="46"/>
       <c r="J822" s="73"/>
     </row>
-    <row r="823" spans="1:13" ht="39.6">
+    <row r="823" spans="1:14" ht="39.6">
       <c r="A823" s="19">
         <v>137</v>
       </c>
@@ -27882,10 +28086,10 @@
       <c r="I823" s="46"/>
       <c r="J823" s="73"/>
       <c r="K823" s="83" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="824" spans="1:13" ht="13.2">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="824" spans="1:14" ht="13.2">
       <c r="A824" s="19">
         <v>137</v>
       </c>
@@ -27906,7 +28110,7 @@
       <c r="I824" s="46"/>
       <c r="J824" s="73"/>
     </row>
-    <row r="825" spans="1:13" ht="13.2">
+    <row r="825" spans="1:14" ht="13.2">
       <c r="A825" s="19">
         <v>137</v>
       </c>
@@ -27927,7 +28131,7 @@
       <c r="I825" s="46"/>
       <c r="J825" s="73"/>
     </row>
-    <row r="826" spans="1:13" ht="27.6">
+    <row r="826" spans="1:14" ht="27.6">
       <c r="A826" s="19">
         <v>137</v>
       </c>
@@ -27953,7 +28157,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="827" spans="1:13" ht="13.2">
+    <row r="827" spans="1:14" ht="13.2">
       <c r="A827" s="19">
         <v>138</v>
       </c>
@@ -27972,7 +28176,7 @@
       <c r="I827" s="36"/>
       <c r="J827" s="71"/>
     </row>
-    <row r="828" spans="1:13" ht="13.2">
+    <row r="828" spans="1:14" ht="13.2">
       <c r="A828" s="19">
         <v>138</v>
       </c>
@@ -27993,7 +28197,7 @@
       <c r="I828" s="36"/>
       <c r="J828" s="71"/>
     </row>
-    <row r="829" spans="1:13" ht="13.2">
+    <row r="829" spans="1:14" ht="13.2">
       <c r="A829" s="19">
         <v>138</v>
       </c>
@@ -28014,7 +28218,7 @@
       <c r="I829" s="36"/>
       <c r="J829" s="71"/>
     </row>
-    <row r="830" spans="1:13" ht="13.2">
+    <row r="830" spans="1:14" ht="13.2">
       <c r="A830" s="19">
         <v>138</v>
       </c>
@@ -28033,7 +28237,7 @@
       <c r="I830" s="36"/>
       <c r="J830" s="71"/>
     </row>
-    <row r="831" spans="1:13" ht="13.2">
+    <row r="831" spans="1:14" ht="13.2">
       <c r="A831" s="19">
         <v>138</v>
       </c>
@@ -28054,7 +28258,7 @@
       <c r="I831" s="36"/>
       <c r="J831" s="71"/>
     </row>
-    <row r="832" spans="1:13" ht="13.2">
+    <row r="832" spans="1:14" ht="13.2">
       <c r="A832" s="19">
         <v>138</v>
       </c>
@@ -28075,7 +28279,7 @@
       <c r="I832" s="36"/>
       <c r="J832" s="71"/>
     </row>
-    <row r="833" spans="1:13" ht="13.2">
+    <row r="833" spans="1:14" ht="13.2">
       <c r="A833" s="19">
         <v>138</v>
       </c>
@@ -28096,7 +28300,7 @@
       <c r="I833" s="36"/>
       <c r="J833" s="71"/>
     </row>
-    <row r="834" spans="1:13" ht="13.2">
+    <row r="834" spans="1:14" ht="13.2">
       <c r="A834" s="19">
         <v>138</v>
       </c>
@@ -28117,7 +28321,7 @@
       <c r="I834" s="36"/>
       <c r="J834" s="71"/>
     </row>
-    <row r="835" spans="1:13" ht="13.2">
+    <row r="835" spans="1:14" ht="13.2">
       <c r="A835" s="19">
         <v>138</v>
       </c>
@@ -28138,7 +28342,7 @@
       <c r="I835" s="36"/>
       <c r="J835" s="71"/>
     </row>
-    <row r="836" spans="1:13" ht="13.2">
+    <row r="836" spans="1:14" ht="13.2">
       <c r="A836" s="19">
         <v>140</v>
       </c>
@@ -28159,7 +28363,7 @@
       <c r="I836" s="46"/>
       <c r="J836" s="73"/>
     </row>
-    <row r="837" spans="1:13" ht="13.2">
+    <row r="837" spans="1:14" ht="13.2">
       <c r="A837" s="19">
         <v>140</v>
       </c>
@@ -28180,7 +28384,7 @@
       <c r="I837" s="46"/>
       <c r="J837" s="73"/>
     </row>
-    <row r="838" spans="1:13" ht="79.2">
+    <row r="838" spans="1:14" ht="79.2">
       <c r="A838" s="19">
         <v>140</v>
       </c>
@@ -28206,7 +28410,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="839" spans="1:13" ht="13.2">
+    <row r="839" spans="1:14" ht="13.2">
       <c r="A839" s="19">
         <v>140</v>
       </c>
@@ -28227,7 +28431,7 @@
       <c r="I839" s="46"/>
       <c r="J839" s="73"/>
     </row>
-    <row r="840" spans="1:13" ht="13.2">
+    <row r="840" spans="1:14" ht="13.2">
       <c r="A840" s="19">
         <v>140</v>
       </c>
@@ -28248,7 +28452,7 @@
       <c r="I840" s="46"/>
       <c r="J840" s="73"/>
     </row>
-    <row r="841" spans="1:13" ht="13.2">
+    <row r="841" spans="1:14" ht="13.2">
       <c r="A841" s="19">
         <v>140</v>
       </c>
@@ -28269,7 +28473,7 @@
       <c r="I841" s="46"/>
       <c r="J841" s="73"/>
     </row>
-    <row r="842" spans="1:13" ht="13.2">
+    <row r="842" spans="1:14" ht="13.2">
       <c r="A842" s="19">
         <v>140</v>
       </c>
@@ -28290,7 +28494,7 @@
       <c r="I842" s="46"/>
       <c r="J842" s="73"/>
     </row>
-    <row r="843" spans="1:13" ht="13.2">
+    <row r="843" spans="1:14" ht="13.2">
       <c r="A843" s="19">
         <v>140</v>
       </c>
@@ -28311,7 +28515,7 @@
       <c r="I843" s="46"/>
       <c r="J843" s="73"/>
     </row>
-    <row r="844" spans="1:13" ht="13.2">
+    <row r="844" spans="1:14" ht="13.2">
       <c r="A844" s="19">
         <v>140</v>
       </c>
@@ -28332,7 +28536,7 @@
       <c r="I844" s="46"/>
       <c r="J844" s="73"/>
     </row>
-    <row r="845" spans="1:13" ht="13.2">
+    <row r="845" spans="1:14" ht="13.2">
       <c r="A845" s="19">
         <v>141</v>
       </c>
@@ -28358,7 +28562,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="846" spans="1:13" ht="13.2">
+    <row r="846" spans="1:14" ht="13.2">
       <c r="A846" s="19">
         <v>141</v>
       </c>
@@ -28379,7 +28583,7 @@
       <c r="I846" s="36"/>
       <c r="J846" s="71"/>
     </row>
-    <row r="847" spans="1:13" ht="13.2">
+    <row r="847" spans="1:14" ht="13.2">
       <c r="A847" s="19">
         <v>141</v>
       </c>
@@ -28398,7 +28602,7 @@
       <c r="I847" s="36"/>
       <c r="J847" s="71"/>
     </row>
-    <row r="848" spans="1:13" ht="105.6">
+    <row r="848" spans="1:14" ht="105.6">
       <c r="A848" s="19">
         <v>141</v>
       </c>
@@ -28424,13 +28628,16 @@
         <v>929</v>
       </c>
       <c r="L848" s="82" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="M848" s="82" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="849" spans="1:13" ht="13.2">
+      <c r="N848" s="88" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="849" spans="1:14" ht="13.2">
       <c r="A849" s="19">
         <v>141</v>
       </c>
@@ -28451,7 +28658,7 @@
       <c r="I849" s="36"/>
       <c r="J849" s="71"/>
     </row>
-    <row r="850" spans="1:13" ht="13.2">
+    <row r="850" spans="1:14" ht="13.2">
       <c r="A850" s="19">
         <v>141</v>
       </c>
@@ -28472,7 +28679,7 @@
       <c r="I850" s="36"/>
       <c r="J850" s="71"/>
     </row>
-    <row r="851" spans="1:13" ht="13.2">
+    <row r="851" spans="1:14" ht="13.2">
       <c r="A851" s="19">
         <v>141</v>
       </c>
@@ -28493,7 +28700,7 @@
       <c r="I851" s="36"/>
       <c r="J851" s="71"/>
     </row>
-    <row r="852" spans="1:13" ht="13.2">
+    <row r="852" spans="1:14" ht="13.2">
       <c r="A852" s="19">
         <v>141</v>
       </c>
@@ -28519,7 +28726,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="853" spans="1:13" ht="124.2">
+    <row r="853" spans="1:14" ht="124.2">
       <c r="A853" s="19">
         <v>141</v>
       </c>
@@ -28545,7 +28752,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="854" spans="1:13" ht="13.2">
+    <row r="854" spans="1:14" ht="13.2">
       <c r="A854" s="19">
         <v>142</v>
       </c>
@@ -28564,7 +28771,7 @@
       <c r="I854" s="46"/>
       <c r="J854" s="73"/>
     </row>
-    <row r="855" spans="1:13" ht="13.2">
+    <row r="855" spans="1:14" ht="13.2">
       <c r="A855" s="19">
         <v>142</v>
       </c>
@@ -28585,7 +28792,7 @@
       <c r="I855" s="46"/>
       <c r="J855" s="73"/>
     </row>
-    <row r="856" spans="1:13" ht="52.8">
+    <row r="856" spans="1:14" ht="52.8">
       <c r="A856" s="19">
         <v>142</v>
       </c>
@@ -28611,7 +28818,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="857" spans="1:13" ht="330">
+    <row r="857" spans="1:14" ht="330">
       <c r="A857" s="19">
         <v>142</v>
       </c>
@@ -28637,13 +28844,16 @@
         <v>943</v>
       </c>
       <c r="L857" s="82" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="M857" s="82" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="858" spans="1:13" ht="79.2">
+      <c r="N857" s="88" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="858" spans="1:14" ht="79.2">
       <c r="A858" s="19">
         <v>142</v>
       </c>
@@ -28667,7 +28877,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="859" spans="1:13" ht="13.2">
+    <row r="859" spans="1:14" ht="13.2">
       <c r="A859" s="19">
         <v>142</v>
       </c>
@@ -28688,7 +28898,7 @@
       <c r="I859" s="46"/>
       <c r="J859" s="73"/>
     </row>
-    <row r="860" spans="1:13" ht="13.2">
+    <row r="860" spans="1:14" ht="13.2">
       <c r="A860" s="19">
         <v>142</v>
       </c>
@@ -28709,7 +28919,7 @@
       <c r="I860" s="46"/>
       <c r="J860" s="73"/>
     </row>
-    <row r="861" spans="1:13" ht="237.6">
+    <row r="861" spans="1:14" ht="237.6">
       <c r="A861" s="19">
         <v>142</v>
       </c>
@@ -28735,7 +28945,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="862" spans="1:13" ht="79.2">
+    <row r="862" spans="1:14" ht="79.2">
       <c r="A862" s="19">
         <v>142</v>
       </c>
@@ -28761,7 +28971,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="863" spans="1:13" ht="13.2">
+    <row r="863" spans="1:14" ht="13.2">
       <c r="A863" s="19">
         <v>145</v>
       </c>
@@ -28782,7 +28992,7 @@
       <c r="I863" s="36"/>
       <c r="J863" s="71"/>
     </row>
-    <row r="864" spans="1:13" ht="13.2">
+    <row r="864" spans="1:14" ht="13.2">
       <c r="A864" s="19">
         <v>145</v>
       </c>
@@ -29156,7 +29366,7 @@
       <c r="I880" s="46"/>
       <c r="J880" s="73"/>
     </row>
-    <row r="881" spans="1:13" ht="13.2">
+    <row r="881" spans="1:14" ht="13.2">
       <c r="A881" s="19">
         <v>147</v>
       </c>
@@ -29177,7 +29387,7 @@
       <c r="I881" s="46"/>
       <c r="J881" s="73"/>
     </row>
-    <row r="882" spans="1:13" ht="13.2">
+    <row r="882" spans="1:14" ht="13.2">
       <c r="A882" s="19">
         <v>147</v>
       </c>
@@ -29198,7 +29408,7 @@
       <c r="I882" s="46"/>
       <c r="J882" s="73"/>
     </row>
-    <row r="883" spans="1:13" ht="13.2">
+    <row r="883" spans="1:14" ht="13.2">
       <c r="A883" s="19">
         <v>147</v>
       </c>
@@ -29219,7 +29429,7 @@
       <c r="I883" s="46"/>
       <c r="J883" s="73"/>
     </row>
-    <row r="884" spans="1:13" ht="13.2">
+    <row r="884" spans="1:14" ht="13.2">
       <c r="A884" s="19">
         <v>147</v>
       </c>
@@ -29245,7 +29455,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="885" spans="1:13" ht="26.4">
+    <row r="885" spans="1:14" ht="26.4">
       <c r="A885" s="19">
         <v>147</v>
       </c>
@@ -29266,7 +29476,7 @@
       <c r="I885" s="46"/>
       <c r="J885" s="73"/>
     </row>
-    <row r="886" spans="1:13" ht="13.2">
+    <row r="886" spans="1:14" ht="13.2">
       <c r="A886" s="19">
         <v>147</v>
       </c>
@@ -29287,7 +29497,7 @@
       <c r="I886" s="46"/>
       <c r="J886" s="73"/>
     </row>
-    <row r="887" spans="1:13" ht="13.2">
+    <row r="887" spans="1:14" ht="13.2">
       <c r="A887" s="19">
         <v>147</v>
       </c>
@@ -29308,7 +29518,7 @@
       <c r="I887" s="46"/>
       <c r="J887" s="73"/>
     </row>
-    <row r="888" spans="1:13" ht="13.2">
+    <row r="888" spans="1:14" ht="13.2">
       <c r="A888" s="19">
         <v>147</v>
       </c>
@@ -29329,7 +29539,7 @@
       <c r="I888" s="46"/>
       <c r="J888" s="73"/>
     </row>
-    <row r="889" spans="1:13" ht="13.2">
+    <row r="889" spans="1:14" ht="13.2">
       <c r="A889" s="19">
         <v>147</v>
       </c>
@@ -29350,7 +29560,7 @@
       <c r="I889" s="46"/>
       <c r="J889" s="73"/>
     </row>
-    <row r="890" spans="1:13" ht="145.19999999999999">
+    <row r="890" spans="1:14" ht="145.19999999999999">
       <c r="A890" s="19">
         <v>147</v>
       </c>
@@ -29374,13 +29584,16 @@
         <v>948</v>
       </c>
       <c r="L890" s="82" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="M890" s="82" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="891" spans="1:13" ht="13.2">
+      <c r="N890" s="88" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="891" spans="1:14" ht="13.2">
       <c r="A891" s="19">
         <v>148</v>
       </c>
@@ -29406,7 +29619,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="892" spans="1:13" ht="13.2">
+    <row r="892" spans="1:14" ht="13.2">
       <c r="A892" s="19">
         <v>148</v>
       </c>
@@ -29427,7 +29640,7 @@
       <c r="I892" s="36"/>
       <c r="J892" s="71"/>
     </row>
-    <row r="893" spans="1:13" ht="13.2">
+    <row r="893" spans="1:14" ht="13.2">
       <c r="A893" s="19">
         <v>148</v>
       </c>
@@ -29446,7 +29659,7 @@
       <c r="I893" s="36"/>
       <c r="J893" s="71"/>
     </row>
-    <row r="894" spans="1:13" ht="330">
+    <row r="894" spans="1:14" ht="330">
       <c r="A894" s="19">
         <v>148</v>
       </c>
@@ -29472,13 +29685,16 @@
         <v>950</v>
       </c>
       <c r="L894" s="82" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="M894" s="82" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="895" spans="1:13" ht="13.2">
+      <c r="N894" s="88" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="895" spans="1:14" ht="13.2">
       <c r="A895" s="19">
         <v>148</v>
       </c>
@@ -29499,7 +29715,7 @@
       <c r="I895" s="36"/>
       <c r="J895" s="71"/>
     </row>
-    <row r="896" spans="1:13" ht="13.2">
+    <row r="896" spans="1:14" ht="13.2">
       <c r="A896" s="19">
         <v>148</v>
       </c>
@@ -30217,7 +30433,7 @@
       <c r="I928" s="36"/>
       <c r="J928" s="71"/>
     </row>
-    <row r="929" spans="1:13" ht="13.2">
+    <row r="929" spans="1:14" ht="13.2">
       <c r="A929" s="19">
         <v>152</v>
       </c>
@@ -30238,7 +30454,7 @@
       <c r="I929" s="36"/>
       <c r="J929" s="71"/>
     </row>
-    <row r="930" spans="1:13" ht="13.2">
+    <row r="930" spans="1:14" ht="13.2">
       <c r="A930" s="19">
         <v>152</v>
       </c>
@@ -30259,7 +30475,7 @@
       <c r="I930" s="36"/>
       <c r="J930" s="71"/>
     </row>
-    <row r="931" spans="1:13" ht="13.2">
+    <row r="931" spans="1:14" ht="13.2">
       <c r="A931" s="19">
         <v>152</v>
       </c>
@@ -30280,7 +30496,7 @@
       <c r="I931" s="36"/>
       <c r="J931" s="71"/>
     </row>
-    <row r="932" spans="1:13" ht="13.2">
+    <row r="932" spans="1:14" ht="13.2">
       <c r="A932" s="19">
         <v>152</v>
       </c>
@@ -30301,7 +30517,7 @@
       <c r="I932" s="36"/>
       <c r="J932" s="71"/>
     </row>
-    <row r="933" spans="1:13" ht="27.6">
+    <row r="933" spans="1:14" ht="27.6">
       <c r="A933" s="19">
         <v>152</v>
       </c>
@@ -30327,7 +30543,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="934" spans="1:13" ht="13.2">
+    <row r="934" spans="1:14" ht="13.2">
       <c r="A934" s="19">
         <v>152</v>
       </c>
@@ -30348,7 +30564,7 @@
       <c r="I934" s="36"/>
       <c r="J934" s="71"/>
     </row>
-    <row r="935" spans="1:13" ht="13.8">
+    <row r="935" spans="1:14" ht="13.8">
       <c r="A935" s="19">
         <v>152</v>
       </c>
@@ -30374,7 +30590,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="936" spans="1:13" ht="105.6">
+    <row r="936" spans="1:14" ht="105.6">
       <c r="A936" s="19">
         <v>152</v>
       </c>
@@ -30398,13 +30614,16 @@
         <v>955</v>
       </c>
       <c r="L936" s="82" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="M936" s="82" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="937" spans="1:13" ht="26.4">
+      <c r="N936" s="88" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="937" spans="1:14" ht="26.4">
       <c r="A937" s="19">
         <v>153</v>
       </c>
@@ -30425,7 +30644,7 @@
       <c r="I937" s="46"/>
       <c r="J937" s="73"/>
     </row>
-    <row r="938" spans="1:13" ht="26.4">
+    <row r="938" spans="1:14" ht="26.4">
       <c r="A938" s="19">
         <v>153</v>
       </c>
@@ -30446,7 +30665,7 @@
       <c r="I938" s="46"/>
       <c r="J938" s="73"/>
     </row>
-    <row r="939" spans="1:13" ht="26.4">
+    <row r="939" spans="1:14" ht="26.4">
       <c r="A939" s="19">
         <v>153</v>
       </c>
@@ -30467,7 +30686,7 @@
       <c r="I939" s="46"/>
       <c r="J939" s="73"/>
     </row>
-    <row r="940" spans="1:13" ht="79.2">
+    <row r="940" spans="1:14" ht="79.2">
       <c r="A940" s="19">
         <v>153</v>
       </c>
@@ -30495,7 +30714,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="941" spans="1:13" ht="26.4">
+    <row r="941" spans="1:14" ht="26.4">
       <c r="A941" s="19">
         <v>153</v>
       </c>
@@ -30516,7 +30735,7 @@
       <c r="I941" s="46"/>
       <c r="J941" s="73"/>
     </row>
-    <row r="942" spans="1:13" ht="26.4">
+    <row r="942" spans="1:14" ht="26.4">
       <c r="A942" s="19">
         <v>153</v>
       </c>
@@ -30537,7 +30756,7 @@
       <c r="I942" s="46"/>
       <c r="J942" s="73"/>
     </row>
-    <row r="943" spans="1:13" ht="26.4">
+    <row r="943" spans="1:14" ht="26.4">
       <c r="A943" s="19">
         <v>153</v>
       </c>
@@ -30563,7 +30782,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="944" spans="1:13" ht="26.4">
+    <row r="944" spans="1:14" ht="26.4">
       <c r="A944" s="19">
         <v>153</v>
       </c>
@@ -30584,7 +30803,7 @@
       <c r="I944" s="46"/>
       <c r="J944" s="73"/>
     </row>
-    <row r="945" spans="1:13" ht="92.4">
+    <row r="945" spans="1:14" ht="92.4">
       <c r="A945" s="19">
         <v>153</v>
       </c>
@@ -30608,13 +30827,16 @@
         <v>958</v>
       </c>
       <c r="L945" s="82" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="M945" s="82" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="946" spans="1:13" ht="26.4">
+      <c r="N945" s="88" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="946" spans="1:14" ht="26.4">
       <c r="A946" s="19">
         <v>154</v>
       </c>
@@ -30633,7 +30855,7 @@
       <c r="I946" s="36"/>
       <c r="J946" s="71"/>
     </row>
-    <row r="947" spans="1:13" ht="26.4">
+    <row r="947" spans="1:14" ht="26.4">
       <c r="A947" s="19">
         <v>154</v>
       </c>
@@ -30654,7 +30876,7 @@
       <c r="I947" s="36"/>
       <c r="J947" s="71"/>
     </row>
-    <row r="948" spans="1:13" ht="26.4">
+    <row r="948" spans="1:14" ht="26.4">
       <c r="A948" s="19">
         <v>154</v>
       </c>
@@ -30675,7 +30897,7 @@
       <c r="I948" s="36"/>
       <c r="J948" s="71"/>
     </row>
-    <row r="949" spans="1:13" ht="26.4">
+    <row r="949" spans="1:14" ht="26.4">
       <c r="A949" s="19">
         <v>154</v>
       </c>
@@ -30696,7 +30918,7 @@
       <c r="I949" s="36"/>
       <c r="J949" s="71"/>
     </row>
-    <row r="950" spans="1:13" ht="26.4">
+    <row r="950" spans="1:14" ht="26.4">
       <c r="A950" s="19">
         <v>154</v>
       </c>
@@ -30717,7 +30939,7 @@
       <c r="I950" s="36"/>
       <c r="J950" s="71"/>
     </row>
-    <row r="951" spans="1:13" ht="26.4">
+    <row r="951" spans="1:14" ht="26.4">
       <c r="A951" s="19">
         <v>154</v>
       </c>
@@ -30738,7 +30960,7 @@
       <c r="I951" s="36"/>
       <c r="J951" s="71"/>
     </row>
-    <row r="952" spans="1:13" ht="26.4">
+    <row r="952" spans="1:14" ht="26.4">
       <c r="A952" s="19">
         <v>154</v>
       </c>
@@ -30759,7 +30981,7 @@
       <c r="I952" s="36"/>
       <c r="J952" s="71"/>
     </row>
-    <row r="953" spans="1:13" ht="26.4">
+    <row r="953" spans="1:14" ht="26.4">
       <c r="A953" s="19">
         <v>154</v>
       </c>
@@ -30780,7 +31002,7 @@
       <c r="I953" s="36"/>
       <c r="J953" s="71"/>
     </row>
-    <row r="954" spans="1:13" ht="26.4">
+    <row r="954" spans="1:14" ht="26.4">
       <c r="A954" s="19">
         <v>154</v>
       </c>
@@ -30801,7 +31023,7 @@
       <c r="I954" s="36"/>
       <c r="J954" s="71"/>
     </row>
-    <row r="955" spans="1:13" ht="13.2">
+    <row r="955" spans="1:14" ht="13.2">
       <c r="A955" s="19">
         <v>155</v>
       </c>
@@ -30822,7 +31044,7 @@
       <c r="I955" s="46"/>
       <c r="J955" s="73"/>
     </row>
-    <row r="956" spans="1:13" ht="13.2">
+    <row r="956" spans="1:14" ht="13.2">
       <c r="A956" s="19">
         <v>155</v>
       </c>
@@ -30843,7 +31065,7 @@
       <c r="I956" s="46"/>
       <c r="J956" s="73"/>
     </row>
-    <row r="957" spans="1:13" ht="52.8">
+    <row r="957" spans="1:14" ht="92.4">
       <c r="A957" s="19">
         <v>155</v>
       </c>
@@ -30866,8 +31088,17 @@
       <c r="K957" s="82" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="958" spans="1:13" ht="92.4">
+      <c r="L957" s="82" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M957" s="82" t="s">
+        <v>692</v>
+      </c>
+      <c r="N957" s="88" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="958" spans="1:14" ht="26.4">
       <c r="A958" s="19">
         <v>155</v>
       </c>
@@ -30892,14 +31123,8 @@
       <c r="K958" s="83" t="s">
         <v>931</v>
       </c>
-      <c r="L958" s="82" t="s">
-        <v>1045</v>
-      </c>
-      <c r="M958" s="82" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="959" spans="1:13" ht="13.2">
+    </row>
+    <row r="959" spans="1:14" ht="13.2">
       <c r="A959" s="19">
         <v>155</v>
       </c>
@@ -30920,7 +31145,7 @@
       <c r="I959" s="46"/>
       <c r="J959" s="73"/>
     </row>
-    <row r="960" spans="1:13" ht="13.2">
+    <row r="960" spans="1:14" ht="13.2">
       <c r="A960" s="19">
         <v>155</v>
       </c>
@@ -30941,7 +31166,7 @@
       <c r="I960" s="46"/>
       <c r="J960" s="73"/>
     </row>
-    <row r="961" spans="1:13" ht="13.2">
+    <row r="961" spans="1:14" ht="13.2">
       <c r="A961" s="19">
         <v>155</v>
       </c>
@@ -30962,7 +31187,7 @@
       <c r="I961" s="46"/>
       <c r="J961" s="73"/>
     </row>
-    <row r="962" spans="1:13" ht="13.2">
+    <row r="962" spans="1:14" ht="13.2">
       <c r="A962" s="19">
         <v>155</v>
       </c>
@@ -30983,7 +31208,7 @@
       <c r="I962" s="46"/>
       <c r="J962" s="73"/>
     </row>
-    <row r="963" spans="1:13" ht="26.4">
+    <row r="963" spans="1:14" ht="26.4">
       <c r="A963" s="19">
         <v>155</v>
       </c>
@@ -31009,7 +31234,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="964" spans="1:13" ht="13.2">
+    <row r="964" spans="1:14" ht="13.2">
       <c r="A964" s="19">
         <v>157</v>
       </c>
@@ -31030,7 +31255,7 @@
       <c r="I964" s="36"/>
       <c r="J964" s="71"/>
     </row>
-    <row r="965" spans="1:13" ht="13.2">
+    <row r="965" spans="1:14" ht="13.2">
       <c r="A965" s="19">
         <v>157</v>
       </c>
@@ -31051,7 +31276,7 @@
       <c r="I965" s="36"/>
       <c r="J965" s="71"/>
     </row>
-    <row r="966" spans="1:13" ht="13.2">
+    <row r="966" spans="1:14" ht="13.2">
       <c r="A966" s="19">
         <v>157</v>
       </c>
@@ -31072,7 +31297,7 @@
       <c r="I966" s="36"/>
       <c r="J966" s="71"/>
     </row>
-    <row r="967" spans="1:13" ht="13.2">
+    <row r="967" spans="1:14" ht="13.2">
       <c r="A967" s="19">
         <v>157</v>
       </c>
@@ -31093,7 +31318,7 @@
       <c r="I967" s="36"/>
       <c r="J967" s="71"/>
     </row>
-    <row r="968" spans="1:13" ht="13.2">
+    <row r="968" spans="1:14" ht="13.2">
       <c r="A968" s="19">
         <v>157</v>
       </c>
@@ -31114,7 +31339,7 @@
       <c r="I968" s="36"/>
       <c r="J968" s="71"/>
     </row>
-    <row r="969" spans="1:13" ht="13.2">
+    <row r="969" spans="1:14" ht="13.2">
       <c r="A969" s="19">
         <v>157</v>
       </c>
@@ -31135,7 +31360,7 @@
       <c r="I969" s="36"/>
       <c r="J969" s="71"/>
     </row>
-    <row r="970" spans="1:13" ht="13.2">
+    <row r="970" spans="1:14" ht="13.2">
       <c r="A970" s="19">
         <v>157</v>
       </c>
@@ -31156,7 +31381,7 @@
       <c r="I970" s="36"/>
       <c r="J970" s="71"/>
     </row>
-    <row r="971" spans="1:13" ht="13.2">
+    <row r="971" spans="1:14" ht="13.2">
       <c r="A971" s="19">
         <v>157</v>
       </c>
@@ -31177,7 +31402,7 @@
       <c r="I971" s="36"/>
       <c r="J971" s="71"/>
     </row>
-    <row r="972" spans="1:13" ht="13.2">
+    <row r="972" spans="1:14" ht="13.2">
       <c r="A972" s="19">
         <v>157</v>
       </c>
@@ -31198,7 +31423,7 @@
       <c r="I972" s="36"/>
       <c r="J972" s="71"/>
     </row>
-    <row r="973" spans="1:13" ht="13.2">
+    <row r="973" spans="1:14" ht="13.2">
       <c r="A973" s="19">
         <v>157</v>
       </c>
@@ -31219,7 +31444,7 @@
       <c r="I973" s="36"/>
       <c r="J973" s="71"/>
     </row>
-    <row r="974" spans="1:13" ht="26.4">
+    <row r="974" spans="1:14" ht="26.4">
       <c r="A974" s="19">
         <v>160</v>
       </c>
@@ -31245,7 +31470,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="975" spans="1:13" ht="52.8">
+    <row r="975" spans="1:14" ht="52.8">
       <c r="A975" s="19">
         <v>160</v>
       </c>
@@ -31271,13 +31496,16 @@
         <v>929</v>
       </c>
       <c r="L975" s="82" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="M975" s="82" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="976" spans="1:13" ht="13.2">
+      <c r="N975" s="88" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="976" spans="1:14" ht="13.2">
       <c r="A976" s="19">
         <v>160</v>
       </c>
@@ -31873,7 +32101,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="1003" spans="1:11" ht="26.4">
+    <row r="1003" spans="1:11" ht="27.6">
       <c r="A1003" s="19">
         <v>164</v>
       </c>
@@ -31897,7 +32125,7 @@
       <c r="H1003" s="36"/>
       <c r="I1003" s="36"/>
       <c r="J1003" s="71"/>
-      <c r="K1003" s="82" t="s">
+      <c r="K1003" s="83" t="s">
         <v>965</v>
       </c>
     </row>
@@ -32352,7 +32580,7 @@
       <c r="I1023" s="36"/>
       <c r="J1023" s="71"/>
     </row>
-    <row r="1024" spans="1:11" ht="39.6">
+    <row r="1024" spans="1:11" ht="41.4">
       <c r="A1024" s="19">
         <v>169</v>
       </c>
@@ -32374,11 +32602,11 @@
       <c r="H1024" s="36"/>
       <c r="I1024" s="36"/>
       <c r="J1024" s="71"/>
-      <c r="K1024" s="82" t="s">
+      <c r="K1024" s="83" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="1025" spans="1:11" ht="26.4">
+    <row r="1025" spans="1:14" ht="26.4">
       <c r="A1025" s="19">
         <v>169</v>
       </c>
@@ -32399,7 +32627,7 @@
       <c r="I1025" s="36"/>
       <c r="J1025" s="71"/>
     </row>
-    <row r="1026" spans="1:11" ht="26.4">
+    <row r="1026" spans="1:14" ht="26.4">
       <c r="A1026" s="19">
         <v>169</v>
       </c>
@@ -32420,7 +32648,7 @@
       <c r="I1026" s="36"/>
       <c r="J1026" s="71"/>
     </row>
-    <row r="1027" spans="1:11" ht="26.4">
+    <row r="1027" spans="1:14" ht="26.4">
       <c r="A1027" s="19">
         <v>169</v>
       </c>
@@ -32441,7 +32669,7 @@
       <c r="I1027" s="36"/>
       <c r="J1027" s="71"/>
     </row>
-    <row r="1028" spans="1:11" ht="13.2">
+    <row r="1028" spans="1:14" ht="13.2">
       <c r="A1028" s="19">
         <v>170</v>
       </c>
@@ -32462,7 +32690,7 @@
       <c r="I1028" s="46"/>
       <c r="J1028" s="73"/>
     </row>
-    <row r="1029" spans="1:11" ht="13.2">
+    <row r="1029" spans="1:14" ht="13.2">
       <c r="A1029" s="19">
         <v>170</v>
       </c>
@@ -32488,7 +32716,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="1030" spans="1:11" ht="13.2">
+    <row r="1030" spans="1:14" ht="13.2">
       <c r="A1030" s="19">
         <v>170</v>
       </c>
@@ -32509,7 +32737,7 @@
       <c r="I1030" s="46"/>
       <c r="J1030" s="73"/>
     </row>
-    <row r="1031" spans="1:11" ht="39.6">
+    <row r="1031" spans="1:14" ht="39.6">
       <c r="A1031" s="19">
         <v>170</v>
       </c>
@@ -32537,7 +32765,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="1032" spans="1:11" ht="13.2">
+    <row r="1032" spans="1:14" ht="13.2">
       <c r="A1032" s="19">
         <v>170</v>
       </c>
@@ -32558,7 +32786,7 @@
       <c r="I1032" s="46"/>
       <c r="J1032" s="73"/>
     </row>
-    <row r="1033" spans="1:11" ht="13.2">
+    <row r="1033" spans="1:14" ht="13.2">
       <c r="A1033" s="19">
         <v>170</v>
       </c>
@@ -32579,7 +32807,7 @@
       <c r="I1033" s="46"/>
       <c r="J1033" s="73"/>
     </row>
-    <row r="1034" spans="1:11" ht="13.2">
+    <row r="1034" spans="1:14" ht="13.2">
       <c r="A1034" s="19">
         <v>170</v>
       </c>
@@ -32600,7 +32828,7 @@
       <c r="I1034" s="46"/>
       <c r="J1034" s="73"/>
     </row>
-    <row r="1035" spans="1:11" ht="26.4">
+    <row r="1035" spans="1:14" ht="66">
       <c r="A1035" s="19">
         <v>170</v>
       </c>
@@ -32625,8 +32853,17 @@
       <c r="K1035" s="82" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="1036" spans="1:11" ht="13.2">
+      <c r="L1035" s="82" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M1035" s="82" t="s">
+        <v>708</v>
+      </c>
+      <c r="N1035" s="88" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:14" ht="13.2">
       <c r="A1036" s="19">
         <v>170</v>
       </c>
@@ -32647,7 +32884,7 @@
       <c r="I1036" s="46"/>
       <c r="J1036" s="73"/>
     </row>
-    <row r="1037" spans="1:11" ht="13.2">
+    <row r="1037" spans="1:14" ht="13.2">
       <c r="A1037" s="19">
         <v>170</v>
       </c>
@@ -32668,7 +32905,7 @@
       <c r="I1037" s="46"/>
       <c r="J1037" s="73"/>
     </row>
-    <row r="1038" spans="1:11" ht="13.2">
+    <row r="1038" spans="1:14" ht="13.2">
       <c r="A1038" s="19">
         <v>171</v>
       </c>
@@ -32689,7 +32926,7 @@
       <c r="I1038" s="36"/>
       <c r="J1038" s="71"/>
     </row>
-    <row r="1039" spans="1:11" ht="13.2">
+    <row r="1039" spans="1:14" ht="13.2">
       <c r="A1039" s="19">
         <v>171</v>
       </c>
@@ -32710,7 +32947,7 @@
       <c r="I1039" s="36"/>
       <c r="J1039" s="71"/>
     </row>
-    <row r="1040" spans="1:11" ht="13.2">
+    <row r="1040" spans="1:14" ht="13.2">
       <c r="A1040" s="19">
         <v>171</v>
       </c>
@@ -32729,7 +32966,7 @@
       <c r="I1040" s="36"/>
       <c r="J1040" s="71"/>
     </row>
-    <row r="1041" spans="1:11" ht="66">
+    <row r="1041" spans="1:14" ht="66">
       <c r="A1041" s="19">
         <v>171</v>
       </c>
@@ -32755,7 +32992,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="1042" spans="1:11" ht="26.4">
+    <row r="1042" spans="1:14" ht="26.4">
       <c r="A1042" s="19">
         <v>171</v>
       </c>
@@ -32781,7 +33018,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="1043" spans="1:11" ht="13.2">
+    <row r="1043" spans="1:14" ht="13.2">
       <c r="A1043" s="19">
         <v>171</v>
       </c>
@@ -32802,7 +33039,7 @@
       <c r="I1043" s="36"/>
       <c r="J1043" s="71"/>
     </row>
-    <row r="1044" spans="1:11" ht="13.2">
+    <row r="1044" spans="1:14" ht="13.2">
       <c r="A1044" s="19">
         <v>171</v>
       </c>
@@ -32823,7 +33060,7 @@
       <c r="I1044" s="36"/>
       <c r="J1044" s="71"/>
     </row>
-    <row r="1045" spans="1:11" ht="13.2">
+    <row r="1045" spans="1:14" ht="13.2">
       <c r="A1045" s="19">
         <v>171</v>
       </c>
@@ -32844,7 +33081,7 @@
       <c r="I1045" s="36"/>
       <c r="J1045" s="71"/>
     </row>
-    <row r="1046" spans="1:11" ht="13.2">
+    <row r="1046" spans="1:14" ht="13.2">
       <c r="A1046" s="19">
         <v>171</v>
       </c>
@@ -32863,7 +33100,7 @@
       <c r="I1046" s="36"/>
       <c r="J1046" s="71"/>
     </row>
-    <row r="1047" spans="1:11" ht="13.2">
+    <row r="1047" spans="1:14" ht="13.2">
       <c r="A1047" s="19">
         <v>173</v>
       </c>
@@ -32884,7 +33121,7 @@
       <c r="I1047" s="46"/>
       <c r="J1047" s="73"/>
     </row>
-    <row r="1048" spans="1:11" ht="13.2">
+    <row r="1048" spans="1:14" ht="13.2">
       <c r="A1048" s="19">
         <v>173</v>
       </c>
@@ -32905,7 +33142,7 @@
       <c r="I1048" s="46"/>
       <c r="J1048" s="73"/>
     </row>
-    <row r="1049" spans="1:11" ht="52.8">
+    <row r="1049" spans="1:14" ht="52.8">
       <c r="A1049" s="19">
         <v>173</v>
       </c>
@@ -32928,10 +33165,19 @@
       <c r="I1049" s="46"/>
       <c r="J1049" s="73"/>
       <c r="K1049" s="82" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:11" ht="13.2">
+        <v>972</v>
+      </c>
+      <c r="L1049" s="82" t="s">
+        <v>1036</v>
+      </c>
+      <c r="M1049" s="82" t="s">
+        <v>712</v>
+      </c>
+      <c r="N1049" s="88" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:14" ht="13.2">
       <c r="A1050" s="19">
         <v>173</v>
       </c>
@@ -32950,7 +33196,7 @@
       <c r="I1050" s="46"/>
       <c r="J1050" s="73"/>
     </row>
-    <row r="1051" spans="1:11" ht="13.2">
+    <row r="1051" spans="1:14" ht="13.2">
       <c r="A1051" s="19">
         <v>173</v>
       </c>
@@ -32971,7 +33217,7 @@
       <c r="I1051" s="46"/>
       <c r="J1051" s="73"/>
     </row>
-    <row r="1052" spans="1:11" ht="132">
+    <row r="1052" spans="1:14" ht="132">
       <c r="A1052" s="19">
         <v>173</v>
       </c>
@@ -32993,11 +33239,11 @@
       <c r="H1052" s="46"/>
       <c r="I1052" s="46"/>
       <c r="J1052" s="73"/>
-      <c r="K1052" s="82" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:11" ht="13.2">
+      <c r="K1052" s="83" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:14" ht="13.2">
       <c r="A1053" s="19">
         <v>173</v>
       </c>
@@ -33018,7 +33264,7 @@
       <c r="I1053" s="46"/>
       <c r="J1053" s="73"/>
     </row>
-    <row r="1054" spans="1:11" ht="13.2">
+    <row r="1054" spans="1:14" ht="13.2">
       <c r="A1054" s="19">
         <v>173</v>
       </c>
@@ -33039,7 +33285,7 @@
       <c r="I1054" s="46"/>
       <c r="J1054" s="73"/>
     </row>
-    <row r="1055" spans="1:11" ht="13.2">
+    <row r="1055" spans="1:14" ht="13.2">
       <c r="A1055" s="19">
         <v>173</v>
       </c>
@@ -33060,7 +33306,7 @@
       <c r="I1055" s="46"/>
       <c r="J1055" s="73"/>
     </row>
-    <row r="1056" spans="1:11" ht="13.2">
+    <row r="1056" spans="1:14" ht="13.2">
       <c r="A1056" s="19">
         <v>174</v>
       </c>
@@ -33081,7 +33327,7 @@
       <c r="I1056" s="36"/>
       <c r="J1056" s="71"/>
     </row>
-    <row r="1057" spans="1:11" ht="66">
+    <row r="1057" spans="1:14" ht="105.6">
       <c r="A1057" s="19">
         <v>174</v>
       </c>
@@ -33104,10 +33350,19 @@
       <c r="I1057" s="36"/>
       <c r="J1057" s="71"/>
       <c r="K1057" s="82" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:11" ht="13.2">
+        <v>973</v>
+      </c>
+      <c r="L1057" s="82" t="s">
+        <v>1037</v>
+      </c>
+      <c r="M1057" s="82" t="s">
+        <v>714</v>
+      </c>
+      <c r="N1057" s="88" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:14" ht="13.2">
       <c r="A1058" s="19">
         <v>174</v>
       </c>
@@ -33128,7 +33383,7 @@
       <c r="I1058" s="36"/>
       <c r="J1058" s="71"/>
     </row>
-    <row r="1059" spans="1:11" ht="39.6">
+    <row r="1059" spans="1:14" ht="39.6">
       <c r="A1059" s="19">
         <v>174</v>
       </c>
@@ -33148,11 +33403,11 @@
       <c r="H1059" s="36"/>
       <c r="I1059" s="36"/>
       <c r="J1059" s="71"/>
-      <c r="K1059" s="82" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:11" ht="26.4">
+      <c r="K1059" s="83" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:14" ht="26.4">
       <c r="A1060" s="19">
         <v>174</v>
       </c>
@@ -33173,10 +33428,10 @@
       <c r="I1060" s="36"/>
       <c r="J1060" s="71"/>
       <c r="K1060" s="82" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:11" ht="13.2">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:14" ht="13.2">
       <c r="A1061" s="19">
         <v>174</v>
       </c>
@@ -33197,7 +33452,7 @@
       <c r="I1061" s="36"/>
       <c r="J1061" s="71"/>
     </row>
-    <row r="1062" spans="1:11" ht="79.2">
+    <row r="1062" spans="1:14" ht="79.2">
       <c r="A1062" s="19">
         <v>174</v>
       </c>
@@ -33220,10 +33475,10 @@
       <c r="I1062" s="36"/>
       <c r="J1062" s="71"/>
       <c r="K1062" s="82" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:11" ht="13.2">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:14" ht="13.2">
       <c r="A1063" s="19">
         <v>174</v>
       </c>
@@ -33244,7 +33499,7 @@
       <c r="I1063" s="36"/>
       <c r="J1063" s="71"/>
     </row>
-    <row r="1064" spans="1:11" ht="13.2">
+    <row r="1064" spans="1:14" ht="13.2">
       <c r="A1064" s="19">
         <v>174</v>
       </c>
@@ -33265,7 +33520,7 @@
       <c r="I1064" s="36"/>
       <c r="J1064" s="71"/>
     </row>
-    <row r="1065" spans="1:11" ht="26.4">
+    <row r="1065" spans="1:14" ht="26.4">
       <c r="A1065" s="19">
         <v>174</v>
       </c>
@@ -33286,10 +33541,10 @@
       <c r="I1065" s="36"/>
       <c r="J1065" s="71"/>
       <c r="K1065" s="82" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:11" ht="26.4">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:14" ht="26.4">
       <c r="A1066" s="19">
         <v>179</v>
       </c>
@@ -33310,7 +33565,7 @@
       <c r="I1066" s="46"/>
       <c r="J1066" s="73"/>
     </row>
-    <row r="1067" spans="1:11" ht="26.4">
+    <row r="1067" spans="1:14" ht="26.4">
       <c r="A1067" s="19">
         <v>179</v>
       </c>
@@ -33331,7 +33586,7 @@
       <c r="I1067" s="46"/>
       <c r="J1067" s="73"/>
     </row>
-    <row r="1068" spans="1:11" ht="26.4">
+    <row r="1068" spans="1:14" ht="26.4">
       <c r="A1068" s="19">
         <v>179</v>
       </c>
@@ -33352,7 +33607,7 @@
       <c r="I1068" s="46"/>
       <c r="J1068" s="73"/>
     </row>
-    <row r="1069" spans="1:11" ht="26.4">
+    <row r="1069" spans="1:14" ht="26.4">
       <c r="A1069" s="19">
         <v>179</v>
       </c>
@@ -33373,7 +33628,7 @@
       <c r="I1069" s="46"/>
       <c r="J1069" s="73"/>
     </row>
-    <row r="1070" spans="1:11" ht="26.4">
+    <row r="1070" spans="1:14" ht="26.4">
       <c r="A1070" s="19">
         <v>179</v>
       </c>
@@ -33394,7 +33649,7 @@
       <c r="I1070" s="46"/>
       <c r="J1070" s="73"/>
     </row>
-    <row r="1071" spans="1:11" ht="26.4">
+    <row r="1071" spans="1:14" ht="26.4">
       <c r="A1071" s="19">
         <v>179</v>
       </c>
@@ -33415,7 +33670,7 @@
       <c r="I1071" s="46"/>
       <c r="J1071" s="73"/>
     </row>
-    <row r="1072" spans="1:11" ht="26.4">
+    <row r="1072" spans="1:14" ht="26.4">
       <c r="A1072" s="19">
         <v>179</v>
       </c>
@@ -33436,7 +33691,7 @@
       <c r="I1072" s="46"/>
       <c r="J1072" s="73"/>
     </row>
-    <row r="1073" spans="1:11" ht="26.4">
+    <row r="1073" spans="1:15" ht="26.4">
       <c r="A1073" s="19">
         <v>179</v>
       </c>
@@ -33460,7 +33715,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="1074" spans="1:11" ht="26.4">
+    <row r="1074" spans="1:15" ht="26.4">
       <c r="A1074" s="19">
         <v>179</v>
       </c>
@@ -33481,7 +33736,7 @@
       <c r="I1074" s="46"/>
       <c r="J1074" s="73"/>
     </row>
-    <row r="1075" spans="1:11" ht="39.6">
+    <row r="1075" spans="1:15" ht="105.6">
       <c r="A1075" s="19">
         <v>183</v>
       </c>
@@ -33504,10 +33759,22 @@
       <c r="I1075" s="36"/>
       <c r="J1075" s="71"/>
       <c r="K1075" s="82" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:11" ht="13.2">
+        <v>1038</v>
+      </c>
+      <c r="L1075" s="82" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M1075" s="82" t="s">
+        <v>718</v>
+      </c>
+      <c r="N1075" s="88" t="s">
+        <v>1067</v>
+      </c>
+      <c r="O1075" s="87" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:15" ht="13.2">
       <c r="A1076" s="19">
         <v>183</v>
       </c>
@@ -33528,7 +33795,7 @@
       <c r="I1076" s="36"/>
       <c r="J1076" s="71"/>
     </row>
-    <row r="1077" spans="1:11" ht="13.2">
+    <row r="1077" spans="1:15" ht="13.2">
       <c r="A1077" s="19">
         <v>183</v>
       </c>
@@ -33549,7 +33816,7 @@
       <c r="I1077" s="36"/>
       <c r="J1077" s="71"/>
     </row>
-    <row r="1078" spans="1:11" ht="13.2">
+    <row r="1078" spans="1:15" ht="13.2">
       <c r="A1078" s="19">
         <v>183</v>
       </c>
@@ -33570,7 +33837,7 @@
       <c r="I1078" s="36"/>
       <c r="J1078" s="71"/>
     </row>
-    <row r="1079" spans="1:11" ht="118.8">
+    <row r="1079" spans="1:15" ht="118.8">
       <c r="A1079" s="19">
         <v>183</v>
       </c>
@@ -33593,10 +33860,10 @@
       <c r="I1079" s="36"/>
       <c r="J1079" s="71"/>
       <c r="K1079" s="82" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:11" ht="13.2">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:15" ht="13.2">
       <c r="A1080" s="19">
         <v>183</v>
       </c>
@@ -33617,7 +33884,7 @@
       <c r="I1080" s="36"/>
       <c r="J1080" s="71"/>
     </row>
-    <row r="1081" spans="1:11" ht="13.2">
+    <row r="1081" spans="1:15" ht="13.2">
       <c r="A1081" s="19">
         <v>183</v>
       </c>
@@ -33638,7 +33905,7 @@
       <c r="I1081" s="36"/>
       <c r="J1081" s="71"/>
     </row>
-    <row r="1082" spans="1:11" ht="13.2">
+    <row r="1082" spans="1:15" ht="13.2">
       <c r="A1082" s="19">
         <v>183</v>
       </c>
@@ -33657,7 +33924,7 @@
       <c r="I1082" s="36"/>
       <c r="J1082" s="71"/>
     </row>
-    <row r="1083" spans="1:11" ht="39.6">
+    <row r="1083" spans="1:15" ht="41.4">
       <c r="A1083" s="19">
         <v>183</v>
       </c>
@@ -33679,11 +33946,11 @@
       <c r="H1083" s="36"/>
       <c r="I1083" s="36"/>
       <c r="J1083" s="71"/>
-      <c r="K1083" s="82" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:11" ht="13.2">
+      <c r="K1083" s="83" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:15" ht="13.2">
       <c r="A1084" s="19">
         <v>185</v>
       </c>
@@ -33704,7 +33971,7 @@
       <c r="I1084" s="46"/>
       <c r="J1084" s="73"/>
     </row>
-    <row r="1085" spans="1:11" ht="13.2">
+    <row r="1085" spans="1:15" ht="13.2">
       <c r="A1085" s="19">
         <v>185</v>
       </c>
@@ -33725,7 +33992,7 @@
       <c r="I1085" s="46"/>
       <c r="J1085" s="73"/>
     </row>
-    <row r="1086" spans="1:11" ht="92.4">
+    <row r="1086" spans="1:15" ht="92.4">
       <c r="A1086" s="19">
         <v>185</v>
       </c>
@@ -33751,7 +34018,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="1087" spans="1:11" ht="13.2">
+    <row r="1087" spans="1:15" ht="13.2">
       <c r="A1087" s="19">
         <v>185</v>
       </c>
@@ -33772,7 +34039,7 @@
       <c r="I1087" s="46"/>
       <c r="J1087" s="73"/>
     </row>
-    <row r="1088" spans="1:11" ht="13.2">
+    <row r="1088" spans="1:15" ht="13.2">
       <c r="A1088" s="19">
         <v>185</v>
       </c>
@@ -33793,7 +34060,7 @@
       <c r="I1088" s="46"/>
       <c r="J1088" s="73"/>
     </row>
-    <row r="1089" spans="1:11" ht="66">
+    <row r="1089" spans="1:14" ht="69">
       <c r="A1089" s="19">
         <v>185</v>
       </c>
@@ -33817,11 +34084,11 @@
       <c r="H1089" s="46"/>
       <c r="I1089" s="46"/>
       <c r="J1089" s="73"/>
-      <c r="K1089" s="82" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:11" ht="13.2">
+      <c r="K1089" s="83" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:14" ht="13.2">
       <c r="A1090" s="19">
         <v>185</v>
       </c>
@@ -33842,7 +34109,7 @@
       <c r="I1090" s="46"/>
       <c r="J1090" s="73"/>
     </row>
-    <row r="1091" spans="1:11" ht="26.4">
+    <row r="1091" spans="1:14" ht="26.4">
       <c r="A1091" s="19">
         <v>185</v>
       </c>
@@ -33865,10 +34132,10 @@
       <c r="I1091" s="46"/>
       <c r="J1091" s="73"/>
       <c r="K1091" s="82" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:11" ht="79.2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:14" ht="82.8">
       <c r="A1092" s="19">
         <v>185</v>
       </c>
@@ -33888,11 +34155,11 @@
       <c r="H1092" s="46"/>
       <c r="I1092" s="46"/>
       <c r="J1092" s="73"/>
-      <c r="K1092" s="82" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:11" ht="13.2">
+      <c r="K1092" s="83" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:14" ht="13.2">
       <c r="A1093" s="19">
         <v>188</v>
       </c>
@@ -33913,7 +34180,7 @@
       <c r="I1093" s="36"/>
       <c r="J1093" s="71"/>
     </row>
-    <row r="1094" spans="1:11" ht="13.2">
+    <row r="1094" spans="1:14" ht="13.2">
       <c r="A1094" s="19">
         <v>188</v>
       </c>
@@ -33934,7 +34201,7 @@
       <c r="I1094" s="36"/>
       <c r="J1094" s="71"/>
     </row>
-    <row r="1095" spans="1:11" ht="13.2">
+    <row r="1095" spans="1:14" ht="13.2">
       <c r="A1095" s="19">
         <v>188</v>
       </c>
@@ -33955,7 +34222,7 @@
       <c r="I1095" s="36"/>
       <c r="J1095" s="71"/>
     </row>
-    <row r="1096" spans="1:11" ht="13.2">
+    <row r="1096" spans="1:14" ht="13.2">
       <c r="A1096" s="19">
         <v>188</v>
       </c>
@@ -33976,7 +34243,7 @@
       <c r="I1096" s="36"/>
       <c r="J1096" s="71"/>
     </row>
-    <row r="1097" spans="1:11" ht="26.4">
+    <row r="1097" spans="1:14" ht="26.4">
       <c r="A1097" s="19">
         <v>188</v>
       </c>
@@ -33999,10 +34266,10 @@
       <c r="I1097" s="36"/>
       <c r="J1097" s="71"/>
       <c r="K1097" s="82" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:11" ht="105.6">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:14" ht="105.6">
       <c r="A1098" s="19">
         <v>188</v>
       </c>
@@ -34025,10 +34292,19 @@
       <c r="I1098" s="36"/>
       <c r="J1098" s="71"/>
       <c r="K1098" s="82" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:11" ht="39.6">
+        <v>983</v>
+      </c>
+      <c r="L1098" s="82" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M1098" s="82" t="s">
+        <v>722</v>
+      </c>
+      <c r="N1098" s="88" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:14" ht="39.6">
       <c r="A1099" s="19">
         <v>188</v>
       </c>
@@ -34054,7 +34330,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="1100" spans="1:11" ht="13.2">
+    <row r="1100" spans="1:14" ht="13.2">
       <c r="A1100" s="19">
         <v>188</v>
       </c>
@@ -34075,7 +34351,7 @@
       <c r="I1100" s="36"/>
       <c r="J1100" s="71"/>
     </row>
-    <row r="1101" spans="1:11" ht="13.2">
+    <row r="1101" spans="1:14" ht="13.2">
       <c r="A1101" s="19">
         <v>188</v>
       </c>
@@ -34096,7 +34372,7 @@
       <c r="I1101" s="36"/>
       <c r="J1101" s="71"/>
     </row>
-    <row r="1102" spans="1:11" ht="13.2">
+    <row r="1102" spans="1:14" ht="13.2">
       <c r="A1102" s="19">
         <v>189</v>
       </c>
@@ -34117,7 +34393,7 @@
       <c r="I1102" s="46"/>
       <c r="J1102" s="73"/>
     </row>
-    <row r="1103" spans="1:11" ht="13.2">
+    <row r="1103" spans="1:14" ht="13.2">
       <c r="A1103" s="19">
         <v>189</v>
       </c>
@@ -34138,7 +34414,7 @@
       <c r="I1103" s="46"/>
       <c r="J1103" s="73"/>
     </row>
-    <row r="1104" spans="1:11" ht="13.2">
+    <row r="1104" spans="1:14" ht="13.2">
       <c r="A1104" s="19">
         <v>189</v>
       </c>
@@ -34157,7 +34433,7 @@
       <c r="I1104" s="46"/>
       <c r="J1104" s="73"/>
     </row>
-    <row r="1105" spans="1:11" ht="52.8">
+    <row r="1105" spans="1:14" ht="52.8">
       <c r="A1105" s="19">
         <v>189</v>
       </c>
@@ -34183,7 +34459,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="1106" spans="1:11" ht="13.2">
+    <row r="1106" spans="1:14" ht="13.2">
       <c r="A1106" s="19">
         <v>189</v>
       </c>
@@ -34204,7 +34480,7 @@
       <c r="I1106" s="46"/>
       <c r="J1106" s="73"/>
     </row>
-    <row r="1107" spans="1:11" ht="13.2">
+    <row r="1107" spans="1:14" ht="13.2">
       <c r="A1107" s="19">
         <v>189</v>
       </c>
@@ -34225,7 +34501,7 @@
       <c r="I1107" s="46"/>
       <c r="J1107" s="73"/>
     </row>
-    <row r="1108" spans="1:11" ht="171.6">
+    <row r="1108" spans="1:14" ht="171.6">
       <c r="A1108" s="19">
         <v>189</v>
       </c>
@@ -34249,11 +34525,20 @@
       <c r="H1108" s="46"/>
       <c r="I1108" s="46"/>
       <c r="J1108" s="73"/>
-      <c r="K1108" s="82" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:11" ht="13.2">
+      <c r="K1108" s="83" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L1108" s="82" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M1108" s="82" t="s">
+        <v>724</v>
+      </c>
+      <c r="N1108" s="88" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:14" ht="13.2">
       <c r="A1109" s="19">
         <v>189</v>
       </c>
@@ -34274,7 +34559,7 @@
       <c r="I1109" s="46"/>
       <c r="J1109" s="73"/>
     </row>
-    <row r="1110" spans="1:11" ht="13.2">
+    <row r="1110" spans="1:14" ht="13.2">
       <c r="A1110" s="19">
         <v>189</v>
       </c>
@@ -34295,7 +34580,7 @@
       <c r="I1110" s="46"/>
       <c r="J1110" s="73"/>
     </row>
-    <row r="1111" spans="1:11" ht="13.2">
+    <row r="1111" spans="1:14" ht="13.2">
       <c r="A1111" s="19">
         <v>189</v>
       </c>
@@ -34316,7 +34601,7 @@
       <c r="I1111" s="46"/>
       <c r="J1111" s="73"/>
     </row>
-    <row r="1112" spans="1:11" ht="13.2">
+    <row r="1112" spans="1:14" ht="13.2">
       <c r="A1112" s="19">
         <v>190</v>
       </c>
@@ -34337,7 +34622,7 @@
       <c r="I1112" s="36"/>
       <c r="J1112" s="71"/>
     </row>
-    <row r="1113" spans="1:11" ht="13.2">
+    <row r="1113" spans="1:14" ht="13.8">
       <c r="A1113" s="19">
         <v>190</v>
       </c>
@@ -34359,11 +34644,11 @@
       <c r="H1113" s="36"/>
       <c r="I1113" s="36"/>
       <c r="J1113" s="71"/>
-      <c r="K1113" s="82" t="s">
+      <c r="K1113" s="83" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="1114" spans="1:11" ht="13.2">
+    <row r="1114" spans="1:14" ht="13.2">
       <c r="A1114" s="19">
         <v>190</v>
       </c>
@@ -34384,7 +34669,7 @@
       <c r="I1114" s="36"/>
       <c r="J1114" s="71"/>
     </row>
-    <row r="1115" spans="1:11" ht="13.2">
+    <row r="1115" spans="1:14" ht="13.2">
       <c r="A1115" s="19">
         <v>190</v>
       </c>
@@ -34405,7 +34690,7 @@
       <c r="I1115" s="36"/>
       <c r="J1115" s="71"/>
     </row>
-    <row r="1116" spans="1:11" ht="52.8">
+    <row r="1116" spans="1:14" ht="52.8">
       <c r="A1116" s="19">
         <v>190</v>
       </c>
@@ -34431,7 +34716,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="1117" spans="1:11" ht="13.2">
+    <row r="1117" spans="1:14" ht="13.2">
       <c r="A1117" s="19">
         <v>190</v>
       </c>
@@ -34452,7 +34737,7 @@
       <c r="I1117" s="36"/>
       <c r="J1117" s="71"/>
     </row>
-    <row r="1118" spans="1:11" ht="13.2">
+    <row r="1118" spans="1:14" ht="13.2">
       <c r="A1118" s="19">
         <v>190</v>
       </c>
@@ -34473,7 +34758,7 @@
       <c r="I1118" s="36"/>
       <c r="J1118" s="71"/>
     </row>
-    <row r="1119" spans="1:11" ht="13.2">
+    <row r="1119" spans="1:14" ht="13.2">
       <c r="A1119" s="19">
         <v>190</v>
       </c>
@@ -34494,7 +34779,7 @@
       <c r="I1119" s="36"/>
       <c r="J1119" s="71"/>
     </row>
-    <row r="1120" spans="1:11" ht="26.4">
+    <row r="1120" spans="1:14" ht="26.4">
       <c r="A1120" s="19">
         <v>190</v>
       </c>
@@ -34517,10 +34802,10 @@
       <c r="I1120" s="36"/>
       <c r="J1120" s="71"/>
       <c r="K1120" s="82" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:11" ht="13.2">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:14" ht="13.2">
       <c r="A1121" s="19">
         <v>191</v>
       </c>
@@ -34541,7 +34826,7 @@
       <c r="I1121" s="46"/>
       <c r="J1121" s="73"/>
     </row>
-    <row r="1122" spans="1:11" ht="66">
+    <row r="1122" spans="1:14" ht="66">
       <c r="A1122" s="19">
         <v>191</v>
       </c>
@@ -34567,7 +34852,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="1123" spans="1:11" ht="13.2">
+    <row r="1123" spans="1:14" ht="13.2">
       <c r="A1123" s="19">
         <v>191</v>
       </c>
@@ -34586,7 +34871,7 @@
       <c r="I1123" s="46"/>
       <c r="J1123" s="73"/>
     </row>
-    <row r="1124" spans="1:11" ht="39.6">
+    <row r="1124" spans="1:14" ht="39.6">
       <c r="A1124" s="19">
         <v>191</v>
       </c>
@@ -34609,10 +34894,10 @@
       <c r="I1124" s="46"/>
       <c r="J1124" s="73"/>
       <c r="K1124" s="82" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:11" ht="13.2">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:14" ht="13.2">
       <c r="A1125" s="19">
         <v>191</v>
       </c>
@@ -34633,7 +34918,7 @@
       <c r="I1125" s="46"/>
       <c r="J1125" s="73"/>
     </row>
-    <row r="1126" spans="1:11" ht="13.2">
+    <row r="1126" spans="1:14" ht="13.2">
       <c r="A1126" s="19">
         <v>191</v>
       </c>
@@ -34654,7 +34939,7 @@
       <c r="I1126" s="46"/>
       <c r="J1126" s="73"/>
     </row>
-    <row r="1127" spans="1:11" ht="13.2">
+    <row r="1127" spans="1:14" ht="13.2">
       <c r="A1127" s="19">
         <v>191</v>
       </c>
@@ -34675,7 +34960,7 @@
       <c r="I1127" s="46"/>
       <c r="J1127" s="73"/>
     </row>
-    <row r="1128" spans="1:11" ht="105.6">
+    <row r="1128" spans="1:14" ht="198">
       <c r="A1128" s="19">
         <v>191</v>
       </c>
@@ -34698,10 +34983,19 @@
       <c r="I1128" s="46"/>
       <c r="J1128" s="73"/>
       <c r="K1128" s="82" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:11" ht="13.2">
+        <v>1046</v>
+      </c>
+      <c r="L1128" s="82" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M1128" s="82" t="s">
+        <v>728</v>
+      </c>
+      <c r="N1128" s="88" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:14" ht="13.2">
       <c r="A1129" s="19">
         <v>191</v>
       </c>
@@ -34720,7 +35014,7 @@
       <c r="I1129" s="46"/>
       <c r="J1129" s="73"/>
     </row>
-    <row r="1130" spans="1:11" ht="13.2">
+    <row r="1130" spans="1:14" ht="13.2">
       <c r="A1130" s="19">
         <v>191</v>
       </c>
@@ -34741,7 +35035,7 @@
       <c r="I1130" s="46"/>
       <c r="J1130" s="73"/>
     </row>
-    <row r="1131" spans="1:11" ht="13.2">
+    <row r="1131" spans="1:14" ht="13.2">
       <c r="A1131" s="19">
         <v>192</v>
       </c>
@@ -34762,7 +35056,7 @@
       <c r="I1131" s="36"/>
       <c r="J1131" s="71"/>
     </row>
-    <row r="1132" spans="1:11" ht="13.2">
+    <row r="1132" spans="1:14" ht="13.2">
       <c r="A1132" s="19">
         <v>192</v>
       </c>
@@ -34783,7 +35077,7 @@
       <c r="I1132" s="36"/>
       <c r="J1132" s="71"/>
     </row>
-    <row r="1133" spans="1:11" ht="13.2">
+    <row r="1133" spans="1:14" ht="13.2">
       <c r="A1133" s="19">
         <v>192</v>
       </c>
@@ -34802,7 +35096,7 @@
       <c r="I1133" s="36"/>
       <c r="J1133" s="71"/>
     </row>
-    <row r="1134" spans="1:11" ht="13.2">
+    <row r="1134" spans="1:14" ht="13.2">
       <c r="A1134" s="19">
         <v>192</v>
       </c>
@@ -34823,7 +35117,7 @@
       <c r="I1134" s="36"/>
       <c r="J1134" s="71"/>
     </row>
-    <row r="1135" spans="1:11" ht="13.2">
+    <row r="1135" spans="1:14" ht="13.2">
       <c r="A1135" s="19">
         <v>192</v>
       </c>
@@ -34844,7 +35138,7 @@
       <c r="I1135" s="36"/>
       <c r="J1135" s="71"/>
     </row>
-    <row r="1136" spans="1:11" ht="13.2">
+    <row r="1136" spans="1:14" ht="13.2">
       <c r="A1136" s="19">
         <v>192</v>
       </c>
@@ -34909,7 +35203,7 @@
       <c r="I1138" s="36"/>
       <c r="J1138" s="71"/>
       <c r="K1138" s="82" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1139" spans="1:11" ht="13.2">
@@ -35021,7 +35315,7 @@
       <c r="I1143" s="46"/>
       <c r="J1143" s="73"/>
       <c r="K1143" s="82" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1144" spans="1:11" ht="26.4">
@@ -35110,7 +35404,7 @@
       <c r="I1147" s="46"/>
       <c r="J1147" s="73"/>
       <c r="K1147" s="82" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
     </row>
     <row r="1148" spans="1:11" ht="26.4">
@@ -35219,8 +35513,8 @@
       <c r="H1152" s="36"/>
       <c r="I1152" s="36"/>
       <c r="J1152" s="71"/>
-      <c r="K1152" s="82" t="s">
-        <v>992</v>
+      <c r="K1152" s="83" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="1153" spans="1:11" ht="26.4">
@@ -35562,7 +35856,7 @@
       <c r="I1168" s="36"/>
       <c r="J1168" s="71"/>
     </row>
-    <row r="1169" spans="1:13" ht="13.2">
+    <row r="1169" spans="1:14" ht="13.2">
       <c r="A1169" s="19">
         <v>198</v>
       </c>
@@ -35583,7 +35877,7 @@
       <c r="I1169" s="36"/>
       <c r="J1169" s="71"/>
     </row>
-    <row r="1170" spans="1:13" ht="92.4">
+    <row r="1170" spans="1:14" ht="92.4">
       <c r="A1170" s="19">
         <v>198</v>
       </c>
@@ -35611,7 +35905,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="1171" spans="1:13" ht="13.2">
+    <row r="1171" spans="1:14" ht="13.2">
       <c r="A1171" s="19">
         <v>198</v>
       </c>
@@ -35632,7 +35926,7 @@
       <c r="I1171" s="36"/>
       <c r="J1171" s="71"/>
     </row>
-    <row r="1172" spans="1:13" ht="13.2">
+    <row r="1172" spans="1:14" ht="13.2">
       <c r="A1172" s="19">
         <v>198</v>
       </c>
@@ -35653,7 +35947,7 @@
       <c r="I1172" s="36"/>
       <c r="J1172" s="71"/>
     </row>
-    <row r="1173" spans="1:13" ht="13.2">
+    <row r="1173" spans="1:14" ht="13.2">
       <c r="A1173" s="19">
         <v>198</v>
       </c>
@@ -35674,7 +35968,7 @@
       <c r="I1173" s="36"/>
       <c r="J1173" s="71"/>
     </row>
-    <row r="1174" spans="1:13" ht="13.2">
+    <row r="1174" spans="1:14" ht="13.2">
       <c r="A1174" s="19">
         <v>198</v>
       </c>
@@ -35693,7 +35987,7 @@
       <c r="I1174" s="36"/>
       <c r="J1174" s="71"/>
     </row>
-    <row r="1175" spans="1:13" ht="118.8">
+    <row r="1175" spans="1:14" ht="118.8">
       <c r="A1175" s="19">
         <v>198</v>
       </c>
@@ -35714,16 +36008,19 @@
       <c r="I1175" s="36"/>
       <c r="J1175" s="71"/>
       <c r="K1175" s="82" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="L1175" s="82" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="M1175" s="82" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="1176" spans="1:13" ht="26.4">
+      <c r="N1175" s="88" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:14" ht="26.4">
       <c r="A1176" s="19">
         <v>199</v>
       </c>
@@ -35744,7 +36041,7 @@
       <c r="I1176" s="46"/>
       <c r="J1176" s="73"/>
     </row>
-    <row r="1177" spans="1:13" ht="26.4">
+    <row r="1177" spans="1:14" ht="26.4">
       <c r="A1177" s="19">
         <v>199</v>
       </c>
@@ -35767,10 +36064,10 @@
       <c r="I1177" s="46"/>
       <c r="J1177" s="73"/>
       <c r="K1177" s="82" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:13" ht="39.6">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:14" ht="39.6">
       <c r="A1178" s="19">
         <v>199</v>
       </c>
@@ -35792,11 +36089,11 @@
       <c r="H1178" s="46"/>
       <c r="I1178" s="46"/>
       <c r="J1178" s="73"/>
-      <c r="K1178" s="82" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:13" ht="39.6">
+      <c r="K1178" s="83" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:14" ht="39.6">
       <c r="A1179" s="19">
         <v>199</v>
       </c>
@@ -35822,7 +36119,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="1180" spans="1:13" ht="26.4">
+    <row r="1180" spans="1:14" ht="26.4">
       <c r="A1180" s="19">
         <v>199</v>
       </c>
@@ -35843,7 +36140,7 @@
       <c r="I1180" s="46"/>
       <c r="J1180" s="73"/>
     </row>
-    <row r="1181" spans="1:13" ht="118.8">
+    <row r="1181" spans="1:14" ht="118.8">
       <c r="A1181" s="19">
         <v>199</v>
       </c>
@@ -35866,10 +36163,19 @@
       <c r="I1181" s="46"/>
       <c r="J1181" s="73"/>
       <c r="K1181" s="82" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:13" ht="26.4">
+        <v>989</v>
+      </c>
+      <c r="L1181" s="82" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M1181" s="82" t="s">
+        <v>740</v>
+      </c>
+      <c r="N1181" s="88" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:14" ht="26.4">
       <c r="A1182" s="19">
         <v>199</v>
       </c>
@@ -35888,7 +36194,7 @@
       <c r="I1182" s="46"/>
       <c r="J1182" s="73"/>
     </row>
-    <row r="1183" spans="1:13" ht="26.4">
+    <row r="1183" spans="1:14" ht="26.4">
       <c r="A1183" s="19">
         <v>199</v>
       </c>
@@ -35911,10 +36217,10 @@
       <c r="I1183" s="46"/>
       <c r="J1183" s="73"/>
       <c r="K1183" s="82" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:13" ht="26.4">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:14" ht="26.4">
       <c r="A1184" s="19">
         <v>199</v>
       </c>
@@ -35935,7 +36241,7 @@
       <c r="I1184" s="46"/>
       <c r="J1184" s="73"/>
     </row>
-    <row r="1185" spans="1:11" ht="13.2">
+    <row r="1185" spans="1:14" ht="13.2">
       <c r="A1185" s="19">
         <v>200</v>
       </c>
@@ -35956,7 +36262,7 @@
       <c r="I1185" s="36"/>
       <c r="J1185" s="71"/>
     </row>
-    <row r="1186" spans="1:11" ht="13.2">
+    <row r="1186" spans="1:14" ht="13.2">
       <c r="A1186" s="19">
         <v>200</v>
       </c>
@@ -35977,7 +36283,7 @@
       <c r="I1186" s="36"/>
       <c r="J1186" s="71"/>
     </row>
-    <row r="1187" spans="1:11" ht="13.2">
+    <row r="1187" spans="1:14" ht="13.2">
       <c r="A1187" s="19">
         <v>200</v>
       </c>
@@ -35996,7 +36302,7 @@
       <c r="I1187" s="36"/>
       <c r="J1187" s="71"/>
     </row>
-    <row r="1188" spans="1:11" ht="52.8">
+    <row r="1188" spans="1:14" ht="55.2">
       <c r="A1188" s="19">
         <v>200</v>
       </c>
@@ -36018,11 +36324,11 @@
       <c r="H1188" s="36"/>
       <c r="I1188" s="36"/>
       <c r="J1188" s="71"/>
-      <c r="K1188" s="82" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:11" ht="13.2">
+      <c r="K1188" s="83" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:14" ht="13.2">
       <c r="A1189" s="19">
         <v>200</v>
       </c>
@@ -36043,7 +36349,7 @@
       <c r="I1189" s="36"/>
       <c r="J1189" s="71"/>
     </row>
-    <row r="1190" spans="1:11" ht="13.2">
+    <row r="1190" spans="1:14" ht="13.2">
       <c r="A1190" s="19">
         <v>200</v>
       </c>
@@ -36064,7 +36370,7 @@
       <c r="I1190" s="36"/>
       <c r="J1190" s="71"/>
     </row>
-    <row r="1191" spans="1:11" ht="13.2">
+    <row r="1191" spans="1:14" ht="13.2">
       <c r="A1191" s="19">
         <v>200</v>
       </c>
@@ -36085,7 +36391,7 @@
       <c r="I1191" s="36"/>
       <c r="J1191" s="71"/>
     </row>
-    <row r="1192" spans="1:11" ht="13.2">
+    <row r="1192" spans="1:14" ht="13.2">
       <c r="A1192" s="19">
         <v>200</v>
       </c>
@@ -36106,7 +36412,7 @@
       <c r="I1192" s="36"/>
       <c r="J1192" s="71"/>
     </row>
-    <row r="1193" spans="1:11" ht="13.2">
+    <row r="1193" spans="1:14" ht="13.2">
       <c r="A1193" s="19">
         <v>200</v>
       </c>
@@ -36127,7 +36433,7 @@
       <c r="I1193" s="36"/>
       <c r="J1193" s="71"/>
     </row>
-    <row r="1194" spans="1:11" ht="13.2">
+    <row r="1194" spans="1:14" ht="13.2">
       <c r="A1194" s="19">
         <v>201</v>
       </c>
@@ -36148,7 +36454,7 @@
       <c r="I1194" s="46"/>
       <c r="J1194" s="73"/>
     </row>
-    <row r="1195" spans="1:11" ht="13.2">
+    <row r="1195" spans="1:14" ht="13.2">
       <c r="A1195" s="19">
         <v>201</v>
       </c>
@@ -36169,7 +36475,7 @@
       <c r="I1195" s="46"/>
       <c r="J1195" s="73"/>
     </row>
-    <row r="1196" spans="1:11" ht="39.6">
+    <row r="1196" spans="1:14" ht="66">
       <c r="A1196" s="19">
         <v>201</v>
       </c>
@@ -36192,10 +36498,19 @@
       <c r="I1196" s="46"/>
       <c r="J1196" s="73"/>
       <c r="K1196" s="82" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:11" ht="13.2">
+        <v>1050</v>
+      </c>
+      <c r="L1196" s="82" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M1196" s="82" t="s">
+        <v>744</v>
+      </c>
+      <c r="N1196" s="88" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:14" ht="13.2">
       <c r="A1197" s="19">
         <v>201</v>
       </c>
@@ -36216,7 +36531,7 @@
       <c r="I1197" s="46"/>
       <c r="J1197" s="73"/>
     </row>
-    <row r="1198" spans="1:11" ht="13.2">
+    <row r="1198" spans="1:14" ht="13.2">
       <c r="A1198" s="19">
         <v>201</v>
       </c>
@@ -36237,7 +36552,7 @@
       <c r="I1198" s="46"/>
       <c r="J1198" s="73"/>
     </row>
-    <row r="1199" spans="1:11" ht="13.2">
+    <row r="1199" spans="1:14" ht="13.2">
       <c r="A1199" s="19">
         <v>201</v>
       </c>
@@ -36258,7 +36573,7 @@
       <c r="I1199" s="46"/>
       <c r="J1199" s="73"/>
     </row>
-    <row r="1200" spans="1:11" ht="13.2">
+    <row r="1200" spans="1:14" ht="13.2">
       <c r="A1200" s="19">
         <v>201</v>
       </c>
@@ -36279,7 +36594,7 @@
       <c r="I1200" s="46"/>
       <c r="J1200" s="73"/>
     </row>
-    <row r="1201" spans="1:11" ht="13.2">
+    <row r="1201" spans="1:14" ht="13.2">
       <c r="A1201" s="19">
         <v>201</v>
       </c>
@@ -36300,7 +36615,7 @@
       <c r="I1201" s="46"/>
       <c r="J1201" s="73"/>
     </row>
-    <row r="1202" spans="1:11" ht="13.2">
+    <row r="1202" spans="1:14" ht="13.2">
       <c r="A1202" s="19">
         <v>201</v>
       </c>
@@ -36321,7 +36636,7 @@
       <c r="I1202" s="46"/>
       <c r="J1202" s="73"/>
     </row>
-    <row r="1203" spans="1:11" ht="26.4">
+    <row r="1203" spans="1:14" ht="26.4">
       <c r="A1203" s="19">
         <v>202</v>
       </c>
@@ -36342,7 +36657,7 @@
       <c r="I1203" s="36"/>
       <c r="J1203" s="71"/>
     </row>
-    <row r="1204" spans="1:11" ht="26.4">
+    <row r="1204" spans="1:14" ht="26.4">
       <c r="A1204" s="19">
         <v>202</v>
       </c>
@@ -36363,7 +36678,7 @@
       <c r="I1204" s="36"/>
       <c r="J1204" s="71"/>
     </row>
-    <row r="1205" spans="1:11" ht="26.4">
+    <row r="1205" spans="1:14" ht="26.4">
       <c r="A1205" s="19">
         <v>202</v>
       </c>
@@ -36384,7 +36699,7 @@
       <c r="I1205" s="36"/>
       <c r="J1205" s="71"/>
     </row>
-    <row r="1206" spans="1:11" ht="26.4">
+    <row r="1206" spans="1:14" ht="26.4">
       <c r="A1206" s="19">
         <v>202</v>
       </c>
@@ -36405,7 +36720,7 @@
       <c r="I1206" s="36"/>
       <c r="J1206" s="71"/>
     </row>
-    <row r="1207" spans="1:11" ht="26.4">
+    <row r="1207" spans="1:14" ht="26.4">
       <c r="A1207" s="19">
         <v>202</v>
       </c>
@@ -36426,7 +36741,7 @@
       <c r="I1207" s="36"/>
       <c r="J1207" s="71"/>
     </row>
-    <row r="1208" spans="1:11" ht="26.4">
+    <row r="1208" spans="1:14" ht="26.4">
       <c r="A1208" s="19">
         <v>202</v>
       </c>
@@ -36450,7 +36765,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="1209" spans="1:11" ht="26.4">
+    <row r="1209" spans="1:14" ht="26.4">
       <c r="A1209" s="19">
         <v>202</v>
       </c>
@@ -36471,7 +36786,7 @@
       <c r="I1209" s="36"/>
       <c r="J1209" s="71"/>
     </row>
-    <row r="1210" spans="1:11" ht="26.4">
+    <row r="1210" spans="1:14" ht="26.4">
       <c r="A1210" s="19">
         <v>202</v>
       </c>
@@ -36492,7 +36807,7 @@
       <c r="I1210" s="36"/>
       <c r="J1210" s="71"/>
     </row>
-    <row r="1211" spans="1:11" ht="26.4">
+    <row r="1211" spans="1:14" ht="26.4">
       <c r="A1211" s="19">
         <v>202</v>
       </c>
@@ -36513,7 +36828,7 @@
       <c r="I1211" s="36"/>
       <c r="J1211" s="71"/>
     </row>
-    <row r="1212" spans="1:11" ht="13.2">
+    <row r="1212" spans="1:14" ht="13.2">
       <c r="A1212" s="19">
         <v>203</v>
       </c>
@@ -36534,7 +36849,7 @@
       <c r="I1212" s="46"/>
       <c r="J1212" s="73"/>
     </row>
-    <row r="1213" spans="1:11" ht="13.2">
+    <row r="1213" spans="1:14" ht="13.2">
       <c r="A1213" s="19">
         <v>203</v>
       </c>
@@ -36555,7 +36870,7 @@
       <c r="I1213" s="46"/>
       <c r="J1213" s="73"/>
     </row>
-    <row r="1214" spans="1:11" ht="39.6">
+    <row r="1214" spans="1:14" ht="92.4">
       <c r="A1214" s="19">
         <v>203</v>
       </c>
@@ -36578,10 +36893,19 @@
       <c r="I1214" s="46"/>
       <c r="J1214" s="73"/>
       <c r="K1214" s="82" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="1215" spans="1:11" ht="13.2">
+        <v>992</v>
+      </c>
+      <c r="L1214" s="82" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M1214" s="82" t="s">
+        <v>748</v>
+      </c>
+      <c r="N1214" s="88" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:14" ht="13.2">
       <c r="A1215" s="19">
         <v>203</v>
       </c>
@@ -36602,7 +36926,7 @@
       <c r="I1215" s="46"/>
       <c r="J1215" s="73"/>
     </row>
-    <row r="1216" spans="1:11" ht="13.2">
+    <row r="1216" spans="1:14" ht="13.2">
       <c r="A1216" s="19">
         <v>203</v>
       </c>
@@ -36646,7 +36970,7 @@
       <c r="I1217" s="46"/>
       <c r="J1217" s="73"/>
       <c r="K1217" s="82" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1218" spans="1:11" ht="13.2">
@@ -36878,7 +37202,7 @@
       <c r="I1228" s="36"/>
       <c r="J1228" s="71"/>
       <c r="K1228" s="82" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1229" spans="1:11" ht="13.2">
@@ -37008,8 +37332,8 @@
       <c r="H1234" s="46"/>
       <c r="I1234" s="46"/>
       <c r="J1234" s="73"/>
-      <c r="K1234" s="82" t="s">
-        <v>1001</v>
+      <c r="K1234" s="83" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="1235" spans="1:11" ht="13.2">
@@ -37243,7 +37567,7 @@
       <c r="I1245" s="36"/>
       <c r="J1245" s="71"/>
     </row>
-    <row r="1246" spans="1:11" ht="52.8">
+    <row r="1246" spans="1:11" ht="55.2">
       <c r="A1246" s="19">
         <v>207</v>
       </c>
@@ -37265,8 +37589,8 @@
       <c r="H1246" s="36"/>
       <c r="I1246" s="36"/>
       <c r="J1246" s="71"/>
-      <c r="K1246" s="82" t="s">
-        <v>1002</v>
+      <c r="K1246" s="83" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="1247" spans="1:11" ht="13.2">
@@ -37584,7 +37908,7 @@
       <c r="I1261" s="36"/>
       <c r="J1261" s="71"/>
       <c r="K1261" s="82" t="s">
-        <v>995</v>
+        <v>929</v>
       </c>
     </row>
     <row r="1262" spans="1:11" ht="13.2">
@@ -37631,7 +37955,7 @@
       <c r="I1263" s="36"/>
       <c r="J1263" s="71"/>
       <c r="K1263" s="82" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1264" spans="1:11" ht="13.2">
@@ -37655,7 +37979,7 @@
       <c r="I1264" s="36"/>
       <c r="J1264" s="71"/>
     </row>
-    <row r="1265" spans="1:11" ht="13.2">
+    <row r="1265" spans="1:14" ht="13.2">
       <c r="A1265" s="19">
         <v>209</v>
       </c>
@@ -37678,7 +38002,7 @@
       <c r="I1265" s="36"/>
       <c r="J1265" s="71"/>
     </row>
-    <row r="1266" spans="1:11" ht="105.6">
+    <row r="1266" spans="1:14" ht="145.19999999999999">
       <c r="A1266" s="19">
         <v>209</v>
       </c>
@@ -37703,10 +38027,19 @@
       <c r="I1266" s="36"/>
       <c r="J1266" s="71"/>
       <c r="K1266" s="82" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:11" ht="13.2">
+        <v>1055</v>
+      </c>
+      <c r="L1266" s="82" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M1266" s="82" t="s">
+        <v>758</v>
+      </c>
+      <c r="N1266" s="88" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:14" ht="13.2">
       <c r="A1267" s="19">
         <v>212</v>
       </c>
@@ -37727,7 +38060,7 @@
       <c r="I1267" s="46"/>
       <c r="J1267" s="73"/>
     </row>
-    <row r="1268" spans="1:11" ht="13.2">
+    <row r="1268" spans="1:14" ht="13.2">
       <c r="A1268" s="19">
         <v>212</v>
       </c>
@@ -37748,7 +38081,7 @@
       <c r="I1268" s="46"/>
       <c r="J1268" s="73"/>
     </row>
-    <row r="1269" spans="1:11" ht="66">
+    <row r="1269" spans="1:14" ht="41.4">
       <c r="A1269" s="19">
         <v>212</v>
       </c>
@@ -37770,11 +38103,11 @@
       <c r="H1269" s="46"/>
       <c r="I1269" s="46"/>
       <c r="J1269" s="73"/>
-      <c r="K1269" s="82" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:11" ht="13.2">
+      <c r="K1269" s="83" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:14" ht="13.2">
       <c r="A1270" s="19">
         <v>212</v>
       </c>
@@ -37795,7 +38128,7 @@
       <c r="I1270" s="46"/>
       <c r="J1270" s="73"/>
     </row>
-    <row r="1271" spans="1:11" ht="13.2">
+    <row r="1271" spans="1:14" ht="13.2">
       <c r="A1271" s="19">
         <v>212</v>
       </c>
@@ -37816,7 +38149,7 @@
       <c r="I1271" s="46"/>
       <c r="J1271" s="73"/>
     </row>
-    <row r="1272" spans="1:11" ht="66">
+    <row r="1272" spans="1:14" ht="110.4">
       <c r="A1272" s="19">
         <v>212</v>
       </c>
@@ -37838,11 +38171,11 @@
       <c r="H1272" s="46"/>
       <c r="I1272" s="46"/>
       <c r="J1272" s="73"/>
-      <c r="K1272" s="82" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:11" ht="13.2">
+      <c r="K1272" s="83" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:14" ht="13.2">
       <c r="A1273" s="19">
         <v>212</v>
       </c>
@@ -37863,7 +38196,7 @@
       <c r="I1273" s="46"/>
       <c r="J1273" s="73"/>
     </row>
-    <row r="1274" spans="1:11" ht="79.2">
+    <row r="1274" spans="1:14" ht="79.2">
       <c r="A1274" s="19">
         <v>212</v>
       </c>
@@ -37889,7 +38222,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="1275" spans="1:11" ht="13.2">
+    <row r="1275" spans="1:14" ht="13.2">
       <c r="A1275" s="19">
         <v>212</v>
       </c>
@@ -37910,7 +38243,7 @@
       <c r="I1275" s="46"/>
       <c r="J1275" s="73"/>
     </row>
-    <row r="1276" spans="1:11" ht="26.4">
+    <row r="1276" spans="1:14" ht="26.4">
       <c r="A1276" s="19">
         <v>214</v>
       </c>
@@ -37933,10 +38266,10 @@
       <c r="I1276" s="36"/>
       <c r="J1276" s="71"/>
       <c r="K1276" s="82" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:11" ht="26.4">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:14" ht="26.4">
       <c r="A1277" s="19">
         <v>214</v>
       </c>
@@ -37957,7 +38290,7 @@
       <c r="I1277" s="36"/>
       <c r="J1277" s="71"/>
     </row>
-    <row r="1278" spans="1:11" ht="26.4">
+    <row r="1278" spans="1:14" ht="26.4">
       <c r="A1278" s="19">
         <v>214</v>
       </c>
@@ -37976,7 +38309,7 @@
       <c r="I1278" s="36"/>
       <c r="J1278" s="71"/>
     </row>
-    <row r="1279" spans="1:11" ht="26.4">
+    <row r="1279" spans="1:14" ht="26.4">
       <c r="A1279" s="19">
         <v>214</v>
       </c>
@@ -37999,10 +38332,10 @@
       <c r="I1279" s="36"/>
       <c r="J1279" s="71"/>
       <c r="K1279" s="82" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="1280" spans="1:11" ht="26.4">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:14" ht="26.4">
       <c r="A1280" s="19">
         <v>214</v>
       </c>
@@ -38382,7 +38715,7 @@
       <c r="I1297" s="36"/>
       <c r="J1297" s="71"/>
     </row>
-    <row r="1298" spans="1:11" ht="13.2">
+    <row r="1298" spans="1:11" ht="27.6">
       <c r="A1298" s="19">
         <v>216</v>
       </c>
@@ -38404,6 +38737,9 @@
       <c r="H1298" s="36"/>
       <c r="I1298" s="36"/>
       <c r="J1298" s="71"/>
+      <c r="K1298" s="83" t="s">
+        <v>1058</v>
+      </c>
     </row>
     <row r="1299" spans="1:11" ht="13.2">
       <c r="A1299" s="19">
@@ -38425,9 +38761,6 @@
       <c r="H1299" s="36"/>
       <c r="I1299" s="36"/>
       <c r="J1299" s="71"/>
-      <c r="K1299" s="82" t="s">
-        <v>929</v>
-      </c>
     </row>
     <row r="1300" spans="1:11" ht="39.6">
       <c r="A1300" s="19">
@@ -38452,7 +38785,7 @@
       <c r="I1300" s="36"/>
       <c r="J1300" s="71"/>
       <c r="K1300" s="82" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1301" spans="1:11" ht="52.8">
@@ -39215,9 +39548,46 @@
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1" display="https://github.com/OOSTT/OOSTT/commit/81c72778687c32752300ba290eb7e36ae7f2c0fbhttps://github.com/OOSTT/OOSTT/commit/1c20b7085859c170545f3e1efa9bb5c406fbeb44"/>
     <hyperlink ref="J259" r:id="rId2"/>
+    <hyperlink ref="N1266" r:id="rId3"/>
+    <hyperlink ref="N1214" r:id="rId4"/>
+    <hyperlink ref="N1196" r:id="rId5"/>
+    <hyperlink ref="N1181" r:id="rId6"/>
+    <hyperlink ref="N1175" r:id="rId7"/>
+    <hyperlink ref="N1128" r:id="rId8"/>
+    <hyperlink ref="N1108" r:id="rId9"/>
+    <hyperlink ref="N1098" r:id="rId10"/>
+    <hyperlink ref="N1075" r:id="rId11"/>
+    <hyperlink ref="N1057" r:id="rId12"/>
+    <hyperlink ref="N1049" r:id="rId13"/>
+    <hyperlink ref="N1035" r:id="rId14"/>
+    <hyperlink ref="N975" r:id="rId15"/>
+    <hyperlink ref="N957" r:id="rId16"/>
+    <hyperlink ref="N945" r:id="rId17"/>
+    <hyperlink ref="N936" r:id="rId18"/>
+    <hyperlink ref="N894" r:id="rId19"/>
+    <hyperlink ref="N890" r:id="rId20"/>
+    <hyperlink ref="N857" r:id="rId21"/>
+    <hyperlink ref="N848" r:id="rId22"/>
+    <hyperlink ref="N821" r:id="rId23"/>
+    <hyperlink ref="N757" r:id="rId24"/>
+    <hyperlink ref="N752" r:id="rId25"/>
+    <hyperlink ref="N707" r:id="rId26"/>
+    <hyperlink ref="N679" r:id="rId27"/>
+    <hyperlink ref="N664" r:id="rId28"/>
+    <hyperlink ref="N575" r:id="rId29"/>
+    <hyperlink ref="N560" r:id="rId30"/>
+    <hyperlink ref="N538" r:id="rId31"/>
+    <hyperlink ref="N492" r:id="rId32"/>
+    <hyperlink ref="N469" r:id="rId33"/>
+    <hyperlink ref="N448" r:id="rId34"/>
+    <hyperlink ref="N427" r:id="rId35"/>
+    <hyperlink ref="N341" r:id="rId36"/>
+    <hyperlink ref="N313" r:id="rId37"/>
+    <hyperlink ref="N296" r:id="rId38"/>
+    <hyperlink ref="N289" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="10" orientation="portrait" r:id="rId3"/>
+  <pageSetup scale="10" orientation="portrait" r:id="rId40"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB688755-637B-C742-9364-842A60669C6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35ED0C3-2A4D-BD45-8536-F1E2535C600E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="3420" windowWidth="33280" windowHeight="17040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="960" windowWidth="27740" windowHeight="17040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="1024">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -3130,6 +3130,15 @@
   </si>
   <si>
     <t xml:space="preserve">Ask Mathias: should we providemore description of the expectation? </t>
+  </si>
+  <si>
+    <t>added a CAFÉ application label "trauma nursing evaluator"</t>
+  </si>
+  <si>
+    <t>The role of a healthcare provider that ensures trauma quality improvement and patient safety within the trauma program.</t>
+  </si>
+  <si>
+    <t>edited OOSTT definition</t>
   </si>
 </sst>
 </file>
@@ -9534,8 +9543,8 @@
   <dimension ref="A1:IW1418"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A478" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B367" sqref="B367"/>
+      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H452" sqref="H452:H461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19475,7 +19484,7 @@
       <c r="E452" s="45"/>
       <c r="F452" s="46"/>
       <c r="G452" s="47"/>
-      <c r="H452" s="47"/>
+      <c r="H452" s="60"/>
       <c r="I452" s="47"/>
       <c r="J452" s="47"/>
     </row>
@@ -19496,7 +19505,7 @@
       <c r="E453" s="45"/>
       <c r="F453" s="46"/>
       <c r="G453" s="47"/>
-      <c r="H453" s="47"/>
+      <c r="H453" s="60"/>
       <c r="I453" s="47"/>
       <c r="J453" s="47"/>
     </row>
@@ -19515,7 +19524,7 @@
       <c r="E454" s="45"/>
       <c r="F454" s="46"/>
       <c r="G454" s="47"/>
-      <c r="H454" s="47"/>
+      <c r="H454" s="60"/>
       <c r="I454" s="47"/>
       <c r="J454" s="47"/>
     </row>
@@ -19540,7 +19549,7 @@
         <v>264</v>
       </c>
       <c r="G455" s="47"/>
-      <c r="H455" s="47"/>
+      <c r="H455" s="60"/>
       <c r="I455" s="47"/>
       <c r="J455" s="47"/>
     </row>
@@ -19563,7 +19572,7 @@
       </c>
       <c r="F456" s="46"/>
       <c r="G456" s="47"/>
-      <c r="H456" s="47"/>
+      <c r="H456" s="60"/>
       <c r="I456" s="47"/>
       <c r="J456" s="47"/>
     </row>
@@ -19585,8 +19594,10 @@
       <c r="F457" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="G457" s="47"/>
-      <c r="H457" s="47"/>
+      <c r="G457" s="47" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H457" s="60"/>
       <c r="I457" s="47"/>
       <c r="J457" s="47"/>
       <c r="K457" s="8" t="s">
@@ -19610,7 +19621,7 @@
         <v>267</v>
       </c>
       <c r="G458" s="47"/>
-      <c r="H458" s="47"/>
+      <c r="H458" s="60"/>
       <c r="I458" s="47"/>
       <c r="J458" s="47"/>
     </row>
@@ -19629,7 +19640,7 @@
       <c r="E459" s="45"/>
       <c r="F459" s="46"/>
       <c r="G459" s="47"/>
-      <c r="H459" s="47"/>
+      <c r="H459" s="60"/>
       <c r="I459" s="47"/>
       <c r="J459" s="47"/>
     </row>
@@ -19654,7 +19665,7 @@
         <v>269</v>
       </c>
       <c r="G460" s="47"/>
-      <c r="H460" s="47"/>
+      <c r="H460" s="60"/>
       <c r="I460" s="47"/>
       <c r="J460" s="47"/>
     </row>
@@ -19677,7 +19688,7 @@
       </c>
       <c r="F461" s="46"/>
       <c r="G461" s="47"/>
-      <c r="H461" s="47"/>
+      <c r="H461" s="60"/>
       <c r="I461" s="47"/>
       <c r="J461" s="47"/>
       <c r="K461" s="8" t="s">
@@ -31916,9 +31927,13 @@
       <c r="F1019" s="57" t="s">
         <v>403</v>
       </c>
-      <c r="G1019" s="36"/>
-      <c r="H1019" s="36"/>
-      <c r="I1019" s="36"/>
+      <c r="G1019" s="36" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H1019" s="60"/>
+      <c r="I1019" s="36" t="s">
+        <v>1022</v>
+      </c>
       <c r="J1019" s="36"/>
       <c r="K1019" s="8" t="s">
         <v>977</v>
@@ -31945,7 +31960,7 @@
         <v>405</v>
       </c>
       <c r="G1020" s="36"/>
-      <c r="H1020" s="36"/>
+      <c r="H1020" s="60"/>
       <c r="I1020" s="36"/>
       <c r="J1020" s="36"/>
       <c r="K1020" s="8" t="s">
@@ -31971,7 +31986,7 @@
       </c>
       <c r="F1021" s="37"/>
       <c r="G1021" s="36"/>
-      <c r="H1021" s="36"/>
+      <c r="H1021" s="60"/>
       <c r="I1021" s="36"/>
       <c r="J1021" s="36"/>
     </row>
@@ -31994,7 +32009,7 @@
         <v>407</v>
       </c>
       <c r="G1022" s="36"/>
-      <c r="H1022" s="36"/>
+      <c r="H1022" s="60"/>
       <c r="I1022" s="36"/>
       <c r="J1022" s="36"/>
       <c r="K1022" s="8" t="s">
@@ -32018,7 +32033,7 @@
       <c r="E1023" s="56"/>
       <c r="F1023" s="37"/>
       <c r="G1023" s="36"/>
-      <c r="H1023" s="36"/>
+      <c r="H1023" s="60"/>
       <c r="I1023" s="36"/>
       <c r="J1023" s="36"/>
     </row>
@@ -32041,7 +32056,7 @@
         <v>408</v>
       </c>
       <c r="G1024" s="36"/>
-      <c r="H1024" s="36"/>
+      <c r="H1024" s="60"/>
       <c r="I1024" s="36"/>
       <c r="J1024" s="36"/>
       <c r="K1024" s="8" t="s">
@@ -32065,7 +32080,7 @@
       <c r="E1025" s="56"/>
       <c r="F1025" s="37"/>
       <c r="G1025" s="36"/>
-      <c r="H1025" s="36"/>
+      <c r="H1025" s="60"/>
       <c r="I1025" s="36"/>
       <c r="J1025" s="36"/>
     </row>
@@ -32086,7 +32101,7 @@
       <c r="E1026" s="56"/>
       <c r="F1026" s="37"/>
       <c r="G1026" s="36"/>
-      <c r="H1026" s="36"/>
+      <c r="H1026" s="60"/>
       <c r="I1026" s="36"/>
       <c r="J1026" s="36"/>
     </row>
@@ -32107,7 +32122,7 @@
       <c r="E1027" s="56"/>
       <c r="F1027" s="37"/>
       <c r="G1027" s="36"/>
-      <c r="H1027" s="36"/>
+      <c r="H1027" s="60"/>
       <c r="I1027" s="36"/>
       <c r="J1027" s="36"/>
     </row>

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35ED0C3-2A4D-BD45-8536-F1E2535C600E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8614B24F-90AF-A443-A694-DA1A6098ED66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="960" windowWidth="27740" windowHeight="17040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="1026">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -3139,6 +3139,12 @@
   </si>
   <si>
     <t>edited OOSTT definition</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/3bcbbfa990e86533068055946e4af21c9833bf71</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/73f72efc598a813018daaa9397d54657e0ac2107</t>
   </si>
 </sst>
 </file>
@@ -9542,9 +9548,9 @@
   </sheetPr>
   <dimension ref="A1:IW1418"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H452" sqref="H452:H461"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1003" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1020" sqref="J1020"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19599,7 +19605,9 @@
       </c>
       <c r="H457" s="60"/>
       <c r="I457" s="47"/>
-      <c r="J457" s="47"/>
+      <c r="J457" s="47" t="s">
+        <v>1024</v>
+      </c>
       <c r="K457" s="8" t="s">
         <v>887</v>
       </c>
@@ -31934,7 +31942,9 @@
       <c r="I1019" s="36" t="s">
         <v>1022</v>
       </c>
-      <c r="J1019" s="36"/>
+      <c r="J1019" s="36" t="s">
+        <v>1025</v>
+      </c>
       <c r="K1019" s="8" t="s">
         <v>977</v>
       </c>

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="3420" windowWidth="33276" windowHeight="17040" activeTab="3"/>
+    <workbookView xWindow="1104" yWindow="3360" windowWidth="33276" windowHeight="17040" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="1135">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -3373,12 +3373,129 @@
   <si>
     <t>https://github.com/OOSTT/OOSTT/commit/ee2829985e2ff8d092aea198225d12664b554e4a</t>
   </si>
+  <si>
+    <t>Meeting Sarah - Mathias 2019 03 14</t>
+  </si>
+  <si>
+    <t>please delete one advanced and add course</t>
+  </si>
+  <si>
+    <t>change label to read "…information content entity" and add alternative term "…documentation."</t>
+  </si>
+  <si>
+    <t>yes we need to add "verifying/designating"</t>
+  </si>
+  <si>
+    <t>change to "participate in"</t>
+  </si>
+  <si>
+    <t>we add a CAFÉ application label</t>
+  </si>
+  <si>
+    <t>A plan aiming towards the improvement of quality of care by monitoring and evaluating care and  patient safety for individual trauma patients and the trauma service overall. delete the altenative term</t>
+  </si>
+  <si>
+    <t>delete CAFÉ application label. Change first and  second word to "information".</t>
+  </si>
+  <si>
+    <t>add alternative term "trauma systems agency"</t>
+  </si>
+  <si>
+    <t>An emergency physician who serves as the formal point of contact fr the trauma medical director for all quality improvement-related issues regarding trauma care within the ED.</t>
+  </si>
+  <si>
+    <t>I agree, but keep practice experience.</t>
+  </si>
+  <si>
+    <t>yes, indeed.</t>
+  </si>
+  <si>
+    <t>Nope</t>
+  </si>
+  <si>
+    <t>nope</t>
+  </si>
+  <si>
+    <t>Let's wait on the answer we get regarding emergency medicine liaison</t>
+  </si>
+  <si>
+    <t>A systematic approach within a geographic region to assure and improve the process of trauma care including prehospital care and ehabilitation by establishing guidelines and monitoring performance and outcomes of care to the region's population and visitors.</t>
+  </si>
+  <si>
+    <t>Leave it as it is.</t>
+  </si>
+  <si>
+    <t>agreed</t>
+  </si>
+  <si>
+    <t>A healthcare facility policy that specifies the requirement for availability of anesthesiology services 24 hours a day, 7 days a week.</t>
+  </si>
+  <si>
+    <t>We need to revise all of the trauma level role definitions.</t>
+  </si>
+  <si>
+    <t>add OOSTT user centered definition. and revise label</t>
+  </si>
+  <si>
+    <t>no change needed</t>
+  </si>
+  <si>
+    <t>same as 184</t>
+  </si>
+  <si>
+    <t>no change</t>
+  </si>
+  <si>
+    <t>change definition to "An organization that brings together human beings or organizations from different backgrounds with shared idealistic or financial interest in some process and its outcomes to counsel and evaluate that process and its outcomes.</t>
+  </si>
+  <si>
+    <t>consider adding APPs.</t>
+  </si>
+  <si>
+    <t>Add "non-operative" to both the defnition and the user-centered description.</t>
+  </si>
+  <si>
+    <t>no action needed</t>
+  </si>
+  <si>
+    <t>Agreed on first suggestion. nope on second suggestion</t>
+  </si>
+  <si>
+    <t>the definition and the OOSTT user-centered description are not co-extensive.</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/1f6951a111e46b0d8eb90f1ac6208dc8b058cc69</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/38008052d6d325a9c8b8cb0b0aa777aba2c31327</t>
+  </si>
+  <si>
+    <t>added a CAFÉ application label "trauma nursing evaluator"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/OOSTT/OOSTT/commit/3bcbbfa990e86533068055946e4af21c9833bf71 </t>
+  </si>
+  <si>
+    <t>edited OOSTT definition</t>
+  </si>
+  <si>
+    <t>The role of a healthcare provider that ensures trauma quality improvement and patient safety within the trauma program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/OOSTT/OOSTT/commit/73f72efc598a813018daaa9397d54657e0ac2107 </t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/pull/13/commits/e3fde4aadad03a813046d2f1b7b7a967b58c592e</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/pull/13/commits/1f6951a111e46b0d8eb90f1ac6208dc8b058cc69</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3450,8 +3567,15 @@
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3515,6 +3639,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -3699,7 +3828,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3707,8 +3836,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3953,6 +4083,15 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3962,15 +4101,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -4106,7 +4243,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5236,7 +5373,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6668,11 +6805,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="49.95" customHeight="1">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
     </row>
     <row r="7" spans="2:4" ht="17.399999999999999">
       <c r="B7" s="1" t="s">
@@ -6771,10 +6908,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.75" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="86"/>
+      <c r="B1" s="89"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -6826,13 +6963,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -9850,11 +9987,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW1418"/>
+  <dimension ref="A1:IX1418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O286" sqref="O286"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M383" sqref="M383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -9869,13 +10006,13 @@
     <col min="8" max="8" width="14" style="16" customWidth="1"/>
     <col min="9" max="9" width="41" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.33203125" style="16" customWidth="1"/>
-    <col min="11" max="11" width="25.77734375" style="82" customWidth="1"/>
-    <col min="12" max="13" width="24.77734375" style="82" customWidth="1"/>
-    <col min="14" max="14" width="30.33203125" style="82" customWidth="1"/>
-    <col min="15" max="257" width="8.33203125" style="16" customWidth="1"/>
+    <col min="11" max="12" width="25.77734375" style="82" customWidth="1"/>
+    <col min="13" max="14" width="24.77734375" style="82" customWidth="1"/>
+    <col min="15" max="15" width="30.33203125" style="82" customWidth="1"/>
+    <col min="16" max="258" width="8.33203125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.75" customHeight="1">
+    <row r="1" spans="1:15" ht="27.75" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>158</v>
       </c>
@@ -9910,16 +10047,19 @@
         <v>864</v>
       </c>
       <c r="L1" s="69" t="s">
+        <v>1096</v>
+      </c>
+      <c r="M1" s="69" t="s">
         <v>997</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="N1" s="69" t="s">
         <v>998</v>
       </c>
-      <c r="N1" s="69" t="s">
+      <c r="O1" s="69" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="20.25" customHeight="1">
+    <row r="2" spans="1:15" ht="20.25" customHeight="1">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -9942,7 +10082,7 @@
       <c r="I2" s="36"/>
       <c r="J2" s="71"/>
     </row>
-    <row r="3" spans="1:14" ht="26.4">
+    <row r="3" spans="1:15" ht="26.4">
       <c r="A3" s="19">
         <v>1</v>
       </c>
@@ -9964,7 +10104,7 @@
       <c r="I3" s="36"/>
       <c r="J3" s="71"/>
     </row>
-    <row r="4" spans="1:14" ht="145.19999999999999">
+    <row r="4" spans="1:15" ht="145.19999999999999">
       <c r="A4" s="19">
         <v>1</v>
       </c>
@@ -9994,7 +10134,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="13.2">
+    <row r="5" spans="1:15" ht="13.2">
       <c r="A5" s="19">
         <v>1</v>
       </c>
@@ -10015,7 +10155,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="73"/>
     </row>
-    <row r="6" spans="1:14" ht="19.95" customHeight="1">
+    <row r="6" spans="1:15" ht="19.95" customHeight="1">
       <c r="A6" s="19">
         <v>1</v>
       </c>
@@ -10036,7 +10176,7 @@
       <c r="I6" s="46"/>
       <c r="J6" s="73"/>
     </row>
-    <row r="7" spans="1:14" ht="19.95" customHeight="1">
+    <row r="7" spans="1:15" ht="19.95" customHeight="1">
       <c r="A7" s="19">
         <v>1</v>
       </c>
@@ -10057,7 +10197,7 @@
       <c r="I7" s="46"/>
       <c r="J7" s="73"/>
     </row>
-    <row r="8" spans="1:14" ht="19.95" customHeight="1">
+    <row r="8" spans="1:15" ht="19.95" customHeight="1">
       <c r="A8" s="19">
         <v>1</v>
       </c>
@@ -10078,7 +10218,7 @@
       <c r="I8" s="46"/>
       <c r="J8" s="73"/>
     </row>
-    <row r="9" spans="1:14" ht="19.95" customHeight="1">
+    <row r="9" spans="1:15" ht="19.95" customHeight="1">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -10097,7 +10237,7 @@
       <c r="I9" s="46"/>
       <c r="J9" s="73"/>
     </row>
-    <row r="10" spans="1:14" ht="19.95" customHeight="1">
+    <row r="10" spans="1:15" ht="19.95" customHeight="1">
       <c r="A10" s="19">
         <v>1</v>
       </c>
@@ -10118,7 +10258,7 @@
       <c r="I10" s="46"/>
       <c r="J10" s="73"/>
     </row>
-    <row r="11" spans="1:14" ht="19.95" customHeight="1">
+    <row r="11" spans="1:15" ht="19.95" customHeight="1">
       <c r="A11" s="19">
         <v>2</v>
       </c>
@@ -10137,7 +10277,7 @@
       <c r="I11" s="53"/>
       <c r="J11" s="74"/>
     </row>
-    <row r="12" spans="1:14" ht="19.95" customHeight="1">
+    <row r="12" spans="1:15" ht="19.95" customHeight="1">
       <c r="A12" s="19">
         <v>2</v>
       </c>
@@ -10158,7 +10298,7 @@
       <c r="I12" s="53"/>
       <c r="J12" s="74"/>
     </row>
-    <row r="13" spans="1:14" ht="79.2">
+    <row r="13" spans="1:15" ht="79.2">
       <c r="A13" s="19">
         <v>2</v>
       </c>
@@ -10183,7 +10323,7 @@
       </c>
       <c r="J13" s="74"/>
     </row>
-    <row r="14" spans="1:14" ht="67.95" customHeight="1">
+    <row r="14" spans="1:15" ht="67.95" customHeight="1">
       <c r="A14" s="19">
         <v>2</v>
       </c>
@@ -10204,7 +10344,7 @@
       <c r="I14" s="53"/>
       <c r="J14" s="74"/>
     </row>
-    <row r="15" spans="1:14" ht="19.95" customHeight="1">
+    <row r="15" spans="1:15" ht="19.95" customHeight="1">
       <c r="A15" s="19">
         <v>2</v>
       </c>
@@ -10225,7 +10365,7 @@
       <c r="I15" s="53"/>
       <c r="J15" s="74"/>
     </row>
-    <row r="16" spans="1:14" ht="19.95" customHeight="1">
+    <row r="16" spans="1:15" ht="19.95" customHeight="1">
       <c r="A16" s="19">
         <v>2</v>
       </c>
@@ -16258,7 +16398,7 @@
       <c r="I288" s="36"/>
       <c r="J288" s="71"/>
     </row>
-    <row r="289" spans="1:14" ht="145.19999999999999">
+    <row r="289" spans="1:15" ht="145.19999999999999">
       <c r="A289" s="19">
         <v>46</v>
       </c>
@@ -16283,17 +16423,17 @@
       <c r="K289" s="82" t="s">
         <v>867</v>
       </c>
-      <c r="L289" s="82" t="s">
+      <c r="M289" s="82" t="s">
         <v>999</v>
       </c>
-      <c r="M289" s="82" t="s">
+      <c r="N289" s="82" t="s">
         <v>548</v>
       </c>
-      <c r="N289" s="88" t="s">
+      <c r="O289" s="85" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="290" spans="1:14" ht="13.2">
+    <row r="290" spans="1:15" ht="13.2">
       <c r="A290" s="19">
         <v>46</v>
       </c>
@@ -16314,7 +16454,7 @@
       <c r="I290" s="36"/>
       <c r="J290" s="71"/>
     </row>
-    <row r="291" spans="1:14" ht="13.2">
+    <row r="291" spans="1:15" ht="13.2">
       <c r="A291" s="19">
         <v>46</v>
       </c>
@@ -16335,7 +16475,7 @@
       <c r="I291" s="36"/>
       <c r="J291" s="71"/>
     </row>
-    <row r="292" spans="1:14" ht="79.2">
+    <row r="292" spans="1:15" ht="79.2">
       <c r="A292" s="19">
         <v>46</v>
       </c>
@@ -16361,7 +16501,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="293" spans="1:14" ht="13.2">
+    <row r="293" spans="1:15" ht="13.2">
       <c r="A293" s="19">
         <v>46</v>
       </c>
@@ -16382,7 +16522,7 @@
       <c r="I293" s="36"/>
       <c r="J293" s="71"/>
     </row>
-    <row r="294" spans="1:14" ht="39.6">
+    <row r="294" spans="1:15" ht="39.6">
       <c r="A294" s="19">
         <v>46</v>
       </c>
@@ -16408,7 +16548,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="295" spans="1:14" ht="13.2">
+    <row r="295" spans="1:15" ht="13.2">
       <c r="A295" s="19">
         <v>46</v>
       </c>
@@ -16429,7 +16569,7 @@
       <c r="I295" s="36"/>
       <c r="J295" s="71"/>
     </row>
-    <row r="296" spans="1:14" ht="79.2">
+    <row r="296" spans="1:15" ht="79.2">
       <c r="A296" s="19">
         <v>47</v>
       </c>
@@ -16452,17 +16592,17 @@
       <c r="K296" s="82" t="s">
         <v>894</v>
       </c>
-      <c r="L296" s="82" t="s">
+      <c r="M296" s="82" t="s">
         <v>1000</v>
       </c>
-      <c r="M296" s="82" t="s">
+      <c r="N296" s="82" t="s">
         <v>1001</v>
       </c>
-      <c r="N296" s="88" t="s">
+      <c r="O296" s="85" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="297" spans="1:14" ht="66">
+    <row r="297" spans="1:15" ht="66">
       <c r="A297" s="19">
         <v>47</v>
       </c>
@@ -16488,7 +16628,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="298" spans="1:14" ht="13.2">
+    <row r="298" spans="1:15" ht="13.2">
       <c r="A298" s="19">
         <v>47</v>
       </c>
@@ -16509,7 +16649,7 @@
       <c r="I298" s="46"/>
       <c r="J298" s="73"/>
     </row>
-    <row r="299" spans="1:14" ht="13.2">
+    <row r="299" spans="1:15" ht="13.2">
       <c r="A299" s="19">
         <v>47</v>
       </c>
@@ -16530,7 +16670,7 @@
       <c r="I299" s="46"/>
       <c r="J299" s="73"/>
     </row>
-    <row r="300" spans="1:14" ht="13.2">
+    <row r="300" spans="1:15" ht="13.2">
       <c r="A300" s="19">
         <v>47</v>
       </c>
@@ -16551,7 +16691,7 @@
       <c r="I300" s="46"/>
       <c r="J300" s="73"/>
     </row>
-    <row r="301" spans="1:14" ht="13.2">
+    <row r="301" spans="1:15" ht="13.2">
       <c r="A301" s="19">
         <v>47</v>
       </c>
@@ -16572,7 +16712,7 @@
       <c r="I301" s="46"/>
       <c r="J301" s="73"/>
     </row>
-    <row r="302" spans="1:14" ht="13.2">
+    <row r="302" spans="1:15" ht="13.2">
       <c r="A302" s="19">
         <v>47</v>
       </c>
@@ -16593,7 +16733,7 @@
       <c r="I302" s="46"/>
       <c r="J302" s="73"/>
     </row>
-    <row r="303" spans="1:14" ht="13.2">
+    <row r="303" spans="1:15" ht="13.2">
       <c r="A303" s="19">
         <v>47</v>
       </c>
@@ -16614,7 +16754,7 @@
       <c r="I303" s="46"/>
       <c r="J303" s="73"/>
     </row>
-    <row r="304" spans="1:14" ht="13.2">
+    <row r="304" spans="1:15" ht="13.2">
       <c r="A304" s="19">
         <v>47</v>
       </c>
@@ -16635,7 +16775,7 @@
       <c r="I304" s="46"/>
       <c r="J304" s="73"/>
     </row>
-    <row r="305" spans="1:14" ht="13.2">
+    <row r="305" spans="1:15" ht="13.2">
       <c r="A305" s="19">
         <v>48</v>
       </c>
@@ -16656,7 +16796,7 @@
       <c r="I305" s="36"/>
       <c r="J305" s="71"/>
     </row>
-    <row r="306" spans="1:14" ht="13.2">
+    <row r="306" spans="1:15" ht="13.2">
       <c r="A306" s="19">
         <v>48</v>
       </c>
@@ -16677,7 +16817,7 @@
       <c r="I306" s="36"/>
       <c r="J306" s="71"/>
     </row>
-    <row r="307" spans="1:14" ht="13.2">
+    <row r="307" spans="1:15" ht="13.2">
       <c r="A307" s="19">
         <v>48</v>
       </c>
@@ -16698,7 +16838,7 @@
       <c r="I307" s="36"/>
       <c r="J307" s="71"/>
     </row>
-    <row r="308" spans="1:14" ht="39.6">
+    <row r="308" spans="1:15" ht="39.6">
       <c r="A308" s="19">
         <v>48</v>
       </c>
@@ -16721,7 +16861,7 @@
       <c r="I308" s="36"/>
       <c r="J308" s="71"/>
     </row>
-    <row r="309" spans="1:14" ht="39.6">
+    <row r="309" spans="1:15" ht="39.6">
       <c r="A309" s="19">
         <v>48</v>
       </c>
@@ -16744,7 +16884,7 @@
       <c r="I309" s="36"/>
       <c r="J309" s="71"/>
     </row>
-    <row r="310" spans="1:14" ht="66">
+    <row r="310" spans="1:15" ht="66">
       <c r="A310" s="19">
         <v>48</v>
       </c>
@@ -16767,7 +16907,7 @@
       <c r="I310" s="36"/>
       <c r="J310" s="71"/>
     </row>
-    <row r="311" spans="1:14" ht="79.2">
+    <row r="311" spans="1:15" ht="79.2">
       <c r="A311" s="19">
         <v>48</v>
       </c>
@@ -16793,7 +16933,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="312" spans="1:14" ht="13.2">
+    <row r="312" spans="1:15" ht="13.2">
       <c r="A312" s="19">
         <v>48</v>
       </c>
@@ -16814,7 +16954,7 @@
       <c r="I312" s="36"/>
       <c r="J312" s="71"/>
     </row>
-    <row r="313" spans="1:14" ht="132">
+    <row r="313" spans="1:15" ht="132">
       <c r="A313" s="19">
         <v>48</v>
       </c>
@@ -16837,17 +16977,17 @@
       <c r="K313" s="82" t="s">
         <v>869</v>
       </c>
-      <c r="L313" s="82" t="s">
+      <c r="M313" s="82" t="s">
         <v>1002</v>
       </c>
-      <c r="M313" s="82" t="s">
+      <c r="N313" s="82" t="s">
         <v>552</v>
       </c>
-      <c r="N313" s="88" t="s">
+      <c r="O313" s="85" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="314" spans="1:14" ht="13.2">
+    <row r="314" spans="1:15" ht="13.2">
       <c r="A314" s="19">
         <v>49</v>
       </c>
@@ -16868,7 +17008,7 @@
       <c r="I314" s="46"/>
       <c r="J314" s="73"/>
     </row>
-    <row r="315" spans="1:14" ht="13.2">
+    <row r="315" spans="1:15" ht="13.2">
       <c r="A315" s="19">
         <v>49</v>
       </c>
@@ -16889,7 +17029,7 @@
       <c r="I315" s="46"/>
       <c r="J315" s="73"/>
     </row>
-    <row r="316" spans="1:14" ht="13.2">
+    <row r="316" spans="1:15" ht="13.2">
       <c r="A316" s="19">
         <v>49</v>
       </c>
@@ -16908,7 +17048,7 @@
       <c r="I316" s="46"/>
       <c r="J316" s="73"/>
     </row>
-    <row r="317" spans="1:14" ht="66">
+    <row r="317" spans="1:15" ht="66">
       <c r="A317" s="19">
         <v>49</v>
       </c>
@@ -16936,7 +17076,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="318" spans="1:14" ht="13.2">
+    <row r="318" spans="1:15" ht="13.2">
       <c r="A318" s="19">
         <v>49</v>
       </c>
@@ -16957,7 +17097,7 @@
       <c r="I318" s="46"/>
       <c r="J318" s="73"/>
     </row>
-    <row r="319" spans="1:14" ht="13.2">
+    <row r="319" spans="1:15" ht="13.2">
       <c r="A319" s="19">
         <v>49</v>
       </c>
@@ -16978,7 +17118,7 @@
       <c r="I319" s="46"/>
       <c r="J319" s="73"/>
     </row>
-    <row r="320" spans="1:14" ht="13.2">
+    <row r="320" spans="1:15" ht="13.2">
       <c r="A320" s="19">
         <v>49</v>
       </c>
@@ -16999,7 +17139,7 @@
       <c r="I320" s="46"/>
       <c r="J320" s="73"/>
     </row>
-    <row r="321" spans="1:11" ht="13.2">
+    <row r="321" spans="1:15" ht="13.2">
       <c r="A321" s="19">
         <v>49</v>
       </c>
@@ -17020,7 +17160,7 @@
       <c r="I321" s="46"/>
       <c r="J321" s="73"/>
     </row>
-    <row r="322" spans="1:11" ht="13.2">
+    <row r="322" spans="1:15" ht="13.2">
       <c r="A322" s="19">
         <v>49</v>
       </c>
@@ -17041,7 +17181,7 @@
       <c r="I322" s="46"/>
       <c r="J322" s="73"/>
     </row>
-    <row r="323" spans="1:11" ht="26.4">
+    <row r="323" spans="1:15" ht="26.4">
       <c r="A323" s="19">
         <v>50</v>
       </c>
@@ -17062,7 +17202,7 @@
       <c r="I323" s="36"/>
       <c r="J323" s="71"/>
     </row>
-    <row r="324" spans="1:11" ht="26.4">
+    <row r="324" spans="1:15" ht="26.4">
       <c r="A324" s="19">
         <v>50</v>
       </c>
@@ -17083,7 +17223,7 @@
       <c r="I324" s="36"/>
       <c r="J324" s="71"/>
     </row>
-    <row r="325" spans="1:11" ht="26.4">
+    <row r="325" spans="1:15" ht="26.4">
       <c r="A325" s="19">
         <v>50</v>
       </c>
@@ -17104,7 +17244,7 @@
       <c r="I325" s="36"/>
       <c r="J325" s="71"/>
     </row>
-    <row r="326" spans="1:11" ht="26.4">
+    <row r="326" spans="1:15" ht="26.4">
       <c r="A326" s="19">
         <v>50</v>
       </c>
@@ -17125,7 +17265,7 @@
       <c r="I326" s="36"/>
       <c r="J326" s="71"/>
     </row>
-    <row r="327" spans="1:11" ht="26.4">
+    <row r="327" spans="1:15" ht="26.4">
       <c r="A327" s="19">
         <v>50</v>
       </c>
@@ -17146,7 +17286,7 @@
       <c r="I327" s="36"/>
       <c r="J327" s="71"/>
     </row>
-    <row r="328" spans="1:11" ht="26.4">
+    <row r="328" spans="1:15" ht="26.4">
       <c r="A328" s="19">
         <v>50</v>
       </c>
@@ -17167,7 +17307,7 @@
       <c r="I328" s="36"/>
       <c r="J328" s="71"/>
     </row>
-    <row r="329" spans="1:11" ht="26.4">
+    <row r="329" spans="1:15" ht="26.4">
       <c r="A329" s="19">
         <v>50</v>
       </c>
@@ -17186,7 +17326,7 @@
       <c r="I329" s="36"/>
       <c r="J329" s="71"/>
     </row>
-    <row r="330" spans="1:11" ht="26.4">
+    <row r="330" spans="1:15" ht="26.4">
       <c r="A330" s="19">
         <v>50</v>
       </c>
@@ -17205,7 +17345,7 @@
       <c r="I330" s="36"/>
       <c r="J330" s="71"/>
     </row>
-    <row r="331" spans="1:11" ht="26.4">
+    <row r="331" spans="1:15" ht="26.4">
       <c r="A331" s="19">
         <v>50</v>
       </c>
@@ -17224,7 +17364,7 @@
       <c r="I331" s="36"/>
       <c r="J331" s="71"/>
     </row>
-    <row r="332" spans="1:11" ht="69">
+    <row r="332" spans="1:15" ht="69">
       <c r="A332" s="19">
         <v>51</v>
       </c>
@@ -17244,11 +17384,17 @@
       <c r="H332" s="46"/>
       <c r="I332" s="46"/>
       <c r="J332" s="73"/>
-      <c r="K332" s="83" t="s">
+      <c r="K332" s="86" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="333" spans="1:11" ht="13.2">
+      <c r="L332" s="86" t="s">
+        <v>1097</v>
+      </c>
+      <c r="O332" s="85" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" ht="13.2">
       <c r="A333" s="19">
         <v>51</v>
       </c>
@@ -17271,7 +17417,7 @@
       <c r="I333" s="46"/>
       <c r="J333" s="73"/>
     </row>
-    <row r="334" spans="1:11" ht="39.6">
+    <row r="334" spans="1:15" ht="39.6">
       <c r="A334" s="19">
         <v>51</v>
       </c>
@@ -17294,7 +17440,7 @@
       <c r="I334" s="46"/>
       <c r="J334" s="73"/>
     </row>
-    <row r="335" spans="1:11" ht="13.2">
+    <row r="335" spans="1:15" ht="13.2">
       <c r="A335" s="19">
         <v>51</v>
       </c>
@@ -17315,7 +17461,7 @@
       <c r="I335" s="46"/>
       <c r="J335" s="73"/>
     </row>
-    <row r="336" spans="1:11" ht="96.6">
+    <row r="336" spans="1:15" ht="96.6">
       <c r="A336" s="19">
         <v>51</v>
       </c>
@@ -17337,11 +17483,14 @@
       <c r="H336" s="46"/>
       <c r="I336" s="46"/>
       <c r="J336" s="73"/>
-      <c r="K336" s="83" t="s">
+      <c r="K336" s="86" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" ht="26.4">
+      <c r="L336" s="86" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" ht="26.4">
       <c r="A337" s="19">
         <v>51</v>
       </c>
@@ -17364,7 +17513,7 @@
       <c r="I337" s="46"/>
       <c r="J337" s="73"/>
     </row>
-    <row r="338" spans="1:14" ht="13.2">
+    <row r="338" spans="1:15" ht="13.2">
       <c r="A338" s="19">
         <v>51</v>
       </c>
@@ -17385,7 +17534,7 @@
       <c r="I338" s="46"/>
       <c r="J338" s="73"/>
     </row>
-    <row r="339" spans="1:14" ht="13.2">
+    <row r="339" spans="1:15" ht="13.2">
       <c r="A339" s="19">
         <v>51</v>
       </c>
@@ -17406,7 +17555,7 @@
       <c r="I339" s="46"/>
       <c r="J339" s="73"/>
     </row>
-    <row r="340" spans="1:14" ht="132">
+    <row r="340" spans="1:15" ht="132">
       <c r="A340" s="19">
         <v>51</v>
       </c>
@@ -17430,7 +17579,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="341" spans="1:14" ht="132">
+    <row r="341" spans="1:15" ht="132">
       <c r="A341" s="19">
         <v>52</v>
       </c>
@@ -17455,17 +17604,17 @@
       <c r="K341" s="82" t="s">
         <v>871</v>
       </c>
-      <c r="L341" s="82" t="s">
+      <c r="M341" s="82" t="s">
         <v>1004</v>
       </c>
-      <c r="M341" s="82" t="s">
+      <c r="N341" s="82" t="s">
         <v>560</v>
       </c>
-      <c r="N341" s="88" t="s">
+      <c r="O341" s="85" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="342" spans="1:14" ht="26.4">
+    <row r="342" spans="1:15" ht="26.4">
       <c r="A342" s="19">
         <v>52</v>
       </c>
@@ -17486,7 +17635,7 @@
       <c r="I342" s="36"/>
       <c r="J342" s="71"/>
     </row>
-    <row r="343" spans="1:14" ht="26.4">
+    <row r="343" spans="1:15" ht="26.4">
       <c r="A343" s="19">
         <v>52</v>
       </c>
@@ -17507,7 +17656,7 @@
       <c r="I343" s="36"/>
       <c r="J343" s="71"/>
     </row>
-    <row r="344" spans="1:14" ht="26.4">
+    <row r="344" spans="1:15" ht="26.4">
       <c r="A344" s="19">
         <v>52</v>
       </c>
@@ -17533,7 +17682,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="345" spans="1:14" ht="105.6">
+    <row r="345" spans="1:15" ht="105.6">
       <c r="A345" s="19">
         <v>52</v>
       </c>
@@ -17559,7 +17708,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="346" spans="1:14" ht="26.4">
+    <row r="346" spans="1:15" ht="26.4">
       <c r="A346" s="19">
         <v>52</v>
       </c>
@@ -17580,7 +17729,7 @@
       <c r="I346" s="36"/>
       <c r="J346" s="71"/>
     </row>
-    <row r="347" spans="1:14" ht="26.4">
+    <row r="347" spans="1:15" ht="26.4">
       <c r="A347" s="19">
         <v>52</v>
       </c>
@@ -17601,7 +17750,7 @@
       <c r="I347" s="36"/>
       <c r="J347" s="71"/>
     </row>
-    <row r="348" spans="1:14" ht="26.4">
+    <row r="348" spans="1:15" ht="26.4">
       <c r="A348" s="19">
         <v>52</v>
       </c>
@@ -17622,7 +17771,7 @@
       <c r="I348" s="36"/>
       <c r="J348" s="71"/>
     </row>
-    <row r="349" spans="1:14" ht="26.4">
+    <row r="349" spans="1:15" ht="26.4">
       <c r="A349" s="19">
         <v>52</v>
       </c>
@@ -17643,7 +17792,7 @@
       <c r="I349" s="36"/>
       <c r="J349" s="71"/>
     </row>
-    <row r="350" spans="1:14" ht="13.2">
+    <row r="350" spans="1:15" ht="13.2">
       <c r="A350" s="19">
         <v>59</v>
       </c>
@@ -17664,7 +17813,7 @@
       <c r="I350" s="46"/>
       <c r="J350" s="73"/>
     </row>
-    <row r="351" spans="1:14" ht="13.2">
+    <row r="351" spans="1:15" ht="13.2">
       <c r="A351" s="19">
         <v>59</v>
       </c>
@@ -17685,7 +17834,7 @@
       <c r="I351" s="46"/>
       <c r="J351" s="73"/>
     </row>
-    <row r="352" spans="1:14" ht="13.2">
+    <row r="352" spans="1:15" ht="13.2">
       <c r="A352" s="19">
         <v>59</v>
       </c>
@@ -17704,7 +17853,7 @@
       <c r="I352" s="46"/>
       <c r="J352" s="73"/>
     </row>
-    <row r="353" spans="1:11" ht="13.2">
+    <row r="353" spans="1:15" ht="13.2">
       <c r="A353" s="19">
         <v>59</v>
       </c>
@@ -17725,7 +17874,7 @@
       <c r="I353" s="46"/>
       <c r="J353" s="73"/>
     </row>
-    <row r="354" spans="1:11" ht="13.2">
+    <row r="354" spans="1:15" ht="13.2">
       <c r="A354" s="19">
         <v>59</v>
       </c>
@@ -17746,7 +17895,7 @@
       <c r="I354" s="46"/>
       <c r="J354" s="73"/>
     </row>
-    <row r="355" spans="1:11" ht="13.2">
+    <row r="355" spans="1:15" ht="13.2">
       <c r="A355" s="19">
         <v>59</v>
       </c>
@@ -17767,7 +17916,7 @@
       <c r="I355" s="46"/>
       <c r="J355" s="73"/>
     </row>
-    <row r="356" spans="1:11" ht="13.2">
+    <row r="356" spans="1:15" ht="13.2">
       <c r="A356" s="19">
         <v>59</v>
       </c>
@@ -17788,7 +17937,7 @@
       <c r="I356" s="46"/>
       <c r="J356" s="73"/>
     </row>
-    <row r="357" spans="1:11" ht="13.2">
+    <row r="357" spans="1:15" ht="13.2">
       <c r="A357" s="19">
         <v>59</v>
       </c>
@@ -17809,7 +17958,7 @@
       <c r="I357" s="46"/>
       <c r="J357" s="73"/>
     </row>
-    <row r="358" spans="1:11" ht="13.2">
+    <row r="358" spans="1:15" ht="13.2">
       <c r="A358" s="19">
         <v>59</v>
       </c>
@@ -17830,7 +17979,7 @@
       <c r="I358" s="46"/>
       <c r="J358" s="73"/>
     </row>
-    <row r="359" spans="1:11" ht="13.2">
+    <row r="359" spans="1:15" ht="13.2">
       <c r="A359" s="19">
         <v>59</v>
       </c>
@@ -17851,7 +18000,7 @@
       <c r="I359" s="46"/>
       <c r="J359" s="73"/>
     </row>
-    <row r="360" spans="1:11" ht="26.4">
+    <row r="360" spans="1:15" ht="26.4">
       <c r="A360" s="19">
         <v>60</v>
       </c>
@@ -17872,7 +18021,7 @@
       <c r="I360" s="36"/>
       <c r="J360" s="71"/>
     </row>
-    <row r="361" spans="1:11" ht="26.4">
+    <row r="361" spans="1:15" ht="26.4">
       <c r="A361" s="19">
         <v>60</v>
       </c>
@@ -17893,7 +18042,7 @@
       <c r="I361" s="36"/>
       <c r="J361" s="71"/>
     </row>
-    <row r="362" spans="1:11" ht="26.4">
+    <row r="362" spans="1:15" ht="26.4">
       <c r="A362" s="19">
         <v>60</v>
       </c>
@@ -17916,7 +18065,7 @@
       <c r="I362" s="36"/>
       <c r="J362" s="71"/>
     </row>
-    <row r="363" spans="1:11" ht="26.4">
+    <row r="363" spans="1:15" ht="26.4">
       <c r="A363" s="19">
         <v>60</v>
       </c>
@@ -17937,7 +18086,7 @@
       <c r="I363" s="36"/>
       <c r="J363" s="71"/>
     </row>
-    <row r="364" spans="1:11" ht="26.4">
+    <row r="364" spans="1:15" ht="26.4">
       <c r="A364" s="19">
         <v>60</v>
       </c>
@@ -17958,7 +18107,7 @@
       <c r="I364" s="36"/>
       <c r="J364" s="71"/>
     </row>
-    <row r="365" spans="1:11" ht="26.4">
+    <row r="365" spans="1:15" ht="26.4">
       <c r="A365" s="19">
         <v>60</v>
       </c>
@@ -17979,7 +18128,7 @@
       <c r="I365" s="36"/>
       <c r="J365" s="71"/>
     </row>
-    <row r="366" spans="1:11" ht="26.4">
+    <row r="366" spans="1:15" ht="26.4">
       <c r="A366" s="19">
         <v>60</v>
       </c>
@@ -18000,7 +18149,7 @@
       <c r="I366" s="36"/>
       <c r="J366" s="71"/>
     </row>
-    <row r="367" spans="1:11" ht="55.2">
+    <row r="367" spans="1:15" ht="55.2">
       <c r="A367" s="19">
         <v>60</v>
       </c>
@@ -18022,11 +18171,17 @@
       <c r="H367" s="36"/>
       <c r="I367" s="36"/>
       <c r="J367" s="71"/>
-      <c r="K367" s="83" t="s">
+      <c r="K367" s="86" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="368" spans="1:11" ht="26.4">
+      <c r="L367" s="86" t="s">
+        <v>1099</v>
+      </c>
+      <c r="O367" s="85" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" ht="26.4">
       <c r="A368" s="19">
         <v>60</v>
       </c>
@@ -18047,7 +18202,7 @@
       <c r="I368" s="36"/>
       <c r="J368" s="71"/>
     </row>
-    <row r="369" spans="1:11" ht="26.4">
+    <row r="369" spans="1:15" ht="26.4">
       <c r="A369" s="19">
         <v>60</v>
       </c>
@@ -18068,7 +18223,7 @@
       <c r="I369" s="36"/>
       <c r="J369" s="71"/>
     </row>
-    <row r="370" spans="1:11" ht="13.2">
+    <row r="370" spans="1:15" ht="13.2">
       <c r="A370" s="19">
         <v>63</v>
       </c>
@@ -18089,7 +18244,7 @@
       <c r="I370" s="46"/>
       <c r="J370" s="73"/>
     </row>
-    <row r="371" spans="1:11" ht="13.2">
+    <row r="371" spans="1:15" ht="13.2">
       <c r="A371" s="19">
         <v>63</v>
       </c>
@@ -18110,7 +18265,7 @@
       <c r="I371" s="46"/>
       <c r="J371" s="73"/>
     </row>
-    <row r="372" spans="1:11" ht="13.2">
+    <row r="372" spans="1:15" ht="13.2">
       <c r="A372" s="19">
         <v>63</v>
       </c>
@@ -18131,7 +18286,7 @@
       <c r="I372" s="46"/>
       <c r="J372" s="73"/>
     </row>
-    <row r="373" spans="1:11" ht="13.2">
+    <row r="373" spans="1:15" ht="13.2">
       <c r="A373" s="19">
         <v>63</v>
       </c>
@@ -18152,7 +18307,7 @@
       <c r="I373" s="46"/>
       <c r="J373" s="73"/>
     </row>
-    <row r="374" spans="1:11" ht="13.2">
+    <row r="374" spans="1:15" ht="13.2">
       <c r="A374" s="19">
         <v>63</v>
       </c>
@@ -18173,7 +18328,7 @@
       <c r="I374" s="46"/>
       <c r="J374" s="73"/>
     </row>
-    <row r="375" spans="1:11" ht="13.2">
+    <row r="375" spans="1:15" ht="13.2">
       <c r="A375" s="19">
         <v>63</v>
       </c>
@@ -18194,7 +18349,7 @@
       <c r="I375" s="46"/>
       <c r="J375" s="73"/>
     </row>
-    <row r="376" spans="1:11" ht="13.2">
+    <row r="376" spans="1:15" ht="13.2">
       <c r="A376" s="19">
         <v>63</v>
       </c>
@@ -18215,7 +18370,7 @@
       <c r="I376" s="46"/>
       <c r="J376" s="73"/>
     </row>
-    <row r="377" spans="1:11" ht="13.2">
+    <row r="377" spans="1:15" ht="13.2">
       <c r="A377" s="19">
         <v>63</v>
       </c>
@@ -18236,7 +18391,7 @@
       <c r="I377" s="46"/>
       <c r="J377" s="73"/>
     </row>
-    <row r="378" spans="1:11" ht="13.2">
+    <row r="378" spans="1:15" ht="13.2">
       <c r="A378" s="19">
         <v>63</v>
       </c>
@@ -18257,7 +18412,7 @@
       <c r="I378" s="46"/>
       <c r="J378" s="73"/>
     </row>
-    <row r="379" spans="1:11" ht="26.4">
+    <row r="379" spans="1:15" ht="26.4">
       <c r="A379" s="19">
         <v>64</v>
       </c>
@@ -18278,7 +18433,7 @@
       <c r="I379" s="36"/>
       <c r="J379" s="71"/>
     </row>
-    <row r="380" spans="1:11" ht="26.4">
+    <row r="380" spans="1:15" ht="26.4">
       <c r="A380" s="19">
         <v>64</v>
       </c>
@@ -18299,7 +18454,7 @@
       <c r="I380" s="36"/>
       <c r="J380" s="71"/>
     </row>
-    <row r="381" spans="1:11" ht="41.4">
+    <row r="381" spans="1:15" ht="41.4">
       <c r="A381" s="19">
         <v>64</v>
       </c>
@@ -18321,11 +18476,17 @@
       <c r="H381" s="36"/>
       <c r="I381" s="36"/>
       <c r="J381" s="71"/>
-      <c r="K381" s="83" t="s">
+      <c r="K381" s="86" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="382" spans="1:11" ht="26.4">
+      <c r="L381" s="86" t="s">
+        <v>1100</v>
+      </c>
+      <c r="O381" s="85" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" ht="26.4">
       <c r="A382" s="19">
         <v>64</v>
       </c>
@@ -18346,7 +18507,7 @@
       <c r="I382" s="36"/>
       <c r="J382" s="71"/>
     </row>
-    <row r="383" spans="1:11" ht="26.4">
+    <row r="383" spans="1:15" ht="26.4">
       <c r="A383" s="19">
         <v>64</v>
       </c>
@@ -18367,7 +18528,7 @@
       <c r="I383" s="36"/>
       <c r="J383" s="71"/>
     </row>
-    <row r="384" spans="1:11" ht="26.4">
+    <row r="384" spans="1:15" ht="26.4">
       <c r="A384" s="19">
         <v>64</v>
       </c>
@@ -18388,7 +18549,7 @@
       <c r="I384" s="36"/>
       <c r="J384" s="71"/>
     </row>
-    <row r="385" spans="1:11" ht="26.4">
+    <row r="385" spans="1:15" ht="26.4">
       <c r="A385" s="19">
         <v>64</v>
       </c>
@@ -18409,7 +18570,7 @@
       <c r="I385" s="36"/>
       <c r="J385" s="71"/>
     </row>
-    <row r="386" spans="1:11" ht="26.4">
+    <row r="386" spans="1:15" ht="26.4">
       <c r="A386" s="19">
         <v>64</v>
       </c>
@@ -18435,7 +18596,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="387" spans="1:11" ht="26.4">
+    <row r="387" spans="1:15" ht="26.4">
       <c r="A387" s="19">
         <v>64</v>
       </c>
@@ -18456,7 +18617,7 @@
       <c r="I387" s="36"/>
       <c r="J387" s="71"/>
     </row>
-    <row r="388" spans="1:11" ht="26.4">
+    <row r="388" spans="1:15" ht="26.4">
       <c r="A388" s="19">
         <v>65</v>
       </c>
@@ -18477,7 +18638,7 @@
       <c r="I388" s="46"/>
       <c r="J388" s="73"/>
     </row>
-    <row r="389" spans="1:11" ht="26.4">
+    <row r="389" spans="1:15" ht="26.4">
       <c r="A389" s="19">
         <v>65</v>
       </c>
@@ -18498,7 +18659,7 @@
       <c r="I389" s="46"/>
       <c r="J389" s="73"/>
     </row>
-    <row r="390" spans="1:11" ht="26.4">
+    <row r="390" spans="1:15" ht="26.4">
       <c r="A390" s="19">
         <v>65</v>
       </c>
@@ -18517,7 +18678,7 @@
       <c r="I390" s="46"/>
       <c r="J390" s="73"/>
     </row>
-    <row r="391" spans="1:11" ht="26.4">
+    <row r="391" spans="1:15" ht="26.4">
       <c r="A391" s="19">
         <v>65</v>
       </c>
@@ -18538,7 +18699,7 @@
       <c r="I391" s="46"/>
       <c r="J391" s="73"/>
     </row>
-    <row r="392" spans="1:11" ht="26.4">
+    <row r="392" spans="1:15" ht="26.4">
       <c r="A392" s="19">
         <v>65</v>
       </c>
@@ -18559,7 +18720,7 @@
       <c r="I392" s="46"/>
       <c r="J392" s="73"/>
     </row>
-    <row r="393" spans="1:11" ht="82.8">
+    <row r="393" spans="1:15" ht="82.8">
       <c r="A393" s="19">
         <v>65</v>
       </c>
@@ -18581,11 +18742,15 @@
       <c r="H393" s="46"/>
       <c r="I393" s="46"/>
       <c r="J393" s="73"/>
-      <c r="K393" s="83" t="s">
+      <c r="K393" s="86" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="394" spans="1:11" ht="26.4">
+      <c r="L393" s="86"/>
+      <c r="O393" s="85" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" ht="26.4">
       <c r="A394" s="19">
         <v>65</v>
       </c>
@@ -18606,7 +18771,7 @@
       <c r="I394" s="46"/>
       <c r="J394" s="73"/>
     </row>
-    <row r="395" spans="1:11" ht="26.4">
+    <row r="395" spans="1:15" ht="26.4">
       <c r="A395" s="19">
         <v>65</v>
       </c>
@@ -18627,7 +18792,7 @@
       <c r="I395" s="46"/>
       <c r="J395" s="73"/>
     </row>
-    <row r="396" spans="1:11" ht="26.4">
+    <row r="396" spans="1:15" ht="26.4">
       <c r="A396" s="19">
         <v>65</v>
       </c>
@@ -18648,7 +18813,7 @@
       <c r="I396" s="46"/>
       <c r="J396" s="73"/>
     </row>
-    <row r="397" spans="1:11" ht="13.2">
+    <row r="397" spans="1:15" ht="13.2">
       <c r="A397" s="19">
         <v>67</v>
       </c>
@@ -18669,7 +18834,7 @@
       <c r="I397" s="36"/>
       <c r="J397" s="71"/>
     </row>
-    <row r="398" spans="1:11" ht="13.2">
+    <row r="398" spans="1:15" ht="13.2">
       <c r="A398" s="19">
         <v>67</v>
       </c>
@@ -18690,7 +18855,7 @@
       <c r="I398" s="36"/>
       <c r="J398" s="71"/>
     </row>
-    <row r="399" spans="1:11" ht="13.2">
+    <row r="399" spans="1:15" ht="13.2">
       <c r="A399" s="19">
         <v>67</v>
       </c>
@@ -18709,7 +18874,7 @@
       <c r="I399" s="36"/>
       <c r="J399" s="71"/>
     </row>
-    <row r="400" spans="1:11" ht="13.2">
+    <row r="400" spans="1:15" ht="13.2">
       <c r="A400" s="19">
         <v>67</v>
       </c>
@@ -19074,7 +19239,7 @@
       <c r="I416" s="36"/>
       <c r="J416" s="71"/>
     </row>
-    <row r="417" spans="1:14" ht="13.2">
+    <row r="417" spans="1:15" ht="13.2">
       <c r="A417" s="19">
         <v>69</v>
       </c>
@@ -19095,7 +19260,7 @@
       <c r="I417" s="36"/>
       <c r="J417" s="71"/>
     </row>
-    <row r="418" spans="1:14" ht="13.2">
+    <row r="418" spans="1:15" ht="13.2">
       <c r="A418" s="19">
         <v>69</v>
       </c>
@@ -19116,7 +19281,7 @@
       <c r="I418" s="36"/>
       <c r="J418" s="71"/>
     </row>
-    <row r="419" spans="1:14" ht="13.2">
+    <row r="419" spans="1:15" ht="13.2">
       <c r="A419" s="19">
         <v>69</v>
       </c>
@@ -19137,7 +19302,7 @@
       <c r="I419" s="36"/>
       <c r="J419" s="71"/>
     </row>
-    <row r="420" spans="1:14" ht="13.2">
+    <row r="420" spans="1:15" ht="13.2">
       <c r="A420" s="19">
         <v>69</v>
       </c>
@@ -19158,7 +19323,7 @@
       <c r="I420" s="36"/>
       <c r="J420" s="71"/>
     </row>
-    <row r="421" spans="1:14" ht="13.2">
+    <row r="421" spans="1:15" ht="13.2">
       <c r="A421" s="19">
         <v>69</v>
       </c>
@@ -19179,7 +19344,7 @@
       <c r="I421" s="36"/>
       <c r="J421" s="71"/>
     </row>
-    <row r="422" spans="1:14" ht="13.2">
+    <row r="422" spans="1:15" ht="13.2">
       <c r="A422" s="19">
         <v>69</v>
       </c>
@@ -19200,7 +19365,7 @@
       <c r="I422" s="36"/>
       <c r="J422" s="71"/>
     </row>
-    <row r="423" spans="1:14" ht="13.2">
+    <row r="423" spans="1:15" ht="13.2">
       <c r="A423" s="19">
         <v>69</v>
       </c>
@@ -19221,7 +19386,7 @@
       <c r="I423" s="36"/>
       <c r="J423" s="71"/>
     </row>
-    <row r="424" spans="1:14" ht="13.2">
+    <row r="424" spans="1:15" ht="13.2">
       <c r="A424" s="19">
         <v>70</v>
       </c>
@@ -19242,7 +19407,7 @@
       <c r="I424" s="46"/>
       <c r="J424" s="73"/>
     </row>
-    <row r="425" spans="1:14" ht="52.8">
+    <row r="425" spans="1:15" ht="52.8">
       <c r="A425" s="19">
         <v>70</v>
       </c>
@@ -19265,7 +19430,7 @@
       <c r="I425" s="46"/>
       <c r="J425" s="73"/>
     </row>
-    <row r="426" spans="1:14" ht="13.2">
+    <row r="426" spans="1:15" ht="13.2">
       <c r="A426" s="19">
         <v>70</v>
       </c>
@@ -19286,7 +19451,7 @@
       <c r="I426" s="46"/>
       <c r="J426" s="73"/>
     </row>
-    <row r="427" spans="1:14" ht="52.8">
+    <row r="427" spans="1:15" ht="52.8">
       <c r="A427" s="19">
         <v>70</v>
       </c>
@@ -19311,17 +19476,17 @@
       <c r="K427" s="82" t="s">
         <v>880</v>
       </c>
-      <c r="L427" s="82" t="s">
+      <c r="M427" s="82" t="s">
         <v>1008</v>
       </c>
-      <c r="M427" s="82" t="s">
+      <c r="N427" s="82" t="s">
         <v>1007</v>
       </c>
-      <c r="N427" s="88" t="s">
+      <c r="O427" s="85" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="428" spans="1:14" ht="13.2">
+    <row r="428" spans="1:15" ht="13.2">
       <c r="A428" s="19">
         <v>70</v>
       </c>
@@ -19342,7 +19507,7 @@
       <c r="I428" s="46"/>
       <c r="J428" s="73"/>
     </row>
-    <row r="429" spans="1:14" ht="13.2">
+    <row r="429" spans="1:15" ht="13.2">
       <c r="A429" s="19">
         <v>70</v>
       </c>
@@ -19363,7 +19528,7 @@
       <c r="I429" s="46"/>
       <c r="J429" s="73"/>
     </row>
-    <row r="430" spans="1:14" ht="13.2">
+    <row r="430" spans="1:15" ht="13.2">
       <c r="A430" s="19">
         <v>70</v>
       </c>
@@ -19384,7 +19549,7 @@
       <c r="I430" s="46"/>
       <c r="J430" s="73"/>
     </row>
-    <row r="431" spans="1:14" ht="13.2">
+    <row r="431" spans="1:15" ht="13.2">
       <c r="A431" s="19">
         <v>70</v>
       </c>
@@ -19405,7 +19570,7 @@
       <c r="I431" s="46"/>
       <c r="J431" s="73"/>
     </row>
-    <row r="432" spans="1:14" ht="13.2">
+    <row r="432" spans="1:15" ht="13.2">
       <c r="A432" s="19">
         <v>70</v>
       </c>
@@ -19424,7 +19589,7 @@
       <c r="I432" s="46"/>
       <c r="J432" s="73"/>
     </row>
-    <row r="433" spans="1:14" ht="13.2">
+    <row r="433" spans="1:15" ht="13.2">
       <c r="A433" s="19">
         <v>71</v>
       </c>
@@ -19445,7 +19610,7 @@
       <c r="I433" s="46"/>
       <c r="J433" s="73"/>
     </row>
-    <row r="434" spans="1:14" ht="13.2">
+    <row r="434" spans="1:15" ht="13.2">
       <c r="A434" s="19">
         <v>71</v>
       </c>
@@ -19466,7 +19631,7 @@
       <c r="I434" s="46"/>
       <c r="J434" s="73"/>
     </row>
-    <row r="435" spans="1:14" ht="13.2">
+    <row r="435" spans="1:15" ht="13.2">
       <c r="A435" s="19">
         <v>71</v>
       </c>
@@ -19487,7 +19652,7 @@
       <c r="I435" s="46"/>
       <c r="J435" s="73"/>
     </row>
-    <row r="436" spans="1:14" ht="13.2">
+    <row r="436" spans="1:15" ht="13.2">
       <c r="A436" s="19">
         <v>71</v>
       </c>
@@ -19508,7 +19673,7 @@
       <c r="I436" s="46"/>
       <c r="J436" s="73"/>
     </row>
-    <row r="437" spans="1:14" ht="13.2">
+    <row r="437" spans="1:15" ht="13.2">
       <c r="A437" s="19">
         <v>71</v>
       </c>
@@ -19529,7 +19694,7 @@
       <c r="I437" s="46"/>
       <c r="J437" s="73"/>
     </row>
-    <row r="438" spans="1:14" ht="13.2">
+    <row r="438" spans="1:15" ht="13.2">
       <c r="A438" s="19">
         <v>71</v>
       </c>
@@ -19550,7 +19715,7 @@
       <c r="I438" s="46"/>
       <c r="J438" s="73"/>
     </row>
-    <row r="439" spans="1:14" ht="13.2">
+    <row r="439" spans="1:15" ht="13.2">
       <c r="A439" s="19">
         <v>71</v>
       </c>
@@ -19571,7 +19736,7 @@
       <c r="I439" s="46"/>
       <c r="J439" s="73"/>
     </row>
-    <row r="440" spans="1:14" ht="52.8">
+    <row r="440" spans="1:15" ht="52.8">
       <c r="A440" s="19">
         <v>71</v>
       </c>
@@ -19597,7 +19762,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="441" spans="1:14" ht="13.2">
+    <row r="441" spans="1:15" ht="13.2">
       <c r="A441" s="19">
         <v>71</v>
       </c>
@@ -19618,7 +19783,7 @@
       <c r="I441" s="46"/>
       <c r="J441" s="73"/>
     </row>
-    <row r="442" spans="1:14" ht="13.2">
+    <row r="442" spans="1:15" ht="13.2">
       <c r="A442" s="19">
         <v>72</v>
       </c>
@@ -19637,7 +19802,7 @@
       <c r="I442" s="36"/>
       <c r="J442" s="71"/>
     </row>
-    <row r="443" spans="1:14" ht="13.2">
+    <row r="443" spans="1:15" ht="13.2">
       <c r="A443" s="19">
         <v>72</v>
       </c>
@@ -19658,7 +19823,7 @@
       <c r="I443" s="36"/>
       <c r="J443" s="71"/>
     </row>
-    <row r="444" spans="1:14" ht="13.2">
+    <row r="444" spans="1:15" ht="13.2">
       <c r="A444" s="19">
         <v>72</v>
       </c>
@@ -19679,7 +19844,7 @@
       <c r="I444" s="36"/>
       <c r="J444" s="71"/>
     </row>
-    <row r="445" spans="1:14" ht="13.2">
+    <row r="445" spans="1:15" ht="13.2">
       <c r="A445" s="19">
         <v>72</v>
       </c>
@@ -19700,7 +19865,7 @@
       <c r="I445" s="36"/>
       <c r="J445" s="71"/>
     </row>
-    <row r="446" spans="1:14" ht="13.2">
+    <row r="446" spans="1:15" ht="13.2">
       <c r="A446" s="19">
         <v>72</v>
       </c>
@@ -19721,7 +19886,7 @@
       <c r="I446" s="36"/>
       <c r="J446" s="71"/>
     </row>
-    <row r="447" spans="1:14" ht="13.2">
+    <row r="447" spans="1:15" ht="13.2">
       <c r="A447" s="19">
         <v>72</v>
       </c>
@@ -19742,7 +19907,7 @@
       <c r="I447" s="36"/>
       <c r="J447" s="71"/>
     </row>
-    <row r="448" spans="1:14" ht="92.4">
+    <row r="448" spans="1:15" ht="92.4">
       <c r="A448" s="19">
         <v>72</v>
       </c>
@@ -19767,17 +19932,17 @@
       <c r="K448" s="82" t="s">
         <v>882</v>
       </c>
-      <c r="L448" s="82" t="s">
+      <c r="M448" s="82" t="s">
         <v>1009</v>
       </c>
-      <c r="M448" s="82" t="s">
+      <c r="N448" s="82" t="s">
         <v>581</v>
       </c>
-      <c r="N448" s="88" t="s">
+      <c r="O448" s="85" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="449" spans="1:11" ht="66">
+    <row r="449" spans="1:12" ht="66">
       <c r="A449" s="19">
         <v>72</v>
       </c>
@@ -19803,7 +19968,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="450" spans="1:11" ht="13.2">
+    <row r="450" spans="1:12" ht="13.2">
       <c r="A450" s="19">
         <v>72</v>
       </c>
@@ -19824,7 +19989,7 @@
       <c r="I450" s="36"/>
       <c r="J450" s="71"/>
     </row>
-    <row r="451" spans="1:11" ht="13.2">
+    <row r="451" spans="1:12" ht="13.2">
       <c r="A451" s="19">
         <v>72</v>
       </c>
@@ -19845,7 +20010,7 @@
       <c r="I451" s="36"/>
       <c r="J451" s="71"/>
     </row>
-    <row r="452" spans="1:11" ht="13.2">
+    <row r="452" spans="1:12" ht="13.2">
       <c r="A452" s="19">
         <v>73</v>
       </c>
@@ -19862,11 +20027,11 @@
       <c r="E452" s="44"/>
       <c r="F452" s="45"/>
       <c r="G452" s="46"/>
-      <c r="H452" s="46"/>
+      <c r="H452" s="59"/>
       <c r="I452" s="46"/>
       <c r="J452" s="73"/>
     </row>
-    <row r="453" spans="1:11" ht="13.2">
+    <row r="453" spans="1:12" ht="13.2">
       <c r="A453" s="19">
         <v>73</v>
       </c>
@@ -19883,11 +20048,11 @@
       <c r="E453" s="44"/>
       <c r="F453" s="45"/>
       <c r="G453" s="46"/>
-      <c r="H453" s="46"/>
+      <c r="H453" s="59"/>
       <c r="I453" s="46"/>
       <c r="J453" s="73"/>
     </row>
-    <row r="454" spans="1:11" ht="13.2">
+    <row r="454" spans="1:12" ht="13.2">
       <c r="A454" s="19">
         <v>73</v>
       </c>
@@ -19902,11 +20067,11 @@
       <c r="E454" s="44"/>
       <c r="F454" s="45"/>
       <c r="G454" s="46"/>
-      <c r="H454" s="46"/>
+      <c r="H454" s="59"/>
       <c r="I454" s="46"/>
       <c r="J454" s="73"/>
     </row>
-    <row r="455" spans="1:11" ht="13.2">
+    <row r="455" spans="1:12" ht="13.2">
       <c r="A455" s="19">
         <v>73</v>
       </c>
@@ -19927,11 +20092,11 @@
         <v>264</v>
       </c>
       <c r="G455" s="46"/>
-      <c r="H455" s="46"/>
+      <c r="H455" s="59"/>
       <c r="I455" s="46"/>
       <c r="J455" s="73"/>
     </row>
-    <row r="456" spans="1:11" ht="26.4">
+    <row r="456" spans="1:12" ht="26.4">
       <c r="A456" s="19">
         <v>73</v>
       </c>
@@ -19950,11 +20115,11 @@
       </c>
       <c r="F456" s="45"/>
       <c r="G456" s="46"/>
-      <c r="H456" s="46"/>
+      <c r="H456" s="59"/>
       <c r="I456" s="46"/>
       <c r="J456" s="73"/>
     </row>
-    <row r="457" spans="1:11" ht="145.19999999999999">
+    <row r="457" spans="1:12" ht="145.19999999999999">
       <c r="A457" s="19">
         <v>73</v>
       </c>
@@ -19972,15 +20137,22 @@
       <c r="F457" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="G457" s="46"/>
-      <c r="H457" s="46"/>
+      <c r="G457" s="46" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H457" s="59"/>
       <c r="I457" s="46"/>
-      <c r="J457" s="73"/>
-      <c r="K457" s="83" t="s">
+      <c r="J457" s="62" t="s">
+        <v>1129</v>
+      </c>
+      <c r="K457" s="86" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="458" spans="1:11" ht="13.2">
+      <c r="L457" s="86" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" ht="13.2">
       <c r="A458" s="19">
         <v>73</v>
       </c>
@@ -19997,11 +20169,11 @@
         <v>267</v>
       </c>
       <c r="G458" s="46"/>
-      <c r="H458" s="46"/>
+      <c r="H458" s="59"/>
       <c r="I458" s="46"/>
       <c r="J458" s="73"/>
     </row>
-    <row r="459" spans="1:11" ht="13.2">
+    <row r="459" spans="1:12" ht="13.2">
       <c r="A459" s="19">
         <v>73</v>
       </c>
@@ -20016,11 +20188,11 @@
       <c r="E459" s="44"/>
       <c r="F459" s="45"/>
       <c r="G459" s="46"/>
-      <c r="H459" s="46"/>
+      <c r="H459" s="59"/>
       <c r="I459" s="46"/>
       <c r="J459" s="73"/>
     </row>
-    <row r="460" spans="1:11" ht="13.2">
+    <row r="460" spans="1:12" ht="13.2">
       <c r="A460" s="19">
         <v>73</v>
       </c>
@@ -20041,11 +20213,11 @@
         <v>269</v>
       </c>
       <c r="G460" s="46"/>
-      <c r="H460" s="46"/>
+      <c r="H460" s="59"/>
       <c r="I460" s="46"/>
       <c r="J460" s="73"/>
     </row>
-    <row r="461" spans="1:11" ht="26.4">
+    <row r="461" spans="1:12" ht="26.4">
       <c r="A461" s="19">
         <v>73</v>
       </c>
@@ -20064,14 +20236,14 @@
       </c>
       <c r="F461" s="45"/>
       <c r="G461" s="46"/>
-      <c r="H461" s="46"/>
+      <c r="H461" s="59"/>
       <c r="I461" s="46"/>
       <c r="J461" s="73"/>
       <c r="K461" s="82" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="462" spans="1:11" ht="13.2">
+    <row r="462" spans="1:12" ht="13.2">
       <c r="A462" s="19">
         <v>74</v>
       </c>
@@ -20090,7 +20262,7 @@
       <c r="I462" s="36"/>
       <c r="J462" s="71"/>
     </row>
-    <row r="463" spans="1:11" ht="13.2">
+    <row r="463" spans="1:12" ht="13.2">
       <c r="A463" s="19">
         <v>74</v>
       </c>
@@ -20111,7 +20283,7 @@
       <c r="I463" s="36"/>
       <c r="J463" s="71"/>
     </row>
-    <row r="464" spans="1:11" ht="13.2">
+    <row r="464" spans="1:12" ht="13.2">
       <c r="A464" s="19">
         <v>74</v>
       </c>
@@ -20132,7 +20304,7 @@
       <c r="I464" s="36"/>
       <c r="J464" s="71"/>
     </row>
-    <row r="465" spans="1:14" ht="13.2">
+    <row r="465" spans="1:15" ht="13.2">
       <c r="A465" s="19">
         <v>74</v>
       </c>
@@ -20153,7 +20325,7 @@
       <c r="I465" s="36"/>
       <c r="J465" s="71"/>
     </row>
-    <row r="466" spans="1:14" ht="13.2">
+    <row r="466" spans="1:15" ht="13.2">
       <c r="A466" s="19">
         <v>74</v>
       </c>
@@ -20174,7 +20346,7 @@
       <c r="I466" s="36"/>
       <c r="J466" s="71"/>
     </row>
-    <row r="467" spans="1:14" ht="13.2">
+    <row r="467" spans="1:15" ht="13.2">
       <c r="A467" s="19">
         <v>74</v>
       </c>
@@ -20195,7 +20367,7 @@
       <c r="I467" s="36"/>
       <c r="J467" s="71"/>
     </row>
-    <row r="468" spans="1:14" ht="66">
+    <row r="468" spans="1:15" ht="66">
       <c r="A468" s="19">
         <v>74</v>
       </c>
@@ -20220,7 +20392,7 @@
       <c r="I468" s="36"/>
       <c r="J468" s="71"/>
     </row>
-    <row r="469" spans="1:14" ht="105.6">
+    <row r="469" spans="1:15" ht="105.6">
       <c r="A469" s="19">
         <v>74</v>
       </c>
@@ -20245,17 +20417,17 @@
       <c r="K469" s="82" t="s">
         <v>886</v>
       </c>
-      <c r="L469" s="82" t="s">
+      <c r="M469" s="82" t="s">
         <v>1010</v>
       </c>
-      <c r="M469" s="82" t="s">
+      <c r="N469" s="82" t="s">
         <v>585</v>
       </c>
-      <c r="N469" s="88" t="s">
+      <c r="O469" s="85" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="470" spans="1:14" ht="26.4">
+    <row r="470" spans="1:15" ht="26.4">
       <c r="A470" s="19">
         <v>74</v>
       </c>
@@ -20278,7 +20450,7 @@
       <c r="I470" s="36"/>
       <c r="J470" s="71"/>
     </row>
-    <row r="471" spans="1:14" ht="13.2">
+    <row r="471" spans="1:15" ht="13.2">
       <c r="A471" s="19">
         <v>74</v>
       </c>
@@ -20299,7 +20471,7 @@
       <c r="I471" s="36"/>
       <c r="J471" s="71"/>
     </row>
-    <row r="472" spans="1:14" ht="13.2">
+    <row r="472" spans="1:15" ht="13.2">
       <c r="A472" s="19">
         <v>76</v>
       </c>
@@ -20320,7 +20492,7 @@
       <c r="I472" s="46"/>
       <c r="J472" s="73"/>
     </row>
-    <row r="473" spans="1:14" ht="13.2">
+    <row r="473" spans="1:15" ht="13.2">
       <c r="A473" s="19">
         <v>76</v>
       </c>
@@ -20341,7 +20513,7 @@
       <c r="I473" s="46"/>
       <c r="J473" s="73"/>
     </row>
-    <row r="474" spans="1:14" ht="13.2">
+    <row r="474" spans="1:15" ht="13.2">
       <c r="A474" s="19">
         <v>76</v>
       </c>
@@ -20360,7 +20532,7 @@
       <c r="I474" s="46"/>
       <c r="J474" s="73"/>
     </row>
-    <row r="475" spans="1:14" ht="13.2">
+    <row r="475" spans="1:15" ht="13.2">
       <c r="A475" s="19">
         <v>76</v>
       </c>
@@ -20381,7 +20553,7 @@
       <c r="I475" s="46"/>
       <c r="J475" s="73"/>
     </row>
-    <row r="476" spans="1:14" ht="13.2">
+    <row r="476" spans="1:15" ht="13.2">
       <c r="A476" s="19">
         <v>76</v>
       </c>
@@ -20402,7 +20574,7 @@
       <c r="I476" s="46"/>
       <c r="J476" s="73"/>
     </row>
-    <row r="477" spans="1:14" ht="13.2">
+    <row r="477" spans="1:15" ht="13.2">
       <c r="A477" s="19">
         <v>76</v>
       </c>
@@ -20423,7 +20595,7 @@
       <c r="I477" s="46"/>
       <c r="J477" s="73"/>
     </row>
-    <row r="478" spans="1:14" ht="118.8">
+    <row r="478" spans="1:15" ht="118.8">
       <c r="A478" s="19">
         <v>76</v>
       </c>
@@ -20449,7 +20621,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="479" spans="1:14" ht="13.2">
+    <row r="479" spans="1:15" ht="13.2">
       <c r="A479" s="19">
         <v>76</v>
       </c>
@@ -20470,7 +20642,7 @@
       <c r="I479" s="46"/>
       <c r="J479" s="73"/>
     </row>
-    <row r="480" spans="1:14" ht="13.2">
+    <row r="480" spans="1:15" ht="13.2">
       <c r="A480" s="19">
         <v>76</v>
       </c>
@@ -20489,7 +20661,7 @@
       <c r="I480" s="46"/>
       <c r="J480" s="73"/>
     </row>
-    <row r="481" spans="1:14" ht="26.4">
+    <row r="481" spans="1:15" ht="26.4">
       <c r="A481" s="19">
         <v>77</v>
       </c>
@@ -20508,7 +20680,7 @@
       <c r="I481" s="36"/>
       <c r="J481" s="71"/>
     </row>
-    <row r="482" spans="1:14" ht="26.4">
+    <row r="482" spans="1:15" ht="26.4">
       <c r="A482" s="19">
         <v>77</v>
       </c>
@@ -20529,7 +20701,7 @@
       <c r="I482" s="36"/>
       <c r="J482" s="71"/>
     </row>
-    <row r="483" spans="1:14" ht="55.2">
+    <row r="483" spans="1:15" ht="110.4">
       <c r="A483" s="19">
         <v>77</v>
       </c>
@@ -20554,8 +20726,11 @@
       <c r="K483" s="83" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="484" spans="1:14" ht="26.4">
+      <c r="L483" s="83" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="484" spans="1:15" ht="26.4">
       <c r="A484" s="19">
         <v>77</v>
       </c>
@@ -20576,7 +20751,7 @@
       <c r="I484" s="36"/>
       <c r="J484" s="71"/>
     </row>
-    <row r="485" spans="1:14" ht="79.2">
+    <row r="485" spans="1:15" ht="79.2">
       <c r="A485" s="19">
         <v>77</v>
       </c>
@@ -20600,7 +20775,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="486" spans="1:14" ht="26.4">
+    <row r="486" spans="1:15" ht="26.4">
       <c r="A486" s="19">
         <v>77</v>
       </c>
@@ -20621,7 +20796,7 @@
       <c r="I486" s="36"/>
       <c r="J486" s="71"/>
     </row>
-    <row r="487" spans="1:14" ht="26.4">
+    <row r="487" spans="1:15" ht="26.4">
       <c r="A487" s="19">
         <v>77</v>
       </c>
@@ -20642,7 +20817,7 @@
       <c r="I487" s="36"/>
       <c r="J487" s="71"/>
     </row>
-    <row r="488" spans="1:14" ht="165.6">
+    <row r="488" spans="1:15" ht="165.6">
       <c r="A488" s="19">
         <v>77</v>
       </c>
@@ -20669,8 +20844,9 @@
       <c r="K488" s="83" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="489" spans="1:14" ht="26.4">
+      <c r="L488" s="83"/>
+    </row>
+    <row r="489" spans="1:15" ht="26.4">
       <c r="A489" s="19">
         <v>77</v>
       </c>
@@ -20691,7 +20867,7 @@
       <c r="I489" s="36"/>
       <c r="J489" s="71"/>
     </row>
-    <row r="490" spans="1:14" ht="13.2">
+    <row r="490" spans="1:15" ht="13.2">
       <c r="A490" s="19">
         <v>78</v>
       </c>
@@ -20712,7 +20888,7 @@
       <c r="I490" s="46"/>
       <c r="J490" s="73"/>
     </row>
-    <row r="491" spans="1:14" ht="13.2">
+    <row r="491" spans="1:15" ht="13.2">
       <c r="A491" s="19">
         <v>78</v>
       </c>
@@ -20733,7 +20909,7 @@
       <c r="I491" s="46"/>
       <c r="J491" s="73"/>
     </row>
-    <row r="492" spans="1:14" ht="158.4">
+    <row r="492" spans="1:15" ht="158.4">
       <c r="A492" s="19">
         <v>78</v>
       </c>
@@ -20758,17 +20934,17 @@
       <c r="K492" s="82" t="s">
         <v>890</v>
       </c>
-      <c r="L492" s="82" t="s">
+      <c r="M492" s="82" t="s">
         <v>1012</v>
       </c>
-      <c r="M492" s="82" t="s">
+      <c r="N492" s="82" t="s">
         <v>591</v>
       </c>
-      <c r="N492" s="88" t="s">
+      <c r="O492" s="85" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="493" spans="1:14" ht="79.2">
+    <row r="493" spans="1:15" ht="79.2">
       <c r="A493" s="19">
         <v>78</v>
       </c>
@@ -20793,7 +20969,7 @@
       <c r="I493" s="46"/>
       <c r="J493" s="73"/>
     </row>
-    <row r="494" spans="1:14" ht="26.4">
+    <row r="494" spans="1:15" ht="26.4">
       <c r="A494" s="19">
         <v>78</v>
       </c>
@@ -20814,7 +20990,7 @@
       <c r="I494" s="46"/>
       <c r="J494" s="73"/>
     </row>
-    <row r="495" spans="1:14" ht="13.2">
+    <row r="495" spans="1:15" ht="13.2">
       <c r="A495" s="19">
         <v>78</v>
       </c>
@@ -20837,7 +21013,7 @@
       <c r="I495" s="46"/>
       <c r="J495" s="73"/>
     </row>
-    <row r="496" spans="1:14" ht="13.2">
+    <row r="496" spans="1:15" ht="13.2">
       <c r="A496" s="19">
         <v>78</v>
       </c>
@@ -21539,7 +21715,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="529" spans="1:14" ht="13.2">
+    <row r="529" spans="1:15" ht="13.2">
       <c r="A529" s="19">
         <v>88</v>
       </c>
@@ -21558,7 +21734,7 @@
       <c r="I529" s="46"/>
       <c r="J529" s="73"/>
     </row>
-    <row r="530" spans="1:14" ht="13.2">
+    <row r="530" spans="1:15" ht="13.2">
       <c r="A530" s="19">
         <v>88</v>
       </c>
@@ -21579,7 +21755,7 @@
       <c r="I530" s="46"/>
       <c r="J530" s="73"/>
     </row>
-    <row r="531" spans="1:14" ht="13.2">
+    <row r="531" spans="1:15" ht="13.2">
       <c r="A531" s="19">
         <v>88</v>
       </c>
@@ -21600,7 +21776,7 @@
       <c r="I531" s="46"/>
       <c r="J531" s="73"/>
     </row>
-    <row r="532" spans="1:14" ht="13.2">
+    <row r="532" spans="1:15" ht="13.2">
       <c r="A532" s="19">
         <v>88</v>
       </c>
@@ -21621,7 +21797,7 @@
       <c r="I532" s="46"/>
       <c r="J532" s="73"/>
     </row>
-    <row r="533" spans="1:14" ht="13.2">
+    <row r="533" spans="1:15" ht="13.2">
       <c r="A533" s="19">
         <v>88</v>
       </c>
@@ -21642,7 +21818,7 @@
       <c r="I533" s="46"/>
       <c r="J533" s="73"/>
     </row>
-    <row r="534" spans="1:14" ht="13.2">
+    <row r="534" spans="1:15" ht="13.2">
       <c r="A534" s="19">
         <v>88</v>
       </c>
@@ -21663,7 +21839,7 @@
       <c r="I534" s="46"/>
       <c r="J534" s="73"/>
     </row>
-    <row r="535" spans="1:14" ht="13.2">
+    <row r="535" spans="1:15" ht="13.2">
       <c r="A535" s="19">
         <v>88</v>
       </c>
@@ -21684,7 +21860,7 @@
       <c r="I535" s="46"/>
       <c r="J535" s="73"/>
     </row>
-    <row r="536" spans="1:14" ht="13.2">
+    <row r="536" spans="1:15" ht="13.2">
       <c r="A536" s="19">
         <v>90</v>
       </c>
@@ -21705,7 +21881,7 @@
       <c r="I536" s="36"/>
       <c r="J536" s="71"/>
     </row>
-    <row r="537" spans="1:14" ht="39.6">
+    <row r="537" spans="1:15" ht="39.6">
       <c r="A537" s="19">
         <v>90</v>
       </c>
@@ -21729,7 +21905,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="538" spans="1:14" ht="92.4">
+    <row r="538" spans="1:15" ht="92.4">
       <c r="A538" s="19">
         <v>90</v>
       </c>
@@ -21754,17 +21930,17 @@
       <c r="K538" s="82" t="s">
         <v>896</v>
       </c>
-      <c r="L538" s="82" t="s">
+      <c r="M538" s="82" t="s">
         <v>1013</v>
       </c>
-      <c r="M538" s="82" t="s">
+      <c r="N538" s="82" t="s">
         <v>601</v>
       </c>
-      <c r="N538" s="88" t="s">
+      <c r="O538" s="85" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="539" spans="1:14" ht="13.2">
+    <row r="539" spans="1:15" ht="13.2">
       <c r="A539" s="19">
         <v>90</v>
       </c>
@@ -21785,7 +21961,7 @@
       <c r="I539" s="36"/>
       <c r="J539" s="71"/>
     </row>
-    <row r="540" spans="1:14" ht="13.2">
+    <row r="540" spans="1:15" ht="13.2">
       <c r="A540" s="19">
         <v>90</v>
       </c>
@@ -21806,7 +21982,7 @@
       <c r="I540" s="36"/>
       <c r="J540" s="71"/>
     </row>
-    <row r="541" spans="1:14" ht="13.2">
+    <row r="541" spans="1:15" ht="13.2">
       <c r="A541" s="19">
         <v>90</v>
       </c>
@@ -21827,7 +22003,7 @@
       <c r="I541" s="36"/>
       <c r="J541" s="71"/>
     </row>
-    <row r="542" spans="1:14" ht="13.2">
+    <row r="542" spans="1:15" ht="13.2">
       <c r="A542" s="19">
         <v>90</v>
       </c>
@@ -21848,7 +22024,7 @@
       <c r="I542" s="36"/>
       <c r="J542" s="71"/>
     </row>
-    <row r="543" spans="1:14" ht="13.2">
+    <row r="543" spans="1:15" ht="13.2">
       <c r="A543" s="19">
         <v>90</v>
       </c>
@@ -21869,7 +22045,7 @@
       <c r="I543" s="36"/>
       <c r="J543" s="71"/>
     </row>
-    <row r="544" spans="1:14" ht="39.6">
+    <row r="544" spans="1:15" ht="39.6">
       <c r="A544" s="19">
         <v>90</v>
       </c>
@@ -21893,7 +22069,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="545" spans="1:14" ht="26.4">
+    <row r="545" spans="1:15" ht="26.4">
       <c r="A545" s="19">
         <v>91</v>
       </c>
@@ -21914,7 +22090,7 @@
       <c r="I545" s="46"/>
       <c r="J545" s="73"/>
     </row>
-    <row r="546" spans="1:14" ht="26.4">
+    <row r="546" spans="1:15" ht="26.4">
       <c r="A546" s="19">
         <v>91</v>
       </c>
@@ -21935,7 +22111,7 @@
       <c r="I546" s="46"/>
       <c r="J546" s="73"/>
     </row>
-    <row r="547" spans="1:14" ht="66">
+    <row r="547" spans="1:15" ht="66">
       <c r="A547" s="19">
         <v>91</v>
       </c>
@@ -21961,7 +22137,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="548" spans="1:14" ht="26.4">
+    <row r="548" spans="1:15" ht="26.4">
       <c r="A548" s="19">
         <v>91</v>
       </c>
@@ -21982,7 +22158,7 @@
       <c r="I548" s="46"/>
       <c r="J548" s="73"/>
     </row>
-    <row r="549" spans="1:14" ht="82.8">
+    <row r="549" spans="1:15" ht="82.8">
       <c r="A549" s="19">
         <v>91</v>
       </c>
@@ -22007,8 +22183,11 @@
       <c r="K549" s="83" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="550" spans="1:14" ht="26.4">
+      <c r="L549" s="83" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="550" spans="1:15" ht="26.4">
       <c r="A550" s="19">
         <v>91</v>
       </c>
@@ -22029,7 +22208,7 @@
       <c r="I550" s="46"/>
       <c r="J550" s="73"/>
     </row>
-    <row r="551" spans="1:14" ht="26.4">
+    <row r="551" spans="1:15" ht="26.4">
       <c r="A551" s="19">
         <v>91</v>
       </c>
@@ -22050,7 +22229,7 @@
       <c r="I551" s="46"/>
       <c r="J551" s="73"/>
     </row>
-    <row r="552" spans="1:14" ht="26.4">
+    <row r="552" spans="1:15" ht="26.4">
       <c r="A552" s="19">
         <v>91</v>
       </c>
@@ -22071,7 +22250,7 @@
       <c r="I552" s="46"/>
       <c r="J552" s="73"/>
     </row>
-    <row r="553" spans="1:14" ht="26.4">
+    <row r="553" spans="1:15" ht="26.4">
       <c r="A553" s="19">
         <v>91</v>
       </c>
@@ -22092,7 +22271,7 @@
       <c r="I553" s="46"/>
       <c r="J553" s="73"/>
     </row>
-    <row r="554" spans="1:14" ht="13.2">
+    <row r="554" spans="1:15" ht="13.2">
       <c r="A554" s="19">
         <v>94</v>
       </c>
@@ -22113,7 +22292,7 @@
       <c r="I554" s="36"/>
       <c r="J554" s="71"/>
     </row>
-    <row r="555" spans="1:14" ht="13.2">
+    <row r="555" spans="1:15" ht="13.2">
       <c r="A555" s="19">
         <v>94</v>
       </c>
@@ -22134,7 +22313,7 @@
       <c r="I555" s="36"/>
       <c r="J555" s="71"/>
     </row>
-    <row r="556" spans="1:14" ht="26.4">
+    <row r="556" spans="1:15" ht="26.4">
       <c r="A556" s="19">
         <v>94</v>
       </c>
@@ -22160,7 +22339,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="557" spans="1:14" ht="13.2">
+    <row r="557" spans="1:15" ht="13.2">
       <c r="A557" s="19">
         <v>94</v>
       </c>
@@ -22181,7 +22360,7 @@
       <c r="I557" s="36"/>
       <c r="J557" s="71"/>
     </row>
-    <row r="558" spans="1:14" ht="13.2">
+    <row r="558" spans="1:15" ht="13.2">
       <c r="A558" s="19">
         <v>94</v>
       </c>
@@ -22202,7 +22381,7 @@
       <c r="I558" s="36"/>
       <c r="J558" s="71"/>
     </row>
-    <row r="559" spans="1:14" ht="13.2">
+    <row r="559" spans="1:15" ht="13.2">
       <c r="A559" s="19">
         <v>94</v>
       </c>
@@ -22223,7 +22402,7 @@
       <c r="I559" s="36"/>
       <c r="J559" s="71"/>
     </row>
-    <row r="560" spans="1:14" ht="79.2">
+    <row r="560" spans="1:15" ht="79.2">
       <c r="A560" s="19">
         <v>94</v>
       </c>
@@ -22250,17 +22429,17 @@
       <c r="K560" s="82" t="s">
         <v>902</v>
       </c>
-      <c r="L560" s="82" t="s">
+      <c r="M560" s="82" t="s">
         <v>296</v>
       </c>
-      <c r="M560" s="82" t="s">
+      <c r="N560" s="82" t="s">
         <v>605</v>
       </c>
-      <c r="N560" s="88" t="s">
+      <c r="O560" s="85" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="561" spans="1:14" ht="13.2">
+    <row r="561" spans="1:15" ht="13.2">
       <c r="A561" s="19">
         <v>94</v>
       </c>
@@ -22281,7 +22460,7 @@
       <c r="I561" s="36"/>
       <c r="J561" s="71"/>
     </row>
-    <row r="562" spans="1:14" ht="13.2">
+    <row r="562" spans="1:15" ht="13.2">
       <c r="A562" s="19">
         <v>94</v>
       </c>
@@ -22302,7 +22481,7 @@
       <c r="I562" s="36"/>
       <c r="J562" s="71"/>
     </row>
-    <row r="563" spans="1:14" ht="26.4">
+    <row r="563" spans="1:15" ht="26.4">
       <c r="A563" s="19">
         <v>95</v>
       </c>
@@ -22323,7 +22502,7 @@
       <c r="I563" s="46"/>
       <c r="J563" s="73"/>
     </row>
-    <row r="564" spans="1:14" ht="26.4">
+    <row r="564" spans="1:15" ht="26.4">
       <c r="A564" s="19">
         <v>95</v>
       </c>
@@ -22344,7 +22523,7 @@
       <c r="I564" s="46"/>
       <c r="J564" s="73"/>
     </row>
-    <row r="565" spans="1:14" ht="26.4">
+    <row r="565" spans="1:15" ht="26.4">
       <c r="A565" s="19">
         <v>95</v>
       </c>
@@ -22365,7 +22544,7 @@
       <c r="I565" s="46"/>
       <c r="J565" s="73"/>
     </row>
-    <row r="566" spans="1:14" ht="26.4">
+    <row r="566" spans="1:15" ht="26.4">
       <c r="A566" s="19">
         <v>95</v>
       </c>
@@ -22386,7 +22565,7 @@
       <c r="I566" s="46"/>
       <c r="J566" s="73"/>
     </row>
-    <row r="567" spans="1:14" ht="26.4">
+    <row r="567" spans="1:15" ht="26.4">
       <c r="A567" s="19">
         <v>95</v>
       </c>
@@ -22407,7 +22586,7 @@
       <c r="I567" s="46"/>
       <c r="J567" s="73"/>
     </row>
-    <row r="568" spans="1:14" ht="26.4">
+    <row r="568" spans="1:15" ht="26.4">
       <c r="A568" s="19">
         <v>95</v>
       </c>
@@ -22428,7 +22607,7 @@
       <c r="I568" s="46"/>
       <c r="J568" s="73"/>
     </row>
-    <row r="569" spans="1:14" ht="26.4">
+    <row r="569" spans="1:15" ht="26.4">
       <c r="A569" s="19">
         <v>95</v>
       </c>
@@ -22449,7 +22628,7 @@
       <c r="I569" s="46"/>
       <c r="J569" s="73"/>
     </row>
-    <row r="570" spans="1:14" ht="39.6">
+    <row r="570" spans="1:15" ht="39.6">
       <c r="A570" s="19">
         <v>95</v>
       </c>
@@ -22475,7 +22654,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="571" spans="1:14" ht="26.4">
+    <row r="571" spans="1:15" ht="26.4">
       <c r="A571" s="19">
         <v>95</v>
       </c>
@@ -22496,7 +22675,7 @@
       <c r="I571" s="46"/>
       <c r="J571" s="73"/>
     </row>
-    <row r="572" spans="1:14" ht="13.2">
+    <row r="572" spans="1:15" ht="13.2">
       <c r="A572" s="19">
         <v>96</v>
       </c>
@@ -22517,7 +22696,7 @@
       <c r="I572" s="36"/>
       <c r="J572" s="71"/>
     </row>
-    <row r="573" spans="1:14" ht="13.2">
+    <row r="573" spans="1:15" ht="13.2">
       <c r="A573" s="19">
         <v>96</v>
       </c>
@@ -22538,7 +22717,7 @@
       <c r="I573" s="36"/>
       <c r="J573" s="71"/>
     </row>
-    <row r="574" spans="1:14" ht="13.2">
+    <row r="574" spans="1:15" ht="13.2">
       <c r="A574" s="19">
         <v>96</v>
       </c>
@@ -22559,7 +22738,7 @@
       <c r="I574" s="36"/>
       <c r="J574" s="71"/>
     </row>
-    <row r="575" spans="1:14" ht="92.4">
+    <row r="575" spans="1:15" ht="92.4">
       <c r="A575" s="19">
         <v>96</v>
       </c>
@@ -22586,17 +22765,17 @@
       <c r="K575" s="82" t="s">
         <v>904</v>
       </c>
-      <c r="L575" s="82" t="s">
+      <c r="M575" s="82" t="s">
         <v>1014</v>
       </c>
-      <c r="M575" s="82" t="s">
+      <c r="N575" s="82" t="s">
         <v>609</v>
       </c>
-      <c r="N575" s="88" t="s">
+      <c r="O575" s="85" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="576" spans="1:14" ht="13.2">
+    <row r="576" spans="1:15" ht="13.2">
       <c r="A576" s="19">
         <v>96</v>
       </c>
@@ -22949,7 +23128,7 @@
       <c r="I592" s="36"/>
       <c r="J592" s="71"/>
     </row>
-    <row r="593" spans="1:11" ht="13.2">
+    <row r="593" spans="1:12" ht="13.2">
       <c r="A593" s="19">
         <v>98</v>
       </c>
@@ -22968,7 +23147,7 @@
       <c r="I593" s="36"/>
       <c r="J593" s="71"/>
     </row>
-    <row r="594" spans="1:11" ht="13.2">
+    <row r="594" spans="1:12" ht="13.2">
       <c r="A594" s="19">
         <v>98</v>
       </c>
@@ -22989,7 +23168,7 @@
       <c r="I594" s="36"/>
       <c r="J594" s="71"/>
     </row>
-    <row r="595" spans="1:11" ht="13.2">
+    <row r="595" spans="1:12" ht="13.2">
       <c r="A595" s="19">
         <v>98</v>
       </c>
@@ -23010,7 +23189,7 @@
       <c r="I595" s="36"/>
       <c r="J595" s="71"/>
     </row>
-    <row r="596" spans="1:11" ht="13.2">
+    <row r="596" spans="1:12" ht="13.2">
       <c r="A596" s="19">
         <v>98</v>
       </c>
@@ -23031,7 +23210,7 @@
       <c r="I596" s="36"/>
       <c r="J596" s="71"/>
     </row>
-    <row r="597" spans="1:11" ht="13.2">
+    <row r="597" spans="1:12" ht="13.2">
       <c r="A597" s="19">
         <v>98</v>
       </c>
@@ -23052,7 +23231,7 @@
       <c r="I597" s="36"/>
       <c r="J597" s="71"/>
     </row>
-    <row r="598" spans="1:11" ht="26.4">
+    <row r="598" spans="1:12" ht="26.4">
       <c r="A598" s="19">
         <v>98</v>
       </c>
@@ -23078,7 +23257,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="599" spans="1:11" ht="13.2">
+    <row r="599" spans="1:12" ht="13.2">
       <c r="A599" s="19">
         <v>98</v>
       </c>
@@ -23099,7 +23278,7 @@
       <c r="I599" s="36"/>
       <c r="J599" s="71"/>
     </row>
-    <row r="600" spans="1:11" ht="13.2">
+    <row r="600" spans="1:12" ht="13.2">
       <c r="A600" s="19">
         <v>99</v>
       </c>
@@ -23120,7 +23299,7 @@
       <c r="I600" s="46"/>
       <c r="J600" s="73"/>
     </row>
-    <row r="601" spans="1:11" ht="13.2">
+    <row r="601" spans="1:12" ht="13.2">
       <c r="A601" s="19">
         <v>99</v>
       </c>
@@ -23141,7 +23320,7 @@
       <c r="I601" s="46"/>
       <c r="J601" s="73"/>
     </row>
-    <row r="602" spans="1:11" ht="39.6">
+    <row r="602" spans="1:12" ht="39.6">
       <c r="A602" s="19">
         <v>99</v>
       </c>
@@ -23168,8 +23347,11 @@
       <c r="K602" s="83" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="603" spans="1:11" ht="13.2">
+      <c r="L602" s="83" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="603" spans="1:12" ht="13.2">
       <c r="A603" s="19">
         <v>99</v>
       </c>
@@ -23190,7 +23372,7 @@
       <c r="I603" s="46"/>
       <c r="J603" s="73"/>
     </row>
-    <row r="604" spans="1:11" ht="13.2">
+    <row r="604" spans="1:12" ht="13.2">
       <c r="A604" s="19">
         <v>99</v>
       </c>
@@ -23211,7 +23393,7 @@
       <c r="I604" s="46"/>
       <c r="J604" s="73"/>
     </row>
-    <row r="605" spans="1:11" ht="13.2">
+    <row r="605" spans="1:12" ht="13.2">
       <c r="A605" s="19">
         <v>99</v>
       </c>
@@ -23232,7 +23414,7 @@
       <c r="I605" s="46"/>
       <c r="J605" s="73"/>
     </row>
-    <row r="606" spans="1:11" ht="13.2">
+    <row r="606" spans="1:12" ht="13.2">
       <c r="A606" s="19">
         <v>99</v>
       </c>
@@ -23253,7 +23435,7 @@
       <c r="I606" s="46"/>
       <c r="J606" s="73"/>
     </row>
-    <row r="607" spans="1:11" ht="13.2">
+    <row r="607" spans="1:12" ht="13.2">
       <c r="A607" s="19">
         <v>99</v>
       </c>
@@ -23274,7 +23456,7 @@
       <c r="I607" s="46"/>
       <c r="J607" s="73"/>
     </row>
-    <row r="608" spans="1:11" ht="13.2">
+    <row r="608" spans="1:12" ht="13.2">
       <c r="A608" s="19">
         <v>99</v>
       </c>
@@ -23295,7 +23477,7 @@
       <c r="I608" s="46"/>
       <c r="J608" s="73"/>
     </row>
-    <row r="609" spans="1:11" ht="26.4">
+    <row r="609" spans="1:12" ht="26.4">
       <c r="A609" s="19">
         <v>101</v>
       </c>
@@ -23316,7 +23498,7 @@
       <c r="I609" s="36"/>
       <c r="J609" s="71"/>
     </row>
-    <row r="610" spans="1:11" ht="39.6">
+    <row r="610" spans="1:12" ht="39.6">
       <c r="A610" s="19">
         <v>101</v>
       </c>
@@ -23342,7 +23524,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="611" spans="1:11" ht="41.4">
+    <row r="611" spans="1:12" ht="96.6">
       <c r="A611" s="19">
         <v>101</v>
       </c>
@@ -23367,8 +23549,11 @@
       <c r="K611" s="83" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="612" spans="1:11" ht="26.4">
+      <c r="L611" s="83" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="612" spans="1:12" ht="26.4">
       <c r="A612" s="19">
         <v>101</v>
       </c>
@@ -23394,7 +23579,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="613" spans="1:11" ht="26.4">
+    <row r="613" spans="1:12" ht="26.4">
       <c r="A613" s="19">
         <v>101</v>
       </c>
@@ -23418,7 +23603,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="614" spans="1:11" ht="26.4">
+    <row r="614" spans="1:12" ht="26.4">
       <c r="A614" s="19">
         <v>101</v>
       </c>
@@ -23439,7 +23624,7 @@
       <c r="I614" s="36"/>
       <c r="J614" s="71"/>
     </row>
-    <row r="615" spans="1:11" ht="26.4">
+    <row r="615" spans="1:12" ht="26.4">
       <c r="A615" s="19">
         <v>101</v>
       </c>
@@ -23460,7 +23645,7 @@
       <c r="I615" s="36"/>
       <c r="J615" s="71"/>
     </row>
-    <row r="616" spans="1:11" ht="96.6">
+    <row r="616" spans="1:12" ht="96.6">
       <c r="A616" s="19">
         <v>101</v>
       </c>
@@ -23485,8 +23670,9 @@
       <c r="K616" s="83" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="617" spans="1:11" ht="26.4">
+      <c r="L616" s="83"/>
+    </row>
+    <row r="617" spans="1:12" ht="26.4">
       <c r="A617" s="19">
         <v>101</v>
       </c>
@@ -23507,7 +23693,7 @@
       <c r="I617" s="36"/>
       <c r="J617" s="71"/>
     </row>
-    <row r="618" spans="1:11" ht="13.2">
+    <row r="618" spans="1:12" ht="13.2">
       <c r="A618" s="19">
         <v>106</v>
       </c>
@@ -23528,7 +23714,7 @@
       <c r="I618" s="46"/>
       <c r="J618" s="73"/>
     </row>
-    <row r="619" spans="1:11" ht="13.2">
+    <row r="619" spans="1:12" ht="13.2">
       <c r="A619" s="19">
         <v>106</v>
       </c>
@@ -23549,7 +23735,7 @@
       <c r="I619" s="46"/>
       <c r="J619" s="73"/>
     </row>
-    <row r="620" spans="1:11" ht="13.2">
+    <row r="620" spans="1:12" ht="13.2">
       <c r="A620" s="19">
         <v>106</v>
       </c>
@@ -23570,7 +23756,7 @@
       <c r="I620" s="46"/>
       <c r="J620" s="73"/>
     </row>
-    <row r="621" spans="1:11" ht="13.8">
+    <row r="621" spans="1:12" ht="13.8">
       <c r="A621" s="19">
         <v>106</v>
       </c>
@@ -23597,8 +23783,11 @@
       <c r="K621" s="83" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="622" spans="1:11" ht="13.2">
+      <c r="L621" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:12" ht="13.2">
       <c r="A622" s="19">
         <v>106</v>
       </c>
@@ -23619,7 +23808,7 @@
       <c r="I622" s="46"/>
       <c r="J622" s="73"/>
     </row>
-    <row r="623" spans="1:11" ht="13.2">
+    <row r="623" spans="1:12" ht="13.2">
       <c r="A623" s="19">
         <v>106</v>
       </c>
@@ -23640,7 +23829,7 @@
       <c r="I623" s="46"/>
       <c r="J623" s="73"/>
     </row>
-    <row r="624" spans="1:11" ht="13.2">
+    <row r="624" spans="1:12" ht="13.2">
       <c r="A624" s="19">
         <v>106</v>
       </c>
@@ -23661,7 +23850,7 @@
       <c r="I624" s="46"/>
       <c r="J624" s="73"/>
     </row>
-    <row r="625" spans="1:11" ht="26.4">
+    <row r="625" spans="1:12" ht="26.4">
       <c r="A625" s="19">
         <v>106</v>
       </c>
@@ -23687,7 +23876,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="626" spans="1:11" ht="13.2">
+    <row r="626" spans="1:12" ht="13.2">
       <c r="A626" s="19">
         <v>106</v>
       </c>
@@ -23708,7 +23897,7 @@
       <c r="I626" s="46"/>
       <c r="J626" s="73"/>
     </row>
-    <row r="627" spans="1:11" ht="13.2">
+    <row r="627" spans="1:12" ht="13.2">
       <c r="A627" s="19">
         <v>107</v>
       </c>
@@ -23729,7 +23918,7 @@
       <c r="I627" s="36"/>
       <c r="J627" s="71"/>
     </row>
-    <row r="628" spans="1:11" ht="13.2">
+    <row r="628" spans="1:12" ht="13.2">
       <c r="A628" s="19">
         <v>107</v>
       </c>
@@ -23750,7 +23939,7 @@
       <c r="I628" s="36"/>
       <c r="J628" s="71"/>
     </row>
-    <row r="629" spans="1:11" ht="13.2">
+    <row r="629" spans="1:12" ht="13.2">
       <c r="A629" s="19">
         <v>107</v>
       </c>
@@ -23771,7 +23960,7 @@
       <c r="I629" s="36"/>
       <c r="J629" s="71"/>
     </row>
-    <row r="630" spans="1:11" ht="13.2">
+    <row r="630" spans="1:12" ht="13.2">
       <c r="A630" s="19">
         <v>107</v>
       </c>
@@ -23792,7 +23981,7 @@
       <c r="I630" s="36"/>
       <c r="J630" s="71"/>
     </row>
-    <row r="631" spans="1:11" ht="13.2">
+    <row r="631" spans="1:12" ht="13.2">
       <c r="A631" s="19">
         <v>107</v>
       </c>
@@ -23813,7 +24002,7 @@
       <c r="I631" s="36"/>
       <c r="J631" s="71"/>
     </row>
-    <row r="632" spans="1:11" ht="13.2">
+    <row r="632" spans="1:12" ht="13.2">
       <c r="A632" s="19">
         <v>107</v>
       </c>
@@ -23834,7 +24023,7 @@
       <c r="I632" s="36"/>
       <c r="J632" s="71"/>
     </row>
-    <row r="633" spans="1:11" ht="13.2">
+    <row r="633" spans="1:12" ht="13.2">
       <c r="A633" s="19">
         <v>107</v>
       </c>
@@ -23855,7 +24044,7 @@
       <c r="I633" s="36"/>
       <c r="J633" s="71"/>
     </row>
-    <row r="634" spans="1:11" ht="13.2">
+    <row r="634" spans="1:12" ht="13.2">
       <c r="A634" s="19">
         <v>107</v>
       </c>
@@ -23876,7 +24065,7 @@
       <c r="I634" s="36"/>
       <c r="J634" s="71"/>
     </row>
-    <row r="635" spans="1:11" ht="13.2">
+    <row r="635" spans="1:12" ht="13.2">
       <c r="A635" s="19">
         <v>107</v>
       </c>
@@ -23897,7 +24086,7 @@
       <c r="I635" s="36"/>
       <c r="J635" s="71"/>
     </row>
-    <row r="636" spans="1:11" ht="55.2">
+    <row r="636" spans="1:12" ht="55.2">
       <c r="A636" s="19">
         <v>108</v>
       </c>
@@ -23922,8 +24111,9 @@
       <c r="K636" s="83" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="637" spans="1:11" ht="26.4">
+      <c r="L636" s="83"/>
+    </row>
+    <row r="637" spans="1:12" ht="26.4">
       <c r="A637" s="19">
         <v>108</v>
       </c>
@@ -23944,7 +24134,7 @@
       <c r="I637" s="46"/>
       <c r="J637" s="73"/>
     </row>
-    <row r="638" spans="1:11" ht="26.4">
+    <row r="638" spans="1:12" ht="26.4">
       <c r="A638" s="19">
         <v>108</v>
       </c>
@@ -23965,7 +24155,7 @@
       <c r="I638" s="46"/>
       <c r="J638" s="73"/>
     </row>
-    <row r="639" spans="1:11" ht="26.4">
+    <row r="639" spans="1:12" ht="26.4">
       <c r="A639" s="19">
         <v>108</v>
       </c>
@@ -23986,7 +24176,7 @@
       <c r="I639" s="46"/>
       <c r="J639" s="73"/>
     </row>
-    <row r="640" spans="1:11" ht="26.4">
+    <row r="640" spans="1:12" ht="26.4">
       <c r="A640" s="19">
         <v>108</v>
       </c>
@@ -24007,7 +24197,7 @@
       <c r="I640" s="46"/>
       <c r="J640" s="73"/>
     </row>
-    <row r="641" spans="1:11" ht="26.4">
+    <row r="641" spans="1:12" ht="26.4">
       <c r="A641" s="19">
         <v>108</v>
       </c>
@@ -24028,7 +24218,7 @@
       <c r="I641" s="46"/>
       <c r="J641" s="73"/>
     </row>
-    <row r="642" spans="1:11" ht="26.4">
+    <row r="642" spans="1:12" ht="26.4">
       <c r="A642" s="19">
         <v>108</v>
       </c>
@@ -24049,7 +24239,7 @@
       <c r="I642" s="46"/>
       <c r="J642" s="73"/>
     </row>
-    <row r="643" spans="1:11" ht="26.4">
+    <row r="643" spans="1:12" ht="26.4">
       <c r="A643" s="19">
         <v>108</v>
       </c>
@@ -24070,7 +24260,7 @@
       <c r="I643" s="46"/>
       <c r="J643" s="73"/>
     </row>
-    <row r="644" spans="1:11" ht="41.4">
+    <row r="644" spans="1:12" ht="41.4">
       <c r="A644" s="19">
         <v>108</v>
       </c>
@@ -24095,8 +24285,9 @@
       <c r="K644" s="83" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="645" spans="1:11" ht="165.6">
+      <c r="L644" s="83"/>
+    </row>
+    <row r="645" spans="1:12" ht="165.6">
       <c r="A645" s="19">
         <v>109</v>
       </c>
@@ -24121,8 +24312,9 @@
       <c r="K645" s="83" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="646" spans="1:11" ht="13.2">
+      <c r="L645" s="83"/>
+    </row>
+    <row r="646" spans="1:12" ht="13.2">
       <c r="A646" s="19">
         <v>109</v>
       </c>
@@ -24143,7 +24335,7 @@
       <c r="I646" s="36"/>
       <c r="J646" s="71"/>
     </row>
-    <row r="647" spans="1:11" ht="13.2">
+    <row r="647" spans="1:12" ht="13.2">
       <c r="A647" s="19">
         <v>109</v>
       </c>
@@ -24164,7 +24356,7 @@
       <c r="I647" s="36"/>
       <c r="J647" s="71"/>
     </row>
-    <row r="648" spans="1:11" ht="26.4">
+    <row r="648" spans="1:12" ht="26.4">
       <c r="A648" s="19">
         <v>109</v>
       </c>
@@ -24190,7 +24382,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="649" spans="1:11" ht="13.2">
+    <row r="649" spans="1:12" ht="13.2">
       <c r="A649" s="19">
         <v>109</v>
       </c>
@@ -24211,7 +24403,7 @@
       <c r="I649" s="36"/>
       <c r="J649" s="71"/>
     </row>
-    <row r="650" spans="1:11" ht="13.2">
+    <row r="650" spans="1:12" ht="13.2">
       <c r="A650" s="19">
         <v>109</v>
       </c>
@@ -24232,7 +24424,7 @@
       <c r="I650" s="36"/>
       <c r="J650" s="71"/>
     </row>
-    <row r="651" spans="1:11" ht="13.2">
+    <row r="651" spans="1:12" ht="13.2">
       <c r="A651" s="19">
         <v>109</v>
       </c>
@@ -24253,7 +24445,7 @@
       <c r="I651" s="36"/>
       <c r="J651" s="71"/>
     </row>
-    <row r="652" spans="1:11" ht="66">
+    <row r="652" spans="1:12" ht="66">
       <c r="A652" s="19">
         <v>109</v>
       </c>
@@ -24279,7 +24471,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="653" spans="1:11" ht="13.2">
+    <row r="653" spans="1:12" ht="13.2">
       <c r="A653" s="19">
         <v>109</v>
       </c>
@@ -24300,7 +24492,7 @@
       <c r="I653" s="36"/>
       <c r="J653" s="71"/>
     </row>
-    <row r="654" spans="1:11" ht="13.2">
+    <row r="654" spans="1:12" ht="13.2">
       <c r="A654" s="19">
         <v>109</v>
       </c>
@@ -24321,7 +24513,7 @@
       <c r="I654" s="36"/>
       <c r="J654" s="71"/>
     </row>
-    <row r="655" spans="1:11" ht="13.2">
+    <row r="655" spans="1:12" ht="13.2">
       <c r="A655" s="19">
         <v>110</v>
       </c>
@@ -24342,7 +24534,7 @@
       <c r="I655" s="46"/>
       <c r="J655" s="73"/>
     </row>
-    <row r="656" spans="1:11" ht="39.6">
+    <row r="656" spans="1:12" ht="39.6">
       <c r="A656" s="19">
         <v>110</v>
       </c>
@@ -24368,7 +24560,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="657" spans="1:14" ht="66">
+    <row r="657" spans="1:15" ht="66">
       <c r="A657" s="19">
         <v>110</v>
       </c>
@@ -24392,7 +24584,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="658" spans="1:14" ht="13.2">
+    <row r="658" spans="1:15" ht="13.2">
       <c r="A658" s="19">
         <v>110</v>
       </c>
@@ -24413,7 +24605,7 @@
       <c r="I658" s="46"/>
       <c r="J658" s="73"/>
     </row>
-    <row r="659" spans="1:14" ht="13.2">
+    <row r="659" spans="1:15" ht="13.2">
       <c r="A659" s="19">
         <v>110</v>
       </c>
@@ -24434,7 +24626,7 @@
       <c r="I659" s="46"/>
       <c r="J659" s="73"/>
     </row>
-    <row r="660" spans="1:14" ht="13.2">
+    <row r="660" spans="1:15" ht="13.2">
       <c r="A660" s="19">
         <v>110</v>
       </c>
@@ -24455,7 +24647,7 @@
       <c r="I660" s="46"/>
       <c r="J660" s="73"/>
     </row>
-    <row r="661" spans="1:14" ht="13.2">
+    <row r="661" spans="1:15" ht="13.2">
       <c r="A661" s="19">
         <v>110</v>
       </c>
@@ -24476,7 +24668,7 @@
       <c r="I661" s="46"/>
       <c r="J661" s="73"/>
     </row>
-    <row r="662" spans="1:14" ht="13.2">
+    <row r="662" spans="1:15" ht="13.2">
       <c r="A662" s="19">
         <v>110</v>
       </c>
@@ -24497,7 +24689,7 @@
       <c r="I662" s="46"/>
       <c r="J662" s="73"/>
     </row>
-    <row r="663" spans="1:14" ht="13.2">
+    <row r="663" spans="1:15" ht="13.2">
       <c r="A663" s="19">
         <v>110</v>
       </c>
@@ -24518,7 +24710,7 @@
       <c r="I663" s="46"/>
       <c r="J663" s="73"/>
     </row>
-    <row r="664" spans="1:14" ht="92.4">
+    <row r="664" spans="1:15" ht="92.4">
       <c r="A664" s="19">
         <v>111</v>
       </c>
@@ -24541,17 +24733,17 @@
       <c r="K664" s="82" t="s">
         <v>922</v>
       </c>
-      <c r="L664" s="82" t="s">
+      <c r="M664" s="82" t="s">
         <v>1017</v>
       </c>
-      <c r="M664" s="82" t="s">
+      <c r="N664" s="82" t="s">
         <v>629</v>
       </c>
-      <c r="N664" s="88" t="s">
+      <c r="O664" s="85" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="665" spans="1:14" ht="26.4">
+    <row r="665" spans="1:15" ht="26.4">
       <c r="A665" s="19">
         <v>111</v>
       </c>
@@ -24577,7 +24769,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="666" spans="1:14" ht="26.4">
+    <row r="666" spans="1:15" ht="26.4">
       <c r="A666" s="19">
         <v>111</v>
       </c>
@@ -24598,7 +24790,7 @@
       <c r="I666" s="36"/>
       <c r="J666" s="71"/>
     </row>
-    <row r="667" spans="1:14" ht="79.2">
+    <row r="667" spans="1:15" ht="79.2">
       <c r="A667" s="19">
         <v>111</v>
       </c>
@@ -24623,8 +24815,11 @@
       <c r="K667" s="83" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="668" spans="1:14" ht="39.6">
+      <c r="L667" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:15" ht="39.6">
       <c r="A668" s="19">
         <v>111</v>
       </c>
@@ -24650,7 +24845,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="669" spans="1:14" ht="26.4">
+    <row r="669" spans="1:15" ht="26.4">
       <c r="A669" s="19">
         <v>111</v>
       </c>
@@ -24671,7 +24866,7 @@
       <c r="I669" s="36"/>
       <c r="J669" s="71"/>
     </row>
-    <row r="670" spans="1:14" ht="26.4">
+    <row r="670" spans="1:15" ht="26.4">
       <c r="A670" s="19">
         <v>111</v>
       </c>
@@ -24692,7 +24887,7 @@
       <c r="I670" s="36"/>
       <c r="J670" s="71"/>
     </row>
-    <row r="671" spans="1:14" ht="66">
+    <row r="671" spans="1:15" ht="66">
       <c r="A671" s="19">
         <v>111</v>
       </c>
@@ -24720,7 +24915,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="672" spans="1:14" ht="26.4">
+    <row r="672" spans="1:15" ht="26.4">
       <c r="A672" s="19">
         <v>111</v>
       </c>
@@ -24741,7 +24936,7 @@
       <c r="I672" s="36"/>
       <c r="J672" s="71"/>
     </row>
-    <row r="673" spans="1:14" ht="13.2">
+    <row r="673" spans="1:15" ht="13.2">
       <c r="A673" s="19">
         <v>117</v>
       </c>
@@ -24760,7 +24955,7 @@
       <c r="I673" s="46"/>
       <c r="J673" s="73"/>
     </row>
-    <row r="674" spans="1:14" ht="132">
+    <row r="674" spans="1:15" ht="132">
       <c r="A674" s="19">
         <v>117</v>
       </c>
@@ -24785,8 +24980,11 @@
       <c r="K674" s="82" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="675" spans="1:14" ht="13.2">
+      <c r="L674" s="82" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="675" spans="1:15" ht="13.2">
       <c r="A675" s="19">
         <v>117</v>
       </c>
@@ -24805,7 +25003,7 @@
       <c r="I675" s="46"/>
       <c r="J675" s="73"/>
     </row>
-    <row r="676" spans="1:14" ht="13.2">
+    <row r="676" spans="1:15" ht="13.2">
       <c r="A676" s="19">
         <v>117</v>
       </c>
@@ -24826,7 +25024,7 @@
       <c r="I676" s="46"/>
       <c r="J676" s="73"/>
     </row>
-    <row r="677" spans="1:14" ht="13.2">
+    <row r="677" spans="1:15" ht="13.2">
       <c r="A677" s="19">
         <v>117</v>
       </c>
@@ -24847,7 +25045,7 @@
       <c r="I677" s="46"/>
       <c r="J677" s="73"/>
     </row>
-    <row r="678" spans="1:14" ht="13.2">
+    <row r="678" spans="1:15" ht="13.2">
       <c r="A678" s="19">
         <v>117</v>
       </c>
@@ -24868,7 +25066,7 @@
       <c r="I678" s="46"/>
       <c r="J678" s="73"/>
     </row>
-    <row r="679" spans="1:14" ht="105.6">
+    <row r="679" spans="1:15" ht="105.6">
       <c r="A679" s="19">
         <v>117</v>
       </c>
@@ -24895,17 +25093,17 @@
       <c r="K679" s="82" t="s">
         <v>924</v>
       </c>
-      <c r="L679" s="82" t="s">
+      <c r="M679" s="82" t="s">
         <v>1019</v>
       </c>
-      <c r="M679" s="82" t="s">
+      <c r="N679" s="82" t="s">
         <v>631</v>
       </c>
-      <c r="N679" s="88" t="s">
+      <c r="O679" s="85" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="680" spans="1:14" ht="13.2">
+    <row r="680" spans="1:15" ht="13.2">
       <c r="A680" s="19">
         <v>117</v>
       </c>
@@ -24926,7 +25124,7 @@
       <c r="I680" s="46"/>
       <c r="J680" s="73"/>
     </row>
-    <row r="681" spans="1:14" ht="13.2">
+    <row r="681" spans="1:15" ht="13.2">
       <c r="A681" s="19">
         <v>117</v>
       </c>
@@ -24947,7 +25145,7 @@
       <c r="I681" s="46"/>
       <c r="J681" s="73"/>
     </row>
-    <row r="682" spans="1:14" ht="13.2">
+    <row r="682" spans="1:15" ht="13.2">
       <c r="A682" s="19">
         <v>119</v>
       </c>
@@ -24968,7 +25166,7 @@
       <c r="I682" s="36"/>
       <c r="J682" s="71"/>
     </row>
-    <row r="683" spans="1:14" ht="13.2">
+    <row r="683" spans="1:15" ht="13.2">
       <c r="A683" s="19">
         <v>119</v>
       </c>
@@ -24989,7 +25187,7 @@
       <c r="I683" s="36"/>
       <c r="J683" s="71"/>
     </row>
-    <row r="684" spans="1:14" ht="13.2">
+    <row r="684" spans="1:15" ht="13.2">
       <c r="A684" s="19">
         <v>119</v>
       </c>
@@ -25010,7 +25208,7 @@
       <c r="I684" s="36"/>
       <c r="J684" s="71"/>
     </row>
-    <row r="685" spans="1:14" ht="13.2">
+    <row r="685" spans="1:15" ht="13.2">
       <c r="A685" s="19">
         <v>119</v>
       </c>
@@ -25031,7 +25229,7 @@
       <c r="I685" s="36"/>
       <c r="J685" s="71"/>
     </row>
-    <row r="686" spans="1:14" ht="13.2">
+    <row r="686" spans="1:15" ht="13.2">
       <c r="A686" s="19">
         <v>119</v>
       </c>
@@ -25052,7 +25250,7 @@
       <c r="I686" s="36"/>
       <c r="J686" s="71"/>
     </row>
-    <row r="687" spans="1:14" ht="13.2">
+    <row r="687" spans="1:15" ht="13.2">
       <c r="A687" s="19">
         <v>119</v>
       </c>
@@ -25073,7 +25271,7 @@
       <c r="I687" s="36"/>
       <c r="J687" s="71"/>
     </row>
-    <row r="688" spans="1:14" ht="13.2">
+    <row r="688" spans="1:15" ht="13.2">
       <c r="A688" s="19">
         <v>119</v>
       </c>
@@ -25438,7 +25636,7 @@
       <c r="I704" s="36"/>
       <c r="J704" s="71"/>
     </row>
-    <row r="705" spans="1:14" ht="13.2">
+    <row r="705" spans="1:15" ht="13.2">
       <c r="A705" s="19">
         <v>121</v>
       </c>
@@ -25459,7 +25657,7 @@
       <c r="I705" s="36"/>
       <c r="J705" s="71"/>
     </row>
-    <row r="706" spans="1:14" ht="13.2">
+    <row r="706" spans="1:15" ht="13.2">
       <c r="A706" s="19">
         <v>121</v>
       </c>
@@ -25483,7 +25681,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="707" spans="1:14" ht="92.4">
+    <row r="707" spans="1:15" ht="92.4">
       <c r="A707" s="19">
         <v>121</v>
       </c>
@@ -25508,17 +25706,17 @@
       <c r="K707" s="82" t="s">
         <v>926</v>
       </c>
-      <c r="L707" s="82" t="s">
+      <c r="M707" s="82" t="s">
         <v>1022</v>
       </c>
-      <c r="M707" s="82" t="s">
+      <c r="N707" s="82" t="s">
         <v>637</v>
       </c>
-      <c r="N707" s="88" t="s">
+      <c r="O707" s="85" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="708" spans="1:14" ht="41.4">
+    <row r="708" spans="1:15" ht="41.4">
       <c r="A708" s="19">
         <v>121</v>
       </c>
@@ -25543,8 +25741,11 @@
       <c r="K708" s="83" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="709" spans="1:14" ht="26.4">
+      <c r="L708" s="83" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="709" spans="1:15" ht="26.4">
       <c r="A709" s="19">
         <v>122</v>
       </c>
@@ -25565,7 +25766,7 @@
       <c r="I709" s="46"/>
       <c r="J709" s="73"/>
     </row>
-    <row r="710" spans="1:14" ht="26.4">
+    <row r="710" spans="1:15" ht="26.4">
       <c r="A710" s="19">
         <v>122</v>
       </c>
@@ -25586,7 +25787,7 @@
       <c r="I710" s="46"/>
       <c r="J710" s="73"/>
     </row>
-    <row r="711" spans="1:14" ht="26.4">
+    <row r="711" spans="1:15" ht="26.4">
       <c r="A711" s="19">
         <v>122</v>
       </c>
@@ -25607,7 +25808,7 @@
       <c r="I711" s="46"/>
       <c r="J711" s="73"/>
     </row>
-    <row r="712" spans="1:14" ht="26.4">
+    <row r="712" spans="1:15" ht="26.4">
       <c r="A712" s="19">
         <v>122</v>
       </c>
@@ -25628,7 +25829,7 @@
       <c r="I712" s="46"/>
       <c r="J712" s="73"/>
     </row>
-    <row r="713" spans="1:14" ht="26.4">
+    <row r="713" spans="1:15" ht="26.4">
       <c r="A713" s="19">
         <v>122</v>
       </c>
@@ -25649,7 +25850,7 @@
       <c r="I713" s="46"/>
       <c r="J713" s="73"/>
     </row>
-    <row r="714" spans="1:14" ht="26.4">
+    <row r="714" spans="1:15" ht="26.4">
       <c r="A714" s="19">
         <v>122</v>
       </c>
@@ -25670,7 +25871,7 @@
       <c r="I714" s="46"/>
       <c r="J714" s="73"/>
     </row>
-    <row r="715" spans="1:14" ht="26.4">
+    <row r="715" spans="1:15" ht="26.4">
       <c r="A715" s="19">
         <v>122</v>
       </c>
@@ -25691,7 +25892,7 @@
       <c r="I715" s="46"/>
       <c r="J715" s="73"/>
     </row>
-    <row r="716" spans="1:14" ht="26.4">
+    <row r="716" spans="1:15" ht="26.4">
       <c r="A716" s="19">
         <v>122</v>
       </c>
@@ -25712,7 +25913,7 @@
       <c r="I716" s="46"/>
       <c r="J716" s="73"/>
     </row>
-    <row r="717" spans="1:14" ht="26.4">
+    <row r="717" spans="1:15" ht="26.4">
       <c r="A717" s="19">
         <v>122</v>
       </c>
@@ -25733,7 +25934,7 @@
       <c r="I717" s="46"/>
       <c r="J717" s="73"/>
     </row>
-    <row r="718" spans="1:14" ht="26.4">
+    <row r="718" spans="1:15" ht="26.4">
       <c r="A718" s="19">
         <v>122</v>
       </c>
@@ -25754,7 +25955,7 @@
       <c r="I718" s="46"/>
       <c r="J718" s="73"/>
     </row>
-    <row r="719" spans="1:14" ht="13.2">
+    <row r="719" spans="1:15" ht="13.2">
       <c r="A719" s="19">
         <v>123</v>
       </c>
@@ -25775,7 +25976,7 @@
       <c r="I719" s="36"/>
       <c r="J719" s="71"/>
     </row>
-    <row r="720" spans="1:14" ht="13.2">
+    <row r="720" spans="1:15" ht="13.2">
       <c r="A720" s="19">
         <v>123</v>
       </c>
@@ -25796,7 +25997,7 @@
       <c r="I720" s="36"/>
       <c r="J720" s="71"/>
     </row>
-    <row r="721" spans="1:11" ht="13.2">
+    <row r="721" spans="1:12" ht="13.2">
       <c r="A721" s="19">
         <v>123</v>
       </c>
@@ -25817,7 +26018,7 @@
       <c r="I721" s="36"/>
       <c r="J721" s="71"/>
     </row>
-    <row r="722" spans="1:11" ht="13.2">
+    <row r="722" spans="1:12" ht="13.2">
       <c r="A722" s="19">
         <v>123</v>
       </c>
@@ -25838,7 +26039,7 @@
       <c r="I722" s="36"/>
       <c r="J722" s="71"/>
     </row>
-    <row r="723" spans="1:11" ht="13.2">
+    <row r="723" spans="1:12" ht="13.2">
       <c r="A723" s="19">
         <v>123</v>
       </c>
@@ -25859,7 +26060,7 @@
       <c r="I723" s="36"/>
       <c r="J723" s="71"/>
     </row>
-    <row r="724" spans="1:11" ht="13.2">
+    <row r="724" spans="1:12" ht="13.2">
       <c r="A724" s="19">
         <v>123</v>
       </c>
@@ -25880,7 +26081,7 @@
       <c r="I724" s="36"/>
       <c r="J724" s="71"/>
     </row>
-    <row r="725" spans="1:11" ht="13.2">
+    <row r="725" spans="1:12" ht="13.2">
       <c r="A725" s="19">
         <v>123</v>
       </c>
@@ -25901,7 +26102,7 @@
       <c r="I725" s="36"/>
       <c r="J725" s="71"/>
     </row>
-    <row r="726" spans="1:11" ht="13.2">
+    <row r="726" spans="1:12" ht="13.2">
       <c r="A726" s="19">
         <v>123</v>
       </c>
@@ -25922,7 +26123,7 @@
       <c r="I726" s="36"/>
       <c r="J726" s="71"/>
     </row>
-    <row r="727" spans="1:11" ht="13.2">
+    <row r="727" spans="1:12" ht="13.2">
       <c r="A727" s="19">
         <v>123</v>
       </c>
@@ -25943,7 +26144,7 @@
       <c r="I727" s="36"/>
       <c r="J727" s="71"/>
     </row>
-    <row r="728" spans="1:11" ht="13.2">
+    <row r="728" spans="1:12" ht="13.2">
       <c r="A728" s="19">
         <v>124</v>
       </c>
@@ -25964,7 +26165,7 @@
       <c r="I728" s="46"/>
       <c r="J728" s="73"/>
     </row>
-    <row r="729" spans="1:11" ht="13.2">
+    <row r="729" spans="1:12" ht="13.2">
       <c r="A729" s="19">
         <v>124</v>
       </c>
@@ -25985,7 +26186,7 @@
       <c r="I729" s="46"/>
       <c r="J729" s="73"/>
     </row>
-    <row r="730" spans="1:11" ht="13.2">
+    <row r="730" spans="1:12" ht="13.2">
       <c r="A730" s="19">
         <v>124</v>
       </c>
@@ -26006,7 +26207,7 @@
       <c r="I730" s="46"/>
       <c r="J730" s="73"/>
     </row>
-    <row r="731" spans="1:11" ht="13.2">
+    <row r="731" spans="1:12" ht="13.2">
       <c r="A731" s="19">
         <v>124</v>
       </c>
@@ -26027,7 +26228,7 @@
       <c r="I731" s="46"/>
       <c r="J731" s="73"/>
     </row>
-    <row r="732" spans="1:11" ht="13.2">
+    <row r="732" spans="1:12" ht="13.2">
       <c r="A732" s="19">
         <v>124</v>
       </c>
@@ -26048,7 +26249,7 @@
       <c r="I732" s="46"/>
       <c r="J732" s="73"/>
     </row>
-    <row r="733" spans="1:11" ht="13.2">
+    <row r="733" spans="1:12" ht="13.2">
       <c r="A733" s="19">
         <v>124</v>
       </c>
@@ -26069,7 +26270,7 @@
       <c r="I733" s="46"/>
       <c r="J733" s="73"/>
     </row>
-    <row r="734" spans="1:11" ht="13.2">
+    <row r="734" spans="1:12" ht="13.2">
       <c r="A734" s="19">
         <v>124</v>
       </c>
@@ -26088,7 +26289,7 @@
       <c r="I734" s="46"/>
       <c r="J734" s="73"/>
     </row>
-    <row r="735" spans="1:11" ht="13.2">
+    <row r="735" spans="1:12" ht="13.2">
       <c r="A735" s="19">
         <v>124</v>
       </c>
@@ -26109,7 +26310,7 @@
       <c r="I735" s="46"/>
       <c r="J735" s="73"/>
     </row>
-    <row r="736" spans="1:11" ht="39.6">
+    <row r="736" spans="1:12" ht="39.6">
       <c r="A736" s="19">
         <v>124</v>
       </c>
@@ -26136,8 +26337,11 @@
       <c r="K736" s="83" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="737" spans="1:14" ht="13.2">
+      <c r="L736" s="83" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="737" spans="1:15" ht="13.2">
       <c r="A737" s="19">
         <v>125</v>
       </c>
@@ -26158,7 +26362,7 @@
       <c r="I737" s="36"/>
       <c r="J737" s="71"/>
     </row>
-    <row r="738" spans="1:14" ht="26.4">
+    <row r="738" spans="1:15" ht="26.4">
       <c r="A738" s="19">
         <v>125</v>
       </c>
@@ -26184,7 +26388,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="739" spans="1:14" ht="13.2">
+    <row r="739" spans="1:15" ht="13.2">
       <c r="A739" s="19">
         <v>125</v>
       </c>
@@ -26210,7 +26414,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="740" spans="1:14" ht="66">
+    <row r="740" spans="1:15" ht="66">
       <c r="A740" s="19">
         <v>125</v>
       </c>
@@ -26237,8 +26441,11 @@
       <c r="K740" s="83" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="741" spans="1:14" ht="13.2">
+      <c r="L740" s="83" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="741" spans="1:15" ht="13.2">
       <c r="A741" s="19">
         <v>125</v>
       </c>
@@ -26259,7 +26466,7 @@
       <c r="I741" s="36"/>
       <c r="J741" s="71"/>
     </row>
-    <row r="742" spans="1:14" ht="26.4">
+    <row r="742" spans="1:15" ht="55.2">
       <c r="A742" s="19">
         <v>125</v>
       </c>
@@ -26284,8 +26491,11 @@
       <c r="K742" s="83" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="743" spans="1:14" ht="13.2">
+      <c r="L742" s="83" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="743" spans="1:15" ht="13.2">
       <c r="A743" s="19">
         <v>125</v>
       </c>
@@ -26306,7 +26516,7 @@
       <c r="I743" s="36"/>
       <c r="J743" s="71"/>
     </row>
-    <row r="744" spans="1:14" ht="13.2">
+    <row r="744" spans="1:15" ht="13.2">
       <c r="A744" s="19">
         <v>125</v>
       </c>
@@ -26327,7 +26537,7 @@
       <c r="I744" s="36"/>
       <c r="J744" s="71"/>
     </row>
-    <row r="745" spans="1:14" ht="13.2">
+    <row r="745" spans="1:15" ht="13.2">
       <c r="A745" s="19">
         <v>125</v>
       </c>
@@ -26348,7 +26558,7 @@
       <c r="I745" s="36"/>
       <c r="J745" s="71"/>
     </row>
-    <row r="746" spans="1:14" ht="13.2">
+    <row r="746" spans="1:15" ht="13.2">
       <c r="A746" s="19">
         <v>126</v>
       </c>
@@ -26369,7 +26579,7 @@
       <c r="I746" s="46"/>
       <c r="J746" s="73"/>
     </row>
-    <row r="747" spans="1:14" ht="13.2">
+    <row r="747" spans="1:15" ht="13.2">
       <c r="A747" s="19">
         <v>126</v>
       </c>
@@ -26390,7 +26600,7 @@
       <c r="I747" s="46"/>
       <c r="J747" s="73"/>
     </row>
-    <row r="748" spans="1:14" ht="13.2">
+    <row r="748" spans="1:15" ht="13.2">
       <c r="A748" s="19">
         <v>126</v>
       </c>
@@ -26411,7 +26621,7 @@
       <c r="I748" s="46"/>
       <c r="J748" s="73"/>
     </row>
-    <row r="749" spans="1:14" ht="13.2">
+    <row r="749" spans="1:15" ht="13.2">
       <c r="A749" s="19">
         <v>126</v>
       </c>
@@ -26432,7 +26642,7 @@
       <c r="I749" s="46"/>
       <c r="J749" s="73"/>
     </row>
-    <row r="750" spans="1:14" ht="13.2">
+    <row r="750" spans="1:15" ht="13.2">
       <c r="A750" s="19">
         <v>126</v>
       </c>
@@ -26453,7 +26663,7 @@
       <c r="I750" s="46"/>
       <c r="J750" s="73"/>
     </row>
-    <row r="751" spans="1:14" ht="13.2">
+    <row r="751" spans="1:15" ht="13.2">
       <c r="A751" s="19">
         <v>126</v>
       </c>
@@ -26474,7 +26684,7 @@
       <c r="I751" s="46"/>
       <c r="J751" s="73"/>
     </row>
-    <row r="752" spans="1:14" ht="105.6">
+    <row r="752" spans="1:15" ht="105.6">
       <c r="A752" s="19">
         <v>126</v>
       </c>
@@ -26501,17 +26711,17 @@
       <c r="K752" s="82" t="s">
         <v>928</v>
       </c>
-      <c r="L752" s="82" t="s">
+      <c r="M752" s="82" t="s">
         <v>1023</v>
       </c>
-      <c r="M752" s="82" t="s">
+      <c r="N752" s="82" t="s">
         <v>647</v>
       </c>
-      <c r="N752" s="88" t="s">
+      <c r="O752" s="85" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="753" spans="1:14" ht="26.4">
+    <row r="753" spans="1:15" ht="26.4">
       <c r="A753" s="19">
         <v>126</v>
       </c>
@@ -26536,8 +26746,11 @@
       <c r="K753" s="83" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="754" spans="1:14" ht="13.2">
+      <c r="L753" s="83" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="754" spans="1:15" ht="13.2">
       <c r="A754" s="19">
         <v>126</v>
       </c>
@@ -26558,7 +26771,7 @@
       <c r="I754" s="46"/>
       <c r="J754" s="73"/>
     </row>
-    <row r="755" spans="1:14" ht="13.2">
+    <row r="755" spans="1:15" ht="13.2">
       <c r="A755" s="19">
         <v>127</v>
       </c>
@@ -26579,7 +26792,7 @@
       <c r="I755" s="36"/>
       <c r="J755" s="71"/>
     </row>
-    <row r="756" spans="1:14" ht="13.2">
+    <row r="756" spans="1:15" ht="13.2">
       <c r="A756" s="19">
         <v>127</v>
       </c>
@@ -26600,7 +26813,7 @@
       <c r="I756" s="36"/>
       <c r="J756" s="71"/>
     </row>
-    <row r="757" spans="1:14" ht="132">
+    <row r="757" spans="1:15" ht="132">
       <c r="A757" s="19">
         <v>127</v>
       </c>
@@ -26625,17 +26838,17 @@
       <c r="K757" s="82" t="s">
         <v>932</v>
       </c>
-      <c r="L757" s="82" t="s">
+      <c r="M757" s="82" t="s">
         <v>1024</v>
       </c>
-      <c r="M757" s="82" t="s">
+      <c r="N757" s="82" t="s">
         <v>649</v>
       </c>
-      <c r="N757" s="88" t="s">
+      <c r="O757" s="85" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="758" spans="1:14" ht="13.2">
+    <row r="758" spans="1:15" ht="13.2">
       <c r="A758" s="19">
         <v>127</v>
       </c>
@@ -26656,7 +26869,7 @@
       <c r="I758" s="36"/>
       <c r="J758" s="71"/>
     </row>
-    <row r="759" spans="1:14" ht="13.2">
+    <row r="759" spans="1:15" ht="13.2">
       <c r="A759" s="19">
         <v>127</v>
       </c>
@@ -26677,7 +26890,7 @@
       <c r="I759" s="36"/>
       <c r="J759" s="71"/>
     </row>
-    <row r="760" spans="1:14" ht="105.6">
+    <row r="760" spans="1:15" ht="105.6">
       <c r="A760" s="19">
         <v>127</v>
       </c>
@@ -26703,7 +26916,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="761" spans="1:14" ht="13.2">
+    <row r="761" spans="1:15" ht="13.2">
       <c r="A761" s="19">
         <v>127</v>
       </c>
@@ -26724,7 +26937,7 @@
       <c r="I761" s="36"/>
       <c r="J761" s="71"/>
     </row>
-    <row r="762" spans="1:14" ht="41.4">
+    <row r="762" spans="1:15" ht="151.80000000000001">
       <c r="A762" s="19">
         <v>127</v>
       </c>
@@ -26749,8 +26962,11 @@
       <c r="K762" s="83" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="763" spans="1:14" ht="13.2">
+      <c r="L762" s="83" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="763" spans="1:15" ht="13.2">
       <c r="A763" s="19">
         <v>127</v>
       </c>
@@ -26771,7 +26987,7 @@
       <c r="I763" s="36"/>
       <c r="J763" s="71"/>
     </row>
-    <row r="764" spans="1:14" ht="13.2">
+    <row r="764" spans="1:15" ht="13.2">
       <c r="A764" s="19">
         <v>128</v>
       </c>
@@ -26792,7 +27008,7 @@
       <c r="I764" s="46"/>
       <c r="J764" s="73"/>
     </row>
-    <row r="765" spans="1:14" ht="13.2">
+    <row r="765" spans="1:15" ht="13.2">
       <c r="A765" s="19">
         <v>128</v>
       </c>
@@ -26818,7 +27034,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="766" spans="1:14" ht="13.2">
+    <row r="766" spans="1:15" ht="13.2">
       <c r="A766" s="19">
         <v>128</v>
       </c>
@@ -26837,7 +27053,7 @@
       <c r="I766" s="46"/>
       <c r="J766" s="73"/>
     </row>
-    <row r="767" spans="1:14" ht="13.2">
+    <row r="767" spans="1:15" ht="13.2">
       <c r="A767" s="19">
         <v>128</v>
       </c>
@@ -26863,7 +27079,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="768" spans="1:14" ht="13.2">
+    <row r="768" spans="1:15" ht="13.2">
       <c r="A768" s="19">
         <v>128</v>
       </c>
@@ -27224,7 +27440,7 @@
       <c r="I784" s="46"/>
       <c r="J784" s="73"/>
     </row>
-    <row r="785" spans="1:11" ht="13.2">
+    <row r="785" spans="1:12" ht="13.2">
       <c r="A785" s="19">
         <v>133</v>
       </c>
@@ -27245,7 +27461,7 @@
       <c r="I785" s="46"/>
       <c r="J785" s="73"/>
     </row>
-    <row r="786" spans="1:11" ht="13.2">
+    <row r="786" spans="1:12" ht="13.2">
       <c r="A786" s="19">
         <v>133</v>
       </c>
@@ -27266,7 +27482,7 @@
       <c r="I786" s="46"/>
       <c r="J786" s="73"/>
     </row>
-    <row r="787" spans="1:11" ht="13.2">
+    <row r="787" spans="1:12" ht="13.2">
       <c r="A787" s="19">
         <v>133</v>
       </c>
@@ -27287,7 +27503,7 @@
       <c r="I787" s="46"/>
       <c r="J787" s="73"/>
     </row>
-    <row r="788" spans="1:11" ht="13.2">
+    <row r="788" spans="1:12" ht="13.2">
       <c r="A788" s="19">
         <v>133</v>
       </c>
@@ -27308,7 +27524,7 @@
       <c r="I788" s="46"/>
       <c r="J788" s="73"/>
     </row>
-    <row r="789" spans="1:11" ht="13.2">
+    <row r="789" spans="1:12" ht="13.2">
       <c r="A789" s="19">
         <v>133</v>
       </c>
@@ -27329,7 +27545,7 @@
       <c r="I789" s="46"/>
       <c r="J789" s="73"/>
     </row>
-    <row r="790" spans="1:11" ht="13.2">
+    <row r="790" spans="1:12" ht="13.2">
       <c r="A790" s="19">
         <v>133</v>
       </c>
@@ -27350,7 +27566,7 @@
       <c r="I790" s="46"/>
       <c r="J790" s="73"/>
     </row>
-    <row r="791" spans="1:11" ht="13.2">
+    <row r="791" spans="1:12" ht="13.2">
       <c r="A791" s="19">
         <v>134</v>
       </c>
@@ -27371,7 +27587,7 @@
       <c r="I791" s="36"/>
       <c r="J791" s="71"/>
     </row>
-    <row r="792" spans="1:11" ht="13.2">
+    <row r="792" spans="1:12" ht="13.2">
       <c r="A792" s="19">
         <v>134</v>
       </c>
@@ -27392,7 +27608,7 @@
       <c r="I792" s="36"/>
       <c r="J792" s="71"/>
     </row>
-    <row r="793" spans="1:11" ht="13.2">
+    <row r="793" spans="1:12" ht="13.2">
       <c r="A793" s="19">
         <v>134</v>
       </c>
@@ -27413,7 +27629,7 @@
       <c r="I793" s="36"/>
       <c r="J793" s="71"/>
     </row>
-    <row r="794" spans="1:11" ht="13.2">
+    <row r="794" spans="1:12" ht="13.2">
       <c r="A794" s="19">
         <v>134</v>
       </c>
@@ -27439,7 +27655,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="795" spans="1:11" ht="13.2">
+    <row r="795" spans="1:12" ht="13.2">
       <c r="A795" s="19">
         <v>134</v>
       </c>
@@ -27460,7 +27676,7 @@
       <c r="I795" s="36"/>
       <c r="J795" s="71"/>
     </row>
-    <row r="796" spans="1:11" ht="13.2">
+    <row r="796" spans="1:12" ht="13.2">
       <c r="A796" s="19">
         <v>134</v>
       </c>
@@ -27481,7 +27697,7 @@
       <c r="I796" s="36"/>
       <c r="J796" s="71"/>
     </row>
-    <row r="797" spans="1:11" ht="13.2">
+    <row r="797" spans="1:12" ht="13.2">
       <c r="A797" s="19">
         <v>134</v>
       </c>
@@ -27502,7 +27718,7 @@
       <c r="I797" s="36"/>
       <c r="J797" s="71"/>
     </row>
-    <row r="798" spans="1:11" ht="13.2">
+    <row r="798" spans="1:12" ht="13.2">
       <c r="A798" s="19">
         <v>134</v>
       </c>
@@ -27523,7 +27739,7 @@
       <c r="I798" s="36"/>
       <c r="J798" s="71"/>
     </row>
-    <row r="799" spans="1:11" ht="66">
+    <row r="799" spans="1:12" ht="66">
       <c r="A799" s="19">
         <v>134</v>
       </c>
@@ -27548,8 +27764,11 @@
       <c r="K799" s="83" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="800" spans="1:11" ht="13.2">
+      <c r="L799" s="83" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="800" spans="1:12" ht="13.2">
       <c r="A800" s="19">
         <v>135</v>
       </c>
@@ -27570,7 +27789,7 @@
       <c r="I800" s="46"/>
       <c r="J800" s="73"/>
     </row>
-    <row r="801" spans="1:11" ht="13.2">
+    <row r="801" spans="1:12" ht="13.2">
       <c r="A801" s="19">
         <v>135</v>
       </c>
@@ -27591,7 +27810,7 @@
       <c r="I801" s="46"/>
       <c r="J801" s="73"/>
     </row>
-    <row r="802" spans="1:11" ht="13.2">
+    <row r="802" spans="1:12" ht="13.2">
       <c r="A802" s="19">
         <v>135</v>
       </c>
@@ -27612,7 +27831,7 @@
       <c r="I802" s="46"/>
       <c r="J802" s="73"/>
     </row>
-    <row r="803" spans="1:11" ht="13.2">
+    <row r="803" spans="1:12" ht="13.2">
       <c r="A803" s="19">
         <v>135</v>
       </c>
@@ -27633,7 +27852,7 @@
       <c r="I803" s="46"/>
       <c r="J803" s="73"/>
     </row>
-    <row r="804" spans="1:11" ht="13.2">
+    <row r="804" spans="1:12" ht="13.2">
       <c r="A804" s="19">
         <v>135</v>
       </c>
@@ -27654,7 +27873,7 @@
       <c r="I804" s="46"/>
       <c r="J804" s="73"/>
     </row>
-    <row r="805" spans="1:11" ht="13.2">
+    <row r="805" spans="1:12" ht="13.2">
       <c r="A805" s="19">
         <v>135</v>
       </c>
@@ -27675,7 +27894,7 @@
       <c r="I805" s="46"/>
       <c r="J805" s="73"/>
     </row>
-    <row r="806" spans="1:11" ht="13.2">
+    <row r="806" spans="1:12" ht="13.2">
       <c r="A806" s="19">
         <v>135</v>
       </c>
@@ -27696,7 +27915,7 @@
       <c r="I806" s="46"/>
       <c r="J806" s="73"/>
     </row>
-    <row r="807" spans="1:11" ht="13.2">
+    <row r="807" spans="1:12" ht="13.2">
       <c r="A807" s="19">
         <v>135</v>
       </c>
@@ -27717,7 +27936,7 @@
       <c r="I807" s="46"/>
       <c r="J807" s="73"/>
     </row>
-    <row r="808" spans="1:11" ht="13.2">
+    <row r="808" spans="1:12" ht="13.2">
       <c r="A808" s="19">
         <v>135</v>
       </c>
@@ -27738,7 +27957,7 @@
       <c r="I808" s="46"/>
       <c r="J808" s="73"/>
     </row>
-    <row r="809" spans="1:11" ht="26.4">
+    <row r="809" spans="1:12" ht="26.4">
       <c r="A809" s="19">
         <v>136</v>
       </c>
@@ -27764,7 +27983,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="810" spans="1:11" ht="26.4">
+    <row r="810" spans="1:12" ht="26.4">
       <c r="A810" s="19">
         <v>136</v>
       </c>
@@ -27785,7 +28004,7 @@
       <c r="I810" s="36"/>
       <c r="J810" s="71"/>
     </row>
-    <row r="811" spans="1:11" ht="26.4">
+    <row r="811" spans="1:12" ht="26.4">
       <c r="A811" s="19">
         <v>136</v>
       </c>
@@ -27806,7 +28025,7 @@
       <c r="I811" s="36"/>
       <c r="J811" s="71"/>
     </row>
-    <row r="812" spans="1:11" ht="69">
+    <row r="812" spans="1:12" ht="69">
       <c r="A812" s="19">
         <v>136</v>
       </c>
@@ -27831,8 +28050,11 @@
       <c r="K812" s="83" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="813" spans="1:11" ht="26.4">
+      <c r="L812" s="83" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="813" spans="1:12" ht="26.4">
       <c r="A813" s="19">
         <v>136</v>
       </c>
@@ -27853,7 +28075,7 @@
       <c r="I813" s="36"/>
       <c r="J813" s="71"/>
     </row>
-    <row r="814" spans="1:11" ht="26.4">
+    <row r="814" spans="1:12" ht="26.4">
       <c r="A814" s="19">
         <v>136</v>
       </c>
@@ -27874,7 +28096,7 @@
       <c r="I814" s="36"/>
       <c r="J814" s="71"/>
     </row>
-    <row r="815" spans="1:11" ht="26.4">
+    <row r="815" spans="1:12" ht="26.4">
       <c r="A815" s="19">
         <v>136</v>
       </c>
@@ -27895,7 +28117,7 @@
       <c r="I815" s="36"/>
       <c r="J815" s="71"/>
     </row>
-    <row r="816" spans="1:11" ht="26.4">
+    <row r="816" spans="1:12" ht="26.4">
       <c r="A816" s="19">
         <v>136</v>
       </c>
@@ -27919,7 +28141,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="817" spans="1:14" ht="26.4">
+    <row r="817" spans="1:15" ht="26.4">
       <c r="A817" s="19">
         <v>136</v>
       </c>
@@ -27940,7 +28162,7 @@
       <c r="I817" s="36"/>
       <c r="J817" s="71"/>
     </row>
-    <row r="818" spans="1:14" ht="13.2">
+    <row r="818" spans="1:15" ht="13.2">
       <c r="A818" s="19">
         <v>137</v>
       </c>
@@ -27961,7 +28183,7 @@
       <c r="I818" s="46"/>
       <c r="J818" s="73"/>
     </row>
-    <row r="819" spans="1:14" ht="13.2">
+    <row r="819" spans="1:15" ht="13.2">
       <c r="A819" s="19">
         <v>137</v>
       </c>
@@ -27982,7 +28204,7 @@
       <c r="I819" s="46"/>
       <c r="J819" s="73"/>
     </row>
-    <row r="820" spans="1:14" ht="13.2">
+    <row r="820" spans="1:15" ht="13.2">
       <c r="A820" s="19">
         <v>137</v>
       </c>
@@ -28003,7 +28225,7 @@
       <c r="I820" s="46"/>
       <c r="J820" s="73"/>
     </row>
-    <row r="821" spans="1:14" ht="79.2">
+    <row r="821" spans="1:15" ht="79.2">
       <c r="A821" s="19">
         <v>137</v>
       </c>
@@ -28030,17 +28252,17 @@
       <c r="K821" s="82" t="s">
         <v>939</v>
       </c>
-      <c r="L821" s="82" t="s">
+      <c r="M821" s="82" t="s">
         <v>1026</v>
       </c>
-      <c r="M821" s="82" t="s">
+      <c r="N821" s="82" t="s">
         <v>663</v>
       </c>
-      <c r="N821" s="88" t="s">
+      <c r="O821" s="85" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="822" spans="1:14" ht="13.2">
+    <row r="822" spans="1:15" ht="13.2">
       <c r="A822" s="19">
         <v>137</v>
       </c>
@@ -28061,7 +28283,7 @@
       <c r="I822" s="46"/>
       <c r="J822" s="73"/>
     </row>
-    <row r="823" spans="1:14" ht="39.6">
+    <row r="823" spans="1:15" ht="39.6">
       <c r="A823" s="19">
         <v>137</v>
       </c>
@@ -28088,8 +28310,11 @@
       <c r="K823" s="83" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="824" spans="1:14" ht="13.2">
+      <c r="L823" s="83" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="824" spans="1:15" ht="13.2">
       <c r="A824" s="19">
         <v>137</v>
       </c>
@@ -28110,7 +28335,7 @@
       <c r="I824" s="46"/>
       <c r="J824" s="73"/>
     </row>
-    <row r="825" spans="1:14" ht="13.2">
+    <row r="825" spans="1:15" ht="13.2">
       <c r="A825" s="19">
         <v>137</v>
       </c>
@@ -28131,7 +28356,7 @@
       <c r="I825" s="46"/>
       <c r="J825" s="73"/>
     </row>
-    <row r="826" spans="1:14" ht="27.6">
+    <row r="826" spans="1:15" ht="82.8">
       <c r="A826" s="19">
         <v>137</v>
       </c>
@@ -28156,8 +28381,11 @@
       <c r="K826" s="83" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="827" spans="1:14" ht="13.2">
+      <c r="L826" s="83" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="827" spans="1:15" ht="13.2">
       <c r="A827" s="19">
         <v>138</v>
       </c>
@@ -28176,7 +28404,7 @@
       <c r="I827" s="36"/>
       <c r="J827" s="71"/>
     </row>
-    <row r="828" spans="1:14" ht="13.2">
+    <row r="828" spans="1:15" ht="13.2">
       <c r="A828" s="19">
         <v>138</v>
       </c>
@@ -28197,7 +28425,7 @@
       <c r="I828" s="36"/>
       <c r="J828" s="71"/>
     </row>
-    <row r="829" spans="1:14" ht="13.2">
+    <row r="829" spans="1:15" ht="13.2">
       <c r="A829" s="19">
         <v>138</v>
       </c>
@@ -28218,7 +28446,7 @@
       <c r="I829" s="36"/>
       <c r="J829" s="71"/>
     </row>
-    <row r="830" spans="1:14" ht="13.2">
+    <row r="830" spans="1:15" ht="13.2">
       <c r="A830" s="19">
         <v>138</v>
       </c>
@@ -28237,7 +28465,7 @@
       <c r="I830" s="36"/>
       <c r="J830" s="71"/>
     </row>
-    <row r="831" spans="1:14" ht="13.2">
+    <row r="831" spans="1:15" ht="13.2">
       <c r="A831" s="19">
         <v>138</v>
       </c>
@@ -28258,7 +28486,7 @@
       <c r="I831" s="36"/>
       <c r="J831" s="71"/>
     </row>
-    <row r="832" spans="1:14" ht="13.2">
+    <row r="832" spans="1:15" ht="13.2">
       <c r="A832" s="19">
         <v>138</v>
       </c>
@@ -28279,7 +28507,7 @@
       <c r="I832" s="36"/>
       <c r="J832" s="71"/>
     </row>
-    <row r="833" spans="1:14" ht="13.2">
+    <row r="833" spans="1:15" ht="13.2">
       <c r="A833" s="19">
         <v>138</v>
       </c>
@@ -28300,7 +28528,7 @@
       <c r="I833" s="36"/>
       <c r="J833" s="71"/>
     </row>
-    <row r="834" spans="1:14" ht="13.2">
+    <row r="834" spans="1:15" ht="13.2">
       <c r="A834" s="19">
         <v>138</v>
       </c>
@@ -28321,7 +28549,7 @@
       <c r="I834" s="36"/>
       <c r="J834" s="71"/>
     </row>
-    <row r="835" spans="1:14" ht="13.2">
+    <row r="835" spans="1:15" ht="13.2">
       <c r="A835" s="19">
         <v>138</v>
       </c>
@@ -28342,7 +28570,7 @@
       <c r="I835" s="36"/>
       <c r="J835" s="71"/>
     </row>
-    <row r="836" spans="1:14" ht="13.2">
+    <row r="836" spans="1:15" ht="13.2">
       <c r="A836" s="19">
         <v>140</v>
       </c>
@@ -28363,7 +28591,7 @@
       <c r="I836" s="46"/>
       <c r="J836" s="73"/>
     </row>
-    <row r="837" spans="1:14" ht="13.2">
+    <row r="837" spans="1:15" ht="13.2">
       <c r="A837" s="19">
         <v>140</v>
       </c>
@@ -28384,7 +28612,7 @@
       <c r="I837" s="46"/>
       <c r="J837" s="73"/>
     </row>
-    <row r="838" spans="1:14" ht="79.2">
+    <row r="838" spans="1:15" ht="79.2">
       <c r="A838" s="19">
         <v>140</v>
       </c>
@@ -28410,7 +28638,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="839" spans="1:14" ht="13.2">
+    <row r="839" spans="1:15" ht="13.2">
       <c r="A839" s="19">
         <v>140</v>
       </c>
@@ -28431,7 +28659,7 @@
       <c r="I839" s="46"/>
       <c r="J839" s="73"/>
     </row>
-    <row r="840" spans="1:14" ht="13.2">
+    <row r="840" spans="1:15" ht="13.2">
       <c r="A840" s="19">
         <v>140</v>
       </c>
@@ -28452,7 +28680,7 @@
       <c r="I840" s="46"/>
       <c r="J840" s="73"/>
     </row>
-    <row r="841" spans="1:14" ht="13.2">
+    <row r="841" spans="1:15" ht="13.2">
       <c r="A841" s="19">
         <v>140</v>
       </c>
@@ -28473,7 +28701,7 @@
       <c r="I841" s="46"/>
       <c r="J841" s="73"/>
     </row>
-    <row r="842" spans="1:14" ht="13.2">
+    <row r="842" spans="1:15" ht="13.2">
       <c r="A842" s="19">
         <v>140</v>
       </c>
@@ -28494,7 +28722,7 @@
       <c r="I842" s="46"/>
       <c r="J842" s="73"/>
     </row>
-    <row r="843" spans="1:14" ht="13.2">
+    <row r="843" spans="1:15" ht="13.2">
       <c r="A843" s="19">
         <v>140</v>
       </c>
@@ -28515,7 +28743,7 @@
       <c r="I843" s="46"/>
       <c r="J843" s="73"/>
     </row>
-    <row r="844" spans="1:14" ht="13.2">
+    <row r="844" spans="1:15" ht="13.2">
       <c r="A844" s="19">
         <v>140</v>
       </c>
@@ -28536,7 +28764,7 @@
       <c r="I844" s="46"/>
       <c r="J844" s="73"/>
     </row>
-    <row r="845" spans="1:14" ht="13.2">
+    <row r="845" spans="1:15" ht="13.2">
       <c r="A845" s="19">
         <v>141</v>
       </c>
@@ -28562,7 +28790,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="846" spans="1:14" ht="13.2">
+    <row r="846" spans="1:15" ht="13.2">
       <c r="A846" s="19">
         <v>141</v>
       </c>
@@ -28583,7 +28811,7 @@
       <c r="I846" s="36"/>
       <c r="J846" s="71"/>
     </row>
-    <row r="847" spans="1:14" ht="13.2">
+    <row r="847" spans="1:15" ht="13.2">
       <c r="A847" s="19">
         <v>141</v>
       </c>
@@ -28602,7 +28830,7 @@
       <c r="I847" s="36"/>
       <c r="J847" s="71"/>
     </row>
-    <row r="848" spans="1:14" ht="105.6">
+    <row r="848" spans="1:15" ht="105.6">
       <c r="A848" s="19">
         <v>141</v>
       </c>
@@ -28627,17 +28855,17 @@
       <c r="K848" s="82" t="s">
         <v>929</v>
       </c>
-      <c r="L848" s="82" t="s">
+      <c r="M848" s="82" t="s">
         <v>1027</v>
       </c>
-      <c r="M848" s="82" t="s">
+      <c r="N848" s="82" t="s">
         <v>669</v>
       </c>
-      <c r="N848" s="88" t="s">
+      <c r="O848" s="85" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="849" spans="1:14" ht="13.2">
+    <row r="849" spans="1:15" ht="13.2">
       <c r="A849" s="19">
         <v>141</v>
       </c>
@@ -28658,7 +28886,7 @@
       <c r="I849" s="36"/>
       <c r="J849" s="71"/>
     </row>
-    <row r="850" spans="1:14" ht="13.2">
+    <row r="850" spans="1:15" ht="13.2">
       <c r="A850" s="19">
         <v>141</v>
       </c>
@@ -28679,7 +28907,7 @@
       <c r="I850" s="36"/>
       <c r="J850" s="71"/>
     </row>
-    <row r="851" spans="1:14" ht="13.2">
+    <row r="851" spans="1:15" ht="13.2">
       <c r="A851" s="19">
         <v>141</v>
       </c>
@@ -28700,7 +28928,7 @@
       <c r="I851" s="36"/>
       <c r="J851" s="71"/>
     </row>
-    <row r="852" spans="1:14" ht="13.2">
+    <row r="852" spans="1:15" ht="13.2">
       <c r="A852" s="19">
         <v>141</v>
       </c>
@@ -28726,7 +28954,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="853" spans="1:14" ht="124.2">
+    <row r="853" spans="1:15" ht="124.2">
       <c r="A853" s="19">
         <v>141</v>
       </c>
@@ -28751,8 +28979,11 @@
       <c r="K853" s="83" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="854" spans="1:14" ht="13.2">
+      <c r="L853" s="83" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="854" spans="1:15" ht="13.2">
       <c r="A854" s="19">
         <v>142</v>
       </c>
@@ -28771,7 +29002,7 @@
       <c r="I854" s="46"/>
       <c r="J854" s="73"/>
     </row>
-    <row r="855" spans="1:14" ht="13.2">
+    <row r="855" spans="1:15" ht="13.2">
       <c r="A855" s="19">
         <v>142</v>
       </c>
@@ -28792,7 +29023,7 @@
       <c r="I855" s="46"/>
       <c r="J855" s="73"/>
     </row>
-    <row r="856" spans="1:14" ht="52.8">
+    <row r="856" spans="1:15" ht="52.8">
       <c r="A856" s="19">
         <v>142</v>
       </c>
@@ -28818,7 +29049,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="857" spans="1:14" ht="330">
+    <row r="857" spans="1:15" ht="330">
       <c r="A857" s="19">
         <v>142</v>
       </c>
@@ -28843,17 +29074,17 @@
       <c r="K857" s="82" t="s">
         <v>943</v>
       </c>
-      <c r="L857" s="82" t="s">
+      <c r="M857" s="82" t="s">
         <v>1028</v>
       </c>
-      <c r="M857" s="82" t="s">
+      <c r="N857" s="82" t="s">
         <v>671</v>
       </c>
-      <c r="N857" s="88" t="s">
+      <c r="O857" s="85" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="858" spans="1:14" ht="79.2">
+    <row r="858" spans="1:15" ht="79.2">
       <c r="A858" s="19">
         <v>142</v>
       </c>
@@ -28876,8 +29107,11 @@
       <c r="K858" s="83" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="859" spans="1:14" ht="13.2">
+      <c r="L858" s="83" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="859" spans="1:15" ht="13.2">
       <c r="A859" s="19">
         <v>142</v>
       </c>
@@ -28898,7 +29132,7 @@
       <c r="I859" s="46"/>
       <c r="J859" s="73"/>
     </row>
-    <row r="860" spans="1:14" ht="13.2">
+    <row r="860" spans="1:15" ht="13.2">
       <c r="A860" s="19">
         <v>142</v>
       </c>
@@ -28919,7 +29153,7 @@
       <c r="I860" s="46"/>
       <c r="J860" s="73"/>
     </row>
-    <row r="861" spans="1:14" ht="237.6">
+    <row r="861" spans="1:15" ht="237.6">
       <c r="A861" s="19">
         <v>142</v>
       </c>
@@ -28945,7 +29179,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="862" spans="1:14" ht="79.2">
+    <row r="862" spans="1:15" ht="79.2">
       <c r="A862" s="19">
         <v>142</v>
       </c>
@@ -28971,7 +29205,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="863" spans="1:14" ht="13.2">
+    <row r="863" spans="1:15" ht="13.2">
       <c r="A863" s="19">
         <v>145</v>
       </c>
@@ -28992,7 +29226,7 @@
       <c r="I863" s="36"/>
       <c r="J863" s="71"/>
     </row>
-    <row r="864" spans="1:14" ht="13.2">
+    <row r="864" spans="1:15" ht="13.2">
       <c r="A864" s="19">
         <v>145</v>
       </c>
@@ -29366,7 +29600,7 @@
       <c r="I880" s="46"/>
       <c r="J880" s="73"/>
     </row>
-    <row r="881" spans="1:14" ht="13.2">
+    <row r="881" spans="1:15" ht="13.2">
       <c r="A881" s="19">
         <v>147</v>
       </c>
@@ -29387,7 +29621,7 @@
       <c r="I881" s="46"/>
       <c r="J881" s="73"/>
     </row>
-    <row r="882" spans="1:14" ht="13.2">
+    <row r="882" spans="1:15" ht="13.2">
       <c r="A882" s="19">
         <v>147</v>
       </c>
@@ -29408,7 +29642,7 @@
       <c r="I882" s="46"/>
       <c r="J882" s="73"/>
     </row>
-    <row r="883" spans="1:14" ht="13.2">
+    <row r="883" spans="1:15" ht="13.2">
       <c r="A883" s="19">
         <v>147</v>
       </c>
@@ -29429,7 +29663,7 @@
       <c r="I883" s="46"/>
       <c r="J883" s="73"/>
     </row>
-    <row r="884" spans="1:14" ht="13.2">
+    <row r="884" spans="1:15" ht="13.2">
       <c r="A884" s="19">
         <v>147</v>
       </c>
@@ -29455,7 +29689,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="885" spans="1:14" ht="26.4">
+    <row r="885" spans="1:15" ht="26.4">
       <c r="A885" s="19">
         <v>147</v>
       </c>
@@ -29476,7 +29710,7 @@
       <c r="I885" s="46"/>
       <c r="J885" s="73"/>
     </row>
-    <row r="886" spans="1:14" ht="13.2">
+    <row r="886" spans="1:15" ht="13.2">
       <c r="A886" s="19">
         <v>147</v>
       </c>
@@ -29497,7 +29731,7 @@
       <c r="I886" s="46"/>
       <c r="J886" s="73"/>
     </row>
-    <row r="887" spans="1:14" ht="13.2">
+    <row r="887" spans="1:15" ht="13.2">
       <c r="A887" s="19">
         <v>147</v>
       </c>
@@ -29518,7 +29752,7 @@
       <c r="I887" s="46"/>
       <c r="J887" s="73"/>
     </row>
-    <row r="888" spans="1:14" ht="13.2">
+    <row r="888" spans="1:15" ht="13.2">
       <c r="A888" s="19">
         <v>147</v>
       </c>
@@ -29539,7 +29773,7 @@
       <c r="I888" s="46"/>
       <c r="J888" s="73"/>
     </row>
-    <row r="889" spans="1:14" ht="13.2">
+    <row r="889" spans="1:15" ht="13.2">
       <c r="A889" s="19">
         <v>147</v>
       </c>
@@ -29560,7 +29794,7 @@
       <c r="I889" s="46"/>
       <c r="J889" s="73"/>
     </row>
-    <row r="890" spans="1:14" ht="145.19999999999999">
+    <row r="890" spans="1:15" ht="145.19999999999999">
       <c r="A890" s="19">
         <v>147</v>
       </c>
@@ -29583,17 +29817,17 @@
       <c r="K890" s="82" t="s">
         <v>948</v>
       </c>
-      <c r="L890" s="82" t="s">
+      <c r="M890" s="82" t="s">
         <v>1029</v>
       </c>
-      <c r="M890" s="82" t="s">
+      <c r="N890" s="82" t="s">
         <v>677</v>
       </c>
-      <c r="N890" s="88" t="s">
+      <c r="O890" s="85" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="891" spans="1:14" ht="13.2">
+    <row r="891" spans="1:15" ht="13.2">
       <c r="A891" s="19">
         <v>148</v>
       </c>
@@ -29619,7 +29853,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="892" spans="1:14" ht="13.2">
+    <row r="892" spans="1:15" ht="13.2">
       <c r="A892" s="19">
         <v>148</v>
       </c>
@@ -29640,7 +29874,7 @@
       <c r="I892" s="36"/>
       <c r="J892" s="71"/>
     </row>
-    <row r="893" spans="1:14" ht="13.2">
+    <row r="893" spans="1:15" ht="13.2">
       <c r="A893" s="19">
         <v>148</v>
       </c>
@@ -29659,7 +29893,7 @@
       <c r="I893" s="36"/>
       <c r="J893" s="71"/>
     </row>
-    <row r="894" spans="1:14" ht="330">
+    <row r="894" spans="1:15" ht="330">
       <c r="A894" s="19">
         <v>148</v>
       </c>
@@ -29684,17 +29918,17 @@
       <c r="K894" s="82" t="s">
         <v>950</v>
       </c>
-      <c r="L894" s="82" t="s">
+      <c r="M894" s="82" t="s">
         <v>1031</v>
       </c>
-      <c r="M894" s="82" t="s">
+      <c r="N894" s="82" t="s">
         <v>678</v>
       </c>
-      <c r="N894" s="88" t="s">
+      <c r="O894" s="85" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="895" spans="1:14" ht="13.2">
+    <row r="895" spans="1:15" ht="13.2">
       <c r="A895" s="19">
         <v>148</v>
       </c>
@@ -29715,7 +29949,7 @@
       <c r="I895" s="36"/>
       <c r="J895" s="71"/>
     </row>
-    <row r="896" spans="1:14" ht="13.2">
+    <row r="896" spans="1:15" ht="13.2">
       <c r="A896" s="19">
         <v>148</v>
       </c>
@@ -29736,7 +29970,7 @@
       <c r="I896" s="36"/>
       <c r="J896" s="71"/>
     </row>
-    <row r="897" spans="1:11" ht="13.2">
+    <row r="897" spans="1:12" ht="13.2">
       <c r="A897" s="19">
         <v>148</v>
       </c>
@@ -29757,7 +29991,7 @@
       <c r="I897" s="36"/>
       <c r="J897" s="71"/>
     </row>
-    <row r="898" spans="1:11" ht="13.2">
+    <row r="898" spans="1:12" ht="13.2">
       <c r="A898" s="19">
         <v>148</v>
       </c>
@@ -29778,7 +30012,7 @@
       <c r="I898" s="36"/>
       <c r="J898" s="71"/>
     </row>
-    <row r="899" spans="1:11" ht="13.2">
+    <row r="899" spans="1:12" ht="13.2">
       <c r="A899" s="19">
         <v>148</v>
       </c>
@@ -29799,7 +30033,7 @@
       <c r="I899" s="36"/>
       <c r="J899" s="71"/>
     </row>
-    <row r="900" spans="1:11" ht="13.2">
+    <row r="900" spans="1:12" ht="13.2">
       <c r="A900" s="19">
         <v>149</v>
       </c>
@@ -29818,7 +30052,7 @@
       <c r="I900" s="46"/>
       <c r="J900" s="73"/>
     </row>
-    <row r="901" spans="1:11" ht="13.2">
+    <row r="901" spans="1:12" ht="13.2">
       <c r="A901" s="19">
         <v>149</v>
       </c>
@@ -29839,7 +30073,7 @@
       <c r="I901" s="46"/>
       <c r="J901" s="73"/>
     </row>
-    <row r="902" spans="1:11" ht="13.2">
+    <row r="902" spans="1:12" ht="13.2">
       <c r="A902" s="19">
         <v>149</v>
       </c>
@@ -29860,7 +30094,7 @@
       <c r="I902" s="46"/>
       <c r="J902" s="73"/>
     </row>
-    <row r="903" spans="1:11" ht="13.2">
+    <row r="903" spans="1:12" ht="13.2">
       <c r="A903" s="19">
         <v>149</v>
       </c>
@@ -29881,7 +30115,7 @@
       <c r="I903" s="46"/>
       <c r="J903" s="73"/>
     </row>
-    <row r="904" spans="1:11" ht="39.6">
+    <row r="904" spans="1:12" ht="39.6">
       <c r="A904" s="19">
         <v>149</v>
       </c>
@@ -29908,8 +30142,11 @@
       <c r="K904" s="83" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="905" spans="1:11" ht="13.2">
+      <c r="L904" s="83" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="905" spans="1:12" ht="13.2">
       <c r="A905" s="19">
         <v>149</v>
       </c>
@@ -29930,7 +30167,7 @@
       <c r="I905" s="46"/>
       <c r="J905" s="73"/>
     </row>
-    <row r="906" spans="1:11" ht="13.2">
+    <row r="906" spans="1:12" ht="13.2">
       <c r="A906" s="19">
         <v>149</v>
       </c>
@@ -29951,7 +30188,7 @@
       <c r="I906" s="46"/>
       <c r="J906" s="73"/>
     </row>
-    <row r="907" spans="1:11" ht="39.6">
+    <row r="907" spans="1:12" ht="39.6">
       <c r="A907" s="19">
         <v>149</v>
       </c>
@@ -29977,7 +30214,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="908" spans="1:11" ht="13.2">
+    <row r="908" spans="1:12" ht="13.2">
       <c r="A908" s="19">
         <v>149</v>
       </c>
@@ -29998,7 +30235,7 @@
       <c r="I908" s="46"/>
       <c r="J908" s="73"/>
     </row>
-    <row r="909" spans="1:11" ht="13.2">
+    <row r="909" spans="1:12" ht="13.2">
       <c r="A909" s="19">
         <v>149</v>
       </c>
@@ -30019,7 +30256,7 @@
       <c r="I909" s="46"/>
       <c r="J909" s="73"/>
     </row>
-    <row r="910" spans="1:11" ht="13.2">
+    <row r="910" spans="1:12" ht="13.2">
       <c r="A910" s="19">
         <v>150</v>
       </c>
@@ -30040,7 +30277,7 @@
       <c r="I910" s="36"/>
       <c r="J910" s="71"/>
     </row>
-    <row r="911" spans="1:11" ht="13.2">
+    <row r="911" spans="1:12" ht="13.2">
       <c r="A911" s="19">
         <v>150</v>
       </c>
@@ -30061,7 +30298,7 @@
       <c r="I911" s="36"/>
       <c r="J911" s="71"/>
     </row>
-    <row r="912" spans="1:11" ht="13.2">
+    <row r="912" spans="1:12" ht="13.2">
       <c r="A912" s="19">
         <v>150</v>
       </c>
@@ -30082,7 +30319,7 @@
       <c r="I912" s="36"/>
       <c r="J912" s="71"/>
     </row>
-    <row r="913" spans="1:11" ht="13.2">
+    <row r="913" spans="1:12" ht="13.2">
       <c r="A913" s="19">
         <v>150</v>
       </c>
@@ -30103,7 +30340,7 @@
       <c r="I913" s="36"/>
       <c r="J913" s="71"/>
     </row>
-    <row r="914" spans="1:11" ht="13.2">
+    <row r="914" spans="1:12" ht="13.2">
       <c r="A914" s="19">
         <v>150</v>
       </c>
@@ -30129,7 +30366,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="915" spans="1:11" ht="13.2">
+    <row r="915" spans="1:12" ht="13.2">
       <c r="A915" s="19">
         <v>150</v>
       </c>
@@ -30150,7 +30387,7 @@
       <c r="I915" s="36"/>
       <c r="J915" s="71"/>
     </row>
-    <row r="916" spans="1:11" ht="13.2">
+    <row r="916" spans="1:12" ht="13.2">
       <c r="A916" s="19">
         <v>150</v>
       </c>
@@ -30171,7 +30408,7 @@
       <c r="I916" s="36"/>
       <c r="J916" s="71"/>
     </row>
-    <row r="917" spans="1:11" ht="13.2">
+    <row r="917" spans="1:12" ht="13.2">
       <c r="A917" s="19">
         <v>150</v>
       </c>
@@ -30197,7 +30434,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="918" spans="1:11" ht="13.2">
+    <row r="918" spans="1:12" ht="13.2">
       <c r="A918" s="19">
         <v>150</v>
       </c>
@@ -30218,7 +30455,7 @@
       <c r="I918" s="36"/>
       <c r="J918" s="71"/>
     </row>
-    <row r="919" spans="1:11" ht="13.2">
+    <row r="919" spans="1:12" ht="13.2">
       <c r="A919" s="19">
         <v>151</v>
       </c>
@@ -30239,7 +30476,7 @@
       <c r="I919" s="46"/>
       <c r="J919" s="73"/>
     </row>
-    <row r="920" spans="1:11" ht="13.2">
+    <row r="920" spans="1:12" ht="13.2">
       <c r="A920" s="19">
         <v>151</v>
       </c>
@@ -30260,7 +30497,7 @@
       <c r="I920" s="46"/>
       <c r="J920" s="73"/>
     </row>
-    <row r="921" spans="1:11" ht="13.2">
+    <row r="921" spans="1:12" ht="13.2">
       <c r="A921" s="19">
         <v>151</v>
       </c>
@@ -30281,7 +30518,7 @@
       <c r="I921" s="46"/>
       <c r="J921" s="73"/>
     </row>
-    <row r="922" spans="1:11" ht="105.6">
+    <row r="922" spans="1:12" ht="105.6">
       <c r="A922" s="19">
         <v>151</v>
       </c>
@@ -30308,8 +30545,11 @@
       <c r="K922" s="83" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="923" spans="1:11" ht="13.2">
+      <c r="L922" s="83" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="923" spans="1:12" ht="13.2">
       <c r="A923" s="19">
         <v>151</v>
       </c>
@@ -30330,7 +30570,7 @@
       <c r="I923" s="46"/>
       <c r="J923" s="73"/>
     </row>
-    <row r="924" spans="1:11" ht="13.2">
+    <row r="924" spans="1:12" ht="13.2">
       <c r="A924" s="19">
         <v>151</v>
       </c>
@@ -30351,7 +30591,7 @@
       <c r="I924" s="46"/>
       <c r="J924" s="73"/>
     </row>
-    <row r="925" spans="1:11" ht="13.2">
+    <row r="925" spans="1:12" ht="13.2">
       <c r="A925" s="19">
         <v>151</v>
       </c>
@@ -30372,7 +30612,7 @@
       <c r="I925" s="46"/>
       <c r="J925" s="73"/>
     </row>
-    <row r="926" spans="1:11" ht="13.2">
+    <row r="926" spans="1:12" ht="13.2">
       <c r="A926" s="19">
         <v>151</v>
       </c>
@@ -30393,7 +30633,7 @@
       <c r="I926" s="46"/>
       <c r="J926" s="73"/>
     </row>
-    <row r="927" spans="1:11" ht="13.2">
+    <row r="927" spans="1:12" ht="13.2">
       <c r="A927" s="19">
         <v>151</v>
       </c>
@@ -30412,7 +30652,7 @@
       <c r="I927" s="46"/>
       <c r="J927" s="73"/>
     </row>
-    <row r="928" spans="1:11" ht="13.2">
+    <row r="928" spans="1:12" ht="13.2">
       <c r="A928" s="19">
         <v>152</v>
       </c>
@@ -30433,7 +30673,7 @@
       <c r="I928" s="36"/>
       <c r="J928" s="71"/>
     </row>
-    <row r="929" spans="1:14" ht="13.2">
+    <row r="929" spans="1:15" ht="13.2">
       <c r="A929" s="19">
         <v>152</v>
       </c>
@@ -30454,7 +30694,7 @@
       <c r="I929" s="36"/>
       <c r="J929" s="71"/>
     </row>
-    <row r="930" spans="1:14" ht="13.2">
+    <row r="930" spans="1:15" ht="13.2">
       <c r="A930" s="19">
         <v>152</v>
       </c>
@@ -30475,7 +30715,7 @@
       <c r="I930" s="36"/>
       <c r="J930" s="71"/>
     </row>
-    <row r="931" spans="1:14" ht="13.2">
+    <row r="931" spans="1:15" ht="13.2">
       <c r="A931" s="19">
         <v>152</v>
       </c>
@@ -30496,7 +30736,7 @@
       <c r="I931" s="36"/>
       <c r="J931" s="71"/>
     </row>
-    <row r="932" spans="1:14" ht="13.2">
+    <row r="932" spans="1:15" ht="13.2">
       <c r="A932" s="19">
         <v>152</v>
       </c>
@@ -30517,7 +30757,7 @@
       <c r="I932" s="36"/>
       <c r="J932" s="71"/>
     </row>
-    <row r="933" spans="1:14" ht="27.6">
+    <row r="933" spans="1:15" ht="27.6">
       <c r="A933" s="19">
         <v>152</v>
       </c>
@@ -30542,8 +30782,11 @@
       <c r="K933" s="83" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="934" spans="1:14" ht="13.2">
+      <c r="L933" s="83" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="934" spans="1:15" ht="13.2">
       <c r="A934" s="19">
         <v>152</v>
       </c>
@@ -30564,7 +30807,7 @@
       <c r="I934" s="36"/>
       <c r="J934" s="71"/>
     </row>
-    <row r="935" spans="1:14" ht="13.8">
+    <row r="935" spans="1:15" ht="13.8">
       <c r="A935" s="19">
         <v>152</v>
       </c>
@@ -30589,8 +30832,11 @@
       <c r="K935" s="83" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="936" spans="1:14" ht="105.6">
+      <c r="L935" s="83" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="936" spans="1:15" ht="105.6">
       <c r="A936" s="19">
         <v>152</v>
       </c>
@@ -30613,17 +30859,17 @@
       <c r="K936" s="82" t="s">
         <v>955</v>
       </c>
-      <c r="L936" s="82" t="s">
+      <c r="M936" s="82" t="s">
         <v>1021</v>
       </c>
-      <c r="M936" s="82" t="s">
+      <c r="N936" s="82" t="s">
         <v>686</v>
       </c>
-      <c r="N936" s="88" t="s">
+      <c r="O936" s="85" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="937" spans="1:14" ht="26.4">
+    <row r="937" spans="1:15" ht="26.4">
       <c r="A937" s="19">
         <v>153</v>
       </c>
@@ -30644,7 +30890,7 @@
       <c r="I937" s="46"/>
       <c r="J937" s="73"/>
     </row>
-    <row r="938" spans="1:14" ht="26.4">
+    <row r="938" spans="1:15" ht="26.4">
       <c r="A938" s="19">
         <v>153</v>
       </c>
@@ -30665,7 +30911,7 @@
       <c r="I938" s="46"/>
       <c r="J938" s="73"/>
     </row>
-    <row r="939" spans="1:14" ht="26.4">
+    <row r="939" spans="1:15" ht="26.4">
       <c r="A939" s="19">
         <v>153</v>
       </c>
@@ -30686,7 +30932,7 @@
       <c r="I939" s="46"/>
       <c r="J939" s="73"/>
     </row>
-    <row r="940" spans="1:14" ht="79.2">
+    <row r="940" spans="1:15" ht="79.2">
       <c r="A940" s="19">
         <v>153</v>
       </c>
@@ -30714,7 +30960,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="941" spans="1:14" ht="26.4">
+    <row r="941" spans="1:15" ht="26.4">
       <c r="A941" s="19">
         <v>153</v>
       </c>
@@ -30735,7 +30981,7 @@
       <c r="I941" s="46"/>
       <c r="J941" s="73"/>
     </row>
-    <row r="942" spans="1:14" ht="26.4">
+    <row r="942" spans="1:15" ht="26.4">
       <c r="A942" s="19">
         <v>153</v>
       </c>
@@ -30756,7 +31002,7 @@
       <c r="I942" s="46"/>
       <c r="J942" s="73"/>
     </row>
-    <row r="943" spans="1:14" ht="26.4">
+    <row r="943" spans="1:15" ht="26.4">
       <c r="A943" s="19">
         <v>153</v>
       </c>
@@ -30782,7 +31028,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="944" spans="1:14" ht="26.4">
+    <row r="944" spans="1:15" ht="26.4">
       <c r="A944" s="19">
         <v>153</v>
       </c>
@@ -30803,7 +31049,7 @@
       <c r="I944" s="46"/>
       <c r="J944" s="73"/>
     </row>
-    <row r="945" spans="1:14" ht="92.4">
+    <row r="945" spans="1:15" ht="92.4">
       <c r="A945" s="19">
         <v>153</v>
       </c>
@@ -30826,17 +31072,17 @@
       <c r="K945" s="82" t="s">
         <v>958</v>
       </c>
-      <c r="L945" s="82" t="s">
+      <c r="M945" s="82" t="s">
         <v>1032</v>
       </c>
-      <c r="M945" s="82" t="s">
+      <c r="N945" s="82" t="s">
         <v>688</v>
       </c>
-      <c r="N945" s="88" t="s">
+      <c r="O945" s="85" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="946" spans="1:14" ht="26.4">
+    <row r="946" spans="1:15" ht="26.4">
       <c r="A946" s="19">
         <v>154</v>
       </c>
@@ -30855,7 +31101,7 @@
       <c r="I946" s="36"/>
       <c r="J946" s="71"/>
     </row>
-    <row r="947" spans="1:14" ht="26.4">
+    <row r="947" spans="1:15" ht="26.4">
       <c r="A947" s="19">
         <v>154</v>
       </c>
@@ -30876,7 +31122,7 @@
       <c r="I947" s="36"/>
       <c r="J947" s="71"/>
     </row>
-    <row r="948" spans="1:14" ht="26.4">
+    <row r="948" spans="1:15" ht="26.4">
       <c r="A948" s="19">
         <v>154</v>
       </c>
@@ -30897,7 +31143,7 @@
       <c r="I948" s="36"/>
       <c r="J948" s="71"/>
     </row>
-    <row r="949" spans="1:14" ht="26.4">
+    <row r="949" spans="1:15" ht="26.4">
       <c r="A949" s="19">
         <v>154</v>
       </c>
@@ -30918,7 +31164,7 @@
       <c r="I949" s="36"/>
       <c r="J949" s="71"/>
     </row>
-    <row r="950" spans="1:14" ht="26.4">
+    <row r="950" spans="1:15" ht="26.4">
       <c r="A950" s="19">
         <v>154</v>
       </c>
@@ -30939,7 +31185,7 @@
       <c r="I950" s="36"/>
       <c r="J950" s="71"/>
     </row>
-    <row r="951" spans="1:14" ht="26.4">
+    <row r="951" spans="1:15" ht="26.4">
       <c r="A951" s="19">
         <v>154</v>
       </c>
@@ -30960,7 +31206,7 @@
       <c r="I951" s="36"/>
       <c r="J951" s="71"/>
     </row>
-    <row r="952" spans="1:14" ht="26.4">
+    <row r="952" spans="1:15" ht="26.4">
       <c r="A952" s="19">
         <v>154</v>
       </c>
@@ -30981,7 +31227,7 @@
       <c r="I952" s="36"/>
       <c r="J952" s="71"/>
     </row>
-    <row r="953" spans="1:14" ht="26.4">
+    <row r="953" spans="1:15" ht="26.4">
       <c r="A953" s="19">
         <v>154</v>
       </c>
@@ -31002,7 +31248,7 @@
       <c r="I953" s="36"/>
       <c r="J953" s="71"/>
     </row>
-    <row r="954" spans="1:14" ht="26.4">
+    <row r="954" spans="1:15" ht="26.4">
       <c r="A954" s="19">
         <v>154</v>
       </c>
@@ -31023,7 +31269,7 @@
       <c r="I954" s="36"/>
       <c r="J954" s="71"/>
     </row>
-    <row r="955" spans="1:14" ht="13.2">
+    <row r="955" spans="1:15" ht="13.2">
       <c r="A955" s="19">
         <v>155</v>
       </c>
@@ -31044,7 +31290,7 @@
       <c r="I955" s="46"/>
       <c r="J955" s="73"/>
     </row>
-    <row r="956" spans="1:14" ht="13.2">
+    <row r="956" spans="1:15" ht="13.2">
       <c r="A956" s="19">
         <v>155</v>
       </c>
@@ -31065,7 +31311,7 @@
       <c r="I956" s="46"/>
       <c r="J956" s="73"/>
     </row>
-    <row r="957" spans="1:14" ht="92.4">
+    <row r="957" spans="1:15" ht="92.4">
       <c r="A957" s="19">
         <v>155</v>
       </c>
@@ -31088,17 +31334,17 @@
       <c r="K957" s="82" t="s">
         <v>959</v>
       </c>
-      <c r="L957" s="82" t="s">
+      <c r="M957" s="82" t="s">
         <v>1033</v>
       </c>
-      <c r="M957" s="82" t="s">
+      <c r="N957" s="82" t="s">
         <v>692</v>
       </c>
-      <c r="N957" s="88" t="s">
+      <c r="O957" s="85" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="958" spans="1:14" ht="26.4">
+    <row r="958" spans="1:15" ht="26.4">
       <c r="A958" s="19">
         <v>155</v>
       </c>
@@ -31123,8 +31369,11 @@
       <c r="K958" s="83" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="959" spans="1:14" ht="13.2">
+      <c r="L958" s="83" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="959" spans="1:15" ht="13.2">
       <c r="A959" s="19">
         <v>155</v>
       </c>
@@ -31145,7 +31394,7 @@
       <c r="I959" s="46"/>
       <c r="J959" s="73"/>
     </row>
-    <row r="960" spans="1:14" ht="13.2">
+    <row r="960" spans="1:15" ht="13.2">
       <c r="A960" s="19">
         <v>155</v>
       </c>
@@ -31166,7 +31415,7 @@
       <c r="I960" s="46"/>
       <c r="J960" s="73"/>
     </row>
-    <row r="961" spans="1:14" ht="13.2">
+    <row r="961" spans="1:15" ht="13.2">
       <c r="A961" s="19">
         <v>155</v>
       </c>
@@ -31187,7 +31436,7 @@
       <c r="I961" s="46"/>
       <c r="J961" s="73"/>
     </row>
-    <row r="962" spans="1:14" ht="13.2">
+    <row r="962" spans="1:15" ht="13.2">
       <c r="A962" s="19">
         <v>155</v>
       </c>
@@ -31208,7 +31457,7 @@
       <c r="I962" s="46"/>
       <c r="J962" s="73"/>
     </row>
-    <row r="963" spans="1:14" ht="26.4">
+    <row r="963" spans="1:15" ht="26.4">
       <c r="A963" s="19">
         <v>155</v>
       </c>
@@ -31234,7 +31483,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="964" spans="1:14" ht="13.2">
+    <row r="964" spans="1:15" ht="13.2">
       <c r="A964" s="19">
         <v>157</v>
       </c>
@@ -31255,7 +31504,7 @@
       <c r="I964" s="36"/>
       <c r="J964" s="71"/>
     </row>
-    <row r="965" spans="1:14" ht="13.2">
+    <row r="965" spans="1:15" ht="13.2">
       <c r="A965" s="19">
         <v>157</v>
       </c>
@@ -31276,7 +31525,7 @@
       <c r="I965" s="36"/>
       <c r="J965" s="71"/>
     </row>
-    <row r="966" spans="1:14" ht="13.2">
+    <row r="966" spans="1:15" ht="13.2">
       <c r="A966" s="19">
         <v>157</v>
       </c>
@@ -31297,7 +31546,7 @@
       <c r="I966" s="36"/>
       <c r="J966" s="71"/>
     </row>
-    <row r="967" spans="1:14" ht="13.2">
+    <row r="967" spans="1:15" ht="13.2">
       <c r="A967" s="19">
         <v>157</v>
       </c>
@@ -31318,7 +31567,7 @@
       <c r="I967" s="36"/>
       <c r="J967" s="71"/>
     </row>
-    <row r="968" spans="1:14" ht="13.2">
+    <row r="968" spans="1:15" ht="13.2">
       <c r="A968" s="19">
         <v>157</v>
       </c>
@@ -31339,7 +31588,7 @@
       <c r="I968" s="36"/>
       <c r="J968" s="71"/>
     </row>
-    <row r="969" spans="1:14" ht="13.2">
+    <row r="969" spans="1:15" ht="13.2">
       <c r="A969" s="19">
         <v>157</v>
       </c>
@@ -31360,7 +31609,7 @@
       <c r="I969" s="36"/>
       <c r="J969" s="71"/>
     </row>
-    <row r="970" spans="1:14" ht="13.2">
+    <row r="970" spans="1:15" ht="13.2">
       <c r="A970" s="19">
         <v>157</v>
       </c>
@@ -31381,7 +31630,7 @@
       <c r="I970" s="36"/>
       <c r="J970" s="71"/>
     </row>
-    <row r="971" spans="1:14" ht="13.2">
+    <row r="971" spans="1:15" ht="13.2">
       <c r="A971" s="19">
         <v>157</v>
       </c>
@@ -31402,7 +31651,7 @@
       <c r="I971" s="36"/>
       <c r="J971" s="71"/>
     </row>
-    <row r="972" spans="1:14" ht="13.2">
+    <row r="972" spans="1:15" ht="13.2">
       <c r="A972" s="19">
         <v>157</v>
       </c>
@@ -31423,7 +31672,7 @@
       <c r="I972" s="36"/>
       <c r="J972" s="71"/>
     </row>
-    <row r="973" spans="1:14" ht="13.2">
+    <row r="973" spans="1:15" ht="13.2">
       <c r="A973" s="19">
         <v>157</v>
       </c>
@@ -31444,7 +31693,7 @@
       <c r="I973" s="36"/>
       <c r="J973" s="71"/>
     </row>
-    <row r="974" spans="1:14" ht="26.4">
+    <row r="974" spans="1:15" ht="26.4">
       <c r="A974" s="19">
         <v>160</v>
       </c>
@@ -31470,7 +31719,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="975" spans="1:14" ht="52.8">
+    <row r="975" spans="1:15" ht="52.8">
       <c r="A975" s="19">
         <v>160</v>
       </c>
@@ -31495,17 +31744,17 @@
       <c r="K975" s="82" t="s">
         <v>929</v>
       </c>
-      <c r="L975" s="82" t="s">
+      <c r="M975" s="82" t="s">
         <v>1034</v>
       </c>
-      <c r="M975" s="82" t="s">
+      <c r="N975" s="82" t="s">
         <v>696</v>
       </c>
-      <c r="N975" s="88" t="s">
+      <c r="O975" s="85" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="976" spans="1:14" ht="13.2">
+    <row r="976" spans="1:15" ht="13.2">
       <c r="A976" s="19">
         <v>160</v>
       </c>
@@ -31869,7 +32118,7 @@
       <c r="I992" s="46"/>
       <c r="J992" s="73"/>
     </row>
-    <row r="993" spans="1:11" ht="26.4">
+    <row r="993" spans="1:12" ht="26.4">
       <c r="A993" s="19">
         <v>163</v>
       </c>
@@ -31890,7 +32139,7 @@
       <c r="I993" s="46"/>
       <c r="J993" s="73"/>
     </row>
-    <row r="994" spans="1:11" ht="52.8">
+    <row r="994" spans="1:12" ht="52.8">
       <c r="A994" s="19">
         <v>163</v>
       </c>
@@ -31916,7 +32165,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="995" spans="1:11" ht="26.4">
+    <row r="995" spans="1:12" ht="26.4">
       <c r="A995" s="19">
         <v>163</v>
       </c>
@@ -31937,7 +32186,7 @@
       <c r="I995" s="46"/>
       <c r="J995" s="73"/>
     </row>
-    <row r="996" spans="1:11" ht="26.4">
+    <row r="996" spans="1:12" ht="26.4">
       <c r="A996" s="19">
         <v>163</v>
       </c>
@@ -31958,7 +32207,7 @@
       <c r="I996" s="46"/>
       <c r="J996" s="73"/>
     </row>
-    <row r="997" spans="1:11" ht="26.4">
+    <row r="997" spans="1:12" ht="26.4">
       <c r="A997" s="19">
         <v>163</v>
       </c>
@@ -31979,7 +32228,7 @@
       <c r="I997" s="46"/>
       <c r="J997" s="73"/>
     </row>
-    <row r="998" spans="1:11" ht="66">
+    <row r="998" spans="1:12" ht="66">
       <c r="A998" s="19">
         <v>163</v>
       </c>
@@ -32006,8 +32255,9 @@
       <c r="K998" s="83" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="999" spans="1:11" ht="26.4">
+      <c r="L998" s="83"/>
+    </row>
+    <row r="999" spans="1:12" ht="26.4">
       <c r="A999" s="19">
         <v>163</v>
       </c>
@@ -32033,7 +32283,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="1000" spans="1:11" ht="26.4">
+    <row r="1000" spans="1:12" ht="26.4">
       <c r="A1000" s="19">
         <v>163</v>
       </c>
@@ -32054,7 +32304,7 @@
       <c r="I1000" s="46"/>
       <c r="J1000" s="73"/>
     </row>
-    <row r="1001" spans="1:11" ht="13.2">
+    <row r="1001" spans="1:12" ht="13.2">
       <c r="A1001" s="19">
         <v>164</v>
       </c>
@@ -32075,7 +32325,7 @@
       <c r="I1001" s="36"/>
       <c r="J1001" s="71"/>
     </row>
-    <row r="1002" spans="1:11" ht="66">
+    <row r="1002" spans="1:12" ht="66">
       <c r="A1002" s="19">
         <v>164</v>
       </c>
@@ -32101,7 +32351,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="1003" spans="1:11" ht="27.6">
+    <row r="1003" spans="1:12" ht="27.6">
       <c r="A1003" s="19">
         <v>164</v>
       </c>
@@ -32128,8 +32378,9 @@
       <c r="K1003" s="83" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="1004" spans="1:11" ht="13.2">
+      <c r="L1003" s="83"/>
+    </row>
+    <row r="1004" spans="1:12" ht="13.2">
       <c r="A1004" s="19">
         <v>164</v>
       </c>
@@ -32157,7 +32408,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="1005" spans="1:11" ht="26.4">
+    <row r="1005" spans="1:12" ht="26.4">
       <c r="A1005" s="19">
         <v>164</v>
       </c>
@@ -32183,7 +32434,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="1006" spans="1:11" ht="13.2">
+    <row r="1006" spans="1:12" ht="13.2">
       <c r="A1006" s="19">
         <v>164</v>
       </c>
@@ -32204,7 +32455,7 @@
       <c r="I1006" s="36"/>
       <c r="J1006" s="71"/>
     </row>
-    <row r="1007" spans="1:11" ht="13.2">
+    <row r="1007" spans="1:12" ht="13.2">
       <c r="A1007" s="19">
         <v>164</v>
       </c>
@@ -32225,7 +32476,7 @@
       <c r="I1007" s="36"/>
       <c r="J1007" s="71"/>
     </row>
-    <row r="1008" spans="1:11" ht="13.2">
+    <row r="1008" spans="1:12" ht="13.2">
       <c r="A1008" s="19">
         <v>164</v>
       </c>
@@ -32246,7 +32497,7 @@
       <c r="I1008" s="36"/>
       <c r="J1008" s="71"/>
     </row>
-    <row r="1009" spans="1:11" ht="13.2">
+    <row r="1009" spans="1:12" ht="13.2">
       <c r="A1009" s="19">
         <v>164</v>
       </c>
@@ -32267,7 +32518,7 @@
       <c r="I1009" s="36"/>
       <c r="J1009" s="71"/>
     </row>
-    <row r="1010" spans="1:11" ht="13.2">
+    <row r="1010" spans="1:12" ht="13.2">
       <c r="A1010" s="19">
         <v>167</v>
       </c>
@@ -32288,7 +32539,7 @@
       <c r="I1010" s="46"/>
       <c r="J1010" s="73"/>
     </row>
-    <row r="1011" spans="1:11" ht="13.2">
+    <row r="1011" spans="1:12" ht="13.2">
       <c r="A1011" s="19">
         <v>167</v>
       </c>
@@ -32309,7 +32560,7 @@
       <c r="I1011" s="46"/>
       <c r="J1011" s="73"/>
     </row>
-    <row r="1012" spans="1:11" ht="13.2">
+    <row r="1012" spans="1:12" ht="13.2">
       <c r="A1012" s="19">
         <v>167</v>
       </c>
@@ -32330,7 +32581,7 @@
       <c r="I1012" s="46"/>
       <c r="J1012" s="73"/>
     </row>
-    <row r="1013" spans="1:11" ht="13.2">
+    <row r="1013" spans="1:12" ht="13.2">
       <c r="A1013" s="19">
         <v>167</v>
       </c>
@@ -32351,7 +32602,7 @@
       <c r="I1013" s="46"/>
       <c r="J1013" s="73"/>
     </row>
-    <row r="1014" spans="1:11" ht="13.2">
+    <row r="1014" spans="1:12" ht="13.2">
       <c r="A1014" s="19">
         <v>167</v>
       </c>
@@ -32372,7 +32623,7 @@
       <c r="I1014" s="46"/>
       <c r="J1014" s="73"/>
     </row>
-    <row r="1015" spans="1:11" ht="13.2">
+    <row r="1015" spans="1:12" ht="13.2">
       <c r="A1015" s="19">
         <v>167</v>
       </c>
@@ -32393,7 +32644,7 @@
       <c r="I1015" s="46"/>
       <c r="J1015" s="73"/>
     </row>
-    <row r="1016" spans="1:11" ht="13.2">
+    <row r="1016" spans="1:12" ht="13.2">
       <c r="A1016" s="19">
         <v>167</v>
       </c>
@@ -32414,7 +32665,7 @@
       <c r="I1016" s="46"/>
       <c r="J1016" s="73"/>
     </row>
-    <row r="1017" spans="1:11" ht="13.2">
+    <row r="1017" spans="1:12" ht="13.2">
       <c r="A1017" s="19">
         <v>167</v>
       </c>
@@ -32435,7 +32686,7 @@
       <c r="I1017" s="46"/>
       <c r="J1017" s="73"/>
     </row>
-    <row r="1018" spans="1:11" ht="13.2">
+    <row r="1018" spans="1:12" ht="13.2">
       <c r="A1018" s="19">
         <v>167</v>
       </c>
@@ -32456,7 +32707,7 @@
       <c r="I1018" s="46"/>
       <c r="J1018" s="73"/>
     </row>
-    <row r="1019" spans="1:11" ht="26.4">
+    <row r="1019" spans="1:12" ht="39.6">
       <c r="A1019" s="19">
         <v>169</v>
       </c>
@@ -32474,15 +32725,21 @@
       <c r="F1019" s="56" t="s">
         <v>403</v>
       </c>
-      <c r="G1019" s="36"/>
-      <c r="H1019" s="36"/>
-      <c r="I1019" s="36"/>
-      <c r="J1019" s="71"/>
+      <c r="G1019" s="36" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H1019" s="59"/>
+      <c r="I1019" s="38" t="s">
+        <v>1131</v>
+      </c>
+      <c r="J1019" s="90" t="s">
+        <v>1132</v>
+      </c>
       <c r="K1019" s="82" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="1020" spans="1:11" ht="26.4">
+    <row r="1020" spans="1:12" ht="26.4">
       <c r="A1020" s="19">
         <v>169</v>
       </c>
@@ -32503,14 +32760,14 @@
         <v>405</v>
       </c>
       <c r="G1020" s="36"/>
-      <c r="H1020" s="36"/>
+      <c r="H1020" s="59"/>
       <c r="I1020" s="36"/>
-      <c r="J1020" s="71"/>
+      <c r="J1020" s="36"/>
       <c r="K1020" s="82" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="1021" spans="1:11" ht="26.4">
+    <row r="1021" spans="1:12" ht="26.4">
       <c r="A1021" s="19">
         <v>169</v>
       </c>
@@ -32529,11 +32786,11 @@
       </c>
       <c r="F1021" s="37"/>
       <c r="G1021" s="36"/>
-      <c r="H1021" s="36"/>
+      <c r="H1021" s="59"/>
       <c r="I1021" s="36"/>
-      <c r="J1021" s="71"/>
-    </row>
-    <row r="1022" spans="1:11" ht="26.4">
+      <c r="J1021" s="36"/>
+    </row>
+    <row r="1022" spans="1:12" ht="26.4">
       <c r="A1022" s="19">
         <v>169</v>
       </c>
@@ -32552,14 +32809,14 @@
         <v>407</v>
       </c>
       <c r="G1022" s="36"/>
-      <c r="H1022" s="36"/>
+      <c r="H1022" s="59"/>
       <c r="I1022" s="36"/>
-      <c r="J1022" s="71"/>
+      <c r="J1022" s="36"/>
       <c r="K1022" s="82" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="1023" spans="1:11" ht="26.4">
+    <row r="1023" spans="1:12" ht="26.4">
       <c r="A1023" s="19">
         <v>169</v>
       </c>
@@ -32576,11 +32833,11 @@
       <c r="E1023" s="55"/>
       <c r="F1023" s="37"/>
       <c r="G1023" s="36"/>
-      <c r="H1023" s="36"/>
+      <c r="H1023" s="59"/>
       <c r="I1023" s="36"/>
-      <c r="J1023" s="71"/>
-    </row>
-    <row r="1024" spans="1:11" ht="41.4">
+      <c r="J1023" s="36"/>
+    </row>
+    <row r="1024" spans="1:12" ht="41.4">
       <c r="A1024" s="19">
         <v>169</v>
       </c>
@@ -32599,14 +32856,17 @@
         <v>408</v>
       </c>
       <c r="G1024" s="36"/>
-      <c r="H1024" s="36"/>
+      <c r="H1024" s="59"/>
       <c r="I1024" s="36"/>
-      <c r="J1024" s="71"/>
-      <c r="K1024" s="83" t="s">
+      <c r="J1024" s="36"/>
+      <c r="K1024" s="86" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="1025" spans="1:14" ht="26.4">
+      <c r="L1024" s="86" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:15" ht="26.4">
       <c r="A1025" s="19">
         <v>169</v>
       </c>
@@ -32623,11 +32883,11 @@
       <c r="E1025" s="55"/>
       <c r="F1025" s="37"/>
       <c r="G1025" s="36"/>
-      <c r="H1025" s="36"/>
+      <c r="H1025" s="59"/>
       <c r="I1025" s="36"/>
-      <c r="J1025" s="71"/>
-    </row>
-    <row r="1026" spans="1:14" ht="26.4">
+      <c r="J1025" s="36"/>
+    </row>
+    <row r="1026" spans="1:15" ht="26.4">
       <c r="A1026" s="19">
         <v>169</v>
       </c>
@@ -32644,11 +32904,11 @@
       <c r="E1026" s="55"/>
       <c r="F1026" s="37"/>
       <c r="G1026" s="36"/>
-      <c r="H1026" s="36"/>
+      <c r="H1026" s="59"/>
       <c r="I1026" s="36"/>
-      <c r="J1026" s="71"/>
-    </row>
-    <row r="1027" spans="1:14" ht="26.4">
+      <c r="J1026" s="36"/>
+    </row>
+    <row r="1027" spans="1:15" ht="26.4">
       <c r="A1027" s="19">
         <v>169</v>
       </c>
@@ -32665,11 +32925,11 @@
       <c r="E1027" s="55"/>
       <c r="F1027" s="37"/>
       <c r="G1027" s="36"/>
-      <c r="H1027" s="36"/>
+      <c r="H1027" s="59"/>
       <c r="I1027" s="36"/>
-      <c r="J1027" s="71"/>
-    </row>
-    <row r="1028" spans="1:14" ht="13.2">
+      <c r="J1027" s="36"/>
+    </row>
+    <row r="1028" spans="1:15" ht="13.2">
       <c r="A1028" s="19">
         <v>170</v>
       </c>
@@ -32690,7 +32950,7 @@
       <c r="I1028" s="46"/>
       <c r="J1028" s="73"/>
     </row>
-    <row r="1029" spans="1:14" ht="13.2">
+    <row r="1029" spans="1:15" ht="13.2">
       <c r="A1029" s="19">
         <v>170</v>
       </c>
@@ -32716,7 +32976,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="1030" spans="1:14" ht="13.2">
+    <row r="1030" spans="1:15" ht="13.2">
       <c r="A1030" s="19">
         <v>170</v>
       </c>
@@ -32737,7 +32997,7 @@
       <c r="I1030" s="46"/>
       <c r="J1030" s="73"/>
     </row>
-    <row r="1031" spans="1:14" ht="39.6">
+    <row r="1031" spans="1:15" ht="39.6">
       <c r="A1031" s="19">
         <v>170</v>
       </c>
@@ -32765,7 +33025,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="1032" spans="1:14" ht="13.2">
+    <row r="1032" spans="1:15" ht="13.2">
       <c r="A1032" s="19">
         <v>170</v>
       </c>
@@ -32786,7 +33046,7 @@
       <c r="I1032" s="46"/>
       <c r="J1032" s="73"/>
     </row>
-    <row r="1033" spans="1:14" ht="13.2">
+    <row r="1033" spans="1:15" ht="13.2">
       <c r="A1033" s="19">
         <v>170</v>
       </c>
@@ -32807,7 +33067,7 @@
       <c r="I1033" s="46"/>
       <c r="J1033" s="73"/>
     </row>
-    <row r="1034" spans="1:14" ht="13.2">
+    <row r="1034" spans="1:15" ht="13.2">
       <c r="A1034" s="19">
         <v>170</v>
       </c>
@@ -32828,7 +33088,7 @@
       <c r="I1034" s="46"/>
       <c r="J1034" s="73"/>
     </row>
-    <row r="1035" spans="1:14" ht="66">
+    <row r="1035" spans="1:15" ht="66">
       <c r="A1035" s="19">
         <v>170</v>
       </c>
@@ -32853,17 +33113,17 @@
       <c r="K1035" s="82" t="s">
         <v>969</v>
       </c>
-      <c r="L1035" s="82" t="s">
+      <c r="M1035" s="82" t="s">
         <v>1035</v>
       </c>
-      <c r="M1035" s="82" t="s">
+      <c r="N1035" s="82" t="s">
         <v>708</v>
       </c>
-      <c r="N1035" s="88" t="s">
+      <c r="O1035" s="85" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="1036" spans="1:14" ht="13.2">
+    <row r="1036" spans="1:15" ht="13.2">
       <c r="A1036" s="19">
         <v>170</v>
       </c>
@@ -32884,7 +33144,7 @@
       <c r="I1036" s="46"/>
       <c r="J1036" s="73"/>
     </row>
-    <row r="1037" spans="1:14" ht="13.2">
+    <row r="1037" spans="1:15" ht="13.2">
       <c r="A1037" s="19">
         <v>170</v>
       </c>
@@ -32905,7 +33165,7 @@
       <c r="I1037" s="46"/>
       <c r="J1037" s="73"/>
     </row>
-    <row r="1038" spans="1:14" ht="13.2">
+    <row r="1038" spans="1:15" ht="13.2">
       <c r="A1038" s="19">
         <v>171</v>
       </c>
@@ -32926,7 +33186,7 @@
       <c r="I1038" s="36"/>
       <c r="J1038" s="71"/>
     </row>
-    <row r="1039" spans="1:14" ht="13.2">
+    <row r="1039" spans="1:15" ht="13.2">
       <c r="A1039" s="19">
         <v>171</v>
       </c>
@@ -32947,7 +33207,7 @@
       <c r="I1039" s="36"/>
       <c r="J1039" s="71"/>
     </row>
-    <row r="1040" spans="1:14" ht="13.2">
+    <row r="1040" spans="1:15" ht="13.2">
       <c r="A1040" s="19">
         <v>171</v>
       </c>
@@ -32966,7 +33226,7 @@
       <c r="I1040" s="36"/>
       <c r="J1040" s="71"/>
     </row>
-    <row r="1041" spans="1:14" ht="66">
+    <row r="1041" spans="1:15" ht="66">
       <c r="A1041" s="19">
         <v>171</v>
       </c>
@@ -32992,7 +33252,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="1042" spans="1:14" ht="26.4">
+    <row r="1042" spans="1:15" ht="26.4">
       <c r="A1042" s="19">
         <v>171</v>
       </c>
@@ -33018,7 +33278,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="1043" spans="1:14" ht="13.2">
+    <row r="1043" spans="1:15" ht="13.2">
       <c r="A1043" s="19">
         <v>171</v>
       </c>
@@ -33039,7 +33299,7 @@
       <c r="I1043" s="36"/>
       <c r="J1043" s="71"/>
     </row>
-    <row r="1044" spans="1:14" ht="13.2">
+    <row r="1044" spans="1:15" ht="13.2">
       <c r="A1044" s="19">
         <v>171</v>
       </c>
@@ -33060,7 +33320,7 @@
       <c r="I1044" s="36"/>
       <c r="J1044" s="71"/>
     </row>
-    <row r="1045" spans="1:14" ht="13.2">
+    <row r="1045" spans="1:15" ht="13.2">
       <c r="A1045" s="19">
         <v>171</v>
       </c>
@@ -33081,7 +33341,7 @@
       <c r="I1045" s="36"/>
       <c r="J1045" s="71"/>
     </row>
-    <row r="1046" spans="1:14" ht="13.2">
+    <row r="1046" spans="1:15" ht="13.2">
       <c r="A1046" s="19">
         <v>171</v>
       </c>
@@ -33100,7 +33360,7 @@
       <c r="I1046" s="36"/>
       <c r="J1046" s="71"/>
     </row>
-    <row r="1047" spans="1:14" ht="13.2">
+    <row r="1047" spans="1:15" ht="13.2">
       <c r="A1047" s="19">
         <v>173</v>
       </c>
@@ -33121,7 +33381,7 @@
       <c r="I1047" s="46"/>
       <c r="J1047" s="73"/>
     </row>
-    <row r="1048" spans="1:14" ht="13.2">
+    <row r="1048" spans="1:15" ht="13.2">
       <c r="A1048" s="19">
         <v>173</v>
       </c>
@@ -33142,7 +33402,7 @@
       <c r="I1048" s="46"/>
       <c r="J1048" s="73"/>
     </row>
-    <row r="1049" spans="1:14" ht="52.8">
+    <row r="1049" spans="1:15" ht="52.8">
       <c r="A1049" s="19">
         <v>173</v>
       </c>
@@ -33167,17 +33427,17 @@
       <c r="K1049" s="82" t="s">
         <v>972</v>
       </c>
-      <c r="L1049" s="82" t="s">
+      <c r="M1049" s="82" t="s">
         <v>1036</v>
       </c>
-      <c r="M1049" s="82" t="s">
+      <c r="N1049" s="82" t="s">
         <v>712</v>
       </c>
-      <c r="N1049" s="88" t="s">
+      <c r="O1049" s="85" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="1050" spans="1:14" ht="13.2">
+    <row r="1050" spans="1:15" ht="13.2">
       <c r="A1050" s="19">
         <v>173</v>
       </c>
@@ -33196,7 +33456,7 @@
       <c r="I1050" s="46"/>
       <c r="J1050" s="73"/>
     </row>
-    <row r="1051" spans="1:14" ht="13.2">
+    <row r="1051" spans="1:15" ht="13.2">
       <c r="A1051" s="19">
         <v>173</v>
       </c>
@@ -33217,7 +33477,7 @@
       <c r="I1051" s="46"/>
       <c r="J1051" s="73"/>
     </row>
-    <row r="1052" spans="1:14" ht="132">
+    <row r="1052" spans="1:15" ht="132">
       <c r="A1052" s="19">
         <v>173</v>
       </c>
@@ -33242,8 +33502,11 @@
       <c r="K1052" s="83" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="1053" spans="1:14" ht="13.2">
+      <c r="L1052" s="83" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:15" ht="13.2">
       <c r="A1053" s="19">
         <v>173</v>
       </c>
@@ -33264,7 +33527,7 @@
       <c r="I1053" s="46"/>
       <c r="J1053" s="73"/>
     </row>
-    <row r="1054" spans="1:14" ht="13.2">
+    <row r="1054" spans="1:15" ht="13.2">
       <c r="A1054" s="19">
         <v>173</v>
       </c>
@@ -33285,7 +33548,7 @@
       <c r="I1054" s="46"/>
       <c r="J1054" s="73"/>
     </row>
-    <row r="1055" spans="1:14" ht="13.2">
+    <row r="1055" spans="1:15" ht="13.2">
       <c r="A1055" s="19">
         <v>173</v>
       </c>
@@ -33306,7 +33569,7 @@
       <c r="I1055" s="46"/>
       <c r="J1055" s="73"/>
     </row>
-    <row r="1056" spans="1:14" ht="13.2">
+    <row r="1056" spans="1:15" ht="13.2">
       <c r="A1056" s="19">
         <v>174</v>
       </c>
@@ -33327,7 +33590,7 @@
       <c r="I1056" s="36"/>
       <c r="J1056" s="71"/>
     </row>
-    <row r="1057" spans="1:14" ht="105.6">
+    <row r="1057" spans="1:15" ht="105.6">
       <c r="A1057" s="19">
         <v>174</v>
       </c>
@@ -33352,17 +33615,17 @@
       <c r="K1057" s="82" t="s">
         <v>973</v>
       </c>
-      <c r="L1057" s="82" t="s">
+      <c r="M1057" s="82" t="s">
         <v>1037</v>
       </c>
-      <c r="M1057" s="82" t="s">
+      <c r="N1057" s="82" t="s">
         <v>714</v>
       </c>
-      <c r="N1057" s="88" t="s">
+      <c r="O1057" s="85" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="1058" spans="1:14" ht="13.2">
+    <row r="1058" spans="1:15" ht="13.2">
       <c r="A1058" s="19">
         <v>174</v>
       </c>
@@ -33383,7 +33646,7 @@
       <c r="I1058" s="36"/>
       <c r="J1058" s="71"/>
     </row>
-    <row r="1059" spans="1:14" ht="39.6">
+    <row r="1059" spans="1:15" ht="138">
       <c r="A1059" s="19">
         <v>174</v>
       </c>
@@ -33406,8 +33669,11 @@
       <c r="K1059" s="83" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="1060" spans="1:14" ht="26.4">
+      <c r="L1059" s="83" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:15" ht="26.4">
       <c r="A1060" s="19">
         <v>174</v>
       </c>
@@ -33431,7 +33697,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="1061" spans="1:14" ht="13.2">
+    <row r="1061" spans="1:15" ht="13.2">
       <c r="A1061" s="19">
         <v>174</v>
       </c>
@@ -33452,7 +33718,7 @@
       <c r="I1061" s="36"/>
       <c r="J1061" s="71"/>
     </row>
-    <row r="1062" spans="1:14" ht="79.2">
+    <row r="1062" spans="1:15" ht="79.2">
       <c r="A1062" s="19">
         <v>174</v>
       </c>
@@ -33478,7 +33744,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="1063" spans="1:14" ht="13.2">
+    <row r="1063" spans="1:15" ht="13.2">
       <c r="A1063" s="19">
         <v>174</v>
       </c>
@@ -33499,7 +33765,7 @@
       <c r="I1063" s="36"/>
       <c r="J1063" s="71"/>
     </row>
-    <row r="1064" spans="1:14" ht="13.2">
+    <row r="1064" spans="1:15" ht="13.2">
       <c r="A1064" s="19">
         <v>174</v>
       </c>
@@ -33520,7 +33786,7 @@
       <c r="I1064" s="36"/>
       <c r="J1064" s="71"/>
     </row>
-    <row r="1065" spans="1:14" ht="26.4">
+    <row r="1065" spans="1:15" ht="26.4">
       <c r="A1065" s="19">
         <v>174</v>
       </c>
@@ -33544,7 +33810,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="1066" spans="1:14" ht="26.4">
+    <row r="1066" spans="1:15" ht="26.4">
       <c r="A1066" s="19">
         <v>179</v>
       </c>
@@ -33565,7 +33831,7 @@
       <c r="I1066" s="46"/>
       <c r="J1066" s="73"/>
     </row>
-    <row r="1067" spans="1:14" ht="26.4">
+    <row r="1067" spans="1:15" ht="26.4">
       <c r="A1067" s="19">
         <v>179</v>
       </c>
@@ -33586,7 +33852,7 @@
       <c r="I1067" s="46"/>
       <c r="J1067" s="73"/>
     </row>
-    <row r="1068" spans="1:14" ht="26.4">
+    <row r="1068" spans="1:15" ht="26.4">
       <c r="A1068" s="19">
         <v>179</v>
       </c>
@@ -33607,7 +33873,7 @@
       <c r="I1068" s="46"/>
       <c r="J1068" s="73"/>
     </row>
-    <row r="1069" spans="1:14" ht="26.4">
+    <row r="1069" spans="1:15" ht="26.4">
       <c r="A1069" s="19">
         <v>179</v>
       </c>
@@ -33628,7 +33894,7 @@
       <c r="I1069" s="46"/>
       <c r="J1069" s="73"/>
     </row>
-    <row r="1070" spans="1:14" ht="26.4">
+    <row r="1070" spans="1:15" ht="26.4">
       <c r="A1070" s="19">
         <v>179</v>
       </c>
@@ -33649,7 +33915,7 @@
       <c r="I1070" s="46"/>
       <c r="J1070" s="73"/>
     </row>
-    <row r="1071" spans="1:14" ht="26.4">
+    <row r="1071" spans="1:15" ht="26.4">
       <c r="A1071" s="19">
         <v>179</v>
       </c>
@@ -33670,7 +33936,7 @@
       <c r="I1071" s="46"/>
       <c r="J1071" s="73"/>
     </row>
-    <row r="1072" spans="1:14" ht="26.4">
+    <row r="1072" spans="1:15" ht="26.4">
       <c r="A1072" s="19">
         <v>179</v>
       </c>
@@ -33691,7 +33957,7 @@
       <c r="I1072" s="46"/>
       <c r="J1072" s="73"/>
     </row>
-    <row r="1073" spans="1:15" ht="26.4">
+    <row r="1073" spans="1:16" ht="26.4">
       <c r="A1073" s="19">
         <v>179</v>
       </c>
@@ -33715,7 +33981,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="1074" spans="1:15" ht="26.4">
+    <row r="1074" spans="1:16" ht="26.4">
       <c r="A1074" s="19">
         <v>179</v>
       </c>
@@ -33736,7 +34002,7 @@
       <c r="I1074" s="46"/>
       <c r="J1074" s="73"/>
     </row>
-    <row r="1075" spans="1:15" ht="105.6">
+    <row r="1075" spans="1:16" ht="105.6">
       <c r="A1075" s="19">
         <v>183</v>
       </c>
@@ -33761,20 +34027,20 @@
       <c r="K1075" s="82" t="s">
         <v>1038</v>
       </c>
-      <c r="L1075" s="82" t="s">
+      <c r="M1075" s="82" t="s">
         <v>1039</v>
       </c>
-      <c r="M1075" s="82" t="s">
+      <c r="N1075" s="82" t="s">
         <v>718</v>
       </c>
-      <c r="N1075" s="88" t="s">
+      <c r="O1075" s="85" t="s">
         <v>1067</v>
       </c>
-      <c r="O1075" s="87" t="s">
+      <c r="P1075" s="84" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="1076" spans="1:15" ht="13.2">
+    <row r="1076" spans="1:16" ht="13.2">
       <c r="A1076" s="19">
         <v>183</v>
       </c>
@@ -33795,7 +34061,7 @@
       <c r="I1076" s="36"/>
       <c r="J1076" s="71"/>
     </row>
-    <row r="1077" spans="1:15" ht="13.2">
+    <row r="1077" spans="1:16" ht="13.2">
       <c r="A1077" s="19">
         <v>183</v>
       </c>
@@ -33816,7 +34082,7 @@
       <c r="I1077" s="36"/>
       <c r="J1077" s="71"/>
     </row>
-    <row r="1078" spans="1:15" ht="13.2">
+    <row r="1078" spans="1:16" ht="13.2">
       <c r="A1078" s="19">
         <v>183</v>
       </c>
@@ -33837,7 +34103,7 @@
       <c r="I1078" s="36"/>
       <c r="J1078" s="71"/>
     </row>
-    <row r="1079" spans="1:15" ht="118.8">
+    <row r="1079" spans="1:16" ht="118.8">
       <c r="A1079" s="19">
         <v>183</v>
       </c>
@@ -33863,7 +34129,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="1080" spans="1:15" ht="13.2">
+    <row r="1080" spans="1:16" ht="13.2">
       <c r="A1080" s="19">
         <v>183</v>
       </c>
@@ -33884,7 +34150,7 @@
       <c r="I1080" s="36"/>
       <c r="J1080" s="71"/>
     </row>
-    <row r="1081" spans="1:15" ht="13.2">
+    <row r="1081" spans="1:16" ht="13.2">
       <c r="A1081" s="19">
         <v>183</v>
       </c>
@@ -33905,7 +34171,7 @@
       <c r="I1081" s="36"/>
       <c r="J1081" s="71"/>
     </row>
-    <row r="1082" spans="1:15" ht="13.2">
+    <row r="1082" spans="1:16" ht="13.2">
       <c r="A1082" s="19">
         <v>183</v>
       </c>
@@ -33924,7 +34190,7 @@
       <c r="I1082" s="36"/>
       <c r="J1082" s="71"/>
     </row>
-    <row r="1083" spans="1:15" ht="41.4">
+    <row r="1083" spans="1:16" ht="41.4">
       <c r="A1083" s="19">
         <v>183</v>
       </c>
@@ -33949,8 +34215,11 @@
       <c r="K1083" s="83" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="1084" spans="1:15" ht="13.2">
+      <c r="L1083" s="83" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:16" ht="13.2">
       <c r="A1084" s="19">
         <v>185</v>
       </c>
@@ -33971,7 +34240,7 @@
       <c r="I1084" s="46"/>
       <c r="J1084" s="73"/>
     </row>
-    <row r="1085" spans="1:15" ht="13.2">
+    <row r="1085" spans="1:16" ht="13.2">
       <c r="A1085" s="19">
         <v>185</v>
       </c>
@@ -33992,7 +34261,7 @@
       <c r="I1085" s="46"/>
       <c r="J1085" s="73"/>
     </row>
-    <row r="1086" spans="1:15" ht="92.4">
+    <row r="1086" spans="1:16" ht="92.4">
       <c r="A1086" s="19">
         <v>185</v>
       </c>
@@ -34018,7 +34287,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="1087" spans="1:15" ht="13.2">
+    <row r="1087" spans="1:16" ht="13.2">
       <c r="A1087" s="19">
         <v>185</v>
       </c>
@@ -34039,7 +34308,7 @@
       <c r="I1087" s="46"/>
       <c r="J1087" s="73"/>
     </row>
-    <row r="1088" spans="1:15" ht="13.2">
+    <row r="1088" spans="1:16" ht="13.2">
       <c r="A1088" s="19">
         <v>185</v>
       </c>
@@ -34060,7 +34329,7 @@
       <c r="I1088" s="46"/>
       <c r="J1088" s="73"/>
     </row>
-    <row r="1089" spans="1:14" ht="69">
+    <row r="1089" spans="1:15" ht="69">
       <c r="A1089" s="19">
         <v>185</v>
       </c>
@@ -34087,8 +34356,11 @@
       <c r="K1089" s="83" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="1090" spans="1:14" ht="13.2">
+      <c r="L1089" s="83" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:15" ht="13.2">
       <c r="A1090" s="19">
         <v>185</v>
       </c>
@@ -34109,7 +34381,7 @@
       <c r="I1090" s="46"/>
       <c r="J1090" s="73"/>
     </row>
-    <row r="1091" spans="1:14" ht="26.4">
+    <row r="1091" spans="1:15" ht="26.4">
       <c r="A1091" s="19">
         <v>185</v>
       </c>
@@ -34135,7 +34407,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="1092" spans="1:14" ht="82.8">
+    <row r="1092" spans="1:15" ht="82.8">
       <c r="A1092" s="19">
         <v>185</v>
       </c>
@@ -34158,8 +34430,9 @@
       <c r="K1092" s="83" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="1093" spans="1:14" ht="13.2">
+      <c r="L1092" s="83"/>
+    </row>
+    <row r="1093" spans="1:15" ht="13.2">
       <c r="A1093" s="19">
         <v>188</v>
       </c>
@@ -34180,7 +34453,7 @@
       <c r="I1093" s="36"/>
       <c r="J1093" s="71"/>
     </row>
-    <row r="1094" spans="1:14" ht="13.2">
+    <row r="1094" spans="1:15" ht="13.2">
       <c r="A1094" s="19">
         <v>188</v>
       </c>
@@ -34201,7 +34474,7 @@
       <c r="I1094" s="36"/>
       <c r="J1094" s="71"/>
     </row>
-    <row r="1095" spans="1:14" ht="13.2">
+    <row r="1095" spans="1:15" ht="13.2">
       <c r="A1095" s="19">
         <v>188</v>
       </c>
@@ -34222,7 +34495,7 @@
       <c r="I1095" s="36"/>
       <c r="J1095" s="71"/>
     </row>
-    <row r="1096" spans="1:14" ht="13.2">
+    <row r="1096" spans="1:15" ht="13.2">
       <c r="A1096" s="19">
         <v>188</v>
       </c>
@@ -34243,7 +34516,7 @@
       <c r="I1096" s="36"/>
       <c r="J1096" s="71"/>
     </row>
-    <row r="1097" spans="1:14" ht="26.4">
+    <row r="1097" spans="1:15" ht="26.4">
       <c r="A1097" s="19">
         <v>188</v>
       </c>
@@ -34269,7 +34542,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="1098" spans="1:14" ht="105.6">
+    <row r="1098" spans="1:15" ht="105.6">
       <c r="A1098" s="19">
         <v>188</v>
       </c>
@@ -34294,17 +34567,17 @@
       <c r="K1098" s="82" t="s">
         <v>983</v>
       </c>
-      <c r="L1098" s="82" t="s">
+      <c r="M1098" s="82" t="s">
         <v>1042</v>
       </c>
-      <c r="M1098" s="82" t="s">
+      <c r="N1098" s="82" t="s">
         <v>722</v>
       </c>
-      <c r="N1098" s="88" t="s">
+      <c r="O1098" s="85" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="1099" spans="1:14" ht="39.6">
+    <row r="1099" spans="1:15" ht="39.6">
       <c r="A1099" s="19">
         <v>188</v>
       </c>
@@ -34330,7 +34603,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="1100" spans="1:14" ht="13.2">
+    <row r="1100" spans="1:15" ht="13.2">
       <c r="A1100" s="19">
         <v>188</v>
       </c>
@@ -34351,7 +34624,7 @@
       <c r="I1100" s="36"/>
       <c r="J1100" s="71"/>
     </row>
-    <row r="1101" spans="1:14" ht="13.2">
+    <row r="1101" spans="1:15" ht="13.2">
       <c r="A1101" s="19">
         <v>188</v>
       </c>
@@ -34372,7 +34645,7 @@
       <c r="I1101" s="36"/>
       <c r="J1101" s="71"/>
     </row>
-    <row r="1102" spans="1:14" ht="13.2">
+    <row r="1102" spans="1:15" ht="13.2">
       <c r="A1102" s="19">
         <v>189</v>
       </c>
@@ -34393,7 +34666,7 @@
       <c r="I1102" s="46"/>
       <c r="J1102" s="73"/>
     </row>
-    <row r="1103" spans="1:14" ht="13.2">
+    <row r="1103" spans="1:15" ht="13.2">
       <c r="A1103" s="19">
         <v>189</v>
       </c>
@@ -34414,7 +34687,7 @@
       <c r="I1103" s="46"/>
       <c r="J1103" s="73"/>
     </row>
-    <row r="1104" spans="1:14" ht="13.2">
+    <row r="1104" spans="1:15" ht="13.2">
       <c r="A1104" s="19">
         <v>189</v>
       </c>
@@ -34433,7 +34706,7 @@
       <c r="I1104" s="46"/>
       <c r="J1104" s="73"/>
     </row>
-    <row r="1105" spans="1:14" ht="52.8">
+    <row r="1105" spans="1:15" ht="52.8">
       <c r="A1105" s="19">
         <v>189</v>
       </c>
@@ -34459,7 +34732,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="1106" spans="1:14" ht="13.2">
+    <row r="1106" spans="1:15" ht="13.2">
       <c r="A1106" s="19">
         <v>189</v>
       </c>
@@ -34480,7 +34753,7 @@
       <c r="I1106" s="46"/>
       <c r="J1106" s="73"/>
     </row>
-    <row r="1107" spans="1:14" ht="13.2">
+    <row r="1107" spans="1:15" ht="13.2">
       <c r="A1107" s="19">
         <v>189</v>
       </c>
@@ -34501,7 +34774,7 @@
       <c r="I1107" s="46"/>
       <c r="J1107" s="73"/>
     </row>
-    <row r="1108" spans="1:14" ht="171.6">
+    <row r="1108" spans="1:15" ht="171.6">
       <c r="A1108" s="19">
         <v>189</v>
       </c>
@@ -34528,17 +34801,20 @@
       <c r="K1108" s="83" t="s">
         <v>1043</v>
       </c>
-      <c r="L1108" s="82" t="s">
+      <c r="L1108" s="83" t="s">
+        <v>1122</v>
+      </c>
+      <c r="M1108" s="82" t="s">
         <v>1044</v>
       </c>
-      <c r="M1108" s="82" t="s">
+      <c r="N1108" s="82" t="s">
         <v>724</v>
       </c>
-      <c r="N1108" s="88" t="s">
+      <c r="O1108" s="85" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="1109" spans="1:14" ht="13.2">
+    <row r="1109" spans="1:15" ht="13.2">
       <c r="A1109" s="19">
         <v>189</v>
       </c>
@@ -34559,7 +34835,7 @@
       <c r="I1109" s="46"/>
       <c r="J1109" s="73"/>
     </row>
-    <row r="1110" spans="1:14" ht="13.2">
+    <row r="1110" spans="1:15" ht="13.2">
       <c r="A1110" s="19">
         <v>189</v>
       </c>
@@ -34580,7 +34856,7 @@
       <c r="I1110" s="46"/>
       <c r="J1110" s="73"/>
     </row>
-    <row r="1111" spans="1:14" ht="13.2">
+    <row r="1111" spans="1:15" ht="13.2">
       <c r="A1111" s="19">
         <v>189</v>
       </c>
@@ -34601,7 +34877,7 @@
       <c r="I1111" s="46"/>
       <c r="J1111" s="73"/>
     </row>
-    <row r="1112" spans="1:14" ht="13.2">
+    <row r="1112" spans="1:15" ht="13.2">
       <c r="A1112" s="19">
         <v>190</v>
       </c>
@@ -34622,7 +34898,7 @@
       <c r="I1112" s="36"/>
       <c r="J1112" s="71"/>
     </row>
-    <row r="1113" spans="1:14" ht="13.8">
+    <row r="1113" spans="1:15" ht="13.8">
       <c r="A1113" s="19">
         <v>190</v>
       </c>
@@ -34647,8 +34923,11 @@
       <c r="K1113" s="83" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="1114" spans="1:14" ht="13.2">
+      <c r="L1113" s="83" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:15" ht="13.2">
       <c r="A1114" s="19">
         <v>190</v>
       </c>
@@ -34669,7 +34948,7 @@
       <c r="I1114" s="36"/>
       <c r="J1114" s="71"/>
     </row>
-    <row r="1115" spans="1:14" ht="13.2">
+    <row r="1115" spans="1:15" ht="13.2">
       <c r="A1115" s="19">
         <v>190</v>
       </c>
@@ -34690,7 +34969,7 @@
       <c r="I1115" s="36"/>
       <c r="J1115" s="71"/>
     </row>
-    <row r="1116" spans="1:14" ht="52.8">
+    <row r="1116" spans="1:15" ht="52.8">
       <c r="A1116" s="19">
         <v>190</v>
       </c>
@@ -34716,7 +34995,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="1117" spans="1:14" ht="13.2">
+    <row r="1117" spans="1:15" ht="13.2">
       <c r="A1117" s="19">
         <v>190</v>
       </c>
@@ -34737,7 +35016,7 @@
       <c r="I1117" s="36"/>
       <c r="J1117" s="71"/>
     </row>
-    <row r="1118" spans="1:14" ht="13.2">
+    <row r="1118" spans="1:15" ht="13.2">
       <c r="A1118" s="19">
         <v>190</v>
       </c>
@@ -34758,7 +35037,7 @@
       <c r="I1118" s="36"/>
       <c r="J1118" s="71"/>
     </row>
-    <row r="1119" spans="1:14" ht="13.2">
+    <row r="1119" spans="1:15" ht="13.2">
       <c r="A1119" s="19">
         <v>190</v>
       </c>
@@ -34779,7 +35058,7 @@
       <c r="I1119" s="36"/>
       <c r="J1119" s="71"/>
     </row>
-    <row r="1120" spans="1:14" ht="26.4">
+    <row r="1120" spans="1:15" ht="26.4">
       <c r="A1120" s="19">
         <v>190</v>
       </c>
@@ -34805,7 +35084,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="1121" spans="1:14" ht="13.2">
+    <row r="1121" spans="1:15" ht="13.2">
       <c r="A1121" s="19">
         <v>191</v>
       </c>
@@ -34826,7 +35105,7 @@
       <c r="I1121" s="46"/>
       <c r="J1121" s="73"/>
     </row>
-    <row r="1122" spans="1:14" ht="66">
+    <row r="1122" spans="1:15" ht="66">
       <c r="A1122" s="19">
         <v>191</v>
       </c>
@@ -34852,7 +35131,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="1123" spans="1:14" ht="13.2">
+    <row r="1123" spans="1:15" ht="13.2">
       <c r="A1123" s="19">
         <v>191</v>
       </c>
@@ -34871,7 +35150,7 @@
       <c r="I1123" s="46"/>
       <c r="J1123" s="73"/>
     </row>
-    <row r="1124" spans="1:14" ht="39.6">
+    <row r="1124" spans="1:15" ht="39.6">
       <c r="A1124" s="19">
         <v>191</v>
       </c>
@@ -34897,7 +35176,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="1125" spans="1:14" ht="13.2">
+    <row r="1125" spans="1:15" ht="13.2">
       <c r="A1125" s="19">
         <v>191</v>
       </c>
@@ -34918,7 +35197,7 @@
       <c r="I1125" s="46"/>
       <c r="J1125" s="73"/>
     </row>
-    <row r="1126" spans="1:14" ht="13.2">
+    <row r="1126" spans="1:15" ht="13.2">
       <c r="A1126" s="19">
         <v>191</v>
       </c>
@@ -34939,7 +35218,7 @@
       <c r="I1126" s="46"/>
       <c r="J1126" s="73"/>
     </row>
-    <row r="1127" spans="1:14" ht="13.2">
+    <row r="1127" spans="1:15" ht="13.2">
       <c r="A1127" s="19">
         <v>191</v>
       </c>
@@ -34960,7 +35239,7 @@
       <c r="I1127" s="46"/>
       <c r="J1127" s="73"/>
     </row>
-    <row r="1128" spans="1:14" ht="198">
+    <row r="1128" spans="1:15" ht="198">
       <c r="A1128" s="19">
         <v>191</v>
       </c>
@@ -34985,17 +35264,17 @@
       <c r="K1128" s="82" t="s">
         <v>1046</v>
       </c>
-      <c r="L1128" s="82" t="s">
+      <c r="M1128" s="82" t="s">
         <v>1047</v>
       </c>
-      <c r="M1128" s="82" t="s">
+      <c r="N1128" s="82" t="s">
         <v>728</v>
       </c>
-      <c r="N1128" s="88" t="s">
+      <c r="O1128" s="85" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="1129" spans="1:14" ht="13.2">
+    <row r="1129" spans="1:15" ht="13.2">
       <c r="A1129" s="19">
         <v>191</v>
       </c>
@@ -35014,7 +35293,7 @@
       <c r="I1129" s="46"/>
       <c r="J1129" s="73"/>
     </row>
-    <row r="1130" spans="1:14" ht="13.2">
+    <row r="1130" spans="1:15" ht="13.2">
       <c r="A1130" s="19">
         <v>191</v>
       </c>
@@ -35035,7 +35314,7 @@
       <c r="I1130" s="46"/>
       <c r="J1130" s="73"/>
     </row>
-    <row r="1131" spans="1:14" ht="13.2">
+    <row r="1131" spans="1:15" ht="13.2">
       <c r="A1131" s="19">
         <v>192</v>
       </c>
@@ -35056,7 +35335,7 @@
       <c r="I1131" s="36"/>
       <c r="J1131" s="71"/>
     </row>
-    <row r="1132" spans="1:14" ht="13.2">
+    <row r="1132" spans="1:15" ht="13.2">
       <c r="A1132" s="19">
         <v>192</v>
       </c>
@@ -35077,7 +35356,7 @@
       <c r="I1132" s="36"/>
       <c r="J1132" s="71"/>
     </row>
-    <row r="1133" spans="1:14" ht="13.2">
+    <row r="1133" spans="1:15" ht="13.2">
       <c r="A1133" s="19">
         <v>192</v>
       </c>
@@ -35096,7 +35375,7 @@
       <c r="I1133" s="36"/>
       <c r="J1133" s="71"/>
     </row>
-    <row r="1134" spans="1:14" ht="13.2">
+    <row r="1134" spans="1:15" ht="13.2">
       <c r="A1134" s="19">
         <v>192</v>
       </c>
@@ -35117,7 +35396,7 @@
       <c r="I1134" s="36"/>
       <c r="J1134" s="71"/>
     </row>
-    <row r="1135" spans="1:14" ht="13.2">
+    <row r="1135" spans="1:15" ht="13.2">
       <c r="A1135" s="19">
         <v>192</v>
       </c>
@@ -35138,7 +35417,7 @@
       <c r="I1135" s="36"/>
       <c r="J1135" s="71"/>
     </row>
-    <row r="1136" spans="1:14" ht="13.2">
+    <row r="1136" spans="1:15" ht="13.2">
       <c r="A1136" s="19">
         <v>192</v>
       </c>
@@ -35159,7 +35438,7 @@
       <c r="I1136" s="36"/>
       <c r="J1136" s="71"/>
     </row>
-    <row r="1137" spans="1:11" ht="13.2">
+    <row r="1137" spans="1:12" ht="13.2">
       <c r="A1137" s="19">
         <v>192</v>
       </c>
@@ -35180,7 +35459,7 @@
       <c r="I1137" s="36"/>
       <c r="J1137" s="71"/>
     </row>
-    <row r="1138" spans="1:11" ht="13.2">
+    <row r="1138" spans="1:12" ht="13.2">
       <c r="A1138" s="19">
         <v>192</v>
       </c>
@@ -35206,7 +35485,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="1139" spans="1:11" ht="13.2">
+    <row r="1139" spans="1:12" ht="13.2">
       <c r="A1139" s="19">
         <v>192</v>
       </c>
@@ -35227,7 +35506,7 @@
       <c r="I1139" s="36"/>
       <c r="J1139" s="71"/>
     </row>
-    <row r="1140" spans="1:11" ht="26.4">
+    <row r="1140" spans="1:12" ht="26.4">
       <c r="A1140" s="19">
         <v>194</v>
       </c>
@@ -35248,7 +35527,7 @@
       <c r="I1140" s="46"/>
       <c r="J1140" s="73"/>
     </row>
-    <row r="1141" spans="1:11" ht="26.4">
+    <row r="1141" spans="1:12" ht="26.4">
       <c r="A1141" s="19">
         <v>194</v>
       </c>
@@ -35269,7 +35548,7 @@
       <c r="I1141" s="46"/>
       <c r="J1141" s="73"/>
     </row>
-    <row r="1142" spans="1:11" ht="26.4">
+    <row r="1142" spans="1:12" ht="26.4">
       <c r="A1142" s="19">
         <v>194</v>
       </c>
@@ -35290,7 +35569,7 @@
       <c r="I1142" s="46"/>
       <c r="J1142" s="73"/>
     </row>
-    <row r="1143" spans="1:11" ht="39.6">
+    <row r="1143" spans="1:12" ht="39.6">
       <c r="A1143" s="19">
         <v>194</v>
       </c>
@@ -35318,7 +35597,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="1144" spans="1:11" ht="26.4">
+    <row r="1144" spans="1:12" ht="26.4">
       <c r="A1144" s="19">
         <v>194</v>
       </c>
@@ -35339,7 +35618,7 @@
       <c r="I1144" s="46"/>
       <c r="J1144" s="73"/>
     </row>
-    <row r="1145" spans="1:11" ht="26.4">
+    <row r="1145" spans="1:12" ht="26.4">
       <c r="A1145" s="19">
         <v>194</v>
       </c>
@@ -35360,7 +35639,7 @@
       <c r="I1145" s="46"/>
       <c r="J1145" s="73"/>
     </row>
-    <row r="1146" spans="1:11" ht="26.4">
+    <row r="1146" spans="1:12" ht="26.4">
       <c r="A1146" s="19">
         <v>194</v>
       </c>
@@ -35381,7 +35660,7 @@
       <c r="I1146" s="46"/>
       <c r="J1146" s="73"/>
     </row>
-    <row r="1147" spans="1:11" ht="66">
+    <row r="1147" spans="1:12" ht="66">
       <c r="A1147" s="19">
         <v>194</v>
       </c>
@@ -35407,7 +35686,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="1148" spans="1:11" ht="26.4">
+    <row r="1148" spans="1:12" ht="26.4">
       <c r="A1148" s="19">
         <v>194</v>
       </c>
@@ -35428,7 +35707,7 @@
       <c r="I1148" s="46"/>
       <c r="J1148" s="73"/>
     </row>
-    <row r="1149" spans="1:11" ht="26.4">
+    <row r="1149" spans="1:12" ht="26.4">
       <c r="A1149" s="19">
         <v>196</v>
       </c>
@@ -35449,7 +35728,7 @@
       <c r="I1149" s="36"/>
       <c r="J1149" s="71"/>
     </row>
-    <row r="1150" spans="1:11" ht="26.4">
+    <row r="1150" spans="1:12" ht="26.4">
       <c r="A1150" s="19">
         <v>196</v>
       </c>
@@ -35470,7 +35749,7 @@
       <c r="I1150" s="36"/>
       <c r="J1150" s="71"/>
     </row>
-    <row r="1151" spans="1:11" ht="26.4">
+    <row r="1151" spans="1:12" ht="26.4">
       <c r="A1151" s="19">
         <v>196</v>
       </c>
@@ -35491,7 +35770,7 @@
       <c r="I1151" s="36"/>
       <c r="J1151" s="71"/>
     </row>
-    <row r="1152" spans="1:11" ht="132">
+    <row r="1152" spans="1:12" ht="132">
       <c r="A1152" s="19">
         <v>196</v>
       </c>
@@ -35515,6 +35794,9 @@
       <c r="J1152" s="71"/>
       <c r="K1152" s="83" t="s">
         <v>987</v>
+      </c>
+      <c r="L1152" s="83" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="1153" spans="1:11" ht="26.4">
@@ -35856,7 +36138,7 @@
       <c r="I1168" s="36"/>
       <c r="J1168" s="71"/>
     </row>
-    <row r="1169" spans="1:14" ht="13.2">
+    <row r="1169" spans="1:15" ht="13.2">
       <c r="A1169" s="19">
         <v>198</v>
       </c>
@@ -35877,7 +36159,7 @@
       <c r="I1169" s="36"/>
       <c r="J1169" s="71"/>
     </row>
-    <row r="1170" spans="1:14" ht="92.4">
+    <row r="1170" spans="1:15" ht="92.4">
       <c r="A1170" s="19">
         <v>198</v>
       </c>
@@ -35905,7 +36187,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="1171" spans="1:14" ht="13.2">
+    <row r="1171" spans="1:15" ht="13.2">
       <c r="A1171" s="19">
         <v>198</v>
       </c>
@@ -35926,7 +36208,7 @@
       <c r="I1171" s="36"/>
       <c r="J1171" s="71"/>
     </row>
-    <row r="1172" spans="1:14" ht="13.2">
+    <row r="1172" spans="1:15" ht="13.2">
       <c r="A1172" s="19">
         <v>198</v>
       </c>
@@ -35947,7 +36229,7 @@
       <c r="I1172" s="36"/>
       <c r="J1172" s="71"/>
     </row>
-    <row r="1173" spans="1:14" ht="13.2">
+    <row r="1173" spans="1:15" ht="13.2">
       <c r="A1173" s="19">
         <v>198</v>
       </c>
@@ -35968,7 +36250,7 @@
       <c r="I1173" s="36"/>
       <c r="J1173" s="71"/>
     </row>
-    <row r="1174" spans="1:14" ht="13.2">
+    <row r="1174" spans="1:15" ht="13.2">
       <c r="A1174" s="19">
         <v>198</v>
       </c>
@@ -35987,7 +36269,7 @@
       <c r="I1174" s="36"/>
       <c r="J1174" s="71"/>
     </row>
-    <row r="1175" spans="1:14" ht="118.8">
+    <row r="1175" spans="1:15" ht="118.8">
       <c r="A1175" s="19">
         <v>198</v>
       </c>
@@ -36010,17 +36292,17 @@
       <c r="K1175" s="82" t="s">
         <v>988</v>
       </c>
-      <c r="L1175" s="82" t="s">
+      <c r="M1175" s="82" t="s">
         <v>1020</v>
       </c>
-      <c r="M1175" s="82" t="s">
+      <c r="N1175" s="82" t="s">
         <v>738</v>
       </c>
-      <c r="N1175" s="88" t="s">
+      <c r="O1175" s="85" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="1176" spans="1:14" ht="26.4">
+    <row r="1176" spans="1:15" ht="26.4">
       <c r="A1176" s="19">
         <v>199</v>
       </c>
@@ -36041,7 +36323,7 @@
       <c r="I1176" s="46"/>
       <c r="J1176" s="73"/>
     </row>
-    <row r="1177" spans="1:14" ht="26.4">
+    <row r="1177" spans="1:15" ht="26.4">
       <c r="A1177" s="19">
         <v>199</v>
       </c>
@@ -36067,7 +36349,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="1178" spans="1:14" ht="39.6">
+    <row r="1178" spans="1:15" ht="39.6">
       <c r="A1178" s="19">
         <v>199</v>
       </c>
@@ -36092,8 +36374,11 @@
       <c r="K1178" s="83" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="1179" spans="1:14" ht="39.6">
+      <c r="L1178" s="83" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:15" ht="39.6">
       <c r="A1179" s="19">
         <v>199</v>
       </c>
@@ -36119,7 +36404,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="1180" spans="1:14" ht="26.4">
+    <row r="1180" spans="1:15" ht="26.4">
       <c r="A1180" s="19">
         <v>199</v>
       </c>
@@ -36140,7 +36425,7 @@
       <c r="I1180" s="46"/>
       <c r="J1180" s="73"/>
     </row>
-    <row r="1181" spans="1:14" ht="118.8">
+    <row r="1181" spans="1:15" ht="118.8">
       <c r="A1181" s="19">
         <v>199</v>
       </c>
@@ -36165,17 +36450,17 @@
       <c r="K1181" s="82" t="s">
         <v>989</v>
       </c>
-      <c r="L1181" s="82" t="s">
+      <c r="M1181" s="82" t="s">
         <v>1048</v>
       </c>
-      <c r="M1181" s="82" t="s">
+      <c r="N1181" s="82" t="s">
         <v>740</v>
       </c>
-      <c r="N1181" s="88" t="s">
+      <c r="O1181" s="85" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="1182" spans="1:14" ht="26.4">
+    <row r="1182" spans="1:15" ht="26.4">
       <c r="A1182" s="19">
         <v>199</v>
       </c>
@@ -36194,7 +36479,7 @@
       <c r="I1182" s="46"/>
       <c r="J1182" s="73"/>
     </row>
-    <row r="1183" spans="1:14" ht="26.4">
+    <row r="1183" spans="1:15" ht="26.4">
       <c r="A1183" s="19">
         <v>199</v>
       </c>
@@ -36220,7 +36505,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="1184" spans="1:14" ht="26.4">
+    <row r="1184" spans="1:15" ht="26.4">
       <c r="A1184" s="19">
         <v>199</v>
       </c>
@@ -36241,7 +36526,7 @@
       <c r="I1184" s="46"/>
       <c r="J1184" s="73"/>
     </row>
-    <row r="1185" spans="1:14" ht="13.2">
+    <row r="1185" spans="1:15" ht="13.2">
       <c r="A1185" s="19">
         <v>200</v>
       </c>
@@ -36262,7 +36547,7 @@
       <c r="I1185" s="36"/>
       <c r="J1185" s="71"/>
     </row>
-    <row r="1186" spans="1:14" ht="13.2">
+    <row r="1186" spans="1:15" ht="13.2">
       <c r="A1186" s="19">
         <v>200</v>
       </c>
@@ -36283,7 +36568,7 @@
       <c r="I1186" s="36"/>
       <c r="J1186" s="71"/>
     </row>
-    <row r="1187" spans="1:14" ht="13.2">
+    <row r="1187" spans="1:15" ht="13.2">
       <c r="A1187" s="19">
         <v>200</v>
       </c>
@@ -36302,7 +36587,7 @@
       <c r="I1187" s="36"/>
       <c r="J1187" s="71"/>
     </row>
-    <row r="1188" spans="1:14" ht="55.2">
+    <row r="1188" spans="1:15" ht="55.2">
       <c r="A1188" s="19">
         <v>200</v>
       </c>
@@ -36327,8 +36612,9 @@
       <c r="K1188" s="83" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="1189" spans="1:14" ht="13.2">
+      <c r="L1188" s="83"/>
+    </row>
+    <row r="1189" spans="1:15" ht="13.2">
       <c r="A1189" s="19">
         <v>200</v>
       </c>
@@ -36349,7 +36635,7 @@
       <c r="I1189" s="36"/>
       <c r="J1189" s="71"/>
     </row>
-    <row r="1190" spans="1:14" ht="13.2">
+    <row r="1190" spans="1:15" ht="13.2">
       <c r="A1190" s="19">
         <v>200</v>
       </c>
@@ -36370,7 +36656,7 @@
       <c r="I1190" s="36"/>
       <c r="J1190" s="71"/>
     </row>
-    <row r="1191" spans="1:14" ht="13.2">
+    <row r="1191" spans="1:15" ht="13.2">
       <c r="A1191" s="19">
         <v>200</v>
       </c>
@@ -36391,7 +36677,7 @@
       <c r="I1191" s="36"/>
       <c r="J1191" s="71"/>
     </row>
-    <row r="1192" spans="1:14" ht="13.2">
+    <row r="1192" spans="1:15" ht="13.2">
       <c r="A1192" s="19">
         <v>200</v>
       </c>
@@ -36412,7 +36698,7 @@
       <c r="I1192" s="36"/>
       <c r="J1192" s="71"/>
     </row>
-    <row r="1193" spans="1:14" ht="13.2">
+    <row r="1193" spans="1:15" ht="13.2">
       <c r="A1193" s="19">
         <v>200</v>
       </c>
@@ -36433,7 +36719,7 @@
       <c r="I1193" s="36"/>
       <c r="J1193" s="71"/>
     </row>
-    <row r="1194" spans="1:14" ht="13.2">
+    <row r="1194" spans="1:15" ht="13.2">
       <c r="A1194" s="19">
         <v>201</v>
       </c>
@@ -36454,7 +36740,7 @@
       <c r="I1194" s="46"/>
       <c r="J1194" s="73"/>
     </row>
-    <row r="1195" spans="1:14" ht="13.2">
+    <row r="1195" spans="1:15" ht="13.2">
       <c r="A1195" s="19">
         <v>201</v>
       </c>
@@ -36475,7 +36761,7 @@
       <c r="I1195" s="46"/>
       <c r="J1195" s="73"/>
     </row>
-    <row r="1196" spans="1:14" ht="66">
+    <row r="1196" spans="1:15" ht="66">
       <c r="A1196" s="19">
         <v>201</v>
       </c>
@@ -36500,17 +36786,17 @@
       <c r="K1196" s="82" t="s">
         <v>1050</v>
       </c>
-      <c r="L1196" s="82" t="s">
+      <c r="M1196" s="82" t="s">
         <v>1049</v>
       </c>
-      <c r="M1196" s="82" t="s">
+      <c r="N1196" s="82" t="s">
         <v>744</v>
       </c>
-      <c r="N1196" s="88" t="s">
+      <c r="O1196" s="85" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="1197" spans="1:14" ht="13.2">
+    <row r="1197" spans="1:15" ht="13.2">
       <c r="A1197" s="19">
         <v>201</v>
       </c>
@@ -36531,7 +36817,7 @@
       <c r="I1197" s="46"/>
       <c r="J1197" s="73"/>
     </row>
-    <row r="1198" spans="1:14" ht="13.2">
+    <row r="1198" spans="1:15" ht="13.2">
       <c r="A1198" s="19">
         <v>201</v>
       </c>
@@ -36552,7 +36838,7 @@
       <c r="I1198" s="46"/>
       <c r="J1198" s="73"/>
     </row>
-    <row r="1199" spans="1:14" ht="13.2">
+    <row r="1199" spans="1:15" ht="13.2">
       <c r="A1199" s="19">
         <v>201</v>
       </c>
@@ -36573,7 +36859,7 @@
       <c r="I1199" s="46"/>
       <c r="J1199" s="73"/>
     </row>
-    <row r="1200" spans="1:14" ht="13.2">
+    <row r="1200" spans="1:15" ht="13.2">
       <c r="A1200" s="19">
         <v>201</v>
       </c>
@@ -36594,7 +36880,7 @@
       <c r="I1200" s="46"/>
       <c r="J1200" s="73"/>
     </row>
-    <row r="1201" spans="1:14" ht="13.2">
+    <row r="1201" spans="1:15" ht="13.2">
       <c r="A1201" s="19">
         <v>201</v>
       </c>
@@ -36615,7 +36901,7 @@
       <c r="I1201" s="46"/>
       <c r="J1201" s="73"/>
     </row>
-    <row r="1202" spans="1:14" ht="13.2">
+    <row r="1202" spans="1:15" ht="13.2">
       <c r="A1202" s="19">
         <v>201</v>
       </c>
@@ -36636,7 +36922,7 @@
       <c r="I1202" s="46"/>
       <c r="J1202" s="73"/>
     </row>
-    <row r="1203" spans="1:14" ht="26.4">
+    <row r="1203" spans="1:15" ht="26.4">
       <c r="A1203" s="19">
         <v>202</v>
       </c>
@@ -36657,7 +36943,7 @@
       <c r="I1203" s="36"/>
       <c r="J1203" s="71"/>
     </row>
-    <row r="1204" spans="1:14" ht="26.4">
+    <row r="1204" spans="1:15" ht="26.4">
       <c r="A1204" s="19">
         <v>202</v>
       </c>
@@ -36678,7 +36964,7 @@
       <c r="I1204" s="36"/>
       <c r="J1204" s="71"/>
     </row>
-    <row r="1205" spans="1:14" ht="26.4">
+    <row r="1205" spans="1:15" ht="26.4">
       <c r="A1205" s="19">
         <v>202</v>
       </c>
@@ -36699,7 +36985,7 @@
       <c r="I1205" s="36"/>
       <c r="J1205" s="71"/>
     </row>
-    <row r="1206" spans="1:14" ht="26.4">
+    <row r="1206" spans="1:15" ht="26.4">
       <c r="A1206" s="19">
         <v>202</v>
       </c>
@@ -36720,7 +37006,7 @@
       <c r="I1206" s="36"/>
       <c r="J1206" s="71"/>
     </row>
-    <row r="1207" spans="1:14" ht="26.4">
+    <row r="1207" spans="1:15" ht="26.4">
       <c r="A1207" s="19">
         <v>202</v>
       </c>
@@ -36741,7 +37027,7 @@
       <c r="I1207" s="36"/>
       <c r="J1207" s="71"/>
     </row>
-    <row r="1208" spans="1:14" ht="26.4">
+    <row r="1208" spans="1:15" ht="26.4">
       <c r="A1208" s="19">
         <v>202</v>
       </c>
@@ -36765,7 +37051,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="1209" spans="1:14" ht="26.4">
+    <row r="1209" spans="1:15" ht="26.4">
       <c r="A1209" s="19">
         <v>202</v>
       </c>
@@ -36786,7 +37072,7 @@
       <c r="I1209" s="36"/>
       <c r="J1209" s="71"/>
     </row>
-    <row r="1210" spans="1:14" ht="26.4">
+    <row r="1210" spans="1:15" ht="26.4">
       <c r="A1210" s="19">
         <v>202</v>
       </c>
@@ -36807,7 +37093,7 @@
       <c r="I1210" s="36"/>
       <c r="J1210" s="71"/>
     </row>
-    <row r="1211" spans="1:14" ht="26.4">
+    <row r="1211" spans="1:15" ht="26.4">
       <c r="A1211" s="19">
         <v>202</v>
       </c>
@@ -36828,7 +37114,7 @@
       <c r="I1211" s="36"/>
       <c r="J1211" s="71"/>
     </row>
-    <row r="1212" spans="1:14" ht="13.2">
+    <row r="1212" spans="1:15" ht="13.2">
       <c r="A1212" s="19">
         <v>203</v>
       </c>
@@ -36849,7 +37135,7 @@
       <c r="I1212" s="46"/>
       <c r="J1212" s="73"/>
     </row>
-    <row r="1213" spans="1:14" ht="13.2">
+    <row r="1213" spans="1:15" ht="13.2">
       <c r="A1213" s="19">
         <v>203</v>
       </c>
@@ -36870,7 +37156,7 @@
       <c r="I1213" s="46"/>
       <c r="J1213" s="73"/>
     </row>
-    <row r="1214" spans="1:14" ht="92.4">
+    <row r="1214" spans="1:15" ht="92.4">
       <c r="A1214" s="19">
         <v>203</v>
       </c>
@@ -36895,17 +37181,17 @@
       <c r="K1214" s="82" t="s">
         <v>992</v>
       </c>
-      <c r="L1214" s="82" t="s">
+      <c r="M1214" s="82" t="s">
         <v>1051</v>
       </c>
-      <c r="M1214" s="82" t="s">
+      <c r="N1214" s="82" t="s">
         <v>748</v>
       </c>
-      <c r="N1214" s="88" t="s">
+      <c r="O1214" s="85" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="1215" spans="1:14" ht="13.2">
+    <row r="1215" spans="1:15" ht="13.2">
       <c r="A1215" s="19">
         <v>203</v>
       </c>
@@ -36926,7 +37212,7 @@
       <c r="I1215" s="46"/>
       <c r="J1215" s="73"/>
     </row>
-    <row r="1216" spans="1:14" ht="13.2">
+    <row r="1216" spans="1:15" ht="13.2">
       <c r="A1216" s="19">
         <v>203</v>
       </c>
@@ -37289,7 +37575,7 @@
       <c r="I1232" s="46"/>
       <c r="J1232" s="73"/>
     </row>
-    <row r="1233" spans="1:11" ht="13.2">
+    <row r="1233" spans="1:12" ht="13.2">
       <c r="A1233" s="19">
         <v>205</v>
       </c>
@@ -37308,7 +37594,7 @@
       <c r="I1233" s="46"/>
       <c r="J1233" s="73"/>
     </row>
-    <row r="1234" spans="1:11" ht="79.2">
+    <row r="1234" spans="1:12" ht="79.2">
       <c r="A1234" s="19">
         <v>205</v>
       </c>
@@ -37335,8 +37621,11 @@
       <c r="K1234" s="83" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="1235" spans="1:11" ht="13.2">
+      <c r="L1234" s="83" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:12" ht="13.2">
       <c r="A1235" s="19">
         <v>205</v>
       </c>
@@ -37357,7 +37646,7 @@
       <c r="I1235" s="46"/>
       <c r="J1235" s="73"/>
     </row>
-    <row r="1236" spans="1:11" ht="13.2">
+    <row r="1236" spans="1:12" ht="13.2">
       <c r="A1236" s="19">
         <v>205</v>
       </c>
@@ -37378,7 +37667,7 @@
       <c r="I1236" s="46"/>
       <c r="J1236" s="73"/>
     </row>
-    <row r="1237" spans="1:11" ht="13.2">
+    <row r="1237" spans="1:12" ht="13.2">
       <c r="A1237" s="19">
         <v>205</v>
       </c>
@@ -37399,7 +37688,7 @@
       <c r="I1237" s="46"/>
       <c r="J1237" s="73"/>
     </row>
-    <row r="1238" spans="1:11" ht="13.2">
+    <row r="1238" spans="1:12" ht="13.2">
       <c r="A1238" s="19">
         <v>205</v>
       </c>
@@ -37420,7 +37709,7 @@
       <c r="I1238" s="46"/>
       <c r="J1238" s="73"/>
     </row>
-    <row r="1239" spans="1:11" ht="13.2">
+    <row r="1239" spans="1:12" ht="13.2">
       <c r="A1239" s="19">
         <v>205</v>
       </c>
@@ -37441,7 +37730,7 @@
       <c r="I1239" s="46"/>
       <c r="J1239" s="73"/>
     </row>
-    <row r="1240" spans="1:11" ht="13.2">
+    <row r="1240" spans="1:12" ht="13.2">
       <c r="A1240" s="19">
         <v>207</v>
       </c>
@@ -37462,7 +37751,7 @@
       <c r="I1240" s="36"/>
       <c r="J1240" s="71"/>
     </row>
-    <row r="1241" spans="1:11" ht="13.2">
+    <row r="1241" spans="1:12" ht="13.2">
       <c r="A1241" s="19">
         <v>207</v>
       </c>
@@ -37483,7 +37772,7 @@
       <c r="I1241" s="36"/>
       <c r="J1241" s="71"/>
     </row>
-    <row r="1242" spans="1:11" ht="13.2">
+    <row r="1242" spans="1:12" ht="13.2">
       <c r="A1242" s="19">
         <v>207</v>
       </c>
@@ -37504,7 +37793,7 @@
       <c r="I1242" s="36"/>
       <c r="J1242" s="71"/>
     </row>
-    <row r="1243" spans="1:11" ht="13.2">
+    <row r="1243" spans="1:12" ht="13.2">
       <c r="A1243" s="19">
         <v>207</v>
       </c>
@@ -37525,7 +37814,7 @@
       <c r="I1243" s="36"/>
       <c r="J1243" s="71"/>
     </row>
-    <row r="1244" spans="1:11" ht="13.2">
+    <row r="1244" spans="1:12" ht="13.2">
       <c r="A1244" s="19">
         <v>207</v>
       </c>
@@ -37546,7 +37835,7 @@
       <c r="I1244" s="36"/>
       <c r="J1244" s="71"/>
     </row>
-    <row r="1245" spans="1:11" ht="13.2">
+    <row r="1245" spans="1:12" ht="13.2">
       <c r="A1245" s="19">
         <v>207</v>
       </c>
@@ -37567,7 +37856,7 @@
       <c r="I1245" s="36"/>
       <c r="J1245" s="71"/>
     </row>
-    <row r="1246" spans="1:11" ht="55.2">
+    <row r="1246" spans="1:12" ht="55.2">
       <c r="A1246" s="19">
         <v>207</v>
       </c>
@@ -37592,8 +37881,11 @@
       <c r="K1246" s="83" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="1247" spans="1:11" ht="13.2">
+      <c r="L1246" s="83" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:12" ht="13.2">
       <c r="A1247" s="19">
         <v>207</v>
       </c>
@@ -37614,7 +37906,7 @@
       <c r="I1247" s="36"/>
       <c r="J1247" s="71"/>
     </row>
-    <row r="1248" spans="1:11" ht="13.2">
+    <row r="1248" spans="1:12" ht="13.2">
       <c r="A1248" s="19">
         <v>207</v>
       </c>
@@ -37979,7 +38271,7 @@
       <c r="I1264" s="36"/>
       <c r="J1264" s="71"/>
     </row>
-    <row r="1265" spans="1:14" ht="13.2">
+    <row r="1265" spans="1:15" ht="13.2">
       <c r="A1265" s="19">
         <v>209</v>
       </c>
@@ -38002,7 +38294,7 @@
       <c r="I1265" s="36"/>
       <c r="J1265" s="71"/>
     </row>
-    <row r="1266" spans="1:14" ht="145.19999999999999">
+    <row r="1266" spans="1:15" ht="145.19999999999999">
       <c r="A1266" s="19">
         <v>209</v>
       </c>
@@ -38029,17 +38321,17 @@
       <c r="K1266" s="82" t="s">
         <v>1055</v>
       </c>
-      <c r="L1266" s="82" t="s">
+      <c r="M1266" s="82" t="s">
         <v>1054</v>
       </c>
-      <c r="M1266" s="82" t="s">
+      <c r="N1266" s="82" t="s">
         <v>758</v>
       </c>
-      <c r="N1266" s="88" t="s">
+      <c r="O1266" s="85" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="1267" spans="1:14" ht="13.2">
+    <row r="1267" spans="1:15" ht="13.2">
       <c r="A1267" s="19">
         <v>212</v>
       </c>
@@ -38060,7 +38352,7 @@
       <c r="I1267" s="46"/>
       <c r="J1267" s="73"/>
     </row>
-    <row r="1268" spans="1:14" ht="13.2">
+    <row r="1268" spans="1:15" ht="13.2">
       <c r="A1268" s="19">
         <v>212</v>
       </c>
@@ -38081,7 +38373,7 @@
       <c r="I1268" s="46"/>
       <c r="J1268" s="73"/>
     </row>
-    <row r="1269" spans="1:14" ht="41.4">
+    <row r="1269" spans="1:15" ht="41.4">
       <c r="A1269" s="19">
         <v>212</v>
       </c>
@@ -38106,8 +38398,9 @@
       <c r="K1269" s="83" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="1270" spans="1:14" ht="13.2">
+      <c r="L1269" s="83"/>
+    </row>
+    <row r="1270" spans="1:15" ht="13.2">
       <c r="A1270" s="19">
         <v>212</v>
       </c>
@@ -38128,7 +38421,7 @@
       <c r="I1270" s="46"/>
       <c r="J1270" s="73"/>
     </row>
-    <row r="1271" spans="1:14" ht="13.2">
+    <row r="1271" spans="1:15" ht="13.2">
       <c r="A1271" s="19">
         <v>212</v>
       </c>
@@ -38149,7 +38442,7 @@
       <c r="I1271" s="46"/>
       <c r="J1271" s="73"/>
     </row>
-    <row r="1272" spans="1:14" ht="110.4">
+    <row r="1272" spans="1:15" ht="110.4">
       <c r="A1272" s="19">
         <v>212</v>
       </c>
@@ -38174,8 +38467,11 @@
       <c r="K1272" s="83" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="1273" spans="1:14" ht="13.2">
+      <c r="L1272" s="83" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:15" ht="13.2">
       <c r="A1273" s="19">
         <v>212</v>
       </c>
@@ -38196,7 +38492,7 @@
       <c r="I1273" s="46"/>
       <c r="J1273" s="73"/>
     </row>
-    <row r="1274" spans="1:14" ht="79.2">
+    <row r="1274" spans="1:15" ht="79.2">
       <c r="A1274" s="19">
         <v>212</v>
       </c>
@@ -38222,7 +38518,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="1275" spans="1:14" ht="13.2">
+    <row r="1275" spans="1:15" ht="13.2">
       <c r="A1275" s="19">
         <v>212</v>
       </c>
@@ -38243,7 +38539,7 @@
       <c r="I1275" s="46"/>
       <c r="J1275" s="73"/>
     </row>
-    <row r="1276" spans="1:14" ht="26.4">
+    <row r="1276" spans="1:15" ht="26.4">
       <c r="A1276" s="19">
         <v>214</v>
       </c>
@@ -38269,7 +38565,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="1277" spans="1:14" ht="26.4">
+    <row r="1277" spans="1:15" ht="26.4">
       <c r="A1277" s="19">
         <v>214</v>
       </c>
@@ -38290,7 +38586,7 @@
       <c r="I1277" s="36"/>
       <c r="J1277" s="71"/>
     </row>
-    <row r="1278" spans="1:14" ht="26.4">
+    <row r="1278" spans="1:15" ht="26.4">
       <c r="A1278" s="19">
         <v>214</v>
       </c>
@@ -38309,7 +38605,7 @@
       <c r="I1278" s="36"/>
       <c r="J1278" s="71"/>
     </row>
-    <row r="1279" spans="1:14" ht="26.4">
+    <row r="1279" spans="1:15" ht="26.4">
       <c r="A1279" s="19">
         <v>214</v>
       </c>
@@ -38335,7 +38631,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="1280" spans="1:14" ht="26.4">
+    <row r="1280" spans="1:15" ht="26.4">
       <c r="A1280" s="19">
         <v>214</v>
       </c>
@@ -38694,7 +38990,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="1297" spans="1:11" ht="13.2">
+    <row r="1297" spans="1:12" ht="13.2">
       <c r="A1297" s="19">
         <v>216</v>
       </c>
@@ -38715,7 +39011,7 @@
       <c r="I1297" s="36"/>
       <c r="J1297" s="71"/>
     </row>
-    <row r="1298" spans="1:11" ht="27.6">
+    <row r="1298" spans="1:12" ht="27.6">
       <c r="A1298" s="19">
         <v>216</v>
       </c>
@@ -38740,8 +39036,11 @@
       <c r="K1298" s="83" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="1299" spans="1:11" ht="13.2">
+      <c r="L1298" s="83" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:12" ht="13.2">
       <c r="A1299" s="19">
         <v>216</v>
       </c>
@@ -38762,7 +39061,7 @@
       <c r="I1299" s="36"/>
       <c r="J1299" s="71"/>
     </row>
-    <row r="1300" spans="1:11" ht="39.6">
+    <row r="1300" spans="1:12" ht="39.6">
       <c r="A1300" s="19">
         <v>216</v>
       </c>
@@ -38788,7 +39087,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="1301" spans="1:11" ht="52.8">
+    <row r="1301" spans="1:12" ht="52.8">
       <c r="A1301" s="19">
         <v>216</v>
       </c>
@@ -38816,7 +39115,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="1302" spans="1:11" ht="13.2">
+    <row r="1302" spans="1:12" ht="13.2">
       <c r="A1302" s="19">
         <v>216</v>
       </c>
@@ -38837,61 +39136,61 @@
       <c r="I1302" s="36"/>
       <c r="J1302" s="71"/>
     </row>
-    <row r="1303" spans="1:11" ht="13.2">
+    <row r="1303" spans="1:12" ht="13.2">
       <c r="G1303" s="28"/>
       <c r="H1303" s="28"/>
       <c r="I1303" s="28"/>
       <c r="J1303" s="81"/>
     </row>
-    <row r="1304" spans="1:11" ht="13.2">
+    <row r="1304" spans="1:12" ht="13.2">
       <c r="G1304" s="28"/>
       <c r="H1304" s="28"/>
       <c r="I1304" s="28"/>
       <c r="J1304" s="81"/>
     </row>
-    <row r="1305" spans="1:11" ht="13.2">
+    <row r="1305" spans="1:12" ht="13.2">
       <c r="G1305" s="28"/>
       <c r="H1305" s="28"/>
       <c r="I1305" s="28"/>
       <c r="J1305" s="81"/>
     </row>
-    <row r="1306" spans="1:11" ht="13.2">
+    <row r="1306" spans="1:12" ht="13.2">
       <c r="G1306" s="28"/>
       <c r="H1306" s="28"/>
       <c r="I1306" s="28"/>
       <c r="J1306" s="81"/>
     </row>
-    <row r="1307" spans="1:11" ht="13.2">
+    <row r="1307" spans="1:12" ht="13.2">
       <c r="G1307" s="28"/>
       <c r="H1307" s="28"/>
       <c r="I1307" s="28"/>
       <c r="J1307" s="81"/>
     </row>
-    <row r="1308" spans="1:11" ht="13.2">
+    <row r="1308" spans="1:12" ht="13.2">
       <c r="G1308" s="28"/>
       <c r="H1308" s="28"/>
       <c r="I1308" s="28"/>
       <c r="J1308" s="81"/>
     </row>
-    <row r="1309" spans="1:11" ht="13.2">
+    <row r="1309" spans="1:12" ht="13.2">
       <c r="G1309" s="28"/>
       <c r="H1309" s="28"/>
       <c r="I1309" s="28"/>
       <c r="J1309" s="81"/>
     </row>
-    <row r="1310" spans="1:11" ht="13.2">
+    <row r="1310" spans="1:12" ht="13.2">
       <c r="G1310" s="28"/>
       <c r="H1310" s="28"/>
       <c r="I1310" s="28"/>
       <c r="J1310" s="81"/>
     </row>
-    <row r="1311" spans="1:11" ht="13.2">
+    <row r="1311" spans="1:12" ht="13.2">
       <c r="G1311" s="28"/>
       <c r="H1311" s="28"/>
       <c r="I1311" s="28"/>
       <c r="J1311" s="81"/>
     </row>
-    <row r="1312" spans="1:11" ht="13.2">
+    <row r="1312" spans="1:12" ht="13.2">
       <c r="G1312" s="28"/>
       <c r="H1312" s="28"/>
       <c r="I1312" s="28"/>
@@ -39548,46 +39847,52 @@
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1" display="https://github.com/OOSTT/OOSTT/commit/81c72778687c32752300ba290eb7e36ae7f2c0fbhttps://github.com/OOSTT/OOSTT/commit/1c20b7085859c170545f3e1efa9bb5c406fbeb44"/>
     <hyperlink ref="J259" r:id="rId2"/>
-    <hyperlink ref="N1266" r:id="rId3"/>
-    <hyperlink ref="N1214" r:id="rId4"/>
-    <hyperlink ref="N1196" r:id="rId5"/>
-    <hyperlink ref="N1181" r:id="rId6"/>
-    <hyperlink ref="N1175" r:id="rId7"/>
-    <hyperlink ref="N1128" r:id="rId8"/>
-    <hyperlink ref="N1108" r:id="rId9"/>
-    <hyperlink ref="N1098" r:id="rId10"/>
-    <hyperlink ref="N1075" r:id="rId11"/>
-    <hyperlink ref="N1057" r:id="rId12"/>
-    <hyperlink ref="N1049" r:id="rId13"/>
-    <hyperlink ref="N1035" r:id="rId14"/>
-    <hyperlink ref="N975" r:id="rId15"/>
-    <hyperlink ref="N957" r:id="rId16"/>
-    <hyperlink ref="N945" r:id="rId17"/>
-    <hyperlink ref="N936" r:id="rId18"/>
-    <hyperlink ref="N894" r:id="rId19"/>
-    <hyperlink ref="N890" r:id="rId20"/>
-    <hyperlink ref="N857" r:id="rId21"/>
-    <hyperlink ref="N848" r:id="rId22"/>
-    <hyperlink ref="N821" r:id="rId23"/>
-    <hyperlink ref="N757" r:id="rId24"/>
-    <hyperlink ref="N752" r:id="rId25"/>
-    <hyperlink ref="N707" r:id="rId26"/>
-    <hyperlink ref="N679" r:id="rId27"/>
-    <hyperlink ref="N664" r:id="rId28"/>
-    <hyperlink ref="N575" r:id="rId29"/>
-    <hyperlink ref="N560" r:id="rId30"/>
-    <hyperlink ref="N538" r:id="rId31"/>
-    <hyperlink ref="N492" r:id="rId32"/>
-    <hyperlink ref="N469" r:id="rId33"/>
-    <hyperlink ref="N448" r:id="rId34"/>
-    <hyperlink ref="N427" r:id="rId35"/>
-    <hyperlink ref="N341" r:id="rId36"/>
-    <hyperlink ref="N313" r:id="rId37"/>
-    <hyperlink ref="N296" r:id="rId38"/>
-    <hyperlink ref="N289" r:id="rId39"/>
+    <hyperlink ref="O1266" r:id="rId3"/>
+    <hyperlink ref="O1214" r:id="rId4"/>
+    <hyperlink ref="O1196" r:id="rId5"/>
+    <hyperlink ref="O1181" r:id="rId6"/>
+    <hyperlink ref="O1175" r:id="rId7"/>
+    <hyperlink ref="O1128" r:id="rId8"/>
+    <hyperlink ref="O1108" r:id="rId9"/>
+    <hyperlink ref="O1098" r:id="rId10"/>
+    <hyperlink ref="O1075" r:id="rId11"/>
+    <hyperlink ref="O1057" r:id="rId12"/>
+    <hyperlink ref="O1049" r:id="rId13"/>
+    <hyperlink ref="O1035" r:id="rId14"/>
+    <hyperlink ref="O975" r:id="rId15"/>
+    <hyperlink ref="O957" r:id="rId16"/>
+    <hyperlink ref="O945" r:id="rId17"/>
+    <hyperlink ref="O936" r:id="rId18"/>
+    <hyperlink ref="O894" r:id="rId19"/>
+    <hyperlink ref="O890" r:id="rId20"/>
+    <hyperlink ref="O857" r:id="rId21"/>
+    <hyperlink ref="O848" r:id="rId22"/>
+    <hyperlink ref="O821" r:id="rId23"/>
+    <hyperlink ref="O757" r:id="rId24"/>
+    <hyperlink ref="O752" r:id="rId25"/>
+    <hyperlink ref="O707" r:id="rId26"/>
+    <hyperlink ref="O679" r:id="rId27"/>
+    <hyperlink ref="O664" r:id="rId28"/>
+    <hyperlink ref="O575" r:id="rId29"/>
+    <hyperlink ref="O560" r:id="rId30"/>
+    <hyperlink ref="O538" r:id="rId31"/>
+    <hyperlink ref="O492" r:id="rId32"/>
+    <hyperlink ref="O469" r:id="rId33"/>
+    <hyperlink ref="O448" r:id="rId34"/>
+    <hyperlink ref="O427" r:id="rId35"/>
+    <hyperlink ref="O341" r:id="rId36"/>
+    <hyperlink ref="O313" r:id="rId37"/>
+    <hyperlink ref="O296" r:id="rId38"/>
+    <hyperlink ref="O289" r:id="rId39"/>
+    <hyperlink ref="O367" r:id="rId40"/>
+    <hyperlink ref="O393" r:id="rId41"/>
+    <hyperlink ref="J457" r:id="rId42"/>
+    <hyperlink ref="J1019" r:id="rId43"/>
+    <hyperlink ref="O332" r:id="rId44"/>
+    <hyperlink ref="O381" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="10" orientation="portrait" r:id="rId40"/>
+  <pageSetup scale="10" orientation="portrait" r:id="rId46"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -39601,8 +39906,8 @@
   </sheetPr>
   <dimension ref="A1:IV144"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B128" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView showGridLines="0" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -39615,12 +39920,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="89" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1">
       <c r="A2" s="17" t="s">

--- a/TermSurveyResponses.xlsx
+++ b/TermSurveyResponses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasbrochhausen/OOSTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD058E96-9A86-B847-BCE7-A005A548D163}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433DC82A-428D-FE4F-9DF1-71F777BE5AC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="3360" windowWidth="33280" windowHeight="17040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1157">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -3535,6 +3535,9 @@
   </si>
   <si>
     <t>There exists an American College of Emergency Physicians, hence there is not action needed.</t>
+  </si>
+  <si>
+    <t>https://github.com/OOSTT/OOSTT/commit/fe051b84d8a2b2feabec213893e46e7d829ac30d</t>
   </si>
 </sst>
 </file>
@@ -10031,8 +10034,8 @@
   <dimension ref="A1:IX1418"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A642" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O646" sqref="O646"/>
+      <pane ySplit="1" topLeftCell="A975" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P998" sqref="P998"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -32210,7 +32213,7 @@
       <c r="I992" s="46"/>
       <c r="J992" s="73"/>
     </row>
-    <row r="993" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+    <row r="993" spans="1:15" ht="28" x14ac:dyDescent="0.15">
       <c r="A993" s="19">
         <v>163</v>
       </c>
@@ -32231,7 +32234,7 @@
       <c r="I993" s="46"/>
       <c r="J993" s="73"/>
     </row>
-    <row r="994" spans="1:12" ht="42" x14ac:dyDescent="0.15">
+    <row r="994" spans="1:15" ht="42" x14ac:dyDescent="0.15">
       <c r="A994" s="19">
         <v>163</v>
       </c>
@@ -32257,7 +32260,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="995" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+    <row r="995" spans="1:15" ht="28" x14ac:dyDescent="0.15">
       <c r="A995" s="19">
         <v>163</v>
       </c>
@@ -32278,7 +32281,7 @@
       <c r="I995" s="46"/>
       <c r="J995" s="73"/>
     </row>
-    <row r="996" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+    <row r="996" spans="1:15" ht="28" x14ac:dyDescent="0.15">
       <c r="A996" s="19">
         <v>163</v>
       </c>
@@ -32299,7 +32302,7 @@
       <c r="I996" s="46"/>
       <c r="J996" s="73"/>
     </row>
-    <row r="997" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+    <row r="997" spans="1:15" ht="28" x14ac:dyDescent="0.15">
       <c r="A997" s="19">
         <v>163</v>
       </c>
@@ -32320,7 +32323,7 @@
       <c r="I997" s="46"/>
       <c r="J997" s="73"/>
     </row>
-    <row r="998" spans="1:12" ht="56" x14ac:dyDescent="0.15">
+    <row r="998" spans="1:15" ht="56" x14ac:dyDescent="0.15">
       <c r="A998" s="19">
         <v>163</v>
       </c>
@@ -32348,8 +32351,11 @@
         <v>963</v>
       </c>
       <c r="L998" s="83"/>
-    </row>
-    <row r="999" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+      <c r="O998" s="82" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="999" spans="1:15" ht="28" x14ac:dyDescent="0.15">
       <c r="A999" s="19">
         <v>163</v>
       </c>
@@ -32375,7 +32381,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="1000" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+    <row r="1000" spans="1:15" ht="28" x14ac:dyDescent="0.15">
       <c r="A1000" s="19">
         <v>163</v>
       </c>
@@ -32396,7 +32402,7 @@
       <c r="I1000" s="46"/>
       <c r="J1000" s="73"/>
     </row>
-    <row r="1001" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="1001" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A1001" s="19">
         <v>164</v>
       </c>
@@ -32417,7 +32423,7 @@
       <c r="I1001" s="36"/>
       <c r="J1001" s="71"/>
     </row>
-    <row r="1002" spans="1:12" ht="70" x14ac:dyDescent="0.15">
+    <row r="1002" spans="1:15" ht="70" x14ac:dyDescent="0.15">
       <c r="A1002" s="19">
         <v>164</v>
       </c>
@@ -32443,7 +32449,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="1003" spans="1:12" ht="30" x14ac:dyDescent="0.15">
+    <row r="1003" spans="1:15" ht="30" x14ac:dyDescent="0.15">
       <c r="A1003" s="19">
         <v>164</v>
       </c>
@@ -32472,7 +32478,7 @@
       </c>
       <c r="L1003" s="83"/>
     </row>
-    <row r="1004" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="1004" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A1004" s="19">
         <v>164</v>
       </c>
@@ -32500,7 +32506,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="1005" spans="1:12" ht="28" x14ac:dyDescent="0.15">
+    <row r="1005" spans="1:15" ht="28" x14ac:dyDescent="0.15">
       <c r="A1005" s="19">
         <v>164</v>
       </c>
@@ -32526,7 +32532,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="1006" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="1006" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A1006" s="19">
         <v>164</v>
       </c>
@@ -32547,7 +32553,7 @@
       <c r="I1006" s="36"/>
       <c r="J1006" s="71"/>
     </row>
-    <row r="1007" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="1007" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A1007" s="19">
         <v>164</v>
       </c>
@@ -32568,7 +32574,7 @@
       <c r="I1007" s="36"/>
       <c r="J1007" s="71"/>
     </row>
-    <row r="1008" spans="1:12" ht="14" x14ac:dyDescent="0.15">
+    <row r="1008" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A1008" s="19">
         <v>164</v>
       </c>
